--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="0" windowWidth="25294" windowHeight="12549" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="4020" yWindow="0" windowWidth="24300" windowHeight="17100" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="choices" sheetId="6" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
   <si>
     <t>comments</t>
   </si>
@@ -117,9 +117,6 @@
     <t>exampleForm</t>
   </si>
   <si>
-    <t>household_new</t>
-  </si>
-  <si>
     <t>imnci_test</t>
   </si>
   <si>
@@ -246,9 +243,6 @@
     <t>'?' + opendatakit.getHashString('../config/tables/exampleForm/forms/exampleForm/',null)</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/household/forms/household_new/',null)</t>
-  </si>
-  <si>
     <t>'?' + opendatakit.getHashString('../config/tables/imnci/forms/imnci_test/',null)</t>
   </si>
   <si>
@@ -292,6 +286,15 @@
   </si>
   <si>
     <t>'?' + opendatakit.getHashString('../config/tables/eonasdan/forms/eonasdan/',null)</t>
+  </si>
+  <si>
+    <t>table_id</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/household/forms/household/',null)</t>
   </si>
 </sst>
 </file>
@@ -819,13 +822,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.84375" customWidth="1"/>
-    <col min="2" max="2" width="20.84375" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -833,7 +836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1">
       <c r="B2" t="s">
         <v>17</v>
       </c>
@@ -852,27 +855,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.15234375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="101.15234375" customWidth="1"/>
-    <col min="3" max="3" width="22.23046875" customWidth="1"/>
-    <col min="4" max="4" width="46.15234375" customWidth="1"/>
+    <col min="2" max="2" width="101.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.84375" customWidth="1"/>
-    <col min="8" max="8" width="31.4609375" customWidth="1"/>
-    <col min="9" max="9" width="22.15234375" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="8" max="8" width="31.5" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>16</v>
@@ -884,7 +887,7 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -894,7 +897,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -903,7 +906,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1">
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -911,16 +914,16 @@
         <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1">
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -931,547 +934,547 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1">
       <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1">
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1">
       <c r="A8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
       <c r="A11" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.5" customHeight="1">
       <c r="A17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="66" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.5" customHeight="1">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="66" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.25" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.5" customHeight="1">
       <c r="A26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="66" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.25" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.5" customHeight="1">
       <c r="A29" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="66" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.25" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.5" customHeight="1">
       <c r="A32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="66" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.25" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.5" customHeight="1">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="66" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.25" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.5" customHeight="1">
       <c r="A38" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="66" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.25" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.5" customHeight="1">
       <c r="A41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="66" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.25" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.5" customHeight="1">
       <c r="A44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="66" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.25" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.5" customHeight="1">
       <c r="A47" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="66" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.25" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.5" customHeight="1">
       <c r="A50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="66" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G51" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.25" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.5" customHeight="1">
       <c r="A53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="66" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G54" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.25" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.5" customHeight="1">
       <c r="A56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="66" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.25" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.5" customHeight="1">
       <c r="A59" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="66" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.25" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.5" customHeight="1">
       <c r="A62" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="66" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G63" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.25" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.5" customHeight="1">
       <c r="A65" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="66" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.25" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.5" customHeight="1">
       <c r="A68" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="66" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.25" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.5" customHeight="1">
       <c r="A71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="66" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.25" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1487,19 +1490,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.15234375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="24.69140625" customWidth="1"/>
-    <col min="4" max="4" width="41.23046875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1513,101 +1516,110 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:5" ht="28" customHeight="1">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="b">
+      <c r="E5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1"/>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" ht="18.75" customHeight="1">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="12.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" ht="12.75" customHeight="1">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="22" spans="1:3" ht="12.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1">
       <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:3" ht="12.75" customHeight="1">
       <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1623,18 +1635,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="18.4609375" customWidth="1"/>
-    <col min="2" max="2" width="22.23046875" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1645,18 +1657,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
       </c>
-      <c r="C2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1667,18 +1679,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1700,191 +1712,191 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="s">
         <v>31</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
         <v>32</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>33</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="11" spans="1:3">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="s">
         <v>35</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>52</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>65</v>
-      </c>
-      <c r="C23" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="0" windowWidth="24300" windowHeight="17100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4220" yWindow="1340" windowWidth="24300" windowHeight="17100" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
   <si>
     <t>comments</t>
   </si>
@@ -295,6 +295,51 @@
   </si>
   <si>
     <t>'?' + opendatakit.getHashString('../config/tables/household/forms/household/',null)</t>
+  </si>
+  <si>
+    <t>screenClient</t>
+  </si>
+  <si>
+    <t>Screen Female Client</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/screenClient/',null)</t>
+  </si>
+  <si>
+    <t>client6Week</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Week/',null)</t>
+  </si>
+  <si>
+    <t>Client 6 Week</t>
+  </si>
+  <si>
+    <t>client6Month</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Month/',null)</t>
+  </si>
+  <si>
+    <t>Client 6 Month</t>
+  </si>
+  <si>
+    <t>screenPartner</t>
+  </si>
+  <si>
+    <t>Screen Partner</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/screenPartner/',null)</t>
+  </si>
+  <si>
+    <t>partner6Month</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/partner6Month/',null)</t>
+  </si>
+  <si>
+    <t>Partner 6 Month</t>
   </si>
 </sst>
 </file>
@@ -342,8 +387,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="79">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -438,7 +495,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="79">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -478,6 +535,12 @@
     <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -517,6 +580,12 @@
     <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -853,10 +922,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I73"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="B80" sqref="B80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1470,10 +1539,130 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.25" customHeight="1">
+    <row r="73" spans="1:7" ht="17" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A74" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="62" customHeight="1">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E75" t="s">
+        <v>39</v>
+      </c>
+      <c r="G75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A77" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="62" customHeight="1">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="12" customHeight="1">
+      <c r="A80" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="58" customHeight="1">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="12" customHeight="1">
+      <c r="A83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="58" customHeight="1">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E84" t="s">
+        <v>39</v>
+      </c>
+      <c r="G84" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="12" customHeight="1">
+      <c r="A86" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="58" customHeight="1">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E87" t="s">
+        <v>39</v>
+      </c>
+      <c r="G87" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.75" customHeight="1">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1633,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1899,6 +2088,61 @@
         <v>65</v>
       </c>
     </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="49160" windowHeight="24680" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="49160" windowHeight="24680" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>comments</t>
   </si>
@@ -199,6 +199,24 @@
   </si>
   <si>
     <t>table_id</t>
+  </si>
+  <si>
+    <t>distribution_summary</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/distribution/forms/distribution/',null)</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/deployment/forms/deployment/',null)</t>
+  </si>
+  <si>
+    <t>deployment</t>
+  </si>
+  <si>
+    <t>Red Cross Distribution Summary</t>
+  </si>
+  <si>
+    <t>Red Cross Deployment</t>
   </si>
 </sst>
 </file>
@@ -251,8 +269,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="107">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -382,7 +408,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="107">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -436,6 +462,10 @@
     <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -489,6 +519,10 @@
     <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -827,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I73"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A34" sqref="A33:A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1093,62 +1127,94 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1"/>
-    <row r="30" spans="1:7" ht="66" customHeight="1">
+    <row r="29" spans="1:7" ht="50" customHeight="1">
+      <c r="A29" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:7" ht="148" customHeight="1">
       <c r="A30" s="5"/>
-      <c r="B30" s="6"/>
+      <c r="B30" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="31" spans="1:7" ht="17" customHeight="1">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1"/>
-    <row r="33" spans="1:2" ht="66" customHeight="1">
+      <c r="C31" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="50" customHeight="1">
+      <c r="A32" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="5"/>
+    </row>
+    <row r="33" spans="1:7" ht="148" customHeight="1">
       <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="1:2" ht="17" customHeight="1">
+      <c r="B33" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17" customHeight="1">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
-    </row>
-    <row r="35" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="36" spans="1:2" ht="66" customHeight="1">
+      <c r="C34" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.5" customHeight="1"/>
+    <row r="36" spans="1:7" ht="66" customHeight="1">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:2" ht="17" customHeight="1">
+    <row r="37" spans="1:7" ht="17" customHeight="1">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
     </row>
-    <row r="38" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="39" spans="1:2" ht="66" customHeight="1">
+    <row r="38" spans="1:7" ht="17.5" customHeight="1"/>
+    <row r="39" spans="1:7" ht="66" customHeight="1">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
     </row>
-    <row r="40" spans="1:2" ht="17" customHeight="1">
+    <row r="40" spans="1:7" ht="17" customHeight="1">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
     </row>
-    <row r="41" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="42" spans="1:2" ht="66" customHeight="1">
+    <row r="41" spans="1:7" ht="17.5" customHeight="1"/>
+    <row r="42" spans="1:7" ht="66" customHeight="1">
       <c r="A42" s="5"/>
       <c r="B42" s="6"/>
     </row>
-    <row r="43" spans="1:2" ht="17" customHeight="1">
+    <row r="43" spans="1:7" ht="17" customHeight="1">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
     </row>
-    <row r="44" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="45" spans="1:2" ht="66" customHeight="1">
+    <row r="44" spans="1:7" ht="17.5" customHeight="1"/>
+    <row r="45" spans="1:7" ht="66" customHeight="1">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
     </row>
-    <row r="46" spans="1:2" ht="17" customHeight="1">
+    <row r="46" spans="1:7" ht="17" customHeight="1">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
     </row>
-    <row r="47" spans="1:2" ht="17.5" customHeight="1"/>
-    <row r="48" spans="1:2" ht="66" customHeight="1">
+    <row r="47" spans="1:7" ht="17.5" customHeight="1"/>
+    <row r="48" spans="1:7" ht="66" customHeight="1">
       <c r="A48" s="5"/>
       <c r="B48" s="6"/>
     </row>
@@ -1243,7 +1309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1384,10 +1450,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="21" x14ac:dyDescent="0"/>
@@ -1486,6 +1552,28 @@
         <v>50</v>
       </c>
     </row>
+    <row r="9" spans="1:3" ht="42">
+      <c r="A9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegan/Documents/app-designer/app/config/assets/framework/forms/framework/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1340" windowWidth="24300" windowHeight="17100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -14,6 +19,9 @@
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -22,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
   <si>
     <t>comments</t>
   </si>
@@ -340,6 +348,15 @@
   </si>
   <si>
     <t>Partner 6 Month</t>
+  </si>
+  <si>
+    <t>health_facility</t>
+  </si>
+  <si>
+    <t>'?' + opendatakit.getHashString('../config/tables/health_facility/forms/health_facility/',null)</t>
+  </si>
+  <si>
+    <t>Health Facility</t>
   </si>
 </sst>
 </file>
@@ -891,13 +908,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.83203125" customWidth="1"/>
     <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -905,30 +922,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="101.1640625" customWidth="1"/>
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
@@ -939,7 +951,7 @@
     <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>36</v>
       </c>
@@ -966,7 +978,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>20</v>
       </c>
@@ -975,7 +987,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>24</v>
       </c>
@@ -986,13 +998,13 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1003,23 +1015,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>67</v>
@@ -1031,20 +1043,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>68</v>
@@ -1056,20 +1068,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>69</v>
@@ -1081,20 +1093,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1">
+    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>70</v>
@@ -1106,20 +1118,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1">
+    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1">
+    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>71</v>
@@ -1131,19 +1143,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1">
+    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1">
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>72</v>
@@ -1155,19 +1167,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.5" customHeight="1">
+    <row r="26" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>90</v>
@@ -1179,19 +1191,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1">
+    <row r="29" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1">
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>73</v>
@@ -1203,19 +1215,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1">
+    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1">
+    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>74</v>
@@ -1227,19 +1239,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.5" customHeight="1">
+    <row r="35" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1">
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>75</v>
@@ -1251,19 +1263,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.5" customHeight="1">
+    <row r="38" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1">
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>76</v>
@@ -1275,19 +1287,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1">
+    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1">
+    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>77</v>
@@ -1299,19 +1311,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.5" customHeight="1">
+    <row r="44" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1">
+    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>78</v>
@@ -1323,19 +1335,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.5" customHeight="1">
+    <row r="47" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1">
+    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>79</v>
@@ -1347,19 +1359,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.5" customHeight="1">
+    <row r="50" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1">
+    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>80</v>
@@ -1371,19 +1383,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.5" customHeight="1">
+    <row r="53" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1">
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>81</v>
@@ -1395,19 +1407,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.5" customHeight="1">
+    <row r="56" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1">
+    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>82</v>
@@ -1419,19 +1431,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.5" customHeight="1">
+    <row r="59" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1">
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>83</v>
@@ -1443,19 +1455,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.5" customHeight="1">
+    <row r="62" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1">
+    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>84</v>
@@ -1467,19 +1479,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.5" customHeight="1">
+    <row r="65" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1">
+    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
         <v>85</v>
@@ -1491,19 +1503,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.5" customHeight="1">
+    <row r="68" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1">
+    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>86</v>
@@ -1515,19 +1527,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.5" customHeight="1">
+    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="66" customHeight="1">
+    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>87</v>
@@ -1539,19 +1551,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17" customHeight="1">
+    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1">
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="62" customHeight="1">
+    <row r="75" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
         <v>93</v>
@@ -1563,19 +1575,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1">
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="62" customHeight="1">
+    <row r="78" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>95</v>
@@ -1587,19 +1599,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1">
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12" customHeight="1">
+    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="58" customHeight="1">
+    <row r="81" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>98</v>
@@ -1611,19 +1623,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1">
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12" customHeight="1">
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="58" customHeight="1">
+    <row r="84" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>102</v>
@@ -1635,19 +1647,19 @@
         <v>40</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1">
+    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12" customHeight="1">
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="58" customHeight="1">
+    <row r="87" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
         <v>104</v>
@@ -1659,21 +1671,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1">
+    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="3"/>
+      <c r="B90" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" t="s">
+        <v>39</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1685,13 +1716,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="24.6640625" customWidth="1"/>
     <col min="4" max="4" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1708,7 +1739,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>88</v>
       </c>
@@ -1717,7 +1748,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1729,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1771,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28" customHeight="1">
+    <row r="5" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1754,88 +1785,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1">
+    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1"/>
     </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
+    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1"/>
     </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
+    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -1846,7 +1872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>27</v>
       </c>
@@ -1868,7 +1894,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
@@ -1879,7 +1905,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>27</v>
       </c>
@@ -1890,7 +1916,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -1901,7 +1927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
@@ -1912,7 +1938,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>27</v>
       </c>
@@ -1923,7 +1949,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -1934,7 +1960,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>27</v>
       </c>
@@ -1945,7 +1971,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1956,7 +1982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -1967,7 +1993,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>27</v>
       </c>
@@ -1978,7 +2004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
@@ -1989,7 +2015,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>27</v>
       </c>
@@ -2000,7 +2026,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>27</v>
       </c>
@@ -2011,7 +2037,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>27</v>
       </c>
@@ -2022,7 +2048,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>27</v>
       </c>
@@ -2033,7 +2059,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>27</v>
       </c>
@@ -2044,7 +2070,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
@@ -2055,7 +2081,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>27</v>
       </c>
@@ -2066,7 +2092,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -2077,7 +2103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2088,7 +2114,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2099,7 +2125,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2136,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -2121,7 +2147,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -2132,7 +2158,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2141,15 +2167,21 @@
       </c>
       <c r="C28" t="s">
         <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\assets\framework\forms\framework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1340" windowWidth="24300" windowHeight="17100" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="choices" sheetId="6" r:id="rId4"/>
+    <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
   <si>
     <t>comments</t>
   </si>
@@ -69,18 +75,12 @@
     <t>The title of the 'survey' section (a.k.a. form title)</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
     <t>do section survey</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -340,13 +340,400 @@
   </si>
   <si>
     <t>Partner 6 Month</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>acknLabel</t>
+  </si>
+  <si>
+    <t>Acknowledge</t>
+  </si>
+  <si>
+    <t>स्वीकार करना</t>
+  </si>
+  <si>
+    <t>Deselect</t>
+  </si>
+  <si>
+    <t>अचयनित</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Choose Option</t>
+  </si>
+  <si>
+    <t>requiredValueErr</t>
+  </si>
+  <si>
+    <t>Required value was not provided.</t>
+  </si>
+  <si>
+    <t>सामान्य जावास्क्रिप्ट फ़्रेमवर्क</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English (as hindi name)</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hindi (as hindi name)</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>invalid_value_message</t>
+  </si>
+  <si>
+    <t>required_message</t>
+  </si>
+  <si>
+    <t>Constraint violated.</t>
+  </si>
+  <si>
+    <t>Invalid value.</t>
+  </si>
+  <si>
+    <t>Required value not provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception while evaluating required() expression. See console log. </t>
+  </si>
+  <si>
+    <t>required_exception_message</t>
+  </si>
+  <si>
+    <t>Exception while evaluating constraint() expression. See console log.</t>
+  </si>
+  <si>
+    <t>constraint_exception_message</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>text.hindi</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.title.text.hindi</t>
+  </si>
+  <si>
+    <t>display.locale.text</t>
+  </si>
+  <si>
+    <t>display.locale.text.hindi</t>
+  </si>
+  <si>
+    <t>Record Location</t>
+  </si>
+  <si>
+    <t>geopoint_button_label</t>
+  </si>
+  <si>
+    <t>Latitude: {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>Longitude: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>Altitude: {{value.altitude}}</t>
+  </si>
+  <si>
+    <t>Accuracy: {{value.accuracy}}</t>
+  </si>
+  <si>
+    <t>geopoint_latitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_longitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_altitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_accuracy_component</t>
+  </si>
+  <si>
+    <t>waiting_text</t>
+  </si>
+  <si>
+    <t>Please wait…</t>
+  </si>
+  <si>
+    <t>take_video_button_label</t>
+  </si>
+  <si>
+    <t>Take Video</t>
+  </si>
+  <si>
+    <t>choose_video_button_label</t>
+  </si>
+  <si>
+    <t>Choose Video</t>
+  </si>
+  <si>
+    <t>video_control_not_supported</t>
+  </si>
+  <si>
+    <t>Video controls are not supported.</t>
+  </si>
+  <si>
+    <t>take_audio_button_label</t>
+  </si>
+  <si>
+    <t>Capture Audio</t>
+  </si>
+  <si>
+    <t>choose_audio_button_label</t>
+  </si>
+  <si>
+    <t>Choose Audio</t>
+  </si>
+  <si>
+    <t>audio_control_not_supported</t>
+  </si>
+  <si>
+    <t>Audio controls are not supported.</t>
+  </si>
+  <si>
+    <t>confirm_action_no_label</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>confirm_action_yes_label</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>back_button_label</t>
+  </si>
+  <si>
+    <t>next_button_label</t>
+  </si>
+  <si>
+    <t>continue_button_label</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Follow link</t>
+  </si>
+  <si>
+    <t>external_link_button_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You are at the end of instance: &lt;/p&gt;&lt;p&gt;"{{display_field}}"&lt;/p&gt;&lt;hr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;center&gt;ODK Survey&lt;/center&gt;&lt;hr&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;Form name: {{localizeText form_title}}&lt;/p&gt;{{#if form_version}}&lt;p&gt;Form version: {{form_version}}&lt;/p&gt;{{/if}}&lt;hr&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>finalize_survey_instance_detail</t>
+  </si>
+  <si>
+    <t>finalize_survey_button_label</t>
+  </si>
+  <si>
+    <t>Finalize</t>
+  </si>
+  <si>
+    <t>save_as_incomplete_survey_button_label</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>take_image_button_label</t>
+  </si>
+  <si>
+    <t>choose_image_button_label</t>
+  </si>
+  <si>
+    <t>Choose Image</t>
+  </si>
+  <si>
+    <t>Take Photo</t>
+  </si>
+  <si>
+    <t>launch_intent_button_label</t>
+  </si>
+  <si>
+    <t>Launch Intent</t>
+  </si>
+  <si>
+    <t>survey_form_identification</t>
+  </si>
+  <si>
+    <t>opening_survey_instance_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {{#if display_field}}
+        &lt;p&gt;You are at the start of instance: &lt;/p&gt;
+        &lt;p&gt;"{{display_field}}"&lt;/p&gt; 
+  {{else}}
+        &lt;p&gt;You are at the start of a new instance.&lt;/p&gt;
+  {{/if}}
+        &lt;hr&gt;
+        {{#if last_save_date}}
+            &lt;p&gt;Last saved:&lt;/p&gt; 
+            &lt;p&gt;{{last_save_date}}&lt;/p&gt;
+        {{/if}}
+        &lt;hr&gt;
+</t>
+  </si>
+  <si>
+    <t>opening_survey_next_button_label</t>
+  </si>
+  <si>
+    <t>Go to next prompt</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>options_popup_contents_heading</t>
+  </si>
+  <si>
+    <t>options_popup_language_heading</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>options_popup_ignore_changes_heading</t>
+  </si>
+  <si>
+    <t>Ignore Changes + Exit</t>
+  </si>
+  <si>
+    <t>options_popup_save_changes_heading</t>
+  </si>
+  <si>
+    <t>Save Changes + Exit</t>
+  </si>
+  <si>
+    <t>options_popup_finalize_changes_heading</t>
+  </si>
+  <si>
+    <t>Finalize Changes + Exit</t>
+  </si>
+  <si>
+    <t>screen_popup_ok_button_label</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>select_with_other_other_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: </t>
+  </si>
+  <si>
+    <t>select_deselect_label</t>
+  </si>
+  <si>
+    <t>select_one_dropdown_label</t>
+  </si>
+  <si>
+    <t>take_signature_button_label</t>
+  </si>
+  <si>
+    <t>instances_survey_create_button_label</t>
+  </si>
+  <si>
+    <t>Create new instance</t>
+  </si>
+  <si>
+    <t>instances_no_saved_instances_label</t>
+  </si>
+  <si>
+    <t>No saved instances.</t>
+  </si>
+  <si>
+    <t>instances_last_save_date_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Last Save Date:&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>instances_previously_created_instances_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Previously created instances:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>savepoint_type_finalized_text_label</t>
+  </si>
+  <si>
+    <t>savepoint_type_incomplete_text_label</t>
+  </si>
+  <si>
+    <t>savepoint_type_checkpoint_text_label</t>
+  </si>
+  <si>
+    <t>linked_table_new_instance_label</t>
+  </si>
+  <si>
+    <t>barcode_button_label</t>
+  </si>
+  <si>
+    <t>Get Signature</t>
+  </si>
+  <si>
+    <t>Scan Barcode</t>
+  </si>
+  <si>
+    <t>आगामी</t>
+  </si>
+  <si>
+    <t>लौटना</t>
+  </si>
+  <si>
+    <t>जारी रहना</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -369,6 +756,13 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -480,7 +874,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -492,6 +886,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -593,6 +990,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -887,27 +1287,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
-      <c r="B2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -924,75 +1324,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="B80" sqref="B80"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="101.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>134</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>135</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1">
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1003,667 +1403,667 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+    <row r="6" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1">
+    <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.5" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="66" customHeight="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="62" customHeight="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="62" customHeight="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="12" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="58" customHeight="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="12" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="58" customHeight="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="12" customHeight="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="58" customHeight="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1679,19 +2079,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="3" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1699,48 +2099,63 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>136</v>
       </c>
       <c r="D1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28" customHeight="1">
+    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1748,67 +2163,102 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="b">
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1"/>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E8" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1">
+    </row>
+    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1">
+    <row r="15" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1">
+    </row>
+    <row r="18" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1">
+    <row r="21" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1">
+    </row>
+    <row r="24" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1824,323 +2274,323 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
         <v>89</v>
       </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" t="s">
-        <v>91</v>
-      </c>
       <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>94</v>
       </c>
-      <c r="C25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
         <v>97</v>
       </c>
-      <c r="C26" t="s">
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>100</v>
-      </c>
-      <c r="C27" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>103</v>
-      </c>
-      <c r="C28" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2152,4 +2602,475 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>147</v>
+      </c>
+      <c r="B15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>158</v>
+      </c>
+      <c r="B22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>164</v>
+      </c>
+      <c r="B25" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>187</v>
+      </c>
+      <c r="B28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>177</v>
+      </c>
+      <c r="B30" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>179</v>
+      </c>
+      <c r="B31" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>181</v>
+      </c>
+      <c r="B33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>182</v>
+      </c>
+      <c r="B34" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>196</v>
+      </c>
+      <c r="B40" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>200</v>
+      </c>
+      <c r="B42" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>204</v>
+      </c>
+      <c r="B44" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>206</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>208</v>
+      </c>
+      <c r="B46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>209</v>
+      </c>
+      <c r="B47" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>211</v>
+      </c>
+      <c r="B48" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>215</v>
+      </c>
+      <c r="B50" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>219</v>
+      </c>
+      <c r="B51" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>220</v>
+      </c>
+      <c r="B52" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>221</v>
+      </c>
+      <c r="B53" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>223</v>
+      </c>
+      <c r="B55" t="s">
+        <v>225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="4"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -378,9 +378,6 @@
     <t>सामान्य जावास्क्रिप्ट फ़्रेमवर्क</t>
   </si>
   <si>
-    <t>default</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
@@ -438,13 +435,7 @@
     <t>display.hint.text</t>
   </si>
   <si>
-    <t>display.title.text</t>
-  </si>
-  <si>
     <t>display.title.text.hindi</t>
-  </si>
-  <si>
-    <t>display.locale.text</t>
   </si>
   <si>
     <t>display.locale.text.hindi</t>
@@ -727,6 +718,15 @@
   </si>
   <si>
     <t>जारी रहना</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>english</t>
   </si>
 </sst>
 </file>
@@ -1359,10 +1359,10 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" t="s">
-        <v>135</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -2081,8 +2081,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2099,16 +2099,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F1" t="s">
         <v>136</v>
-      </c>
-      <c r="D1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" t="s">
-        <v>138</v>
-      </c>
-      <c r="F1" t="s">
-        <v>139</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2174,24 +2174,24 @@
     </row>
     <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" t="s">
         <v>116</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>117</v>
-      </c>
-      <c r="F7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" t="s">
         <v>119</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>120</v>
-      </c>
-      <c r="F8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2608,7 +2608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -2624,50 +2624,50 @@
         <v>104</v>
       </c>
       <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
         <v>132</v>
-      </c>
-      <c r="C1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -2683,40 +2683,40 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B8" t="s">
         <v>110</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s">
         <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B11" t="s">
         <v>112</v>
@@ -2732,255 +2732,255 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B19" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B22" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B29" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B30" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B31" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" t="s">
         <v>181</v>
-      </c>
-      <c r="B33" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B42" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B43" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B44" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
@@ -2991,82 +2991,82 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B46" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B47" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B49" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B50" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B53" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B54" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B55" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="2"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="233">
   <si>
     <t>comments</t>
   </si>
@@ -727,6 +727,18 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>invalid_numeric_message</t>
+  </si>
+  <si>
+    <t>Numeric value expected</t>
+  </si>
+  <si>
+    <t>Integer value expected</t>
+  </si>
+  <si>
+    <t>invalid_integer_message</t>
   </si>
 </sst>
 </file>
@@ -1324,7 +1336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -2081,8 +2093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2606,10 +2618,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -3069,6 +3081,22 @@
         <v>222</v>
       </c>
     </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>229</v>
+      </c>
+      <c r="B56" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" t="s">
+        <v>231</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/assets/framework/forms/framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="1"/>
+    <workbookView xWindow="4220" yWindow="1340" windowWidth="24300" windowHeight="17100" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
-    <sheet name="settings" sheetId="4" r:id="rId3"/>
-    <sheet name="choices" sheetId="6" r:id="rId4"/>
-    <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
+    <sheet name="common_translations" sheetId="8" r:id="rId3"/>
+    <sheet name="settings" sheetId="4" r:id="rId4"/>
+    <sheet name="choices" sheetId="6" r:id="rId5"/>
+    <sheet name="framework_translations" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="243">
   <si>
     <t>comments</t>
   </si>
@@ -740,11 +744,41 @@
   <si>
     <t>invalid_integer_message</t>
   </si>
+  <si>
+    <t>select_user</t>
+  </si>
+  <si>
+    <t>Please Select User</t>
+  </si>
+  <si>
+    <t>text.spanish</t>
+  </si>
+  <si>
+    <t>por favor</t>
+  </si>
+  <si>
+    <t>display.locale.text.spanish</t>
+  </si>
+  <si>
+    <t>Ingles</t>
+  </si>
+  <si>
+    <t>spanish</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Espanol</t>
+  </si>
+  <si>
+    <t>display.title.text.spanish</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1303,13 +1337,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1317,18 +1351,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1336,22 +1365,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="101.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="101.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -1378,7 +1407,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>18</v>
       </c>
@@ -1387,7 +1416,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>22</v>
       </c>
@@ -1398,13 +1427,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>20</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1415,23 +1444,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>58</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>65</v>
@@ -1443,20 +1472,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>66</v>
@@ -1468,20 +1497,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>67</v>
@@ -1493,20 +1522,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>68</v>
@@ -1518,20 +1547,20 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>69</v>
@@ -1543,19 +1572,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>70</v>
@@ -1567,19 +1596,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>88</v>
@@ -1591,19 +1620,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>71</v>
@@ -1615,19 +1644,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>72</v>
@@ -1639,19 +1668,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>73</v>
@@ -1663,19 +1692,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>74</v>
@@ -1687,19 +1716,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>75</v>
@@ -1711,19 +1740,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>76</v>
@@ -1735,19 +1764,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>77</v>
@@ -1759,19 +1788,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>78</v>
@@ -1783,19 +1812,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>79</v>
@@ -1807,19 +1836,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>80</v>
@@ -1831,19 +1860,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>81</v>
@@ -1855,19 +1884,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>82</v>
@@ -1879,19 +1908,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
         <v>83</v>
@@ -1903,19 +1932,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>84</v>
@@ -1927,19 +1956,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>85</v>
@@ -1951,19 +1980,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
         <v>91</v>
@@ -1975,19 +2004,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>93</v>
@@ -1999,19 +2028,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>96</v>
@@ -2023,19 +2052,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>100</v>
@@ -2047,19 +2076,19 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
         <v>102</v>
@@ -2071,7 +2100,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
@@ -2081,29 +2110,66 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="41.125" customWidth="1"/>
+    <col min="1" max="1" width="39.1640625" customWidth="1"/>
+    <col min="2" max="2" width="24.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -2113,23 +2179,29 @@
       <c r="C1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E1" t="s">
         <v>135</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>227</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" t="s">
         <v>136</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>86</v>
       </c>
@@ -2140,8 +2212,10 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2152,22 +2226,24 @@
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
-      <c r="G3" t="s">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2175,448 +2251,467 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
         <v>115</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="b">
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>228</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>116</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
+        <v>238</v>
+      </c>
+      <c r="H7" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>118</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>119</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>119</v>
+      </c>
+      <c r="H8" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>239</v>
+      </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="3" max="3" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" t="s">
-        <v>89</v>
-      </c>
-      <c r="C24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>92</v>
-      </c>
-      <c r="C25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
-      <c r="C27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C57"/>
   <sheetViews>
@@ -2624,14 +2719,14 @@
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.75" customWidth="1"/>
-    <col min="2" max="2" width="73.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -2642,7 +2737,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>121</v>
       </c>
@@ -2650,7 +2745,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -2658,7 +2753,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>123</v>
       </c>
@@ -2666,7 +2761,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -2674,7 +2769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>130</v>
       </c>
@@ -2682,7 +2777,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>105</v>
       </c>
@@ -2693,7 +2788,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>165</v>
       </c>
@@ -2704,7 +2799,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>166</v>
       </c>
@@ -2715,7 +2810,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>167</v>
       </c>
@@ -2726,7 +2821,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>204</v>
       </c>
@@ -2734,7 +2829,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>113</v>
       </c>
@@ -2742,7 +2837,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>138</v>
       </c>
@@ -2750,7 +2845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>143</v>
       </c>
@@ -2758,7 +2853,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>144</v>
       </c>
@@ -2766,7 +2861,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>145</v>
       </c>
@@ -2774,7 +2869,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -2782,7 +2877,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>147</v>
       </c>
@@ -2790,7 +2885,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>149</v>
       </c>
@@ -2798,7 +2893,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>151</v>
       </c>
@@ -2806,7 +2901,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>153</v>
       </c>
@@ -2814,7 +2909,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>155</v>
       </c>
@@ -2822,7 +2917,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>157</v>
       </c>
@@ -2830,7 +2925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>159</v>
       </c>
@@ -2838,7 +2933,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>161</v>
       </c>
@@ -2846,7 +2941,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>163</v>
       </c>
@@ -2854,7 +2949,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>170</v>
       </c>
@@ -2862,7 +2957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>184</v>
       </c>
@@ -2870,7 +2965,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>173</v>
       </c>
@@ -2878,7 +2973,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>174</v>
       </c>
@@ -2886,7 +2981,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>176</v>
       </c>
@@ -2894,7 +2989,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>178</v>
       </c>
@@ -2902,7 +2997,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>179</v>
       </c>
@@ -2910,7 +3005,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>182</v>
       </c>
@@ -2918,7 +3013,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="169" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>185</v>
       </c>
@@ -2926,7 +3021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>187</v>
       </c>
@@ -2934,7 +3029,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>191</v>
       </c>
@@ -2942,7 +3037,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>190</v>
       </c>
@@ -2950,7 +3045,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>193</v>
       </c>
@@ -2958,7 +3053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>195</v>
       </c>
@@ -2966,7 +3061,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>197</v>
       </c>
@@ -2974,7 +3069,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>199</v>
       </c>
@@ -2982,7 +3077,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>201</v>
       </c>
@@ -2990,7 +3085,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>203</v>
       </c>
@@ -3001,7 +3096,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>205</v>
       </c>
@@ -3009,7 +3104,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>206</v>
       </c>
@@ -3017,7 +3112,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>208</v>
       </c>
@@ -3025,7 +3120,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>210</v>
       </c>
@@ -3033,7 +3128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>212</v>
       </c>
@@ -3041,7 +3136,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>216</v>
       </c>
@@ -3049,7 +3144,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>217</v>
       </c>
@@ -3057,7 +3152,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>218</v>
       </c>
@@ -3065,7 +3160,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>219</v>
       </c>
@@ -3073,7 +3168,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>220</v>
       </c>
@@ -3081,7 +3176,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>229</v>
       </c>
@@ -3089,7 +3184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>232</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -225,102 +225,27 @@
     <t>Choose a test form (there are many)</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/agriculture/forms/agriculture/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/geotagger/forms/geotagger/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/breathcounter/forms/breathcounter/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/complex_validate_test/forms/complex_validate_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/customAppearance/forms/customAppearance/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/exampleForm/forms/exampleForm/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/imnci/forms/imnci_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/refrigerators/forms/refrigerators_init/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/refrigerators/forms/refrigerators_update/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/section_test/forms/section_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/selects/forms/selects/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/twoColumn/forms/twoColumn/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/gridScreen/forms/gridScreen/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/adult_coverage/forms/adult_coverage/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/child_coverage/forms/child_coverage/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/graphExample/forms/graphExample/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/visit/forms/visit/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/plot/forms/plot/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/geoweather/forms/geoweather/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/send_sms/forms/send_sms/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/eonasdan/forms/eonasdan/',null)</t>
-  </si>
-  <si>
     <t>table_id</t>
   </si>
   <si>
     <t>household</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/household/forms/household/',null)</t>
-  </si>
-  <si>
     <t>screenClient</t>
   </si>
   <si>
     <t>Screen Female Client</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/screenClient/',null)</t>
-  </si>
-  <si>
     <t>client6Week</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Week/',null)</t>
-  </si>
-  <si>
     <t>Client 6 Week</t>
   </si>
   <si>
     <t>client6Month</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Month/',null)</t>
-  </si>
-  <si>
     <t>Client 6 Month</t>
   </si>
   <si>
@@ -330,13 +255,7 @@
     <t>Screen Partner</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/screenPartner/',null)</t>
-  </si>
-  <si>
     <t>partner6Month</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/partner6Month/',null)</t>
   </si>
   <si>
     <t>Partner 6 Month</t>
@@ -739,6 +658,87 @@
   </si>
   <si>
     <t>invalid_integer_message</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('agriculture')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('geotagger')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('breathcounter')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('complex_validate_test')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('customAppearance')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('exampleForm')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('household')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('imnci','imnci_test')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('refrigerators','refrigerators_init')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('refrigerators','refrigerators_update')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('section_test')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('selects')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('twoColumn')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('gridScreen')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('adult_coverage')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('child_coverage')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('graphExample')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('visit')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('plot')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('geoweather')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('send_sms')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('eonasdan')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients', 'screenClient')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients','client6Week')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients', 'client6Month')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('maleClients', 'screenPartner')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('maleClients','partner6Month')</t>
   </si>
 </sst>
 </file>
@@ -1336,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1371,10 +1371,10 @@
         <v>35</v>
       </c>
       <c r="G1" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="I1" s="2"/>
     </row>
@@ -1434,7 +1434,7 @@
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>65</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -1459,7 +1459,7 @@
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>66</v>
+        <v>207</v>
       </c>
       <c r="E12" t="s">
         <v>37</v>
@@ -1484,7 +1484,7 @@
     <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>67</v>
+        <v>208</v>
       </c>
       <c r="E15" t="s">
         <v>37</v>
@@ -1509,7 +1509,7 @@
     <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>68</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
         <v>37</v>
@@ -1534,7 +1534,7 @@
     <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="E21" t="s">
         <v>37</v>
@@ -1558,7 +1558,7 @@
     <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>70</v>
+        <v>211</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
@@ -1576,13 +1576,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
         <v>37</v>
@@ -1606,7 +1606,7 @@
     <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>71</v>
+        <v>213</v>
       </c>
       <c r="E30" t="s">
         <v>37</v>
@@ -1630,7 +1630,7 @@
     <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>72</v>
+        <v>214</v>
       </c>
       <c r="E33" t="s">
         <v>37</v>
@@ -1654,7 +1654,7 @@
     <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>73</v>
+        <v>215</v>
       </c>
       <c r="E36" t="s">
         <v>37</v>
@@ -1678,7 +1678,7 @@
     <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="E39" t="s">
         <v>37</v>
@@ -1702,7 +1702,7 @@
     <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>217</v>
       </c>
       <c r="E42" t="s">
         <v>37</v>
@@ -1726,7 +1726,7 @@
     <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="E45" t="s">
         <v>37</v>
@@ -1750,7 +1750,7 @@
     <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="E48" t="s">
         <v>37</v>
@@ -1774,7 +1774,7 @@
     <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>78</v>
+        <v>220</v>
       </c>
       <c r="E51" t="s">
         <v>37</v>
@@ -1798,7 +1798,7 @@
     <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="E54" t="s">
         <v>37</v>
@@ -1822,7 +1822,7 @@
     <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>80</v>
+        <v>222</v>
       </c>
       <c r="E57" t="s">
         <v>37</v>
@@ -1846,7 +1846,7 @@
     <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>81</v>
+        <v>223</v>
       </c>
       <c r="E60" t="s">
         <v>37</v>
@@ -1870,7 +1870,7 @@
     <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>82</v>
+        <v>224</v>
       </c>
       <c r="E63" t="s">
         <v>37</v>
@@ -1894,7 +1894,7 @@
     <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="E66" t="s">
         <v>37</v>
@@ -1918,7 +1918,7 @@
     <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>84</v>
+        <v>226</v>
       </c>
       <c r="E69" t="s">
         <v>37</v>
@@ -1942,7 +1942,7 @@
     <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>85</v>
+        <v>227</v>
       </c>
       <c r="E72" t="s">
         <v>37</v>
@@ -1960,13 +1960,13 @@
     </row>
     <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>91</v>
+        <v>228</v>
       </c>
       <c r="E75" t="s">
         <v>37</v>
@@ -1984,13 +1984,13 @@
     </row>
     <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="E78" t="s">
         <v>37</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>96</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
         <v>37</v>
@@ -2032,13 +2032,13 @@
     </row>
     <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>100</v>
+        <v>231</v>
       </c>
       <c r="E84" t="s">
         <v>37</v>
@@ -2056,13 +2056,13 @@
     </row>
     <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="E87" t="s">
         <v>37</v>
@@ -2111,16 +2111,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="E1" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
@@ -2131,7 +2131,7 @@
     </row>
     <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>41</v>
@@ -2175,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
         <v>14</v>
@@ -2186,24 +2186,24 @@
     </row>
     <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,10 +2368,10 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -2555,10 +2555,10 @@
         <v>25</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="C24" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2566,10 +2566,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -2577,10 +2577,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="C26" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -2588,10 +2588,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
-        <v>99</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2599,10 +2599,10 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2633,468 +2633,468 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B2" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C7" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="C10" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B23" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B24" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B27" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B28" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B33" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B34" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B35" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B38" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B40" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B41" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B43" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B44" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B46" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B47" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B49" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B50" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B51" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B52" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B53" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B54" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B55" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B56" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4220" yWindow="1340" windowWidth="24300" windowHeight="17100" activeTab="4"/>
+    <workbookView xWindow="18600" yWindow="13580" windowWidth="24300" windowHeight="17100" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="296">
   <si>
     <t>comments</t>
   </si>
@@ -754,9 +754,6 @@
     <t>text.spanish</t>
   </si>
   <si>
-    <t>por favor</t>
-  </si>
-  <si>
     <t>display.locale.text.spanish</t>
   </si>
   <si>
@@ -773,13 +770,175 @@
   </si>
   <si>
     <t>display.title.text.spanish</t>
+  </si>
+  <si>
+    <t>Seleccione usuario</t>
+  </si>
+  <si>
+    <t>main_title</t>
+  </si>
+  <si>
+    <t>Disaster Relief</t>
+  </si>
+  <si>
+    <t>registration_path</t>
+  </si>
+  <si>
+    <t>delivery_path</t>
+  </si>
+  <si>
+    <t>data_path</t>
+  </si>
+  <si>
+    <t>override_path</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>View Data</t>
+  </si>
+  <si>
+    <t>Administrator Overrides</t>
+  </si>
+  <si>
+    <t>Registro</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Ver Datos</t>
+  </si>
+  <si>
+    <t>registration_title</t>
+  </si>
+  <si>
+    <t>Register Beneficiary Code</t>
+  </si>
+  <si>
+    <t>delivery_title</t>
+  </si>
+  <si>
+    <t>Verify Beneficiary Code</t>
+  </si>
+  <si>
+    <t>Alivio de Desastres</t>
+  </si>
+  <si>
+    <t>Anulación del Administrador</t>
+  </si>
+  <si>
+    <t>Registro del Código de Beneficiario</t>
+  </si>
+  <si>
+    <t>Verificar el Código del Beneficiario</t>
+  </si>
+  <si>
+    <t>disabled_beneficiary_notification</t>
+  </si>
+  <si>
+    <t>This beneficiary is disabled</t>
+  </si>
+  <si>
+    <t>missing_beneficiary_notification</t>
+  </si>
+  <si>
+    <t>Scanned code not found in system</t>
+  </si>
+  <si>
+    <t>Este beneficiario está deshabilitado</t>
+  </si>
+  <si>
+    <t>Código del beneficiario no encontrado en el sistema</t>
+  </si>
+  <si>
+    <t>barcode_available</t>
+  </si>
+  <si>
+    <t>Barcode Available</t>
+  </si>
+  <si>
+    <t>Código disponible</t>
+  </si>
+  <si>
+    <t>voucher_detected</t>
+  </si>
+  <si>
+    <t>Voucher Barcode Detected</t>
+  </si>
+  <si>
+    <t>Código del vale detectado</t>
+  </si>
+  <si>
+    <t>barcode_unavailable</t>
+  </si>
+  <si>
+    <t>Barcode Unavailable</t>
+  </si>
+  <si>
+    <t>Beneficiario no disponible</t>
+  </si>
+  <si>
+    <t>already_qualifies_override</t>
+  </si>
+  <si>
+    <t>Scanned beneficiary already qualifies for this authorization</t>
+  </si>
+  <si>
+    <t>El beneficiario escaneado ya califica para esta autorización</t>
+  </si>
+  <si>
+    <t>eligible_override</t>
+  </si>
+  <si>
+    <t>Beneficiary eligible for override</t>
+  </si>
+  <si>
+    <t>Beneficiario elegible para derecho</t>
+  </si>
+  <si>
+    <t>override_creation_success</t>
+  </si>
+  <si>
+    <t>Override Successfully Created</t>
+  </si>
+  <si>
+    <t>Derecho creada correctamente</t>
+  </si>
+  <si>
+    <t>view_authorization_details</t>
+  </si>
+  <si>
+    <t>View Authorization Details</t>
+  </si>
+  <si>
+    <t>scan_barcode</t>
+  </si>
+  <si>
+    <t>Ver Detalles de Autorización</t>
+  </si>
+  <si>
+    <t>Escanear Código</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>Enter</t>
+  </si>
+  <si>
+    <t>Entrar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -809,6 +968,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Inherit"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -920,7 +1089,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -935,6 +1104,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2115,10 +2290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2146,8 +2321,206 @@
       <c r="B2" t="s">
         <v>234</v>
       </c>
-      <c r="C2" t="s">
-        <v>236</v>
+      <c r="C2" s="6" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>247</v>
+      </c>
+      <c r="B6" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>256</v>
+      </c>
+      <c r="B8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>258</v>
+      </c>
+      <c r="B9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="B10" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B12" t="s">
+        <v>271</v>
+      </c>
+      <c r="C12" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C13" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B14" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="C17" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>288</v>
+      </c>
+      <c r="B18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C18" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B19" t="s">
+        <v>222</v>
+      </c>
+      <c r="C19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>293</v>
+      </c>
+      <c r="B20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C20" t="s">
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2533,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2180,7 +2553,7 @@
         <v>226</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E1" t="s">
         <v>135</v>
@@ -2189,7 +2562,7 @@
         <v>227</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H1" t="s">
         <v>136</v>
@@ -2271,7 +2644,7 @@
         <v>116</v>
       </c>
       <c r="G7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H7" t="s">
         <v>117</v>
@@ -2293,20 +2666,20 @@
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="H9" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2386,7 +2759,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="1"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="235">
   <si>
     <t>comments</t>
   </si>
@@ -739,6 +739,12 @@
   </si>
   <si>
     <t>'?' +  odkSurvey.getHashString('maleClients','partner6Month')</t>
+  </si>
+  <si>
+    <t>framework_variant</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -886,7 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -902,6 +908,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="91">
@@ -1336,7 +1345,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
+    <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
@@ -2093,8 +2102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2207,8 +2216,12 @@
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>234</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="2"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -48,9 +48,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -745,6 +742,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -1323,12 +1323,12 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1362,54 +1362,54 @@
   <sheetData>
     <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" t="s">
         <v>106</v>
-      </c>
-      <c r="H1" t="s">
-        <v>107</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
       </c>
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
@@ -1418,673 +1418,673 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
         <v>37</v>
-      </c>
-      <c r="G9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" t="s">
         <v>37</v>
-      </c>
-      <c r="G15" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" t="s">
         <v>37</v>
-      </c>
-      <c r="G18" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" t="s">
         <v>37</v>
-      </c>
-      <c r="G21" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="G24" t="s">
         <v>37</v>
-      </c>
-      <c r="G24" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
         <v>37</v>
-      </c>
-      <c r="G27" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
         <v>37</v>
-      </c>
-      <c r="G30" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="G33" t="s">
         <v>37</v>
-      </c>
-      <c r="G33" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G36" t="s">
         <v>37</v>
-      </c>
-      <c r="G36" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" t="s">
         <v>37</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42" t="s">
         <v>37</v>
-      </c>
-      <c r="G42" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G45" t="s">
         <v>37</v>
-      </c>
-      <c r="G45" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" t="s">
         <v>37</v>
-      </c>
-      <c r="G48" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
         <v>37</v>
-      </c>
-      <c r="G51" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54" t="s">
         <v>37</v>
-      </c>
-      <c r="G54" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
         <v>37</v>
-      </c>
-      <c r="G57" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
         <v>37</v>
-      </c>
-      <c r="G60" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63" t="s">
         <v>37</v>
-      </c>
-      <c r="G63" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G66" t="s">
         <v>37</v>
-      </c>
-      <c r="G66" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
+        <v>36</v>
+      </c>
+      <c r="G69" t="s">
         <v>37</v>
-      </c>
-      <c r="G69" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
         <v>37</v>
-      </c>
-      <c r="G72" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
+        <v>36</v>
+      </c>
+      <c r="G75" t="s">
         <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
+        <v>36</v>
+      </c>
+      <c r="G78" t="s">
         <v>37</v>
-      </c>
-      <c r="G78" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
+        <v>36</v>
+      </c>
+      <c r="G81" t="s">
         <v>37</v>
-      </c>
-      <c r="G81" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84" t="s">
         <v>37</v>
-      </c>
-      <c r="G84" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E87" t="s">
+        <v>36</v>
+      </c>
+      <c r="G87" t="s">
         <v>37</v>
-      </c>
-      <c r="G87" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -2102,7 +2102,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -2114,36 +2114,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
         <v>199</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>108</v>
-      </c>
-      <c r="E1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F1" t="s">
-        <v>109</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2155,14 +2155,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2173,21 +2173,21 @@
         <v>20130828</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -2195,32 +2195,32 @@
     </row>
     <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
         <v>89</v>
-      </c>
-      <c r="F7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>92</v>
-      </c>
-      <c r="F8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>233</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>234</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -2299,8 +2299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
@@ -2312,310 +2312,310 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
         <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>26</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
         <v>46</v>
-      </c>
-      <c r="C15" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
         <v>69</v>
-      </c>
-      <c r="C25" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" t="s">
         <v>71</v>
-      </c>
-      <c r="C26" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" t="s">
         <v>73</v>
-      </c>
-      <c r="C27" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s">
         <v>75</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -2646,468 +2646,468 @@
   <sheetData>
     <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
         <v>104</v>
-      </c>
-      <c r="C1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>79</v>
-      </c>
-      <c r="C7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
         <v>140</v>
       </c>
-      <c r="B10" t="s">
-        <v>141</v>
-      </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
         <v>120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
         <v>122</v>
-      </c>
-      <c r="B19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
         <v>124</v>
-      </c>
-      <c r="B20" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
         <v>126</v>
-      </c>
-      <c r="B21" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
         <v>128</v>
-      </c>
-      <c r="B22" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
         <v>130</v>
-      </c>
-      <c r="B23" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
         <v>132</v>
-      </c>
-      <c r="B24" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
         <v>134</v>
-      </c>
-      <c r="B25" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
         <v>136</v>
-      </c>
-      <c r="B26" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B29" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
         <v>147</v>
-      </c>
-      <c r="B30" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
         <v>149</v>
-      </c>
-      <c r="B31" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
         <v>152</v>
-      </c>
-      <c r="B34" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
         <v>155</v>
-      </c>
-      <c r="B35" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
         <v>158</v>
-      </c>
-      <c r="B36" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
         <v>160</v>
-      </c>
-      <c r="B37" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
         <v>168</v>
-      </c>
-      <c r="B41" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
         <v>170</v>
-      </c>
-      <c r="B42" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
         <v>172</v>
-      </c>
-      <c r="B43" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
         <v>174</v>
-      </c>
-      <c r="B44" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
         <v>81</v>
-      </c>
-      <c r="C45" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
         <v>179</v>
-      </c>
-      <c r="B47" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
         <v>181</v>
-      </c>
-      <c r="B48" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
         <v>183</v>
-      </c>
-      <c r="B49" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
         <v>185</v>
-      </c>
-      <c r="B50" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
         <v>202</v>
-      </c>
-      <c r="B56" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B57" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="18600" yWindow="13580" windowWidth="24300" windowHeight="17100" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12020" windowHeight="16220" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="360">
   <si>
     <t>comments</t>
   </si>
@@ -932,6 +932,198 @@
   </si>
   <si>
     <t>Entrar</t>
+  </si>
+  <si>
+    <t>greek</t>
+  </si>
+  <si>
+    <t>Greek</t>
+  </si>
+  <si>
+    <t>Greek (as greek name)</t>
+  </si>
+  <si>
+    <t>no_active_beneficiary</t>
+  </si>
+  <si>
+    <t>No Active Beneficiary Detected</t>
+  </si>
+  <si>
+    <t>No Disabled Beneficiary Detected</t>
+  </si>
+  <si>
+    <t>no_disabled_beneficiary</t>
+  </si>
+  <si>
+    <t>enter_beneficiary_code</t>
+  </si>
+  <si>
+    <t>Please Enter Beneficiary Code</t>
+  </si>
+  <si>
+    <t>active_beneficiaries_title</t>
+  </si>
+  <si>
+    <t>Active Beneficiaries</t>
+  </si>
+  <si>
+    <t>Disabled Beneficiaries</t>
+  </si>
+  <si>
+    <t>beneficiary_data_title</t>
+  </si>
+  <si>
+    <t>Beneficiary Data</t>
+  </si>
+  <si>
+    <t>delivery_data_title</t>
+  </si>
+  <si>
+    <t>Delivery Data</t>
+  </si>
+  <si>
+    <t>beneficiary_lists</t>
+  </si>
+  <si>
+    <t>Beneficiary Lists</t>
+  </si>
+  <si>
+    <t>view_all_deliveries</t>
+  </si>
+  <si>
+    <t>View All Deliveries</t>
+  </si>
+  <si>
+    <t>advanced_search</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>data_categories</t>
+  </si>
+  <si>
+    <t>view_beneficiary_data</t>
+  </si>
+  <si>
+    <t>view_delivery_data</t>
+  </si>
+  <si>
+    <t>Data Categories</t>
+  </si>
+  <si>
+    <t>View Delivery Data</t>
+  </si>
+  <si>
+    <t>View Beneficiary Data</t>
+  </si>
+  <si>
+    <t>enable_beneficiary</t>
+  </si>
+  <si>
+    <t>Enable Beneficiary</t>
+  </si>
+  <si>
+    <t>disable_beneficiary</t>
+  </si>
+  <si>
+    <t>Disable Beneficiary</t>
+  </si>
+  <si>
+    <t>choose_method</t>
+  </si>
+  <si>
+    <t>Choose Method</t>
+  </si>
+  <si>
+    <t>Override Options</t>
+  </si>
+  <si>
+    <t>override_options</t>
+  </si>
+  <si>
+    <t>override_registration</t>
+  </si>
+  <si>
+    <t>Override Registration</t>
+  </si>
+  <si>
+    <t>override_entitlement</t>
+  </si>
+  <si>
+    <t>Override Entitlement</t>
+  </si>
+  <si>
+    <t>serach_beneficiaries</t>
+  </si>
+  <si>
+    <t>Search for Beneficiaries</t>
+  </si>
+  <si>
+    <t>search_deliveries</t>
+  </si>
+  <si>
+    <t>Search for Deliveries</t>
+  </si>
+  <si>
+    <t>beneficiary</t>
+  </si>
+  <si>
+    <t>beneficiaries</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>deliveries</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>invalid_search</t>
+  </si>
+  <si>
+    <t>Invalid Search</t>
+  </si>
+  <si>
+    <t>authorization_name</t>
+  </si>
+  <si>
+    <t>Authorization Name</t>
+  </si>
+  <si>
+    <t>authorization_id</t>
+  </si>
+  <si>
+    <t>Authorization ID</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
+    <t>Item Pack Name</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
+  </si>
+  <si>
+    <t>Item Pack Description</t>
+  </si>
+  <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>Item Pack ID</t>
+  </si>
+  <si>
+    <t>beneficiary_code</t>
+  </si>
+  <si>
+    <t>Beneficiary Code</t>
+  </si>
+  <si>
+    <t>disabled_beneficiaries_title</t>
   </si>
 </sst>
 </file>
@@ -2290,10 +2482,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2523,6 +2715,275 @@
         <v>295</v>
       </c>
     </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="26" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>302</v>
+      </c>
+      <c r="B22" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>303</v>
+      </c>
+      <c r="B23" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>305</v>
+      </c>
+      <c r="B24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>359</v>
+      </c>
+      <c r="B25" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>310</v>
+      </c>
+      <c r="B27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>312</v>
+      </c>
+      <c r="B28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>314</v>
+      </c>
+      <c r="B29" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>316</v>
+      </c>
+      <c r="B30" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>318</v>
+      </c>
+      <c r="B31" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>319</v>
+      </c>
+      <c r="B32" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>320</v>
+      </c>
+      <c r="B33" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>326</v>
+      </c>
+      <c r="B35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>328</v>
+      </c>
+      <c r="B36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B37" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
+        <v>332</v>
+      </c>
+      <c r="B38" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
+        <v>334</v>
+      </c>
+      <c r="B39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>336</v>
+      </c>
+      <c r="B40" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>338</v>
+      </c>
+      <c r="B41" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>340</v>
+      </c>
+      <c r="B42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>341</v>
+      </c>
+      <c r="B43" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>343</v>
+      </c>
+      <c r="B45" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>344</v>
+      </c>
+      <c r="B46" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>345</v>
+      </c>
+      <c r="B47" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2533,7 +2994,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2683,14 +3144,22 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="2" t="s">
+        <v>296</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>298</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -2332,8 +2332,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:XFD55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4600" yWindow="1440" windowWidth="24660" windowHeight="17960" tabRatio="989" activeTab="1"/>
+    <workbookView xWindow="11540" yWindow="2300" windowWidth="24660" windowHeight="17960" tabRatio="989" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="299">
   <si>
     <t>comments</t>
   </si>
@@ -934,12 +934,18 @@
   <si>
     <t>'?' + odkSurvey.getHashString('registration')</t>
   </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('deliveries')</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -973,6 +979,22 @@
       <name val="Lohit Devanagari"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -991,8 +1013,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1017,7 +1043,11 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1353,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1395,13 +1425,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="38.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.83203125" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="8" max="8" width="30.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="17.5" customHeight="1">
       <c r="A1" t="s">
@@ -1430,11 +1469,11 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="39" customHeight="1">
       <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="1"/>
@@ -1502,9 +1541,34 @@
         <v>20</v>
       </c>
     </row>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A11" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:9" ht="59.25" customHeight="1">
+      <c r="A12" s="2"/>
+      <c r="B12" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1522,6 +1586,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
@@ -1534,7 +1602,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1545,7 +1613,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="39">
+    <row r="3" spans="1:3" ht="13">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1666,7 +1734,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -2218,19 +2286,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>176</v>
       </c>
@@ -2252,9 +2321,20 @@
         <v>33</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2272,6 +2352,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="13" customHeight="1">
       <c r="A1" t="s">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/assets/framework/forms/framework/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="11540" yWindow="2300" windowWidth="24660" windowHeight="17960" tabRatio="989" activeTab="4"/>
+    <workbookView xWindow="2080" yWindow="2260" windowWidth="24660" windowHeight="17960" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -14,13 +19,13 @@
     <sheet name="choices" sheetId="5" r:id="rId5"/>
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -393,9 +398,6 @@
   </si>
   <si>
     <t>Override Entitlement</t>
-  </si>
-  <si>
-    <t>serach_beneficiaries</t>
   </si>
   <si>
     <t>Search for Beneficiaries</t>
@@ -939,6 +941,9 @@
   </si>
   <si>
     <t>Deliveries</t>
+  </si>
+  <si>
+    <t>search_beneficiaries</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1397,9 +1402,9 @@
       <selection activeCell="B23" activeCellId="1" sqref="B87 B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -1415,11 +1420,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1431,7 +1431,7 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="38.33203125" customWidth="1"/>
@@ -1442,7 +1442,7 @@
     <col min="8" max="8" width="30.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1469,7 +1469,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -1478,7 +1478,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -1489,13 +1489,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>16</v>
       </c>
@@ -1506,26 +1506,26 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1534,23 +1534,23 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1559,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" t="s">
@@ -1569,11 +1569,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1581,17 +1576,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -1602,7 +1597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -1613,7 +1608,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -1624,7 +1619,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1635,7 +1630,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -1646,7 +1641,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1657,7 +1652,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -1668,7 +1663,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -1679,7 +1674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -1690,7 +1685,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -1701,7 +1696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1712,7 +1707,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1723,7 +1718,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -1734,7 +1729,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -1745,7 +1740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>65</v>
       </c>
@@ -1756,7 +1751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>68</v>
       </c>
@@ -1767,7 +1762,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48">
+    <row r="17" spans="1:3" ht="52" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>71</v>
       </c>
@@ -1778,7 +1773,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1789,7 +1784,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -1800,7 +1795,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>80</v>
       </c>
@@ -1811,7 +1806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -1819,7 +1814,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -1827,7 +1822,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -1835,7 +1830,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1843,7 +1838,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -1851,7 +1846,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>93</v>
       </c>
@@ -1859,7 +1854,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>95</v>
       </c>
@@ -1867,7 +1862,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>97</v>
       </c>
@@ -1875,7 +1870,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -1891,7 +1886,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>103</v>
       </c>
@@ -1899,7 +1894,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>105</v>
       </c>
@@ -1907,7 +1902,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>107</v>
       </c>
@@ -1915,7 +1910,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>109</v>
       </c>
@@ -1923,7 +1918,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>111</v>
       </c>
@@ -1931,7 +1926,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>113</v>
       </c>
@@ -1939,7 +1934,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>115</v>
       </c>
@@ -1947,7 +1942,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -1955,7 +1950,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>119</v>
       </c>
@@ -1963,139 +1958,134 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B40" t="s">
         <v>121</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>123</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>125</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>126</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>127</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>128</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>129</v>
       </c>
-      <c r="B46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>130</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2" t="s">
+      <c r="B48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="2" t="s">
+      <c r="B49" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="2" t="s">
+      <c r="B50" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1">
-      <c r="A53" s="2" t="s">
+      <c r="B53" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>292</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>293</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2107,46 +2097,46 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" t="s">
         <v>147</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>148</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>149</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" t="s">
-        <v>151</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
       </c>
       <c r="J1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2155,12 +2145,12 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2169,118 +2159,113 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="I4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" customHeight="1">
-      <c r="A5" t="s">
+      <c r="C5" t="s">
         <v>159</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" s="6" t="s">
+      <c r="I5" t="s">
         <v>161</v>
-      </c>
-      <c r="I5" t="s">
-        <v>162</v>
       </c>
       <c r="J5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1">
+    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
         <v>163</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>164</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>165</v>
       </c>
-      <c r="H7" t="s">
+    </row>
+    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1">
-      <c r="A8" t="s">
+      <c r="F8" t="s">
         <v>167</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
+        <v>167</v>
+      </c>
+      <c r="H8" t="s">
         <v>168</v>
       </c>
-      <c r="G8" t="s">
-        <v>168</v>
-      </c>
-      <c r="H8" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>170</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2288,58 +2273,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.83203125" customWidth="1"/>
     <col min="2" max="2" width="27.6640625" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -2351,13 +2331,13 @@
       <selection activeCellId="1" sqref="B87 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
     <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" customHeight="1">
+    <row r="1" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2365,471 +2345,466 @@
         <v>24</v>
       </c>
       <c r="C1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13" customHeight="1">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>180</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13" customHeight="1">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>182</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13" customHeight="1">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
         <v>184</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13" customHeight="1">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>186</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13" customHeight="1">
-      <c r="A6" t="s">
+      <c r="B6" t="s">
         <v>188</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="13">
-      <c r="A7" t="s">
+      <c r="B7" t="s">
         <v>190</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="13">
-      <c r="A8" t="s">
+      <c r="B8" t="s">
         <v>193</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C8" s="7" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="13">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
         <v>196</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="6" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="13">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
         <v>199</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="6" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>202</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.75" customHeight="1">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>204</v>
       </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
+      <c r="B13" t="s">
         <v>206</v>
       </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
+      <c r="B14" t="s">
         <v>208</v>
       </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>210</v>
       </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="B16" t="s">
         <v>212</v>
       </c>
-      <c r="B16" t="s">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>214</v>
       </c>
-      <c r="B17" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>216</v>
       </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>218</v>
       </c>
-      <c r="B19" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>220</v>
       </c>
-      <c r="B20" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>222</v>
       </c>
-      <c r="B21" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>224</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>226</v>
       </c>
-      <c r="B23" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>228</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>230</v>
       </c>
-      <c r="B25" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>232</v>
       </c>
-      <c r="B26" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>234</v>
       </c>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.25" customHeight="1">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>236</v>
       </c>
-      <c r="B28" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>238</v>
       </c>
-      <c r="B29" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>240</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>242</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>244</v>
       </c>
-      <c r="B33" t="s">
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>246</v>
       </c>
-      <c r="B34" t="s">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="409" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="409">
-      <c r="A36" t="s">
+      <c r="B36" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="B36" s="3" t="s">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>252</v>
       </c>
-      <c r="B37" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>254</v>
       </c>
-      <c r="B38" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>256</v>
       </c>
-      <c r="B39" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>258</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>260</v>
       </c>
-      <c r="B41" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>262</v>
       </c>
-      <c r="B42" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>264</v>
       </c>
-      <c r="B43" t="s">
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>266</v>
       </c>
-      <c r="B44" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="13">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>268</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="C45" s="6" t="s">
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>271</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="s">
+      <c r="B47" t="s">
         <v>273</v>
       </c>
-      <c r="B47" t="s">
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="s">
+      <c r="B48" t="s">
         <v>275</v>
       </c>
-      <c r="B48" t="s">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
+      <c r="B49" t="s">
         <v>277</v>
       </c>
-      <c r="B49" t="s">
+    </row>
+    <row r="50" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" ht="13" customHeight="1">
-      <c r="A50" t="s">
+      <c r="B50" t="s">
         <v>279</v>
       </c>
-      <c r="B50" t="s">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
+      <c r="B51" t="s">
         <v>281</v>
       </c>
-      <c r="B51" t="s">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>283</v>
       </c>
-      <c r="B52" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
+      <c r="B53" t="s">
         <v>284</v>
       </c>
-      <c r="B53" t="s">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
+      <c r="B54" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>286</v>
-      </c>
-      <c r="B54" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>287</v>
       </c>
       <c r="B55" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
+        <v>287</v>
+      </c>
+      <c r="B56" t="s">
         <v>288</v>
       </c>
-      <c r="B56" t="s">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
+      <c r="B57" t="s">
         <v>290</v>
-      </c>
-      <c r="B57" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/assets/framework/forms/framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/assets/framework/forms/framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2080" yWindow="2260" windowWidth="24660" windowHeight="17960" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="3520" yWindow="1260" windowWidth="27160" windowHeight="26060" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="choices" sheetId="5" r:id="rId5"/>
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="708">
   <si>
     <t>comments</t>
   </si>
@@ -121,18 +121,12 @@
     <t>Please Select User</t>
   </si>
   <si>
-    <t>Seleccione usuario</t>
-  </si>
-  <si>
     <t>main_title</t>
   </si>
   <si>
     <t>Disaster Relief</t>
   </si>
   <si>
-    <t>Alivio de Desastres</t>
-  </si>
-  <si>
     <t>registration_path</t>
   </si>
   <si>
@@ -157,36 +151,24 @@
     <t>View Data</t>
   </si>
   <si>
-    <t>Ver Datos</t>
-  </si>
-  <si>
     <t>override_path</t>
   </si>
   <si>
     <t>Administrator Overrides</t>
   </si>
   <si>
-    <t>Anulación del Administrador</t>
-  </si>
-  <si>
     <t>registration_title</t>
   </si>
   <si>
     <t>Register Beneficiary Code</t>
   </si>
   <si>
-    <t>Registro del Código de Beneficiario</t>
-  </si>
-  <si>
     <t>delivery_title</t>
   </si>
   <si>
     <t>Verify Beneficiary Code</t>
   </si>
   <si>
-    <t>Verificar el Código del Beneficiario</t>
-  </si>
-  <si>
     <t>disabled_beneficiary_notification</t>
   </si>
   <si>
@@ -202,90 +184,57 @@
     <t>Scanned code not found in system</t>
   </si>
   <si>
-    <t>Código del beneficiario no encontrado en el sistema</t>
-  </si>
-  <si>
     <t>barcode_available</t>
   </si>
   <si>
     <t>Barcode Available</t>
   </si>
   <si>
-    <t>Código disponible</t>
-  </si>
-  <si>
     <t>voucher_detected</t>
   </si>
   <si>
     <t>Voucher Barcode Detected</t>
   </si>
   <si>
-    <t>Código del vale detectado</t>
-  </si>
-  <si>
     <t>barcode_unavailable</t>
   </si>
   <si>
     <t>Barcode Unavailable</t>
   </si>
   <si>
-    <t>Beneficiario no disponible</t>
-  </si>
-  <si>
     <t>already_qualifies_override</t>
   </si>
   <si>
     <t>Scanned beneficiary already qualifies for this authorization</t>
   </si>
   <si>
-    <t>El beneficiario escaneado ya califica para esta autorización</t>
-  </si>
-  <si>
     <t>eligible_override</t>
   </si>
   <si>
     <t>Beneficiary eligible for override</t>
   </si>
   <si>
-    <t>Beneficiario elegible para derecho</t>
-  </si>
-  <si>
     <t>override_creation_success</t>
   </si>
   <si>
     <t>Override Successfully Created</t>
   </si>
   <si>
-    <t>Derecho creada correctamente</t>
-  </si>
-  <si>
     <t>view_authorization_details</t>
   </si>
   <si>
-    <t>View Authorization Details</t>
-  </si>
-  <si>
-    <t>Ver Detalles de Autorización</t>
-  </si>
-  <si>
     <t>scan_barcode</t>
   </si>
   <si>
     <t>Scan Barcode</t>
   </si>
   <si>
-    <t>Escanear Código</t>
-  </si>
-  <si>
     <t>enter</t>
   </si>
   <si>
     <t>Enter</t>
   </si>
   <si>
-    <t>Entrar</t>
-  </si>
-  <si>
     <t>no_active_beneficiary</t>
   </si>
   <si>
@@ -433,15 +382,9 @@
     <t>authorization_name</t>
   </si>
   <si>
-    <t>Authorization Name</t>
-  </si>
-  <si>
     <t>authorization_id</t>
   </si>
   <si>
-    <t>Authorization ID</t>
-  </si>
-  <si>
     <t>item_pack_name</t>
   </si>
   <si>
@@ -478,18 +421,12 @@
     <t>display.title.text.spanish</t>
   </si>
   <si>
-    <t>display.title.text.hindi</t>
-  </si>
-  <si>
     <t>display.locale.text.english</t>
   </si>
   <si>
     <t>display.locale.text.spanish</t>
   </si>
   <si>
-    <t>display.locale.text.hindi</t>
-  </si>
-  <si>
     <t>showContents</t>
   </si>
   <si>
@@ -517,9 +454,6 @@
     <t>Common Javascript Framework</t>
   </si>
   <si>
-    <t>सामान्य जावास्क्रिप्ट फ़्रेमवर्क</t>
-  </si>
-  <si>
     <t>The title of the 'survey' section (a.k.a. form title)</t>
   </si>
   <si>
@@ -532,18 +466,6 @@
     <t>Ingles</t>
   </si>
   <si>
-    <t>English (as hindi name)</t>
-  </si>
-  <si>
-    <t>hindi</t>
-  </si>
-  <si>
-    <t>Hindi</t>
-  </si>
-  <si>
-    <t>Hindi (as hindi name)</t>
-  </si>
-  <si>
     <t>spanish</t>
   </si>
   <si>
@@ -559,9 +481,6 @@
     <t>Greek</t>
   </si>
   <si>
-    <t>Greek (as greek name)</t>
-  </si>
-  <si>
     <t>choice_list_name</t>
   </si>
   <si>
@@ -571,9 +490,6 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>text.hindi</t>
-  </si>
-  <si>
     <t>constraint_message</t>
   </si>
   <si>
@@ -610,34 +526,22 @@
     <t>Acknowledge</t>
   </si>
   <si>
-    <t>स्वीकार करना</t>
-  </si>
-  <si>
     <t>back_button_label</t>
   </si>
   <si>
     <t>Back</t>
   </si>
   <si>
-    <t>लौटना</t>
-  </si>
-  <si>
     <t>next_button_label</t>
   </si>
   <si>
     <t>Next</t>
   </si>
   <si>
-    <t>आगामी</t>
-  </si>
-  <si>
     <t>continue_button_label</t>
   </si>
   <si>
     <t>Continue</t>
-  </si>
-  <si>
-    <t>जारी रहना</t>
   </si>
   <si>
     <t>select_one_dropdown_label</t>
@@ -856,9 +760,6 @@
     <t>Deselect</t>
   </si>
   <si>
-    <t>अचयनित</t>
-  </si>
-  <si>
     <t>take_signature_button_label</t>
   </si>
   <si>
@@ -907,6 +808,1269 @@
     <t>linked_table_new_instance_label</t>
   </si>
   <si>
+    <t>no_authorizations</t>
+  </si>
+  <si>
+    <t>framework_variant</t>
+  </si>
+  <si>
+    <t>registration</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('registration')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('deliveries')</t>
+  </si>
+  <si>
+    <t>Deliveries</t>
+  </si>
+  <si>
+    <t>search_beneficiaries</t>
+  </si>
+  <si>
+    <t>الرجاء اختيار المستخدم</t>
+  </si>
+  <si>
+    <t>لطفا انتخاب کنید کاربر</t>
+  </si>
+  <si>
+    <t>Por favor seleccione usuario</t>
+  </si>
+  <si>
+    <t>توزيع الكوارث</t>
+  </si>
+  <si>
+    <t>تسکین فاجعه</t>
+  </si>
+  <si>
+    <t>Distribución</t>
+  </si>
+  <si>
+    <t>التسجيل</t>
+  </si>
+  <si>
+    <t>ثبت</t>
+  </si>
+  <si>
+    <t>التسليم</t>
+  </si>
+  <si>
+    <t>تحویل</t>
+  </si>
+  <si>
+    <t>راجع المعلومات</t>
+  </si>
+  <si>
+    <t>دیدن اطلاعات</t>
+  </si>
+  <si>
+    <t>Ver información</t>
+  </si>
+  <si>
+    <t>مراقب التجاوزات</t>
+  </si>
+  <si>
+    <t>لغومدیر تنظیمات</t>
+  </si>
+  <si>
+    <t>Administrador Anulaciones</t>
+  </si>
+  <si>
+    <t>تسجيل رمز المستفيد</t>
+  </si>
+  <si>
+    <t>ثبت نام کد ذینفع</t>
+  </si>
+  <si>
+    <t>Registrar código de beneficiario</t>
+  </si>
+  <si>
+    <t>تأكيد رمز المستفيد</t>
+  </si>
+  <si>
+    <t>تأیید کد ذینفع</t>
+  </si>
+  <si>
+    <t>Verificar código de beneficiario</t>
+  </si>
+  <si>
+    <t>هذا المستفيد معطل</t>
+  </si>
+  <si>
+    <t>این ذینفع غیر فعال است</t>
+  </si>
+  <si>
+    <t>ليس الرمز المصور موجودا في قاعدة البيانات</t>
+  </si>
+  <si>
+    <t>کد اسکن در سیستم یافت نشد</t>
+  </si>
+  <si>
+    <t>Código escaneado no encontrado en el sistema</t>
+  </si>
+  <si>
+    <t>الباركود متاح</t>
+  </si>
+  <si>
+    <t>بارکد در دسترس</t>
+  </si>
+  <si>
+    <t>Código de barras disponible</t>
+  </si>
+  <si>
+    <t>تم قبول باركود الكرت</t>
+  </si>
+  <si>
+    <t>کوپن بارکد شناسایی</t>
+  </si>
+  <si>
+    <t>Detectado código de barras del cupón</t>
+  </si>
+  <si>
+    <t>الباركود غير متاح</t>
+  </si>
+  <si>
+    <t>Código de barras no disponible</t>
+  </si>
+  <si>
+    <t>المستفيد متاح للتوزيع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسکن ذینفع در حال حاضر برای این توزیع </t>
+  </si>
+  <si>
+    <t>Beneficiario escaneado ya calificado para esta distribución</t>
+  </si>
+  <si>
+    <t>المستفيج مؤهل للتجاوز</t>
+  </si>
+  <si>
+    <t>لغو ذینفع واجد شرایط</t>
+  </si>
+  <si>
+    <t>Beneficiario apto para anulación</t>
+  </si>
+  <si>
+    <t>تم التجاوز بنجاح</t>
+  </si>
+  <si>
+    <t>لغوموفق ثبت</t>
+  </si>
+  <si>
+    <t>Anulación creada satisfactoriamente</t>
+  </si>
+  <si>
+    <t>View Distribution Details</t>
+  </si>
+  <si>
+    <t>انظر تفاصيل التوزيع</t>
+  </si>
+  <si>
+    <t>جزئیات نمایش توزیع</t>
+  </si>
+  <si>
+    <t>Ver detalles de la distribución</t>
+  </si>
+  <si>
+    <t>مسح الباركود</t>
+  </si>
+  <si>
+    <t>بارکد اسکن</t>
+  </si>
+  <si>
+    <t>Escanear código de barras</t>
+  </si>
+  <si>
+    <t>تنفيد</t>
+  </si>
+  <si>
+    <t>وارد شدن</t>
+  </si>
+  <si>
+    <t>Indroducir</t>
+  </si>
+  <si>
+    <t>لم يكشف مستفيد موجود</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> فعال بدون بهره  یافت شد</t>
+  </si>
+  <si>
+    <t>Detectado beneficiario no activo</t>
+  </si>
+  <si>
+    <t>لم يكشف مستفيد معطل</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غیر فعال بدون بهره یافت شد</t>
+  </si>
+  <si>
+    <t>Detectado beneficiario no desactivado</t>
+  </si>
+  <si>
+    <t>الرجاء إدخال رمز المستفيد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لطفا کد ذینفع را وارد کنید </t>
+  </si>
+  <si>
+    <t>Por favor introduce el código del beneficiario</t>
+  </si>
+  <si>
+    <t>المستفيدين النشطين</t>
+  </si>
+  <si>
+    <t>ذینفع فعال</t>
+  </si>
+  <si>
+    <t>Beneficiarios activos</t>
+  </si>
+  <si>
+    <t>المستفيدون المعطلين</t>
+  </si>
+  <si>
+    <t>ذینفع غیر فعال</t>
+  </si>
+  <si>
+    <t>Beneficiarios desactivados</t>
+  </si>
+  <si>
+    <t>معلومات المستفيد</t>
+  </si>
+  <si>
+    <t>اطلاعات ذینفع</t>
+  </si>
+  <si>
+    <t>Datos de beneficiarios</t>
+  </si>
+  <si>
+    <t>معلومات التسليم</t>
+  </si>
+  <si>
+    <t>اطلاعات تحویل</t>
+  </si>
+  <si>
+    <t>Datos de entrega</t>
+  </si>
+  <si>
+    <t>قأئمة المستفيدين</t>
+  </si>
+  <si>
+    <t>لیست ذینفع</t>
+  </si>
+  <si>
+    <t>Lista de beneficiarios</t>
+  </si>
+  <si>
+    <t>راقب كل التسليمات</t>
+  </si>
+  <si>
+    <t>مشاهده تحویل</t>
+  </si>
+  <si>
+    <t>Ver todas las entregas</t>
+  </si>
+  <si>
+    <t>البحث المتقدم</t>
+  </si>
+  <si>
+    <t>جستجوی پیشرفته</t>
+  </si>
+  <si>
+    <t>Búsqueda avanzada</t>
+  </si>
+  <si>
+    <t>نوعية المعلومات</t>
+  </si>
+  <si>
+    <t>دسته بندی اطلاعات</t>
+  </si>
+  <si>
+    <t>Categorías de datos</t>
+  </si>
+  <si>
+    <t>انظر معلومات المستفيد</t>
+  </si>
+  <si>
+    <t>دیدن اطلاعات ذینفع</t>
+  </si>
+  <si>
+    <t>Ver datos del beneficiario</t>
+  </si>
+  <si>
+    <t>انظر معلومات التسليمات</t>
+  </si>
+  <si>
+    <t>دیدن اطلاعات  تحویل</t>
+  </si>
+  <si>
+    <t>Ver datos de entregas</t>
+  </si>
+  <si>
+    <t>تمكين المستفيد</t>
+  </si>
+  <si>
+    <t>فعال کردن  ذینفع</t>
+  </si>
+  <si>
+    <t>Habilitar beneficiario</t>
+  </si>
+  <si>
+    <t>تعطيل المستفيدين</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> غیر فعال کردن  ذینفع</t>
+  </si>
+  <si>
+    <t>Deshabilitar beneficiario</t>
+  </si>
+  <si>
+    <t>اختار المنهح</t>
+  </si>
+  <si>
+    <t>انتخاب روش</t>
+  </si>
+  <si>
+    <t>Elegir método</t>
+  </si>
+  <si>
+    <t>اختيارات التجاوز</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لغو گزینه </t>
+  </si>
+  <si>
+    <t>Anular opciones</t>
+  </si>
+  <si>
+    <t>اختيارات التسجيل</t>
+  </si>
+  <si>
+    <t>لغوثبت نام</t>
+  </si>
+  <si>
+    <t>Anular registro</t>
+  </si>
+  <si>
+    <t>اختيارات الاستحقاق</t>
+  </si>
+  <si>
+    <t>لغواستحقاق</t>
+  </si>
+  <si>
+    <t>Anular título</t>
+  </si>
+  <si>
+    <t>ابحث عن مستفيدين</t>
+  </si>
+  <si>
+    <t>جستجو برای ذینفع</t>
+  </si>
+  <si>
+    <t>Buscar beneficiarios</t>
+  </si>
+  <si>
+    <t>ابحث عن تسليمات</t>
+  </si>
+  <si>
+    <t>جستجو برای تحویل</t>
+  </si>
+  <si>
+    <t>Buscar entregas</t>
+  </si>
+  <si>
+    <t>مستفيد</t>
+  </si>
+  <si>
+    <t>ذینفع</t>
+  </si>
+  <si>
+    <t>Beneficiario/a</t>
+  </si>
+  <si>
+    <t>مستفيدين</t>
+  </si>
+  <si>
+    <t>Beneficiarios/as</t>
+  </si>
+  <si>
+    <t>تسليم</t>
+  </si>
+  <si>
+    <t>تسليمات</t>
+  </si>
+  <si>
+    <t>Entregas</t>
+  </si>
+  <si>
+    <t>موجود</t>
+  </si>
+  <si>
+    <t>مکتشف</t>
+  </si>
+  <si>
+    <t>Encontrado</t>
+  </si>
+  <si>
+    <t>البحث غير صحيح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جستجو نامعتبر </t>
+  </si>
+  <si>
+    <t>Búsqueda inválida</t>
+  </si>
+  <si>
+    <t>Distribution Name</t>
+  </si>
+  <si>
+    <t>اسم التوزيع</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> توزیع نام</t>
+  </si>
+  <si>
+    <t>Nombre de la distribución</t>
+  </si>
+  <si>
+    <t>Distribution ID</t>
+  </si>
+  <si>
+    <t>رقم التوزيع</t>
+  </si>
+  <si>
+    <t>شماره توزیع</t>
+  </si>
+  <si>
+    <t>ID de la distribución</t>
+  </si>
+  <si>
+    <t>اسم الحزمة</t>
+  </si>
+  <si>
+    <t>نام بسته</t>
+  </si>
+  <si>
+    <t>Nombre del artículo</t>
+  </si>
+  <si>
+    <t>وصف الحزمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شرح بسته</t>
+  </si>
+  <si>
+    <t>Descripción del artículo</t>
+  </si>
+  <si>
+    <t>رقم الحزمة</t>
+  </si>
+  <si>
+    <t>شماره بسته</t>
+  </si>
+  <si>
+    <t>ID del artículo</t>
+  </si>
+  <si>
+    <t>رمز المستفيد</t>
+  </si>
+  <si>
+    <t>کد ذینفع</t>
+  </si>
+  <si>
+    <t>Código de beneficiario</t>
+  </si>
+  <si>
+    <t>No Distributions</t>
+  </si>
+  <si>
+    <t>لا توزيعات</t>
+  </si>
+  <si>
+    <t>بدون توزیع</t>
+  </si>
+  <si>
+    <t>Sin distribuciones</t>
+  </si>
+  <si>
+    <t>تم انتهاك القيد</t>
+  </si>
+  <si>
+    <t>محدودیت نقض کرده است</t>
+  </si>
+  <si>
+    <t>Restricción incumplida</t>
+  </si>
+  <si>
+    <t>قيمة غير صالحة</t>
+  </si>
+  <si>
+    <t>مقدار نامعتبر است.</t>
+  </si>
+  <si>
+    <t>Inválido</t>
+  </si>
+  <si>
+    <t>القيمة المطلوبة غير متوفرة</t>
+  </si>
+  <si>
+    <t>مقدار مورد نیاز ارائه نشده است.</t>
+  </si>
+  <si>
+    <t>Dato requerido no proporcionado</t>
+  </si>
+  <si>
+    <t>استثناء أثناء التعبير المطلوب () راجع صفحة التسجيل</t>
+  </si>
+  <si>
+    <t>استثنا در حالی که ارزیابی های مورد نیاز () بیان است. ورود به سیستم کنسول را مشاهده کنید.</t>
+  </si>
+  <si>
+    <t>Excepción al evaluar la expresión requerido(). Ver consola de registro</t>
+  </si>
+  <si>
+    <t>استثناء أثناء تقييم القيد () راجع إلى صفحة التسجيل</t>
+  </si>
+  <si>
+    <t>استثنا در حالی که ارزیابی محدودیت () بیان است. ورود به سیستم کنسول را مشاهده کنید.</t>
+  </si>
+  <si>
+    <t>Excepción al evaluar la expresión restricción(). Ver consola de registro</t>
+  </si>
+  <si>
+    <t>إعتراف</t>
+  </si>
+  <si>
+    <t>تصدیق کردن</t>
+  </si>
+  <si>
+    <t>Confirmación</t>
+  </si>
+  <si>
+    <t>ارجع</t>
+  </si>
+  <si>
+    <t>بازگشت</t>
+  </si>
+  <si>
+    <t>Atrás</t>
+  </si>
+  <si>
+    <t>تالي</t>
+  </si>
+  <si>
+    <t>بعد</t>
+  </si>
+  <si>
+    <t>Siguiente</t>
+  </si>
+  <si>
+    <t>استمر</t>
+  </si>
+  <si>
+    <t>ادامه دهید</t>
+  </si>
+  <si>
+    <t>Continua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختار  </t>
+  </si>
+  <si>
+    <t>انتخاب گزینه</t>
+  </si>
+  <si>
+    <t>Elige una opción</t>
+  </si>
+  <si>
+    <t>سجل الموقع</t>
+  </si>
+  <si>
+    <t>ضبط محل سکونت</t>
+  </si>
+  <si>
+    <t>Grabar ubicación</t>
+  </si>
+  <si>
+    <t>Altitud</t>
+  </si>
+  <si>
+    <t>Precisión</t>
+  </si>
+  <si>
+    <t>الرجاء أن تنتظر</t>
+  </si>
+  <si>
+    <t>لطفا صبر کنید…</t>
+  </si>
+  <si>
+    <t>Por favor, espera…</t>
+  </si>
+  <si>
+    <t>سجل الفيديو</t>
+  </si>
+  <si>
+    <t>ضبط فیلم</t>
+  </si>
+  <si>
+    <t>Graba un vídeo</t>
+  </si>
+  <si>
+    <t>اختار الفيديو</t>
+  </si>
+  <si>
+    <t>انتخاب ویدئو</t>
+  </si>
+  <si>
+    <t>Elige un vídeo</t>
+  </si>
+  <si>
+    <t>ضوابط الفيديو غير معتمدة</t>
+  </si>
+  <si>
+    <t>کنترل های ویدئویی پشتیبانی نمی شوند.</t>
+  </si>
+  <si>
+    <t>No soporta control de video</t>
+  </si>
+  <si>
+    <t>سجل الصوت</t>
+  </si>
+  <si>
+    <t>ضبط صدا</t>
+  </si>
+  <si>
+    <t>Captura audio</t>
+  </si>
+  <si>
+    <t>اختار الصوت</t>
+  </si>
+  <si>
+    <t>انتخاب صوتی</t>
+  </si>
+  <si>
+    <t>Elige audio</t>
+  </si>
+  <si>
+    <t>ضوابط الصوت غير معتمدة</t>
+  </si>
+  <si>
+    <t>کنترل های صوتی پشتیبانی نمی شود.</t>
+  </si>
+  <si>
+    <t>No soporta control de audio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">لا  </t>
+  </si>
+  <si>
+    <t>خیر</t>
+  </si>
+  <si>
+    <t>نعم</t>
+  </si>
+  <si>
+    <t>بله</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>ادخل إلى الرابط</t>
+  </si>
+  <si>
+    <t>دنبال لینک</t>
+  </si>
+  <si>
+    <t>Sigue el enlace</t>
+  </si>
+  <si>
+    <t>الانتهاء</t>
+  </si>
+  <si>
+    <t>نهایی</t>
+  </si>
+  <si>
+    <t>Finalizar</t>
+  </si>
+  <si>
+    <t>غير كامل</t>
+  </si>
+  <si>
+    <t>ناقص</t>
+  </si>
+  <si>
+    <t>Incompleto</t>
+  </si>
+  <si>
+    <t>تصوير</t>
+  </si>
+  <si>
+    <t>عکس گرفتن</t>
+  </si>
+  <si>
+    <t>Haz una foto</t>
+  </si>
+  <si>
+    <t>اختار الصورة</t>
+  </si>
+  <si>
+    <t>انتخاب تصویر</t>
+  </si>
+  <si>
+    <t>Elige una imagen</t>
+  </si>
+  <si>
+    <t>إطلاق القصد</t>
+  </si>
+  <si>
+    <t>قصد راه اندازی</t>
+  </si>
+  <si>
+    <t>Lanzamiento de intención</t>
+  </si>
+  <si>
+    <t>اذهب إلى الموجه التالي</t>
+  </si>
+  <si>
+    <t>برو به موقع بعدی</t>
+  </si>
+  <si>
+    <t>Ir al siguiente</t>
+  </si>
+  <si>
+    <t>اللغة</t>
+  </si>
+  <si>
+    <t>زبان</t>
+  </si>
+  <si>
+    <t>Idioma</t>
+  </si>
+  <si>
+    <t>المحتويات</t>
+  </si>
+  <si>
+    <t>فهرست</t>
+  </si>
+  <si>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t>تجاهل التغييرات + الخروج</t>
+  </si>
+  <si>
+    <t>نادیده گرفتن تغییرات + خروج</t>
+  </si>
+  <si>
+    <t>Ignorar cambios y salir</t>
+  </si>
+  <si>
+    <t>احفظ التغييرات + الخروج</t>
+  </si>
+  <si>
+    <t>ذخیره تغییرات و خروج</t>
+  </si>
+  <si>
+    <t>Guardar cambios y salir</t>
+  </si>
+  <si>
+    <t>انتهي التغييرات + الخروج</t>
+  </si>
+  <si>
+    <t>نهایی تغییرات + خروج</t>
+  </si>
+  <si>
+    <t>Finalizar cambios y salir</t>
+  </si>
+  <si>
+    <t>أوكي</t>
+  </si>
+  <si>
+    <t>خوب</t>
+  </si>
+  <si>
+    <t>أخر</t>
+  </si>
+  <si>
+    <t>دیگر:</t>
+  </si>
+  <si>
+    <t>Otro</t>
+  </si>
+  <si>
+    <t>إلغاء</t>
+  </si>
+  <si>
+    <t>از حالت انتخاب خارج</t>
+  </si>
+  <si>
+    <t>Deseleccioanr</t>
+  </si>
+  <si>
+    <t>سجل التوقيع</t>
+  </si>
+  <si>
+    <t>مطلع امضا</t>
+  </si>
+  <si>
+    <t>Recoger firma</t>
+  </si>
+  <si>
+    <t>إنشاء حتة جديدة</t>
+  </si>
+  <si>
+    <t>درست نمونه جدید</t>
+  </si>
+  <si>
+    <t>Crear nueva instancia</t>
+  </si>
+  <si>
+    <t>الحتات غير محفوظة</t>
+  </si>
+  <si>
+    <t>هیچ موردی را نجات داد</t>
+  </si>
+  <si>
+    <t>Instancias no guardadas</t>
+  </si>
+  <si>
+    <t>تاريخ أخر حفظ</t>
+  </si>
+  <si>
+    <t>تاریخ و زمان آخرین ذخیره تاریخ عضویت:</t>
+  </si>
+  <si>
+    <t>Última fecha guardada</t>
+  </si>
+  <si>
+    <t>الحتات المنشؤة سابقا</t>
+  </si>
+  <si>
+    <t>پیش از موارد ایجاد شده:</t>
+  </si>
+  <si>
+    <t>Instancias creadas previamente</t>
+  </si>
+  <si>
+    <t>المنتهية</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>نقط التفتيش</t>
+  </si>
+  <si>
+    <t>پاسگاه</t>
+  </si>
+  <si>
+    <t>Puesto de control</t>
+  </si>
+  <si>
+    <t>خط العرض  {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>عرض جغرافیایی:  {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>Latitud: {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>خط الطول: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>عرض جغرافیایی: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>Longitud: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>الارتفاع: {{value.altitude}}</t>
+  </si>
+  <si>
+    <t>ارتفاع: {{value.altitude}}</t>
+  </si>
+  <si>
+    <t>الدقة: {{value.accuracy}}</t>
+  </si>
+  <si>
+    <t>دقت: {{value.accuracy}}</t>
+  </si>
+  <si>
+    <t>text.arabic</t>
+  </si>
+  <si>
+    <t>text.farsi</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Χρήστη</t>
+  </si>
+  <si>
+    <t>Ανακούφιση από καταστροφές</t>
+  </si>
+  <si>
+    <t>Εγγραφή</t>
+  </si>
+  <si>
+    <t>Διανομή</t>
+  </si>
+  <si>
+    <t>Προβολή δεδομένων</t>
+  </si>
+  <si>
+    <t>Διαχειριστής παρακάμπτει</t>
+  </si>
+  <si>
+    <t>Εγγραφή Κωδικού Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Επαληθεύστε τον Κωδικό Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Αυτός ο δικαιούχος είναι απενεργοποιημένος</t>
+  </si>
+  <si>
+    <t>Ο σαρωμένος κωδικός δεν βρέθηκε στο σύστημα</t>
+  </si>
+  <si>
+    <t>Διαθέσιμος γραμμικός κώδικας</t>
+  </si>
+  <si>
+    <t>Έγινε εντοπισμός του γραμμωτού κώδικα κουπονιών</t>
+  </si>
+  <si>
+    <t>Barcode Μη διαθέσιμο</t>
+  </si>
+  <si>
+    <t>Ο σαρωμένος δικαιούχος είναι ήδη κατάλληλος για αυτήν τη διανομή</t>
+  </si>
+  <si>
+    <t>Δικαιούχος για παράκαμψη</t>
+  </si>
+  <si>
+    <t>Η παράκαμψη δημιουργήθηκε με επιτυχία</t>
+  </si>
+  <si>
+    <t>Προβολή λεπτομερειών διανομής</t>
+  </si>
+  <si>
+    <t>Σάρωση γραμμωτού κώδικα</t>
+  </si>
+  <si>
+    <t>Εισάγω</t>
+  </si>
+  <si>
+    <t>Δεν εντοπίστηκε Ενεργός Δικαιούχος</t>
+  </si>
+  <si>
+    <t>Δεν εντοπίστηκε δικαιούχος με αναπηρία</t>
+  </si>
+  <si>
+    <t>Εισαγάγετε τον Κωδικό Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Ενεργοί Δικαιούχοι</t>
+  </si>
+  <si>
+    <t>Οι δικαιούχοι με ειδικές ανάγκες</t>
+  </si>
+  <si>
+    <t>Δεδομένα Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Δεδομένα παράδοσης</t>
+  </si>
+  <si>
+    <t>Κατάλογος δικαιούχων</t>
+  </si>
+  <si>
+    <t>Προβολή όλων των παραδόσεων</t>
+  </si>
+  <si>
+    <t>Προχωρημένη Αναζήτηση</t>
+  </si>
+  <si>
+    <t>Κατηγορίες δεδομένων</t>
+  </si>
+  <si>
+    <t>Προβολή δεδομένων δικαιούχου</t>
+  </si>
+  <si>
+    <t>Προβολή δεδομένων παράδοσης</t>
+  </si>
+  <si>
+    <t>Ενεργοποίηση του Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Απενεργοποιήστε τον Δικαιούχο</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Μέθοδο</t>
+  </si>
+  <si>
+    <t>Επιλογές παράκαμψης</t>
+  </si>
+  <si>
+    <t>Αντικατάσταση εγγραφής</t>
+  </si>
+  <si>
+    <t>Παράκαμψη του Δικαιώματος</t>
+  </si>
+  <si>
+    <t>Αναζήτηση δικαιούχων</t>
+  </si>
+  <si>
+    <t>Αναζήτηση για παραδόσεις</t>
+  </si>
+  <si>
+    <t>δικαιούχος</t>
+  </si>
+  <si>
+    <t>Δικαιούχοι</t>
+  </si>
+  <si>
+    <t>διανομή</t>
+  </si>
+  <si>
+    <t>Παραδόσεις</t>
+  </si>
+  <si>
+    <t>βρέθηκαν</t>
+  </si>
+  <si>
+    <t>Μη έγκυρη αναζήτηση</t>
+  </si>
+  <si>
+    <t>Όνομα διανομής</t>
+  </si>
+  <si>
+    <t>Αναγνωριστικό διανομής</t>
+  </si>
+  <si>
+    <t>Όνομα πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>Περιγραφή πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>Αναγνωριστικό πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>Κωδικός Δικαιούχου</t>
+  </si>
+  <si>
+    <t>Καμία διανομή</t>
+  </si>
+  <si>
+    <t>Παραβιάστηκε ο περιορισμός.</t>
+  </si>
+  <si>
+    <t>Μη έγκυρη τιμή.</t>
+  </si>
+  <si>
+    <t>Απαιτούμενη τιμή δεν παρέχεται.</t>
+  </si>
+  <si>
+    <t>Εξαίρεση κατά την αξιολόγηση της απαιτούμενης () έκφρασης. Δείτε το αρχείο καταγραφής κονσόλας.</t>
+  </si>
+  <si>
+    <t>Εξαίρεση κατά την αξιολόγηση της έκφρασης περιορισμού (). Δείτε το αρχείο καταγραφής κονσόλας.</t>
+  </si>
+  <si>
+    <t>Αναγνωρίζω</t>
+  </si>
+  <si>
+    <t>Πίσω</t>
+  </si>
+  <si>
+    <t>Επόμενος</t>
+  </si>
+  <si>
+    <t>Να συνεχίσει</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Επιλογή</t>
+  </si>
+  <si>
+    <t>Η απαιτούμενη τιμή δεν δόθηκε.</t>
+  </si>
+  <si>
+    <t>Τοποθεσία εγγραφής</t>
+  </si>
+  <si>
+    <t>Γεωγραφικό πλάτος:</t>
+  </si>
+  <si>
+    <t>Γεωγραφικό μήκος:</t>
+  </si>
+  <si>
+    <t>Υψόμετρο:</t>
+  </si>
+  <si>
+    <t>Ακρίβεια:</t>
+  </si>
+  <si>
+    <t>Παρακαλώ περιμένετε…</t>
+  </si>
+  <si>
+    <t>Βγάλτε βίντεο</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Βίντεο</t>
+  </si>
+  <si>
+    <t>Τα στοιχεία ελέγχου βίντεο δεν υποστηρίζονται.</t>
+  </si>
+  <si>
+    <t>Συλλογή ήχου</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Ήχο</t>
+  </si>
+  <si>
+    <t>Τα στοιχεία ελέγχου ήχου δεν υποστηρίζονται.</t>
+  </si>
+  <si>
+    <t>ΟΧΙ</t>
+  </si>
+  <si>
+    <t>ΝΑΙ</t>
+  </si>
+  <si>
+    <t>Ακολουθήστε το σύνδεσμο</t>
+  </si>
+  <si>
+    <t>Οριστικοποιώ</t>
+  </si>
+  <si>
+    <t>Ατελής</t>
+  </si>
+  <si>
+    <t>Βγάλε φωτογραφία</t>
+  </si>
+  <si>
+    <t>Επιλέξτε Εικόνα</t>
+  </si>
+  <si>
+    <t>Ξεκινήστε την πρόθεση</t>
+  </si>
+  <si>
+    <t>Μεταβείτε στην επόμενη ερώτηση</t>
+  </si>
+  <si>
+    <t>Γλώσσα</t>
+  </si>
+  <si>
+    <t>Περιεχόμενα</t>
+  </si>
+  <si>
+    <t>Αγνόηση αλλαγών + Έξοδος</t>
+  </si>
+  <si>
+    <t>Αποθήκευση αλλαγών + Έξοδος</t>
+  </si>
+  <si>
+    <t>Ολοκλήρωση αλλαγών + Έξοδος</t>
+  </si>
+  <si>
+    <t>Εντάξει</t>
+  </si>
+  <si>
+    <t>Άλλα:</t>
+  </si>
+  <si>
+    <t>Αποεπιλέξτε</t>
+  </si>
+  <si>
+    <t>Πάρτε Υπογραφή</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε νέα παρουσία</t>
+  </si>
+  <si>
+    <t>Δεν υπάρχουν αποθηκευμένες παρουσίες.</t>
+  </si>
+  <si>
+    <t>Τελευταία ημερομηνία αποθήκευσης:</t>
+  </si>
+  <si>
+    <t>Προηγούμενες εμφανίσεις:</t>
+  </si>
+  <si>
+    <t>Ολοκληρώθηκε</t>
+  </si>
+  <si>
+    <t>Σημείο ελέγχου</t>
+  </si>
+  <si>
+    <t>Δημιουργήστε νέο παράδειγμα</t>
+  </si>
+  <si>
+    <t>text.greek</t>
+  </si>
+  <si>
+    <t>display.locale.text.greek</t>
+  </si>
+  <si>
+    <t>display.locale.text.arabic</t>
+  </si>
+  <si>
+    <t>display.locale.text.farsi</t>
+  </si>
+  <si>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>Farsi</t>
+  </si>
+  <si>
+    <t>arabic</t>
+  </si>
+  <si>
+    <t>farsi</t>
+  </si>
+  <si>
+    <t>display.title.text.greek</t>
+  </si>
+  <si>
+    <t>display.title.text.arabic</t>
+  </si>
+  <si>
+    <t>display.title.text.farsi</t>
+  </si>
+  <si>
+    <t>view_household_data</t>
+  </si>
+  <si>
+    <t>View Household Data</t>
+  </si>
+  <si>
+    <t>active_households</t>
+  </si>
+  <si>
+    <t>Active Households</t>
+  </si>
+  <si>
+    <t>disabled_households</t>
+  </si>
+  <si>
+    <t>Disabled Households</t>
+  </si>
+  <si>
+    <t>search_members</t>
+  </si>
+  <si>
+    <t>search_households</t>
+  </si>
+  <si>
+    <t>Beneficiary Advanced Search</t>
+  </si>
+  <si>
+    <t>Household Advanced Search</t>
+  </si>
+  <si>
     <t>barcode_button_label</t>
   </si>
   <si>
@@ -922,67 +2086,104 @@
     <t>Integer value expected</t>
   </si>
   <si>
-    <t>no_authorizations</t>
-  </si>
-  <si>
-    <t>No Authorizations</t>
-  </si>
-  <si>
-    <t>framework_variant</t>
-  </si>
-  <si>
-    <t>registration</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('registration')</t>
-  </si>
-  <si>
-    <t>'?' + odkSurvey.getHashString('deliveries')</t>
-  </si>
-  <si>
-    <t>Deliveries</t>
-  </si>
-  <si>
-    <t>search_beneficiaries</t>
+    <t>Escanear Código de Barras</t>
+  </si>
+  <si>
+    <t>Valor numérico esperado</t>
+  </si>
+  <si>
+    <t>Valor entero esperado</t>
+  </si>
+  <si>
+    <t>Αναμενόμενη αριθμητική τιμή</t>
+  </si>
+  <si>
+    <t>Αναμενόμενη τιμή ακέραιας</t>
+  </si>
+  <si>
+    <t>delivery_site</t>
+  </si>
+  <si>
+    <t>household_size</t>
+  </si>
+  <si>
+    <t>tent_caravan</t>
+  </si>
+  <si>
+    <t>Delivery Site</t>
+  </si>
+  <si>
+    <t>Household Size</t>
+  </si>
+  <si>
+    <t>Tent/Caravan Code</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>household_head</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Household Head</t>
+  </si>
+  <si>
+    <t>Vulnerability Critieria</t>
+  </si>
+  <si>
+    <t>view_registration_data</t>
+  </si>
+  <si>
+    <t>View Registration Data</t>
+  </si>
+  <si>
+    <t>registration_data</t>
+  </si>
+  <si>
+    <t>Registration Data</t>
+  </si>
+  <si>
+    <t>household</t>
+  </si>
+  <si>
+    <t>households</t>
+  </si>
+  <si>
+    <t>search_households_title</t>
+  </si>
+  <si>
+    <t>Search for Households</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>View</t>
+  </si>
+  <si>
+    <t>select_group</t>
+  </si>
+  <si>
+    <t>Please Select Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF212121"/>
-      <name val="Inherit"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -996,6 +2197,20 @@
       <u/>
       <sz val="10"/>
       <color theme="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1020,12 +2235,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1034,17 +2249,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1518,14 +2735,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
-      <c r="B9" s="8" t="s">
-        <v>295</v>
+      <c r="B9" s="4" t="s">
+        <v>256</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -1543,14 +2760,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
-      <c r="B12" s="8" t="s">
-        <v>296</v>
+      <c r="B12" s="4" t="s">
+        <v>257</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -1574,513 +2791,1243 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+    <col min="2" max="2" width="49.5" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" style="5" customWidth="1"/>
+    <col min="4" max="6" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C4" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>36</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C6" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>39</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>557</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C8" s="5" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="C9" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>44</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C10" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>47</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C11" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C12" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C13" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>53</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B14" t="s">
         <v>54</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C14" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C15" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>57</v>
       </c>
-      <c r="C12" t="s">
+      <c r="B16" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C16" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>59</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B17" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C17" s="7" t="s">
+        <v>567</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="B18" t="s">
+        <v>304</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>62</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B19" t="s">
         <v>63</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C19" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="B20" t="s">
         <v>65</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C20" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>66</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B21" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C21" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>68</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B22" t="s">
         <v>69</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C22" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="52" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="B23" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C23" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>72</v>
       </c>
-      <c r="C17" t="s">
+      <c r="B24" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C24" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>74</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B25" t="s">
         <v>75</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C25" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="B26" t="s">
         <v>77</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C26" s="5" t="s">
+        <v>576</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>78</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B27" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C27" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>80</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C28" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C29" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C30" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="B31" t="s">
         <v>87</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C31" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="B32" t="s">
         <v>89</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C32" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="B33" t="s">
         <v>91</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C33" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="B34" t="s">
         <v>93</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C34" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="B35" t="s">
         <v>95</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C35" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="B36" t="s">
         <v>97</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C36" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="B37" t="s">
         <v>99</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C37" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C38" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="B39" t="s">
         <v>103</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C39" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>259</v>
+      </c>
+      <c r="B40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
+      <c r="C40" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>105</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B41" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="C41" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>107</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B42" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="B43" t="s">
+        <v>108</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>109</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B44" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="B45" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>111</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B46" t="s">
+        <v>111</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C47" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B48" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B49" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
+      <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C50" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
+      <c r="B51" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C51" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>298</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B52" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
+      <c r="C52" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B53" s="2" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>125</v>
-      </c>
-      <c r="B43" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>126</v>
-      </c>
-      <c r="B44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>128</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>129</v>
-      </c>
-      <c r="B47" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A49" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A50" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A51" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A52" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C53" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>292</v>
+        <v>253</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="F55" s="8"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>690</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>691</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>692</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>696</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>704</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>706</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -2091,52 +4038,64 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" t="s">
-        <v>147</v>
-      </c>
-      <c r="F1" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" t="s">
-        <v>149</v>
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>663</v>
       </c>
       <c r="H1" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I1" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" t="s">
+        <v>654</v>
+      </c>
+      <c r="K1" t="s">
+        <v>655</v>
+      </c>
+      <c r="L1" t="s">
+        <v>656</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="N1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -2144,13 +4103,17 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -2158,109 +4121,179 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="I3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="I4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="I5" t="s">
-        <v>161</v>
-      </c>
-      <c r="J5" t="b">
+        <v>138</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
+        <v>138</v>
+      </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
+      <c r="M5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F7" t="s">
-        <v>163</v>
-      </c>
-      <c r="G7" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="H7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F8" t="s">
-        <v>167</v>
-      </c>
-      <c r="G8" t="s">
-        <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="I7" t="s">
+        <v>142</v>
+      </c>
+      <c r="J7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>659</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>171</v>
-      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>657</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>660</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>173</v>
-      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>293</v>
+        <v>658</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2286,13 +4319,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2300,10 +4333,10 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2311,10 +4344,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2325,483 +4358,1148 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="B87 A1"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
       <c r="B1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>653</v>
+      </c>
+      <c r="D1" t="s">
+        <v>550</v>
+      </c>
+      <c r="E1" t="s">
+        <v>551</v>
+      </c>
+      <c r="F1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>606</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" t="s">
+        <v>160</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>175</v>
+      </c>
+      <c r="B14" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>177</v>
+      </c>
+      <c r="B15" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>179</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B16" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="C16" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>181</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B17" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="C17" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>183</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B18" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
+      <c r="C18" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>185</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B19" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
+      <c r="C19" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>187</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
+      <c r="C20" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>189</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B21" t="s">
         <v>190</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C21" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
+      <c r="B22" t="s">
         <v>192</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C22" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="B23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
+      <c r="C23" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>195</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B24" t="s">
         <v>196</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C24" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
+      <c r="B25" t="s">
         <v>198</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C25" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="B26" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
+      <c r="C26" s="5" t="s">
+        <v>629</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>201</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B27" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
+      <c r="C27" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>203</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B28" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>205</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B29" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>207</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B30" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
+      <c r="C30" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>209</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B31" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
+      <c r="C31" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>211</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B33" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
+      <c r="C33" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>213</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B34" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
+      <c r="C34" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>215</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B35" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="C35" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>217</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B36" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>219</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B37" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="C37" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>221</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B38" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="C38" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>223</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B39" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
+      <c r="C39" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>225</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B40" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
+      <c r="C40" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>227</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B41" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
+      <c r="C41" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>229</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B42" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
+      <c r="C42" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>231</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B43" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
+      <c r="C43" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>233</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B44" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
+      <c r="C44" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>235</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B45" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
+      <c r="C45" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>237</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B46" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
+      <c r="C46" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>239</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B47" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
+      <c r="C47" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>241</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B48" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
+      <c r="C48" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>243</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B49" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
+      <c r="C49" s="5" t="s">
+        <v>648</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>245</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B50" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
+      <c r="C50" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>247</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B51" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="409" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
+      <c r="C51" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B52" t="s">
+        <v>210</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
+      <c r="B53" t="s">
         <v>251</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C53" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>253</v>
-      </c>
-      <c r="B38" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>255</v>
-      </c>
-      <c r="B39" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>257</v>
-      </c>
-      <c r="B40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>259</v>
-      </c>
-      <c r="B41" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>261</v>
-      </c>
-      <c r="B42" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>263</v>
-      </c>
-      <c r="B43" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>265</v>
-      </c>
-      <c r="B44" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" t="s">
-        <v>268</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>270</v>
-      </c>
-      <c r="B46" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>272</v>
-      </c>
-      <c r="B47" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>274</v>
-      </c>
-      <c r="B48" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>276</v>
-      </c>
-      <c r="B49" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>278</v>
-      </c>
-      <c r="B50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
-        <v>280</v>
-      </c>
-      <c r="B51" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>282</v>
-      </c>
-      <c r="B52" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>283</v>
-      </c>
-      <c r="B53" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>285</v>
-      </c>
       <c r="B54" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>286</v>
-      </c>
-      <c r="B55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>287</v>
-      </c>
-      <c r="B56" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>289</v>
-      </c>
-      <c r="B57" t="s">
-        <v>290</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D55" s="5"/>
+      <c r="F55" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="D56" s="5"/>
+      <c r="F56" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="D57" s="5"/>
+      <c r="F57" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+    </row>
+    <row r="65" spans="3:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="3:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="3:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="3:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="199">
   <si>
     <t xml:space="preserve">comments</t>
   </si>
@@ -56,7 +56,10 @@
     <t xml:space="preserve">display.hint.text</t>
   </si>
   <si>
-    <t xml:space="preserve">exit section</t>
+    <t xml:space="preserve">note</t>
+  </si>
+  <si>
+    <t xml:space="preserve">framework</t>
   </si>
   <si>
     <t xml:space="preserve">setting_name</t>
@@ -81,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">table_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">framework</t>
   </si>
   <si>
     <t xml:space="preserve">form_id</t>
@@ -804,8 +804,8 @@
   </sheetPr>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -849,8 +849,11 @@
       <c r="I1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="17.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -965,36 +968,36 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G1" s="0" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -1006,7 +1009,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1166,7 +1169,7 @@
   </sheetPr>
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B20" activeCellId="0" sqref="B20"/>
     </sheetView>
   </sheetViews>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,27 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maegan/Documents/app-designer/app/config/assets/framework/forms/framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="26740" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
     <sheet name="survey" sheetId="1" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
     <sheet name="choices" sheetId="6" r:id="rId4"/>
+    <sheet name="framework_translations" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -30,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="235">
   <si>
     <t>comments</t>
   </si>
@@ -50,9 +48,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -77,18 +72,12 @@
     <t>The title of the 'survey' section (a.k.a. form title)</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
     <t>clause</t>
   </si>
   <si>
     <t>do section survey</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>condition</t>
   </si>
   <si>
@@ -233,102 +222,27 @@
     <t>Choose a test form (there are many)</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/agriculture/forms/agriculture/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/geotagger/forms/geotagger/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/breathcounter/forms/breathcounter/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/complex_validate_test/forms/complex_validate_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/customAppearance/forms/customAppearance/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/exampleForm/forms/exampleForm/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/imnci/forms/imnci_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/refrigerators/forms/refrigerators_init/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/refrigerators/forms/refrigerators_update/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/section_test/forms/section_test/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/selects/forms/selects/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/twoColumn/forms/twoColumn/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/gridScreen/forms/gridScreen/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/adult_coverage/forms/adult_coverage/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/child_coverage/forms/child_coverage/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/graphExample/forms/graphExample/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/visit/forms/visit/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/plot/forms/plot/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/geoweather/forms/geoweather/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/send_sms/forms/send_sms/',null)</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/eonasdan/forms/eonasdan/',null)</t>
-  </si>
-  <si>
     <t>table_id</t>
   </si>
   <si>
     <t>household</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/household/forms/household/',null)</t>
-  </si>
-  <si>
     <t>screenClient</t>
   </si>
   <si>
     <t>Screen Female Client</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/screenClient/',null)</t>
-  </si>
-  <si>
     <t>client6Week</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Week/',null)</t>
-  </si>
-  <si>
     <t>Client 6 Week</t>
   </si>
   <si>
     <t>client6Month</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/femaleClients/forms/client6Month/',null)</t>
-  </si>
-  <si>
     <t>Client 6 Month</t>
   </si>
   <si>
@@ -338,32 +252,506 @@
     <t>Screen Partner</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/screenPartner/',null)</t>
-  </si>
-  <si>
     <t>partner6Month</t>
   </si>
   <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/maleClients/forms/partner6Month/',null)</t>
-  </si>
-  <si>
     <t>Partner 6 Month</t>
   </si>
   <si>
-    <t>health_facility</t>
-  </si>
-  <si>
-    <t>'?' + opendatakit.getHashString('../config/tables/health_facility/forms/health_facility/',null)</t>
-  </si>
-  <si>
-    <t>Health Facility</t>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>acknLabel</t>
+  </si>
+  <si>
+    <t>Acknowledge</t>
+  </si>
+  <si>
+    <t>स्वीकार करना</t>
+  </si>
+  <si>
+    <t>Deselect</t>
+  </si>
+  <si>
+    <t>अचयनित</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Choose Option</t>
+  </si>
+  <si>
+    <t>requiredValueErr</t>
+  </si>
+  <si>
+    <t>Required value was not provided.</t>
+  </si>
+  <si>
+    <t>सामान्य जावास्क्रिप्ट फ़्रेमवर्क</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>English (as hindi name)</t>
+  </si>
+  <si>
+    <t>hindi</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
+    <t>Hindi (as hindi name)</t>
+  </si>
+  <si>
+    <t>constraint_message</t>
+  </si>
+  <si>
+    <t>invalid_value_message</t>
+  </si>
+  <si>
+    <t>required_message</t>
+  </si>
+  <si>
+    <t>Constraint violated.</t>
+  </si>
+  <si>
+    <t>Invalid value.</t>
+  </si>
+  <si>
+    <t>Required value not provided.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception while evaluating required() expression. See console log. </t>
+  </si>
+  <si>
+    <t>required_exception_message</t>
+  </si>
+  <si>
+    <t>Exception while evaluating constraint() expression. See console log.</t>
+  </si>
+  <si>
+    <t>constraint_exception_message</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>text.hindi</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
+  </si>
+  <si>
+    <t>display.title.text.hindi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hindi</t>
+  </si>
+  <si>
+    <t>Record Location</t>
+  </si>
+  <si>
+    <t>geopoint_button_label</t>
+  </si>
+  <si>
+    <t>Latitude: {{value.latitude}}</t>
+  </si>
+  <si>
+    <t>Longitude: {{value.longitude}}</t>
+  </si>
+  <si>
+    <t>Altitude: {{value.altitude}}</t>
+  </si>
+  <si>
+    <t>Accuracy: {{value.accuracy}}</t>
+  </si>
+  <si>
+    <t>geopoint_latitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_longitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_altitude_component</t>
+  </si>
+  <si>
+    <t>geopoint_accuracy_component</t>
+  </si>
+  <si>
+    <t>waiting_text</t>
+  </si>
+  <si>
+    <t>Please wait…</t>
+  </si>
+  <si>
+    <t>take_video_button_label</t>
+  </si>
+  <si>
+    <t>Take Video</t>
+  </si>
+  <si>
+    <t>choose_video_button_label</t>
+  </si>
+  <si>
+    <t>Choose Video</t>
+  </si>
+  <si>
+    <t>video_control_not_supported</t>
+  </si>
+  <si>
+    <t>Video controls are not supported.</t>
+  </si>
+  <si>
+    <t>take_audio_button_label</t>
+  </si>
+  <si>
+    <t>Capture Audio</t>
+  </si>
+  <si>
+    <t>choose_audio_button_label</t>
+  </si>
+  <si>
+    <t>Choose Audio</t>
+  </si>
+  <si>
+    <t>audio_control_not_supported</t>
+  </si>
+  <si>
+    <t>Audio controls are not supported.</t>
+  </si>
+  <si>
+    <t>confirm_action_no_label</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>confirm_action_yes_label</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>back_button_label</t>
+  </si>
+  <si>
+    <t>next_button_label</t>
+  </si>
+  <si>
+    <t>continue_button_label</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Follow link</t>
+  </si>
+  <si>
+    <t>external_link_button_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;You are at the end of instance: &lt;/p&gt;&lt;p&gt;"{{display_field}}"&lt;/p&gt;&lt;hr&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;&lt;center&gt;ODK Survey&lt;/center&gt;&lt;hr&gt;&lt;/div&gt;&lt;div&gt;&lt;p&gt;Form name: {{localizeText form_title}}&lt;/p&gt;{{#if form_version}}&lt;p&gt;Form version: {{form_version}}&lt;/p&gt;{{/if}}&lt;hr&gt;&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>finalize_survey_instance_detail</t>
+  </si>
+  <si>
+    <t>finalize_survey_button_label</t>
+  </si>
+  <si>
+    <t>Finalize</t>
+  </si>
+  <si>
+    <t>save_as_incomplete_survey_button_label</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>take_image_button_label</t>
+  </si>
+  <si>
+    <t>choose_image_button_label</t>
+  </si>
+  <si>
+    <t>Choose Image</t>
+  </si>
+  <si>
+    <t>Take Photo</t>
+  </si>
+  <si>
+    <t>launch_intent_button_label</t>
+  </si>
+  <si>
+    <t>Launch Intent</t>
+  </si>
+  <si>
+    <t>survey_form_identification</t>
+  </si>
+  <si>
+    <t>opening_survey_instance_detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     {{#if display_field}}
+        &lt;p&gt;You are at the start of instance: &lt;/p&gt;
+        &lt;p&gt;"{{display_field}}"&lt;/p&gt; 
+  {{else}}
+        &lt;p&gt;You are at the start of a new instance.&lt;/p&gt;
+  {{/if}}
+        &lt;hr&gt;
+        {{#if last_save_date}}
+            &lt;p&gt;Last saved:&lt;/p&gt; 
+            &lt;p&gt;{{last_save_date}}&lt;/p&gt;
+        {{/if}}
+        &lt;hr&gt;
+</t>
+  </si>
+  <si>
+    <t>opening_survey_next_button_label</t>
+  </si>
+  <si>
+    <t>Go to next prompt</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>options_popup_contents_heading</t>
+  </si>
+  <si>
+    <t>options_popup_language_heading</t>
+  </si>
+  <si>
+    <t>Contents</t>
+  </si>
+  <si>
+    <t>options_popup_ignore_changes_heading</t>
+  </si>
+  <si>
+    <t>Ignore Changes + Exit</t>
+  </si>
+  <si>
+    <t>options_popup_save_changes_heading</t>
+  </si>
+  <si>
+    <t>Save Changes + Exit</t>
+  </si>
+  <si>
+    <t>options_popup_finalize_changes_heading</t>
+  </si>
+  <si>
+    <t>Finalize Changes + Exit</t>
+  </si>
+  <si>
+    <t>screen_popup_ok_button_label</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>select_with_other_other_label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other: </t>
+  </si>
+  <si>
+    <t>select_deselect_label</t>
+  </si>
+  <si>
+    <t>select_one_dropdown_label</t>
+  </si>
+  <si>
+    <t>take_signature_button_label</t>
+  </si>
+  <si>
+    <t>instances_survey_create_button_label</t>
+  </si>
+  <si>
+    <t>Create new instance</t>
+  </si>
+  <si>
+    <t>instances_no_saved_instances_label</t>
+  </si>
+  <si>
+    <t>No saved instances.</t>
+  </si>
+  <si>
+    <t>instances_last_save_date_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Last Save Date:&lt;/strong&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>instances_previously_created_instances_label</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Previously created instances:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Finalized</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>savepoint_type_finalized_text_label</t>
+  </si>
+  <si>
+    <t>savepoint_type_incomplete_text_label</t>
+  </si>
+  <si>
+    <t>savepoint_type_checkpoint_text_label</t>
+  </si>
+  <si>
+    <t>linked_table_new_instance_label</t>
+  </si>
+  <si>
+    <t>barcode_button_label</t>
+  </si>
+  <si>
+    <t>Get Signature</t>
+  </si>
+  <si>
+    <t>Scan Barcode</t>
+  </si>
+  <si>
+    <t>आगामी</t>
+  </si>
+  <si>
+    <t>लौटना</t>
+  </si>
+  <si>
+    <t>जारी रहना</t>
+  </si>
+  <si>
+    <t>display.title.text.english</t>
+  </si>
+  <si>
+    <t>display.locale.text.english</t>
+  </si>
+  <si>
+    <t>english</t>
+  </si>
+  <si>
+    <t>invalid_numeric_message</t>
+  </si>
+  <si>
+    <t>Numeric value expected</t>
+  </si>
+  <si>
+    <t>Integer value expected</t>
+  </si>
+  <si>
+    <t>invalid_integer_message</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('agriculture')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('geotagger')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('breathcounter')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('complex_validate_test')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('customAppearance')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('exampleForm')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('household')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('imnci','imnci_test')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('refrigerators','refrigerators_init')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('refrigerators','refrigerators_update')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('section_test')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('selects')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('twoColumn')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('gridScreen')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('adult_coverage')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('child_coverage')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('graphExample')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('visit')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('plot')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('geoweather')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('send_sms')</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('eonasdan')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients', 'screenClient')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients','client6Week')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('femaleClients', 'client6Month')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('maleClients', 'screenPartner')</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('maleClients','partner6Month')</t>
+  </si>
+  <si>
+    <t>framework_variant</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -386,6 +774,13 @@
       <color theme="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -497,7 +892,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -510,6 +905,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="91">
@@ -610,6 +1011,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -904,1284 +1308,1810 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.875" customWidth="1"/>
+    <col min="2" max="2" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="101.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="2" max="2" width="101.125" customWidth="1"/>
+    <col min="3" max="3" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="46.125" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.875" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
+    <col min="9" max="9" width="22.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="E3" t="s">
+      <c r="F3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="H5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>67</v>
+        <v>205</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>68</v>
+        <v>206</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>69</v>
+        <v>207</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>71</v>
+        <v>209</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
-        <v>72</v>
+        <v>210</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
-        <v>73</v>
+        <v>212</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>213</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>214</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>216</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
-        <v>78</v>
+        <v>217</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
-        <v>81</v>
+        <v>220</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
-        <v>82</v>
+        <v>221</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
-        <v>83</v>
+        <v>222</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
-        <v>84</v>
+        <v>223</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
-        <v>85</v>
+        <v>224</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
-        <v>86</v>
+        <v>225</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
-        <v>87</v>
+        <v>226</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G72" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
-        <v>93</v>
+        <v>227</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
-        <v>95</v>
+        <v>228</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
-        <v>98</v>
+        <v>229</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G81" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="3"/>
-      <c r="B90" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E90" t="s">
-        <v>39</v>
-      </c>
-      <c r="G90" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="41.1640625" customWidth="1"/>
+    <col min="3" max="6" width="24.625" customWidth="1"/>
+    <col min="7" max="7" width="41.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>18</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="28" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
       <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="b">
+        <v>87</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="16" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C3" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="C5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A17" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A19" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" t="s">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="C21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="C20" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A21" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C23" t="s">
         <v>62</v>
       </c>
-      <c r="C22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="C24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="C27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29" t="s">
-        <v>108</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="49.75" customWidth="1"/>
+    <col min="2" max="2" width="73.25" customWidth="1"/>
+    <col min="3" max="3" width="17.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>176</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>123</v>
+      </c>
+      <c r="B20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B24" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>145</v>
+      </c>
+      <c r="B29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>159</v>
+      </c>
+      <c r="B37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B41" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>169</v>
+      </c>
+      <c r="B42" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>171</v>
+      </c>
+      <c r="B43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>180</v>
+      </c>
+      <c r="B48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>184</v>
+      </c>
+      <c r="B50" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>188</v>
+      </c>
+      <c r="B51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>189</v>
+      </c>
+      <c r="B52" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>201</v>
+      </c>
+      <c r="B56" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/appGreece/config/assets/framework/forms/framework/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/assets/framework/forms/framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3520" yWindow="1260" windowWidth="27160" windowHeight="26060" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="30220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="choices" sheetId="5" r:id="rId5"/>
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$77</definedName>
+  </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="713">
   <si>
     <t>comments</t>
   </si>
@@ -235,12 +238,6 @@
     <t>Enter</t>
   </si>
   <si>
-    <t>no_active_beneficiary</t>
-  </si>
-  <si>
-    <t>No Active Beneficiary Detected</t>
-  </si>
-  <si>
     <t>no_disabled_beneficiary</t>
   </si>
   <si>
@@ -251,12 +248,6 @@
   </si>
   <si>
     <t>Please Enter Beneficiary Code</t>
-  </si>
-  <si>
-    <t>active_beneficiaries_title</t>
-  </si>
-  <si>
-    <t>Active Beneficiaries</t>
   </si>
   <si>
     <t>disabled_beneficiaries_title</t>
@@ -2047,27 +2038,15 @@
     <t>View Household Data</t>
   </si>
   <si>
-    <t>active_households</t>
-  </si>
-  <si>
-    <t>Active Households</t>
-  </si>
-  <si>
     <t>disabled_households</t>
   </si>
   <si>
     <t>Disabled Households</t>
   </si>
   <si>
-    <t>search_members</t>
-  </si>
-  <si>
     <t>search_households</t>
   </si>
   <si>
-    <t>Beneficiary Advanced Search</t>
-  </si>
-  <si>
     <t>Household Advanced Search</t>
   </si>
   <si>
@@ -2171,6 +2150,45 @@
   </si>
   <si>
     <t>Please Select Group</t>
+  </si>
+  <si>
+    <t>disabled_beneficiaries</t>
+  </si>
+  <si>
+    <t>Enabled Beneficiaries</t>
+  </si>
+  <si>
+    <t>Enabled Households</t>
+  </si>
+  <si>
+    <t>enabled_households</t>
+  </si>
+  <si>
+    <t>enabled_beneficiaries</t>
+  </si>
+  <si>
+    <t>Individual Advanced Search</t>
+  </si>
+  <si>
+    <t>search_individuals</t>
+  </si>
+  <si>
+    <t>Beneficiaries Advanced Search</t>
+  </si>
+  <si>
+    <t>no_enabled_beneficiary</t>
+  </si>
+  <si>
+    <t>No Enabled Beneficiary Detected</t>
+  </si>
+  <si>
+    <t>enabled_beneficiaries_title</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>individuals</t>
   </si>
 </sst>
 </file>
@@ -2735,14 +2753,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2760,14 +2778,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2791,10 +2809,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2813,13 +2831,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -2833,16 +2851,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2853,16 +2871,16 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2873,13 +2891,13 @@
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>32</v>
@@ -2893,13 +2911,13 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>35</v>
@@ -2913,16 +2931,16 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2933,16 +2951,16 @@
         <v>39</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2953,16 +2971,16 @@
         <v>41</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2973,16 +2991,16 @@
         <v>43</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -2993,13 +3011,13 @@
         <v>45</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>46</v>
@@ -3013,16 +3031,16 @@
         <v>48</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -3033,16 +3051,16 @@
         <v>50</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3053,16 +3071,16 @@
         <v>52</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3073,16 +3091,16 @@
         <v>54</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -3093,16 +3111,16 @@
         <v>56</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3113,16 +3131,16 @@
         <v>58</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3133,16 +3151,16 @@
         <v>60</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3150,19 +3168,19 @@
         <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3173,16 +3191,16 @@
         <v>63</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3193,493 +3211,493 @@
         <v>65</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>66</v>
+        <v>708</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>709</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>710</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>701</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B33" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>35</v>
@@ -3687,350 +3705,391 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>666</v>
+        <v>703</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>701</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>670</v>
+        <v>711</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>671</v>
+        <v>712</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>686</v>
+        <v>706</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>690</v>
+      <c r="A67" s="2" t="s">
+        <v>664</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>693</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>691</v>
+      <c r="A68" s="2" t="s">
+        <v>255</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>694</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>692</v>
+      <c r="A69" s="2" t="s">
+        <v>676</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>695</v>
+        <v>679</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>696</v>
+      <c r="A70" s="2" t="s">
+        <v>677</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>697</v>
+        <v>680</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>704</v>
+      <c r="A71" s="2" t="s">
+        <v>678</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>707</v>
+        <v>685</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>683</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>684</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>688</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>696</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>698</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>699</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F77"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4048,54 +4107,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>657</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="H1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="H1" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" t="s">
-        <v>129</v>
-      </c>
       <c r="J1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4110,10 +4169,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4126,41 +4185,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4169,27 +4228,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="I7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="J7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="L7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4198,24 +4257,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4224,24 +4283,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4250,24 +4309,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4276,24 +4335,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4319,13 +4378,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4333,7 +4392,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -4344,10 +4403,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C3" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -4378,13 +4437,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D1" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="E1" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4392,530 +4451,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4924,10 +4983,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4936,42 +4995,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4982,70 +5041,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B35" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5054,367 +5113,367 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B38" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B39" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B40" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B41" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B43" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B44" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B47" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>63</v>
@@ -5424,37 +5483,37 @@
       </c>
       <c r="D55" s="5"/>
       <c r="F55" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="30220" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="30220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="714">
   <si>
     <t>comments</t>
   </si>
@@ -2170,9 +2170,6 @@
     <t>Individual Advanced Search</t>
   </si>
   <si>
-    <t>search_individuals</t>
-  </si>
-  <si>
     <t>Beneficiaries Advanced Search</t>
   </si>
   <si>
@@ -2189,6 +2186,12 @@
   </si>
   <si>
     <t>individuals</t>
+  </si>
+  <si>
+    <t>search_beneficiaries_title</t>
+  </si>
+  <si>
+    <t>search_individuals_title</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +2815,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3225,10 +3228,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>707</v>
+      </c>
+      <c r="B21" t="s">
         <v>708</v>
-      </c>
-      <c r="B21" t="s">
-        <v>709</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>567</v>
@@ -3285,7 +3288,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B24" t="s">
         <v>701</v>
@@ -3962,18 +3965,18 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3986,7 +3989,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>694</v>
+        <v>664</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>695</v>
@@ -3994,7 +3997,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>705</v>
@@ -4002,7 +4005,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>664</v>
+        <v>694</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>665</v>
@@ -4010,10 +4013,10 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>255</v>
+        <v>712</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="10000" windowHeight="30220" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="7460" windowWidth="41600" windowHeight="17540" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$78</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="716">
   <si>
     <t>comments</t>
   </si>
@@ -2170,6 +2170,9 @@
     <t>Individual Advanced Search</t>
   </si>
   <si>
+    <t>search_individuals</t>
+  </si>
+  <si>
     <t>Beneficiaries Advanced Search</t>
   </si>
   <si>
@@ -2186,6 +2189,9 @@
   </si>
   <si>
     <t>individuals</t>
+  </si>
+  <si>
+    <t>Search for Individuals</t>
   </si>
   <si>
     <t>search_beneficiaries_title</t>
@@ -2812,10 +2818,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F77"/>
+  <dimension ref="A1:F78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3228,10 +3234,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B21" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>567</v>
@@ -3288,7 +3294,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B24" t="s">
         <v>701</v>
@@ -3965,18 +3971,18 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3997,102 +4003,110 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>694</v>
+        <v>715</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>665</v>
+        <v>705</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>706</v>
+        <v>665</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>679</v>
+        <v>707</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B72" s="2" t="s">
         <v>681</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>682</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>696</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>698</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B78" s="2" t="s">
         <v>699</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F77"/>
+  <autoFilter ref="A1:F78"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="7460" windowWidth="41600" windowHeight="17540" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="4620" yWindow="4420" windowWidth="41600" windowHeight="17540" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -154,22 +154,10 @@
     <t>View Data</t>
   </si>
   <si>
-    <t>override_path</t>
-  </si>
-  <si>
-    <t>Administrator Overrides</t>
-  </si>
-  <si>
     <t>registration_title</t>
   </si>
   <si>
-    <t>Register Beneficiary Code</t>
-  </si>
-  <si>
     <t>delivery_title</t>
-  </si>
-  <si>
-    <t>Verify Beneficiary Code</t>
   </si>
   <si>
     <t>disabled_beneficiary_notification</t>
@@ -2199,12 +2187,24 @@
   <si>
     <t>search_individuals_title</t>
   </si>
+  <si>
+    <t>administrator_path</t>
+  </si>
+  <si>
+    <t>Administrator Options</t>
+  </si>
+  <si>
+    <t>Register Beneficiary Entity</t>
+  </si>
+  <si>
+    <t>Deliver to Beneficiary Entity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2242,13 +2242,26 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2267,7 +2280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2291,6 +2304,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2762,14 +2779,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2787,14 +2804,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2818,10 +2835,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F78"/>
+  <dimension ref="A1:G78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B66" sqref="B66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2832,7 +2849,7 @@
     <col min="4" max="6" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -2840,19 +2857,19 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -2860,19 +2877,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -2880,19 +2897,19 @@
         <v>29</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -2900,19 +2917,19 @@
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -2920,19 +2937,19 @@
         <v>34</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2940,773 +2957,775 @@
         <v>37</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>712</v>
+      </c>
+      <c r="B7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>714</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>715</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D10" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="D11" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="5" t="s">
+      <c r="D12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="D13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>278</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D14" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>557</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="D15" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>560</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>561</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F16" s="8" t="s">
         <v>292</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>562</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B21" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B24" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B44" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F44" s="5" t="s">
         <v>35</v>
@@ -3714,395 +3733,395 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F55" s="8"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
   </sheetData>
@@ -4124,54 +4143,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="H1" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="I1" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="H1" t="s">
-        <v>124</v>
-      </c>
-      <c r="I1" t="s">
-        <v>125</v>
-      </c>
       <c r="J1" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="K1" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="L1" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4186,10 +4205,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4202,41 +4221,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="M5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4245,27 +4264,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="J7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4274,24 +4293,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4300,24 +4319,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4326,24 +4345,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4352,24 +4371,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -4395,13 +4414,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4409,7 +4428,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -4420,10 +4439,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -4454,13 +4473,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="D1" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E1" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4468,530 +4487,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -5000,10 +5019,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -5012,42 +5031,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5058,70 +5077,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5130,407 +5149,407 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B40" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B41" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B42" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B43" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B45" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B46" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B47" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B52" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B53" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D55" s="5"/>
       <c r="F55" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -20,7 +20,7 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$80</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="790" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="721">
   <si>
     <t>comments</t>
   </si>
@@ -308,12 +308,6 @@
   </si>
   <si>
     <t>Choose Method</t>
-  </si>
-  <si>
-    <t>override_options</t>
-  </si>
-  <si>
-    <t>Override Options</t>
   </si>
   <si>
     <t>override_registration</t>
@@ -2198,6 +2192,27 @@
   </si>
   <si>
     <t>Deliver to Beneficiary Entity</t>
+  </si>
+  <si>
+    <t>administrator_options</t>
+  </si>
+  <si>
+    <t>distribution</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>change_entitlement_status</t>
+  </si>
+  <si>
+    <t>Change Entitlement Status</t>
+  </si>
+  <si>
+    <t>create_new_entitlement</t>
+  </si>
+  <si>
+    <t>Create New Entitlement</t>
   </si>
 </sst>
 </file>
@@ -2779,14 +2794,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2804,14 +2819,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2835,10 +2850,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G78"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2857,13 +2872,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -2871,1261 +2886,1296 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>252</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>254</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>715</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>257</v>
-      </c>
+        <v>716</v>
+      </c>
+      <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>32</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>35</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>264</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>712</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>713</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>549</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="G7" s="12"/>
+        <v>34</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>714</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="G8" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>710</v>
       </c>
       <c r="B9" t="s">
-        <v>715</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>273</v>
-      </c>
+        <v>711</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>42</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>44</v>
+        <v>713</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>281</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>553</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="36" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>557</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="E15" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="B17" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>296</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>561</v>
+        <v>55</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>557</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>704</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s">
-        <v>705</v>
+        <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>703</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>706</v>
+        <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>697</v>
+        <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>695</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>338</v>
+        <v>329</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>570</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>81</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C34" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" t="s">
+        <v>85</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>339</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>82</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="D36" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="D33" s="5" t="s">
-        <v>342</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B34" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="D37" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="D38" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>714</v>
+      </c>
+      <c r="B39" t="s">
+        <v>711</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>577</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="D39" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>578</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>351</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="D40" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="D41" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>249</v>
+      </c>
+      <c r="B42" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>357</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" t="s">
+      <c r="D42" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="B43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>251</v>
-      </c>
-      <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="5" t="s">
+      <c r="D43" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>97</v>
+      </c>
+      <c r="B44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>363</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>97</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="D44" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>98</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>366</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="F41" s="5" t="s">
+      <c r="D45" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="F45" s="5" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>99</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B46" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="D46" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>100</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B47" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="F43" s="5" t="s">
+      <c r="D47" s="5" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="E47" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>101</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C48" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="D48" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>102</v>
       </c>
-      <c r="B45" t="s">
-        <v>102</v>
-      </c>
-      <c r="C45" s="5" t="s">
+      <c r="B49" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>375</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>588</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="D49" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="E49" s="5" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>104</v>
-      </c>
-      <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="F49" s="5" t="s">
         <v>380</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>389</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>381</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>385</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>387</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>398</v>
+        <v>389</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>390</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>403</v>
+        <v>110</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>404</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+        <v>395</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>657</v>
-      </c>
-      <c r="F55" s="8"/>
+        <v>112</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>400</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>699</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>698</v>
+        <v>243</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>659</v>
-      </c>
+        <v>654</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="F57" s="8"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>696</v>
+        <v>656</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>67</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>689</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>707</v>
+        <v>686</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>708</v>
+        <v>687</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>686</v>
+        <v>705</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>687</v>
+        <v>705</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>660</v>
+        <v>706</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>702</v>
+        <v>684</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>709</v>
+        <v>685</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>711</v>
+        <v>658</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>661</v>
+        <v>707</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>675</v>
+        <v>659</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>676</v>
+        <v>701</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>678</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>681</v>
-      </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>679</v>
+      <c r="A74" s="2" t="s">
+        <v>672</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>695</v>
+        <v>683</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>690</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>692</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>717</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>719</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>720</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F78"/>
+  <autoFilter ref="A1:F80"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4143,54 +4193,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="H1" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>655</v>
-      </c>
-      <c r="H1" t="s">
-        <v>120</v>
-      </c>
-      <c r="I1" t="s">
-        <v>121</v>
-      </c>
       <c r="J1" t="s">
+        <v>644</v>
+      </c>
+      <c r="K1" t="s">
+        <v>645</v>
+      </c>
+      <c r="L1" t="s">
         <v>646</v>
-      </c>
-      <c r="K1" t="s">
-        <v>647</v>
-      </c>
-      <c r="L1" t="s">
-        <v>648</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4205,10 +4255,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4221,41 +4271,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M5" t="s">
         <v>129</v>
-      </c>
-      <c r="C5" t="s">
-        <v>130</v>
-      </c>
-      <c r="D5" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" t="s">
-        <v>130</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>130</v>
-      </c>
-      <c r="M5" t="s">
-        <v>131</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4264,27 +4314,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
         <v>132</v>
       </c>
-      <c r="H7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I7" t="s">
-        <v>134</v>
-      </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4293,24 +4343,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4319,24 +4369,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4345,24 +4395,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4371,24 +4421,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -4414,13 +4464,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4428,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -4439,10 +4489,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -4473,13 +4523,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D1" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="E1" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4487,530 +4537,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>408</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>410</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D5" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>422</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>425</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>426</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>428</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>432</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>434</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>413</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>414</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>437</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>532</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>535</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>442</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="F19" s="5" t="s">
         <v>445</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D20" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>449</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D21" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F21" s="5" t="s">
         <v>451</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D22" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F22" s="5" t="s">
         <v>454</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>455</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F23" s="5" t="s">
         <v>457</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="F24" s="5" t="s">
         <v>460</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D26" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="F26" s="5" t="s">
         <v>465</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>466</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D27" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>468</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>469</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -5019,10 +5069,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -5031,42 +5081,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>471</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>472</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D31" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F31" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5077,70 +5127,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D33" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F33" s="5" t="s">
         <v>477</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>478</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B34" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D34" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="F34" s="5" t="s">
         <v>480</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D35" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>483</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>484</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5149,367 +5199,367 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D37" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>486</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>487</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D38" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>489</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D39" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>492</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B40" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D40" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>495</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D41" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="F41" s="5" t="s">
         <v>498</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D42" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D44" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D45" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D46" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F46" s="5" t="s">
         <v>512</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B47" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D47" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F47" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D48" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>517</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>518</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="F49" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>522</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B50" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D50" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="F50" s="5" t="s">
         <v>524</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B51" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D52" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="F52" s="5" t="s">
         <v>474</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D53" s="5" t="s">
+        <v>527</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="F53" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D54" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="F54" s="5" t="s">
         <v>515</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="10" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>59</v>
@@ -5519,37 +5569,37 @@
       </c>
       <c r="D55" s="5"/>
       <c r="F55" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="10" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4620" yWindow="4420" windowWidth="41600" windowHeight="17540" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$68</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="681">
   <si>
     <t>comments</t>
   </si>
@@ -350,36 +350,6 @@
   </si>
   <si>
     <t>Invalid Search</t>
-  </si>
-  <si>
-    <t>authorization_name</t>
-  </si>
-  <si>
-    <t>authorization_id</t>
-  </si>
-  <si>
-    <t>item_pack_name</t>
-  </si>
-  <si>
-    <t>Item Pack Name</t>
-  </si>
-  <si>
-    <t>item_pack_description</t>
-  </si>
-  <si>
-    <t>Item Pack Description</t>
-  </si>
-  <si>
-    <t>item_pack_id</t>
-  </si>
-  <si>
-    <t>Item Pack ID</t>
-  </si>
-  <si>
-    <t>beneficiary_code</t>
-  </si>
-  <si>
-    <t>Beneficiary Code</t>
   </si>
   <si>
     <t>setting_name</t>
@@ -1195,66 +1165,6 @@
     <t>Búsqueda inválida</t>
   </si>
   <si>
-    <t>Distribution Name</t>
-  </si>
-  <si>
-    <t>اسم التوزيع</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> توزیع نام</t>
-  </si>
-  <si>
-    <t>Nombre de la distribución</t>
-  </si>
-  <si>
-    <t>Distribution ID</t>
-  </si>
-  <si>
-    <t>رقم التوزيع</t>
-  </si>
-  <si>
-    <t>شماره توزیع</t>
-  </si>
-  <si>
-    <t>ID de la distribución</t>
-  </si>
-  <si>
-    <t>اسم الحزمة</t>
-  </si>
-  <si>
-    <t>نام بسته</t>
-  </si>
-  <si>
-    <t>Nombre del artículo</t>
-  </si>
-  <si>
-    <t>وصف الحزمة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> شرح بسته</t>
-  </si>
-  <si>
-    <t>Descripción del artículo</t>
-  </si>
-  <si>
-    <t>رقم الحزمة</t>
-  </si>
-  <si>
-    <t>شماره بسته</t>
-  </si>
-  <si>
-    <t>ID del artículo</t>
-  </si>
-  <si>
-    <t>رمز المستفيد</t>
-  </si>
-  <si>
-    <t>کد ذینفع</t>
-  </si>
-  <si>
-    <t>Código de beneficiario</t>
-  </si>
-  <si>
     <t>No Distributions</t>
   </si>
   <si>
@@ -1816,24 +1726,6 @@
     <t>Μη έγκυρη αναζήτηση</t>
   </si>
   <si>
-    <t>Όνομα διανομής</t>
-  </si>
-  <si>
-    <t>Αναγνωριστικό διανομής</t>
-  </si>
-  <si>
-    <t>Όνομα πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>Περιγραφή πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>Αναγνωριστικό πακέτου στοιχείου</t>
-  </si>
-  <si>
-    <t>Κωδικός Δικαιούχου</t>
-  </si>
-  <si>
     <t>Καμία διανομή</t>
   </si>
   <si>
@@ -2062,42 +1954,6 @@
     <t>Αναμενόμενη τιμή ακέραιας</t>
   </si>
   <si>
-    <t>delivery_site</t>
-  </si>
-  <si>
-    <t>household_size</t>
-  </si>
-  <si>
-    <t>tent_caravan</t>
-  </si>
-  <si>
-    <t>Delivery Site</t>
-  </si>
-  <si>
-    <t>Household Size</t>
-  </si>
-  <si>
-    <t>Tent/Caravan Code</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>household_head</t>
-  </si>
-  <si>
-    <t>vulnerability</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Household Head</t>
-  </si>
-  <si>
-    <t>Vulnerability Critieria</t>
-  </si>
-  <si>
     <t>view_registration_data</t>
   </si>
   <si>
@@ -2213,6 +2069,30 @@
   </si>
   <si>
     <t>Create New Entitlement</t>
+  </si>
+  <si>
+    <t>No Entitlements to Deliver</t>
+  </si>
+  <si>
+    <t>no_entitlements</t>
+  </si>
+  <si>
+    <t>Choose an Entitlement</t>
+  </si>
+  <si>
+    <t>choose_entitlement</t>
+  </si>
+  <si>
+    <t>Successfully Disabled!</t>
+  </si>
+  <si>
+    <t>disable_success</t>
+  </si>
+  <si>
+    <t>Successfully Enabled!</t>
+  </si>
+  <si>
+    <t>enable_success</t>
   </si>
 </sst>
 </file>
@@ -2295,7 +2175,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2315,7 +2195,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2794,14 +2673,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2826,7 +2705,7 @@
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2850,10 +2729,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2872,13 +2751,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -2886,7 +2765,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -2895,10 +2774,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>715</v>
+        <v>667</v>
       </c>
       <c r="B3" t="s">
-        <v>716</v>
+        <v>668</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2910,16 +2789,16 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>542</v>
+        <v>512</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2930,16 +2809,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>543</v>
+        <v>513</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2950,13 +2829,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>544</v>
+        <v>514</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
@@ -2970,13 +2849,13 @@
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>545</v>
+        <v>515</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
@@ -2990,78 +2869,78 @@
         <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>546</v>
+        <v>516</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>710</v>
+        <v>662</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>547</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="G9" s="12"/>
+        <v>663</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>712</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>548</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="G10" s="14"/>
+        <v>664</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>518</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>713</v>
+        <v>665</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>549</v>
+        <v>519</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -3072,13 +2951,13 @@
         <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>550</v>
+        <v>520</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>42</v>
@@ -3092,16 +2971,16 @@
         <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>551</v>
+        <v>521</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -3112,16 +2991,16 @@
         <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>552</v>
+        <v>522</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3132,16 +3011,16 @@
         <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>553</v>
+        <v>523</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3152,16 +3031,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>554</v>
+        <v>524</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -3172,16 +3051,16 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>555</v>
+        <v>525</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3192,16 +3071,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>556</v>
+        <v>526</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3212,16 +3091,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>557</v>
+        <v>527</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3229,19 +3108,19 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>558</v>
+        <v>528</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3252,16 +3131,16 @@
         <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>559</v>
+        <v>529</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3272,36 +3151,36 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>560</v>
+        <v>530</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>702</v>
+        <v>654</v>
       </c>
       <c r="B23" t="s">
-        <v>703</v>
+        <v>655</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>561</v>
+        <v>531</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3312,16 +3191,16 @@
         <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>562</v>
+        <v>532</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3332,36 +3211,36 @@
         <v>65</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>563</v>
+        <v>533</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="B26" t="s">
-        <v>695</v>
+        <v>647</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>564</v>
+        <v>534</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3372,16 +3251,16 @@
         <v>67</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>565</v>
+        <v>535</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3392,16 +3271,16 @@
         <v>69</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3412,16 +3291,16 @@
         <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3432,16 +3311,16 @@
         <v>73</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3452,16 +3331,16 @@
         <v>75</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>569</v>
+        <v>539</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3472,16 +3351,16 @@
         <v>77</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>570</v>
+        <v>540</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -3492,16 +3371,16 @@
         <v>79</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>571</v>
+        <v>541</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
@@ -3512,16 +3391,16 @@
         <v>81</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>572</v>
+        <v>542</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -3532,16 +3411,16 @@
         <v>83</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -3552,16 +3431,16 @@
         <v>85</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>574</v>
+        <v>544</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -3572,16 +3451,16 @@
         <v>87</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>575</v>
+        <v>545</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -3592,38 +3471,38 @@
         <v>89</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>714</v>
+        <v>666</v>
       </c>
       <c r="B39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>577</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="E39" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="G39" s="14"/>
+        <v>663</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>547</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
@@ -3633,16 +3512,16 @@
         <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -3653,36 +3532,36 @@
         <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B42" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -3693,16 +3572,16 @@
         <v>96</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>581</v>
+        <v>551</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -3713,16 +3592,16 @@
         <v>97</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>582</v>
+        <v>552</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -3733,16 +3612,16 @@
         <v>98</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -3753,13 +3632,13 @@
         <v>99</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>35</v>
@@ -3773,16 +3652,16 @@
         <v>100</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>585</v>
+        <v>555</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -3793,16 +3672,16 @@
         <v>101</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -3813,369 +3692,249 @@
         <v>103</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>587</v>
+        <v>557</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>104</v>
+        <v>233</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>588</v>
+        <v>558</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>383</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>384</v>
+        <v>373</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>105</v>
+        <v>618</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>589</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="F51" s="5" t="s">
-        <v>388</v>
-      </c>
+        <v>619</v>
+      </c>
+      <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>106</v>
+        <v>649</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>590</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="E52" s="5" t="s">
-        <v>390</v>
-      </c>
-      <c r="F52" s="5" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>591</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>394</v>
+        <v>621</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>110</v>
+        <v>650</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>592</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>646</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>400</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>594</v>
-      </c>
-      <c r="D56" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>404</v>
+        <v>638</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>655</v>
-      </c>
-      <c r="F57" s="8"/>
+        <v>639</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>697</v>
+        <v>657</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>696</v>
+        <v>657</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>698</v>
+        <v>636</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>695</v>
+        <v>637</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>694</v>
+        <v>622</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>67</v>
+        <v>641</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>686</v>
+        <v>659</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>687</v>
+        <v>661</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>687</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>705</v>
+        <v>640</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>706</v>
+        <v>660</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
-        <v>684</v>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>634</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>658</v>
+        <v>635</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>642</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>700</v>
+        <v>643</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>644</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>709</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>669</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>688</v>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>671</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="B72" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>680</v>
+      </c>
+      <c r="B71" t="s">
+        <v>679</v>
+      </c>
+      <c r="C71"/>
+      <c r="D71"/>
+      <c r="E71"/>
+      <c r="F71"/>
+    </row>
+    <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>678</v>
+      </c>
+      <c r="B72" t="s">
+        <v>677</v>
+      </c>
+      <c r="C72"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+    </row>
+    <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>676</v>
+      </c>
+      <c r="B73" t="s">
+        <v>675</v>
+      </c>
+      <c r="C73"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+    </row>
+    <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>674</v>
+      </c>
+      <c r="B74" t="s">
         <v>673</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>671</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>672</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>676</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>677</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>678</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>682</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>690</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>692</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>717</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>719</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>720</v>
-      </c>
+      <c r="C74"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F80"/>
+  <autoFilter ref="A1:F68"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
@@ -4193,54 +3952,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>651</v>
+        <v>615</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>652</v>
+        <v>616</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>653</v>
+        <v>617</v>
       </c>
       <c r="H1" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="I1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="J1" t="s">
-        <v>644</v>
+        <v>608</v>
       </c>
       <c r="K1" t="s">
-        <v>645</v>
+        <v>609</v>
       </c>
       <c r="L1" t="s">
-        <v>646</v>
+        <v>610</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4255,10 +4014,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4271,41 +4030,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="F5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M5" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4314,27 +4073,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="I7" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="J7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4343,24 +4102,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>649</v>
+        <v>613</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4369,24 +4128,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>647</v>
+        <v>611</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>650</v>
+        <v>614</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4395,24 +4154,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>648</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4421,24 +4180,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -4464,13 +4223,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4478,7 +4237,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -4492,7 +4251,7 @@
         <v>100</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -4523,13 +4282,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="D1" t="s">
-        <v>540</v>
+        <v>510</v>
       </c>
       <c r="E1" t="s">
-        <v>541</v>
+        <v>511</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4537,530 +4296,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>595</v>
+        <v>559</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>405</v>
+        <v>375</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>406</v>
+        <v>376</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>407</v>
+        <v>377</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>596</v>
+        <v>560</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>408</v>
+        <v>378</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>409</v>
+        <v>379</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>597</v>
+        <v>561</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>598</v>
+        <v>562</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>599</v>
+        <v>563</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>600</v>
+        <v>564</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>601</v>
+        <v>565</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>602</v>
+        <v>566</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>607</v>
+        <v>571</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>530</v>
+        <v>500</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>531</v>
+        <v>501</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>532</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>608</v>
+        <v>572</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>533</v>
+        <v>503</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>534</v>
+        <v>504</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>535</v>
+        <v>505</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>609</v>
+        <v>573</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>536</v>
+        <v>506</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>537</v>
+        <v>507</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>610</v>
+        <v>574</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>538</v>
+        <v>508</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>539</v>
+        <v>509</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>611</v>
+        <v>575</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>614</v>
+        <v>578</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>615</v>
+        <v>579</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>616</v>
+        <v>580</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B24" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>617</v>
+        <v>581</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>458</v>
+        <v>428</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>460</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="B25" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>618</v>
+        <v>582</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>619</v>
+        <v>583</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>463</v>
+        <v>433</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>465</v>
+        <v>435</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B27" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>620</v>
+        <v>584</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>466</v>
+        <v>436</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>467</v>
+        <v>437</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>468</v>
+        <v>438</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B28" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -5069,10 +4828,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -5081,42 +4840,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B30" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>621</v>
+        <v>585</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>469</v>
+        <v>439</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>471</v>
+        <v>441</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="B31" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5127,70 +4886,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>623</v>
+        <v>587</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>475</v>
+        <v>445</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>476</v>
+        <v>446</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>477</v>
+        <v>447</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>624</v>
+        <v>588</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>478</v>
+        <v>448</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>479</v>
+        <v>449</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>480</v>
+        <v>450</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>481</v>
+        <v>451</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>482</v>
+        <v>452</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>483</v>
+        <v>453</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -5199,369 +4958,369 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>484</v>
+        <v>454</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>485</v>
+        <v>455</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>486</v>
+        <v>456</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B38" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>487</v>
+        <v>457</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>488</v>
+        <v>458</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>489</v>
+        <v>459</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B39" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>628</v>
+        <v>592</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>490</v>
+        <v>460</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>491</v>
+        <v>461</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>492</v>
+        <v>462</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B40" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>629</v>
+        <v>593</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>493</v>
+        <v>463</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>494</v>
+        <v>464</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>495</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B41" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>630</v>
+        <v>594</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>496</v>
+        <v>466</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>497</v>
+        <v>467</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>498</v>
+        <v>468</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>631</v>
+        <v>595</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>500</v>
+        <v>470</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>501</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>632</v>
+        <v>596</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>502</v>
+        <v>472</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>503</v>
+        <v>473</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>633</v>
+        <v>597</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>504</v>
+        <v>474</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>505</v>
+        <v>475</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>506</v>
+        <v>476</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>634</v>
+        <v>598</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>507</v>
+        <v>477</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>508</v>
+        <v>478</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>509</v>
+        <v>479</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B46" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>635</v>
+        <v>599</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>510</v>
+        <v>480</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>511</v>
+        <v>481</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>512</v>
+        <v>482</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>636</v>
+        <v>600</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>637</v>
+        <v>601</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>516</v>
+        <v>486</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>517</v>
+        <v>487</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>518</v>
+        <v>488</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>638</v>
+        <v>602</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>519</v>
+        <v>489</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>520</v>
+        <v>490</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>521</v>
+        <v>491</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="B50" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>639</v>
+        <v>603</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>522</v>
+        <v>492</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>524</v>
+        <v>494</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="B51" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>640</v>
+        <v>604</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>525</v>
+        <v>495</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>470</v>
+        <v>440</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>526</v>
+        <v>496</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="B52" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>622</v>
+        <v>586</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>473</v>
+        <v>443</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>474</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B53" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>528</v>
+        <v>498</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>529</v>
+        <v>499</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B54" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>642</v>
+        <v>606</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>514</v>
+        <v>484</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>515</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="10" t="s">
-        <v>660</v>
-      </c>
-      <c r="B55" s="10" t="s">
+      <c r="A55" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C55" s="5" t="s">
@@ -5569,37 +5328,37 @@
       </c>
       <c r="D55" s="5"/>
       <c r="F55" t="s">
-        <v>665</v>
+        <v>629</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="10" t="s">
-        <v>661</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>662</v>
+      <c r="A56" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>626</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>668</v>
+        <v>632</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" t="s">
-        <v>666</v>
+        <v>630</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="10" t="s">
-        <v>663</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>664</v>
+      <c r="A57" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>628</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>669</v>
+        <v>633</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" t="s">
-        <v>667</v>
+        <v>631</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="677">
   <si>
     <t>comments</t>
   </si>
@@ -230,12 +230,6 @@
   </si>
   <si>
     <t>No Disabled Beneficiary Detected</t>
-  </si>
-  <si>
-    <t>enter_beneficiary_code</t>
-  </si>
-  <si>
-    <t>Please Enter Beneficiary Code</t>
   </si>
   <si>
     <t>disabled_beneficiaries_title</t>
@@ -904,18 +898,6 @@
     <t>Anulación creada satisfactoriamente</t>
   </si>
   <si>
-    <t>View Distribution Details</t>
-  </si>
-  <si>
-    <t>انظر تفاصيل التوزيع</t>
-  </si>
-  <si>
-    <t>جزئیات نمایش توزیع</t>
-  </si>
-  <si>
-    <t>Ver detalles de la distribución</t>
-  </si>
-  <si>
     <t>مسح الباركود</t>
   </si>
   <si>
@@ -952,15 +934,6 @@
     <t>Detectado beneficiario no desactivado</t>
   </si>
   <si>
-    <t>الرجاء إدخال رمز المستفيد</t>
-  </si>
-  <si>
-    <t xml:space="preserve">لطفا کد ذینفع را وارد کنید </t>
-  </si>
-  <si>
-    <t>Por favor introduce el código del beneficiario</t>
-  </si>
-  <si>
     <t>المستفيدين النشطين</t>
   </si>
   <si>
@@ -1636,9 +1609,6 @@
     <t>Η παράκαμψη δημιουργήθηκε με επιτυχία</t>
   </si>
   <si>
-    <t>Προβολή λεπτομερειών διανομής</t>
-  </si>
-  <si>
     <t>Σάρωση γραμμωτού κώδικα</t>
   </si>
   <si>
@@ -1651,9 +1621,6 @@
     <t>Δεν εντοπίστηκε δικαιούχος με αναπηρία</t>
   </si>
   <si>
-    <t>Εισαγάγετε τον Κωδικό Δικαιούχου</t>
-  </si>
-  <si>
     <t>Ενεργοί Δικαιούχοι</t>
   </si>
   <si>
@@ -2093,6 +2060,27 @@
   </si>
   <si>
     <t>enable_success</t>
+  </si>
+  <si>
+    <t>Authorization Details</t>
+  </si>
+  <si>
+    <t>authorization_details</t>
+  </si>
+  <si>
+    <t>choose_authorization</t>
+  </si>
+  <si>
+    <t>Choose Authorization</t>
+  </si>
+  <si>
+    <t>View Authorization Details</t>
+  </si>
+  <si>
+    <t>enter_beneficiary_entity_id</t>
+  </si>
+  <si>
+    <t>Enter Beneficiary Entity ID</t>
   </si>
 </sst>
 </file>
@@ -2673,14 +2661,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="B9" s="4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E9" t="s">
         <v>21</v>
@@ -2698,14 +2686,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="B12" s="4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E12" t="s">
         <v>21</v>
@@ -2729,10 +2717,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2751,13 +2739,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>25</v>
@@ -2765,7 +2753,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -2774,10 +2762,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B3" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2789,16 +2777,16 @@
         <v>27</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D4" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -2809,16 +2797,16 @@
         <v>29</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>243</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -2829,13 +2817,13 @@
         <v>31</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>32</v>
@@ -2849,13 +2837,13 @@
         <v>34</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>35</v>
@@ -2869,36 +2857,36 @@
         <v>37</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>251</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
       <c r="B9" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D9" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>255</v>
       </c>
       <c r="G9" s="11"/>
     </row>
@@ -2907,19 +2895,19 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D10" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="12" t="s">
         <v>256</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>257</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>258</v>
       </c>
       <c r="G10" s="13"/>
     </row>
@@ -2928,19 +2916,19 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="D11" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>259</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -2951,13 +2939,13 @@
         <v>41</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>42</v>
@@ -2971,16 +2959,16 @@
         <v>44</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>264</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2991,16 +2979,16 @@
         <v>46</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>267</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -3011,16 +2999,16 @@
         <v>48</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>270</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -3031,16 +3019,16 @@
         <v>50</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
@@ -3051,16 +3039,16 @@
         <v>52</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D17" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>275</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3071,16 +3059,16 @@
         <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3091,16 +3079,16 @@
         <v>56</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>281</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3108,19 +3096,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>284</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>287</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3131,16 +3107,16 @@
         <v>59</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3151,36 +3127,36 @@
         <v>61</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="B23" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3191,454 +3167,442 @@
         <v>63</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>675</v>
       </c>
       <c r="B25" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>533</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>302</v>
+        <v>676</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>656</v>
+        <v>645</v>
       </c>
       <c r="B26" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>666</v>
+        <v>655</v>
       </c>
       <c r="B39" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F39" s="12" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G39" s="13"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B45" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F46" s="5" t="s">
         <v>35</v>
@@ -3646,251 +3610,251 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>618</v>
+        <v>607</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>619</v>
+        <v>608</v>
       </c>
       <c r="F51" s="8"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>649</v>
+        <v>638</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>648</v>
+        <v>637</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>647</v>
+        <v>636</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>646</v>
+        <v>635</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>638</v>
+        <v>627</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>639</v>
+        <v>628</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>658</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>636</v>
+        <v>625</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>637</v>
+        <v>626</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>641</v>
+        <v>630</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>659</v>
+        <v>648</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>661</v>
+        <v>650</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>640</v>
+        <v>629</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>623</v>
+        <v>612</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>660</v>
+        <v>649</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>634</v>
+        <v>623</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>635</v>
+        <v>624</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>642</v>
+        <v>631</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>643</v>
+        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>644</v>
+        <v>633</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>645</v>
+        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>669</v>
+        <v>658</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>670</v>
+        <v>659</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>671</v>
+        <v>660</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>672</v>
+        <v>661</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>680</v>
+        <v>669</v>
       </c>
       <c r="B71" t="s">
-        <v>679</v>
+        <v>668</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -3899,10 +3863,10 @@
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>678</v>
+        <v>667</v>
       </c>
       <c r="B72" t="s">
-        <v>677</v>
+        <v>666</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -3911,10 +3875,10 @@
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>676</v>
+        <v>665</v>
       </c>
       <c r="B73" t="s">
-        <v>675</v>
+        <v>664</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -3923,15 +3887,31 @@
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>674</v>
+        <v>663</v>
       </c>
       <c r="B74" t="s">
-        <v>673</v>
+        <v>662</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74"/>
       <c r="F74"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>671</v>
+      </c>
+      <c r="B75" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>672</v>
+      </c>
+      <c r="B76" t="s">
+        <v>673</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:F68"/>
@@ -3952,54 +3932,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="H1" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" t="s">
-        <v>109</v>
-      </c>
       <c r="J1" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
       <c r="K1" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="L1" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4014,10 +3994,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4030,41 +4010,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="M5" t="s">
         <v>117</v>
-      </c>
-      <c r="C5" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G5" t="s">
-        <v>118</v>
-      </c>
-      <c r="M5" t="s">
-        <v>119</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4073,27 +4053,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" t="s">
         <v>120</v>
       </c>
-      <c r="H7" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" t="s">
-        <v>122</v>
-      </c>
       <c r="J7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4102,24 +4082,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>613</v>
+        <v>602</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4128,24 +4108,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>614</v>
+        <v>603</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -4154,24 +4134,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>612</v>
+        <v>601</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -4180,24 +4160,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -4223,13 +4203,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -4237,7 +4217,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C2" t="s">
         <v>31</v>
@@ -4248,10 +4228,10 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>
@@ -4282,13 +4262,13 @@
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>607</v>
+        <v>596</v>
       </c>
       <c r="D1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="E1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F1" t="s">
         <v>25</v>
@@ -4296,530 +4276,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>567</v>
+        <v>556</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>568</v>
+        <v>557</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>505</v>
+        <v>496</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B19" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B25" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -4828,10 +4808,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -4840,42 +4820,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -4886,70 +4866,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B34" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="F35" s="8" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -4958,367 +4938,367 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B40" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B41" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B48" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>491</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>603</v>
+        <v>592</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>494</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>604</v>
+        <v>593</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B54" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>606</v>
+        <v>595</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>485</v>
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>624</v>
+        <v>613</v>
       </c>
       <c r="B55" s="9" t="s">
         <v>59</v>
@@ -5328,37 +5308,37 @@
       </c>
       <c r="D55" s="5"/>
       <c r="F55" t="s">
-        <v>629</v>
+        <v>618</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
       <c r="D56" s="5"/>
       <c r="F56" t="s">
-        <v>630</v>
+        <v>619</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>627</v>
+        <v>616</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>628</v>
+        <v>617</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>633</v>
+        <v>622</v>
       </c>
       <c r="D57" s="5"/>
       <c r="F57" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="685">
   <si>
     <t>comments</t>
   </si>
@@ -2081,6 +2081,30 @@
   </si>
   <si>
     <t>Enter Beneficiary Entity ID</t>
+  </si>
+  <si>
+    <t>choose_authorization_name</t>
+  </si>
+  <si>
+    <t>Choose Authorization Name</t>
+  </si>
+  <si>
+    <t>administrator_reset_succeeded</t>
+  </si>
+  <si>
+    <t>Administrator Reset Succeeded</t>
+  </si>
+  <si>
+    <t>administrator_reset_failed</t>
+  </si>
+  <si>
+    <t>Administrator Reset Failed</t>
+  </si>
+  <si>
+    <t>trigger_reset</t>
+  </si>
+  <si>
+    <t>Trigger Reset</t>
   </si>
 </sst>
 </file>
@@ -2717,10 +2741,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G76"/>
+  <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A68" sqref="A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3911,6 +3935,38 @@
       </c>
       <c r="B76" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>677</v>
+      </c>
+      <c r="B77" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>679</v>
+      </c>
+      <c r="B78" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>681</v>
+      </c>
+      <c r="B79" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>683</v>
+      </c>
+      <c r="B80" t="s">
+        <v>684</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="22220" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="7300" yWindow="2560" windowWidth="38400" windowHeight="22220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -1972,12 +1972,6 @@
     <t>enabled_beneficiaries</t>
   </si>
   <si>
-    <t>Individual Advanced Search</t>
-  </si>
-  <si>
-    <t>search_individuals</t>
-  </si>
-  <si>
     <t>Beneficiaries Advanced Search</t>
   </si>
   <si>
@@ -1990,21 +1984,9 @@
     <t>enabled_beneficiaries_title</t>
   </si>
   <si>
-    <t>individual</t>
-  </si>
-  <si>
-    <t>individuals</t>
-  </si>
-  <si>
-    <t>Search for Individuals</t>
-  </si>
-  <si>
     <t>search_beneficiaries_title</t>
   </si>
   <si>
-    <t>search_individuals_title</t>
-  </si>
-  <si>
     <t>administrator_path</t>
   </si>
   <si>
@@ -2105,6 +2087,24 @@
   </si>
   <si>
     <t>Trigger Reset</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>members</t>
+  </si>
+  <si>
+    <t>search_members</t>
+  </si>
+  <si>
+    <t>Search for Members</t>
+  </si>
+  <si>
+    <t>search_members_title</t>
+  </si>
+  <si>
+    <t>Member Advanced Search</t>
   </si>
 </sst>
 </file>
@@ -2743,8 +2743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A68" sqref="A68"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
       <c r="B3" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2895,10 +2895,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
       <c r="B9" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>508</v>
@@ -2919,7 +2919,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>509</v>
@@ -2940,7 +2940,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>510</v>
@@ -3120,7 +3120,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3165,10 +3165,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B23" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>521</v>
@@ -3205,15 +3205,15 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B25" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B26" t="s">
         <v>636</v>
@@ -3473,10 +3473,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="B39" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>536</v>
@@ -3771,18 +3771,18 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>646</v>
+        <v>679</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3803,18 +3803,18 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>641</v>
+        <v>681</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>650</v>
+        <v>683</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>640</v>
+        <v>684</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3827,10 +3827,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3859,26 +3859,26 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
       <c r="B71" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -3887,10 +3887,10 @@
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="B72" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -3899,10 +3899,10 @@
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B73" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -3911,10 +3911,10 @@
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B74" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -3923,50 +3923,50 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="B75" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="B76" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="B77" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B78" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="B79" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B80" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10116"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewkarami/Programming/odk/app-designer/app/config/assets/framework/forms/framework/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4215" yWindow="1335" windowWidth="24297" windowHeight="17097" activeTab="3"/>
+    <workbookView xWindow="4220" yWindow="460" windowWidth="24300" windowHeight="16500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="241">
   <si>
     <t>comments</t>
   </si>
@@ -746,11 +746,29 @@
   <si>
     <t>display.title.text</t>
   </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>confirm_exit_label</t>
+  </si>
+  <si>
+    <t>confirm_cancel_label</t>
+  </si>
+  <si>
+    <t>confirm_message</t>
+  </si>
+  <si>
+    <t>Are you sure you want to exit and lose all changes?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -761,18 +779,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color theme="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -892,7 +913,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -911,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="91">
@@ -1305,20 +1329,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="26.875" customWidth="1"/>
-    <col min="2" max="2" width="20.875" customWidth="1"/>
+    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1350,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1342,25 +1366,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView topLeftCell="A80" workbookViewId="0">
       <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="101.125" customWidth="1"/>
-    <col min="3" max="3" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="46.125" customWidth="1"/>
+    <col min="2" max="2" width="101.1640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1640625" customWidth="1"/>
+    <col min="4" max="4" width="46.1640625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.875" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
     <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.125" customWidth="1"/>
+    <col min="9" max="9" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -1387,7 +1411,7 @@
       </c>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1420,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E3" t="s">
         <v>21</v>
       </c>
@@ -1407,13 +1431,13 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E5" t="s">
         <v>2</v>
       </c>
@@ -1424,23 +1448,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>205</v>
@@ -1452,20 +1476,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>206</v>
@@ -1477,20 +1501,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>207</v>
@@ -1502,20 +1526,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>39</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>208</v>
@@ -1527,20 +1551,20 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="3"/>
     </row>
-    <row r="21" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>209</v>
@@ -1552,19 +1576,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>210</v>
@@ -1576,19 +1600,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>211</v>
@@ -1600,19 +1624,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>212</v>
@@ -1624,19 +1648,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>213</v>
@@ -1648,19 +1672,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>214</v>
@@ -1672,19 +1696,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>215</v>
@@ -1696,19 +1720,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>216</v>
@@ -1720,19 +1744,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>217</v>
@@ -1744,19 +1768,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>218</v>
@@ -1768,19 +1792,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="4" t="s">
         <v>219</v>
@@ -1792,19 +1816,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="4" t="s">
         <v>220</v>
@@ -1816,19 +1840,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="4" t="s">
         <v>221</v>
@@ -1840,19 +1864,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="4" t="s">
         <v>222</v>
@@ -1864,19 +1888,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="4" t="s">
         <v>223</v>
@@ -1888,19 +1912,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="3"/>
       <c r="B66" s="4" t="s">
         <v>224</v>
@@ -1912,19 +1936,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="3"/>
       <c r="B69" s="4" t="s">
         <v>225</v>
@@ -1936,19 +1960,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.55" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="17.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="65.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="3"/>
       <c r="B72" s="4" t="s">
         <v>226</v>
@@ -1960,19 +1984,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="3"/>
       <c r="B75" s="4" t="s">
         <v>227</v>
@@ -1984,19 +2008,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="62.05" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="3"/>
       <c r="B78" s="4" t="s">
         <v>228</v>
@@ -2008,19 +2032,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="3"/>
       <c r="B81" s="4" t="s">
         <v>229</v>
@@ -2032,19 +2056,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="3"/>
       <c r="B84" s="4" t="s">
         <v>230</v>
@@ -2056,19 +2080,19 @@
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="11.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="58" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="3"/>
       <c r="B87" s="4" t="s">
         <v>231</v>
@@ -2080,7 +2104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" t="s">
@@ -2099,20 +2123,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.125" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.1640625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="6" width="24.625" customWidth="1"/>
-    <col min="7" max="7" width="41.125" customWidth="1"/>
+    <col min="3" max="6" width="24.6640625" customWidth="1"/>
+    <col min="7" max="7" width="41.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2138,7 +2162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>64</v>
       </c>
@@ -2150,7 +2174,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2165,7 +2189,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2176,7 +2200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>200</v>
       </c>
@@ -2204,7 +2228,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>90</v>
       </c>
@@ -2215,7 +2239,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
         <v>232</v>
       </c>
@@ -2227,7 +2251,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2235,13 +2259,13 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2249,7 +2273,7 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2257,13 +2281,13 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2271,7 +2295,7 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2279,10 +2303,10 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -2296,21 +2320,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="22.1640625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2321,7 +2345,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -2332,7 +2356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -2343,7 +2367,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2354,7 +2378,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2365,7 +2389,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2376,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2387,7 +2411,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2398,7 +2422,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2409,7 +2433,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2420,7 +2444,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2431,7 +2455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2442,7 +2466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2453,7 +2477,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2464,7 +2488,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2475,7 +2499,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2486,7 +2510,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -2497,7 +2521,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2508,7 +2532,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2519,7 +2543,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2530,7 +2554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2541,7 +2565,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2552,7 +2576,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2563,7 +2587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2574,7 +2598,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2585,7 +2609,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2596,7 +2620,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2607,7 +2631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2630,21 +2654,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="49.75" customWidth="1"/>
-    <col min="2" max="2" width="73.25" customWidth="1"/>
-    <col min="3" max="3" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
+    <col min="2" max="2" width="73.1640625" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -2655,7 +2679,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>93</v>
       </c>
@@ -2663,7 +2687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -2671,7 +2695,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>95</v>
       </c>
@@ -2679,7 +2703,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -2687,7 +2711,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>102</v>
       </c>
@@ -2695,7 +2719,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>137</v>
       </c>
@@ -2717,7 +2741,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>138</v>
       </c>
@@ -2728,7 +2752,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>139</v>
       </c>
@@ -2739,7 +2763,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -2747,7 +2771,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="13.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -2755,7 +2779,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -2763,7 +2787,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>115</v>
       </c>
@@ -2771,7 +2795,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>116</v>
       </c>
@@ -2779,7 +2803,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -2787,7 +2811,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>118</v>
       </c>
@@ -2795,7 +2819,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>119</v>
       </c>
@@ -2803,7 +2827,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>121</v>
       </c>
@@ -2811,7 +2835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>123</v>
       </c>
@@ -2819,7 +2843,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>125</v>
       </c>
@@ -2827,7 +2851,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>127</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>129</v>
       </c>
@@ -2843,7 +2867,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>131</v>
       </c>
@@ -2851,7 +2875,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -2859,7 +2883,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>135</v>
       </c>
@@ -2867,7 +2891,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>142</v>
       </c>
@@ -2875,7 +2899,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -2883,7 +2907,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>145</v>
       </c>
@@ -2891,7 +2915,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2899,7 +2923,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>148</v>
       </c>
@@ -2907,7 +2931,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>150</v>
       </c>
@@ -2915,7 +2939,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>151</v>
       </c>
@@ -2923,7 +2947,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>154</v>
       </c>
@@ -2931,7 +2955,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="161.69999999999999" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="169" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>157</v>
       </c>
@@ -2939,7 +2963,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>159</v>
       </c>
@@ -2947,7 +2971,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>163</v>
       </c>
@@ -2955,7 +2979,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>162</v>
       </c>
@@ -2963,7 +2987,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>165</v>
       </c>
@@ -2971,7 +2995,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -2979,7 +3003,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>169</v>
       </c>
@@ -2987,7 +3011,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>171</v>
       </c>
@@ -2995,7 +3019,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>173</v>
       </c>
@@ -3003,7 +3027,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>175</v>
       </c>
@@ -3014,7 +3038,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>177</v>
       </c>
@@ -3022,7 +3046,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>178</v>
       </c>
@@ -3030,7 +3054,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>180</v>
       </c>
@@ -3038,7 +3062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>182</v>
       </c>
@@ -3046,7 +3070,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="13.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" ht="13" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>184</v>
       </c>
@@ -3054,7 +3078,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>188</v>
       </c>
@@ -3062,7 +3086,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>189</v>
       </c>
@@ -3070,7 +3094,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>190</v>
       </c>
@@ -3078,7 +3102,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>191</v>
       </c>
@@ -3086,7 +3110,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>192</v>
       </c>
@@ -3094,7 +3118,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>201</v>
       </c>
@@ -3102,12 +3126,36 @@
         <v>202</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>204</v>
       </c>
       <c r="B57" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="7300" yWindow="2560" windowWidth="38400" windowHeight="22220" tabRatio="989" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="989" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="762" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="689">
   <si>
     <t>comments</t>
   </si>
@@ -2105,6 +2105,18 @@
   </si>
   <si>
     <t>Member Advanced Search</t>
+  </si>
+  <si>
+    <t>view_authorization_progress</t>
+  </si>
+  <si>
+    <t>view_deliveries</t>
+  </si>
+  <si>
+    <t>View Deliveries</t>
+  </si>
+  <si>
+    <t>Progress By Authorization</t>
   </si>
 </sst>
 </file>
@@ -2741,10 +2753,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G80"/>
+  <dimension ref="A1:G82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3967,6 +3979,22 @@
       </c>
       <c r="B80" t="s">
         <v>678</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>685</v>
+      </c>
+      <c r="B81" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>686</v>
+      </c>
+      <c r="B82" t="s">
+        <v>687</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="689">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="793">
   <si>
     <t>comments</t>
   </si>
@@ -1942,9 +1942,6 @@
     <t>search_households_title</t>
   </si>
   <si>
-    <t>Search for Households</t>
-  </si>
-  <si>
     <t>view</t>
   </si>
   <si>
@@ -2098,9 +2095,6 @@
     <t>search_members</t>
   </si>
   <si>
-    <t>Search for Members</t>
-  </si>
-  <si>
     <t>search_members_title</t>
   </si>
   <si>
@@ -2117,6 +2111,324 @@
   </si>
   <si>
     <t>Progress By Authorization</t>
+  </si>
+  <si>
+    <t>Search by Household</t>
+  </si>
+  <si>
+    <t>Search by Member</t>
+  </si>
+  <si>
+    <t>is_override</t>
+  </si>
+  <si>
+    <t>Is Override</t>
+  </si>
+  <si>
+    <t>beneficiary_entity_id</t>
+  </si>
+  <si>
+    <t>Beneficiary Entity ID</t>
+  </si>
+  <si>
+    <t>date_created</t>
+  </si>
+  <si>
+    <t>Date Created</t>
+  </si>
+  <si>
+    <t>custom_beneficiary_entity_form_id</t>
+  </si>
+  <si>
+    <t>Custom Beneficiary Entity Form ID</t>
+  </si>
+  <si>
+    <t>custom_beneficiary_entity_row_id</t>
+  </si>
+  <si>
+    <t>Custom Beneficiary Entity Row ID</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>status_reason</t>
+  </si>
+  <si>
+    <t>Status Reason</t>
+  </si>
+  <si>
+    <t>id_number</t>
+  </si>
+  <si>
+    <t>ID Number</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>Telephone</t>
+  </si>
+  <si>
+    <t>mobile_provider</t>
+  </si>
+  <si>
+    <t>Mobile Provider</t>
+  </si>
+  <si>
+    <t>delivery_site</t>
+  </si>
+  <si>
+    <t>Delivery Site</t>
+  </si>
+  <si>
+    <t>hh_size</t>
+  </si>
+  <si>
+    <t>Household Size</t>
+  </si>
+  <si>
+    <t>disabled_reason</t>
+  </si>
+  <si>
+    <t>Disabled Reason</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>tent_caravan</t>
+  </si>
+  <si>
+    <t>Tent/Caravan Code</t>
+  </si>
+  <si>
+    <t>authorization_id</t>
+  </si>
+  <si>
+    <t>Authorization ID</t>
+  </si>
+  <si>
+    <t>authorization_type</t>
+  </si>
+  <si>
+    <t>Authorization Type</t>
+  </si>
+  <si>
+    <t>authorization_name</t>
+  </si>
+  <si>
+    <t>Authorization Name</t>
+  </si>
+  <si>
+    <t>authorization_description</t>
+  </si>
+  <si>
+    <t>Authorization Description</t>
+  </si>
+  <si>
+    <t>member_id</t>
+  </si>
+  <si>
+    <t>Member ID</t>
+  </si>
+  <si>
+    <t>entitlement_id</t>
+  </si>
+  <si>
+    <t>Entitlement ID</t>
+  </si>
+  <si>
+    <t>item_pack_id</t>
+  </si>
+  <si>
+    <t>Item Pack ID</t>
+  </si>
+  <si>
+    <t>Αναγνωριστικό πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>رقم الحزمة</t>
+  </si>
+  <si>
+    <t>شماره بسته</t>
+  </si>
+  <si>
+    <t>ID del artículo</t>
+  </si>
+  <si>
+    <t>item_pack_name</t>
+  </si>
+  <si>
+    <t>Item Pack Name</t>
+  </si>
+  <si>
+    <t>Όνομα πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>اسم الحزمة</t>
+  </si>
+  <si>
+    <t>نام بسته</t>
+  </si>
+  <si>
+    <t>Nombre del artículo</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
+  </si>
+  <si>
+    <t>Item Pack Description</t>
+  </si>
+  <si>
+    <t>Περιγραφή πακέτου στοιχείου</t>
+  </si>
+  <si>
+    <t>وصف الحزمة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> شرح بسته</t>
+  </si>
+  <si>
+    <t>Descripción del artículo</t>
+  </si>
+  <si>
+    <t>custom_delivery_form_id</t>
+  </si>
+  <si>
+    <t>Custom Delivery Form ID</t>
+  </si>
+  <si>
+    <t>custom_delivery_row_id</t>
+  </si>
+  <si>
+    <t>Custom Delivery Row ID</t>
+  </si>
+  <si>
+    <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>Assigned Item Pack Barcode</t>
+  </si>
+  <si>
+    <t>beneficiary_entity_row_id</t>
+  </si>
+  <si>
+    <t>Beneficiary Entity Row ID</t>
+  </si>
+  <si>
+    <t>custom_member_form_id</t>
+  </si>
+  <si>
+    <t>Custom Member Form ID</t>
+  </si>
+  <si>
+    <t>custom_member_row_id</t>
+  </si>
+  <si>
+    <t>Custom Member Row ID</t>
+  </si>
+  <si>
+    <t>date_screened</t>
+  </si>
+  <si>
+    <t>Date Screened</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>first_last_name</t>
+  </si>
+  <si>
+    <t>First and Last Name</t>
+  </si>
+  <si>
+    <t>birth_date</t>
+  </si>
+  <si>
+    <t>Birth Date</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>ID Type</t>
+  </si>
+  <si>
+    <t>beneficiary_code</t>
+  </si>
+  <si>
+    <t>Beneficiary Code</t>
+  </si>
+  <si>
+    <t>verify_user</t>
+  </si>
+  <si>
+    <t>Verify User</t>
+  </si>
+  <si>
+    <t>is_head_of_household</t>
+  </si>
+  <si>
+    <t>Is Head of Household</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>Vulnerability</t>
   </si>
 </sst>
 </file>
@@ -2169,7 +2481,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2182,11 +2494,43 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -2199,7 +2543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2226,6 +2570,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2753,10 +3100,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G82"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -2798,10 +3145,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B3" t="s">
         <v>650</v>
-      </c>
-      <c r="B3" t="s">
-        <v>651</v>
       </c>
       <c r="E3" s="6"/>
     </row>
@@ -2907,10 +3254,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>644</v>
+      </c>
+      <c r="B9" t="s">
         <v>645</v>
-      </c>
-      <c r="B9" t="s">
-        <v>646</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>508</v>
@@ -2931,7 +3278,7 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>509</v>
@@ -2952,7 +3299,7 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>510</v>
@@ -3132,7 +3479,7 @@
         <v>57</v>
       </c>
       <c r="B20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3177,10 +3524,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>640</v>
+      </c>
+      <c r="B23" t="s">
         <v>641</v>
-      </c>
-      <c r="B23" t="s">
-        <v>642</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>521</v>
@@ -3217,18 +3564,18 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B25" t="s">
         <v>669</v>
-      </c>
-      <c r="B25" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>523</v>
@@ -3485,10 +3832,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B39" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>536</v>
@@ -3735,10 +4082,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -3751,15 +4098,15 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>65</v>
@@ -3783,18 +4130,18 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -3810,23 +4157,23 @@
         <v>611</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>630</v>
+        <v>687</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -3839,10 +4186,10 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -3855,42 +4202,42 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>630</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>632</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>651</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>652</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>653</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>654</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B71" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C71"/>
       <c r="D71"/>
@@ -3899,10 +4246,10 @@
     </row>
     <row r="72" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B72" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C72"/>
       <c r="D72"/>
@@ -3911,10 +4258,10 @@
     </row>
     <row r="73" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B73" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C73"/>
       <c r="D73"/>
@@ -3923,10 +4270,10 @@
     </row>
     <row r="74" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B74" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C74"/>
       <c r="D74"/>
@@ -3935,66 +4282,656 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B75" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>665</v>
+      </c>
+      <c r="B76" t="s">
         <v>666</v>
-      </c>
-      <c r="B76" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>670</v>
+      </c>
+      <c r="B77" t="s">
         <v>671</v>
-      </c>
-      <c r="B77" t="s">
-        <v>672</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>672</v>
+      </c>
+      <c r="B78" t="s">
         <v>673</v>
-      </c>
-      <c r="B78" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>674</v>
+      </c>
+      <c r="B79" t="s">
         <v>675</v>
-      </c>
-      <c r="B79" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>676</v>
+      </c>
+      <c r="B80" t="s">
         <v>677</v>
       </c>
-      <c r="B80" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>683</v>
+      </c>
+      <c r="B81" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>684</v>
+      </c>
+      <c r="B82" t="s">
         <v>685</v>
       </c>
-      <c r="B81" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>686</v>
-      </c>
-      <c r="B82" t="s">
-        <v>687</v>
+    </row>
+    <row r="84" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A84" t="s">
+        <v>691</v>
+      </c>
+      <c r="B84" t="s">
+        <v>692</v>
+      </c>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84"/>
+      <c r="F84"/>
+    </row>
+    <row r="85" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A85" t="s">
+        <v>693</v>
+      </c>
+      <c r="B85" t="s">
+        <v>694</v>
+      </c>
+      <c r="C85"/>
+      <c r="D85"/>
+      <c r="E85"/>
+      <c r="F85"/>
+    </row>
+    <row r="86" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A86" t="s">
+        <v>695</v>
+      </c>
+      <c r="B86" t="s">
+        <v>696</v>
+      </c>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+    </row>
+    <row r="87" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A87" t="s">
+        <v>697</v>
+      </c>
+      <c r="B87" t="s">
+        <v>698</v>
+      </c>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+    </row>
+    <row r="88" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A88" t="s">
+        <v>699</v>
+      </c>
+      <c r="B88" t="s">
+        <v>700</v>
+      </c>
+      <c r="C88"/>
+      <c r="D88"/>
+      <c r="E88"/>
+      <c r="F88"/>
+    </row>
+    <row r="89" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A89" t="s">
+        <v>701</v>
+      </c>
+      <c r="B89" t="s">
+        <v>702</v>
+      </c>
+      <c r="C89"/>
+      <c r="D89"/>
+      <c r="E89"/>
+      <c r="F89"/>
+    </row>
+    <row r="90" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="C90"/>
+      <c r="D90"/>
+      <c r="E90"/>
+      <c r="F90"/>
+    </row>
+    <row r="91" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A91" t="s">
+        <v>705</v>
+      </c>
+      <c r="B91" t="s">
+        <v>706</v>
+      </c>
+      <c r="C91"/>
+      <c r="D91"/>
+      <c r="E91"/>
+      <c r="F91"/>
+    </row>
+    <row r="92" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A92" t="s">
+        <v>707</v>
+      </c>
+      <c r="B92" t="s">
+        <v>708</v>
+      </c>
+      <c r="C92"/>
+      <c r="D92"/>
+      <c r="E92"/>
+      <c r="F92"/>
+    </row>
+    <row r="93" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A93" t="s">
+        <v>709</v>
+      </c>
+      <c r="B93" t="s">
+        <v>710</v>
+      </c>
+      <c r="C93"/>
+      <c r="D93"/>
+      <c r="E93"/>
+      <c r="F93"/>
+    </row>
+    <row r="94" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A94" t="s">
+        <v>711</v>
+      </c>
+      <c r="B94" t="s">
+        <v>712</v>
+      </c>
+      <c r="C94"/>
+      <c r="D94"/>
+      <c r="E94"/>
+      <c r="F94"/>
+    </row>
+    <row r="95" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A95" t="s">
+        <v>713</v>
+      </c>
+      <c r="B95" t="s">
+        <v>714</v>
+      </c>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95"/>
+      <c r="F95"/>
+    </row>
+    <row r="96" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A96" t="s">
+        <v>717</v>
+      </c>
+      <c r="B96" t="s">
+        <v>718</v>
+      </c>
+      <c r="C96"/>
+      <c r="D96"/>
+      <c r="E96"/>
+      <c r="F96"/>
+    </row>
+    <row r="97" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A97" t="s">
+        <v>719</v>
+      </c>
+      <c r="B97" t="s">
+        <v>720</v>
+      </c>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97"/>
+      <c r="F97"/>
+    </row>
+    <row r="98" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="C98"/>
+      <c r="D98"/>
+      <c r="E98"/>
+      <c r="F98"/>
+    </row>
+    <row r="99" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A99" t="s">
+        <v>721</v>
+      </c>
+      <c r="B99" t="s">
+        <v>722</v>
+      </c>
+      <c r="C99"/>
+      <c r="D99"/>
+      <c r="E99"/>
+      <c r="F99"/>
+    </row>
+    <row r="100" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A100" s="14" t="s">
+        <v>723</v>
+      </c>
+      <c r="B100" t="s">
+        <v>724</v>
+      </c>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100"/>
+      <c r="F100"/>
+    </row>
+    <row r="101" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A101" s="14" t="s">
+        <v>725</v>
+      </c>
+      <c r="B101" t="s">
+        <v>726</v>
+      </c>
+      <c r="C101"/>
+      <c r="D101"/>
+      <c r="E101"/>
+      <c r="F101"/>
+    </row>
+    <row r="102" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A102" s="14" t="s">
+        <v>727</v>
+      </c>
+      <c r="B102" t="s">
+        <v>728</v>
+      </c>
+      <c r="C102"/>
+      <c r="D102"/>
+      <c r="E102"/>
+      <c r="F102"/>
+    </row>
+    <row r="103" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A103" s="14" t="s">
+        <v>729</v>
+      </c>
+      <c r="B103" t="s">
+        <v>730</v>
+      </c>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103"/>
+      <c r="F103"/>
+    </row>
+    <row r="104" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A104" s="14" t="s">
+        <v>731</v>
+      </c>
+      <c r="B104" t="s">
+        <v>732</v>
+      </c>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
+      <c r="F104"/>
+    </row>
+    <row r="105" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A105" s="14" t="s">
+        <v>733</v>
+      </c>
+      <c r="B105" t="s">
+        <v>734</v>
+      </c>
+      <c r="C105"/>
+      <c r="D105"/>
+      <c r="E105"/>
+      <c r="F105"/>
+    </row>
+    <row r="106" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A106" s="14" t="s">
+        <v>689</v>
+      </c>
+      <c r="B106" t="s">
+        <v>690</v>
+      </c>
+      <c r="C106"/>
+      <c r="D106"/>
+      <c r="E106"/>
+      <c r="F106"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>735</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="E107" s="15" t="s">
+        <v>739</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>747</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A110" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="B110" t="s">
+        <v>754</v>
+      </c>
+      <c r="C110"/>
+      <c r="D110"/>
+      <c r="E110"/>
+      <c r="F110"/>
+    </row>
+    <row r="111" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A111" s="14" t="s">
+        <v>755</v>
+      </c>
+      <c r="B111" t="s">
+        <v>756</v>
+      </c>
+      <c r="C111"/>
+      <c r="D111"/>
+      <c r="E111"/>
+      <c r="F111"/>
+    </row>
+    <row r="112" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A112" t="s">
+        <v>757</v>
+      </c>
+      <c r="B112" t="s">
+        <v>758</v>
+      </c>
+      <c r="C112"/>
+      <c r="D112"/>
+      <c r="E112"/>
+      <c r="F112"/>
+    </row>
+    <row r="113" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113"/>
+      <c r="F113"/>
+    </row>
+    <row r="114" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A114" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="B114" t="s">
+        <v>760</v>
+      </c>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114"/>
+      <c r="F114"/>
+    </row>
+    <row r="115" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A115" s="14" t="s">
+        <v>761</v>
+      </c>
+      <c r="B115" t="s">
+        <v>762</v>
+      </c>
+      <c r="C115"/>
+      <c r="D115"/>
+      <c r="E115"/>
+      <c r="F115"/>
+    </row>
+    <row r="116" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A116" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="B116" t="s">
+        <v>764</v>
+      </c>
+      <c r="C116"/>
+      <c r="D116"/>
+      <c r="E116"/>
+      <c r="F116"/>
+    </row>
+    <row r="117" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A117" s="14" t="s">
+        <v>765</v>
+      </c>
+      <c r="B117" t="s">
+        <v>766</v>
+      </c>
+      <c r="C117"/>
+      <c r="D117"/>
+      <c r="E117"/>
+      <c r="F117"/>
+    </row>
+    <row r="118" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A118" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="B118" t="s">
+        <v>768</v>
+      </c>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118"/>
+    </row>
+    <row r="119" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A119" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B119" t="s">
+        <v>770</v>
+      </c>
+      <c r="C119"/>
+      <c r="D119"/>
+      <c r="E119"/>
+      <c r="F119"/>
+    </row>
+    <row r="120" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A120" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="B120" t="s">
+        <v>772</v>
+      </c>
+      <c r="C120"/>
+      <c r="D120"/>
+      <c r="E120"/>
+      <c r="F120"/>
+    </row>
+    <row r="121" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A121" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B121" t="s">
+        <v>774</v>
+      </c>
+      <c r="C121"/>
+      <c r="D121"/>
+      <c r="E121"/>
+      <c r="F121"/>
+    </row>
+    <row r="122" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A122" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="B122" t="s">
+        <v>776</v>
+      </c>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+    </row>
+    <row r="123" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A123" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="B123" t="s">
+        <v>778</v>
+      </c>
+      <c r="C123"/>
+      <c r="D123"/>
+      <c r="E123"/>
+      <c r="F123"/>
+    </row>
+    <row r="124" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A124" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="B124" t="s">
+        <v>780</v>
+      </c>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124"/>
+    </row>
+    <row r="125" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A125" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B125" t="s">
+        <v>704</v>
+      </c>
+      <c r="C125"/>
+      <c r="D125"/>
+      <c r="E125"/>
+      <c r="F125"/>
+    </row>
+    <row r="126" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A126" s="14" t="s">
+        <v>781</v>
+      </c>
+      <c r="B126" t="s">
+        <v>782</v>
+      </c>
+      <c r="C126"/>
+      <c r="D126"/>
+      <c r="E126"/>
+      <c r="F126"/>
+    </row>
+    <row r="127" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A127" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="B127" t="s">
+        <v>784</v>
+      </c>
+      <c r="C127"/>
+      <c r="D127"/>
+      <c r="E127"/>
+      <c r="F127"/>
+    </row>
+    <row r="128" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A128" s="14" t="s">
+        <v>785</v>
+      </c>
+      <c r="B128" t="s">
+        <v>786</v>
+      </c>
+      <c r="C128"/>
+      <c r="D128"/>
+      <c r="E128"/>
+      <c r="F128"/>
+    </row>
+    <row r="129" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A129" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="B129" t="s">
+        <v>788</v>
+      </c>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129"/>
+      <c r="F129"/>
+    </row>
+    <row r="130" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A130" s="14" t="s">
+        <v>789</v>
+      </c>
+      <c r="B130" t="s">
+        <v>790</v>
+      </c>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130"/>
+      <c r="F130"/>
+    </row>
+    <row r="131" spans="1:6" ht="13" x14ac:dyDescent="0.15">
+      <c r="A131" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="B131" t="s">
+        <v>792</v>
+      </c>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131"/>
+      <c r="F131"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="16" t="s">
+        <v>715</v>
+      </c>
+      <c r="B132" t="s">
+        <v>716</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3660" yWindow="460" windowWidth="25140" windowHeight="16220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -916,9 +916,6 @@
     <t>no_authorizations</t>
   </si>
   <si>
-    <t>No Distributions</t>
-  </si>
-  <si>
     <t>Καμία διανομή</t>
   </si>
   <si>
@@ -2486,6 +2483,9 @@
   </si>
   <si>
     <t>View By Authorization</t>
+  </si>
+  <si>
+    <t>No Authorizations</t>
   </si>
 </sst>
 </file>
@@ -3097,8 +3097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="C80" sqref="C80"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4052,49 +4052,49 @@
         <v>291</v>
       </c>
       <c r="B50" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C50" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="11" t="s">
         <v>295</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>297</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>298</v>
       </c>
       <c r="F51" s="11"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>159</v>
@@ -4102,7 +4102,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>165</v>
@@ -4110,630 +4110,630 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>315</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>320</v>
+      </c>
+      <c r="B66" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
+        <v>322</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>324</v>
+      </c>
+      <c r="B68" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>326</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>327</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
+        <v>328</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B71" t="s">
         <v>331</v>
-      </c>
-      <c r="B71" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
+        <v>332</v>
+      </c>
+      <c r="B72" t="s">
         <v>333</v>
-      </c>
-      <c r="B72" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
+        <v>334</v>
+      </c>
+      <c r="B73" t="s">
         <v>335</v>
-      </c>
-      <c r="B73" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
+        <v>336</v>
+      </c>
+      <c r="B74" t="s">
         <v>337</v>
-      </c>
-      <c r="B74" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
+        <v>338</v>
+      </c>
+      <c r="B75" t="s">
         <v>339</v>
-      </c>
-      <c r="B75" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
+        <v>340</v>
+      </c>
+      <c r="B76" t="s">
         <v>341</v>
-      </c>
-      <c r="B76" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" t="s">
         <v>343</v>
-      </c>
-      <c r="B77" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
+        <v>344</v>
+      </c>
+      <c r="B78" t="s">
         <v>345</v>
-      </c>
-      <c r="B78" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>346</v>
+      </c>
+      <c r="B79" t="s">
         <v>347</v>
-      </c>
-      <c r="B79" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
+        <v>348</v>
+      </c>
+      <c r="B80" t="s">
         <v>349</v>
-      </c>
-      <c r="B80" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
+        <v>809</v>
+      </c>
+      <c r="B81" t="s">
         <v>810</v>
-      </c>
-      <c r="B81" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
+        <v>350</v>
+      </c>
+      <c r="B82" t="s">
         <v>351</v>
-      </c>
-      <c r="B82" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
+        <v>352</v>
+      </c>
+      <c r="B84" t="s">
         <v>353</v>
-      </c>
-      <c r="B84" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
+        <v>354</v>
+      </c>
+      <c r="B85" t="s">
         <v>355</v>
-      </c>
-      <c r="B85" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B86" t="s">
         <v>357</v>
-      </c>
-      <c r="B86" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
+        <v>358</v>
+      </c>
+      <c r="B87" t="s">
         <v>359</v>
-      </c>
-      <c r="B87" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
+        <v>360</v>
+      </c>
+      <c r="B88" t="s">
         <v>361</v>
-      </c>
-      <c r="B88" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
+        <v>362</v>
+      </c>
+      <c r="B89" t="s">
         <v>363</v>
-      </c>
-      <c r="B89" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
+        <v>364</v>
+      </c>
+      <c r="B91" t="s">
         <v>365</v>
-      </c>
-      <c r="B91" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>366</v>
+      </c>
+      <c r="B92" t="s">
         <v>367</v>
-      </c>
-      <c r="B92" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>368</v>
+      </c>
+      <c r="B93" t="s">
         <v>369</v>
-      </c>
-      <c r="B93" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>370</v>
+      </c>
+      <c r="B94" t="s">
         <v>371</v>
-      </c>
-      <c r="B94" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>372</v>
+      </c>
+      <c r="B95" t="s">
         <v>373</v>
-      </c>
-      <c r="B95" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
+        <v>374</v>
+      </c>
+      <c r="B96" t="s">
         <v>375</v>
-      </c>
-      <c r="B96" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>376</v>
+      </c>
+      <c r="B97" t="s">
         <v>377</v>
-      </c>
-      <c r="B97" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
+        <v>378</v>
+      </c>
+      <c r="B99" t="s">
         <v>379</v>
-      </c>
-      <c r="B99" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="B100" t="s">
         <v>381</v>
-      </c>
-      <c r="B100" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="B101" t="s">
         <v>383</v>
-      </c>
-      <c r="B101" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B102" t="s">
         <v>385</v>
-      </c>
-      <c r="B102" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="B103" t="s">
         <v>387</v>
-      </c>
-      <c r="B103" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="B104" t="s">
         <v>389</v>
-      </c>
-      <c r="B104" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="B105" t="s">
         <v>391</v>
-      </c>
-      <c r="B105" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="B106" t="s">
         <v>393</v>
-      </c>
-      <c r="B106" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="C107" s="4" t="s">
         <v>396</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="D107" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="D107" s="4" t="s">
+      <c r="E107" s="13" t="s">
         <v>398</v>
       </c>
-      <c r="E107" s="13" t="s">
+      <c r="F107" s="4" t="s">
         <v>399</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="12" t="s">
+        <v>400</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="C108" s="4" t="s">
         <v>402</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="D108" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="E108" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="E108" s="4" t="s">
+      <c r="F108" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A109" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="C109" s="4" t="s">
         <v>408</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="D109" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="D109" s="4" t="s">
+      <c r="E109" s="10" t="s">
         <v>410</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="F109" s="4" t="s">
         <v>411</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="B110" t="s">
         <v>413</v>
-      </c>
-      <c r="B110" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B111" t="s">
         <v>415</v>
-      </c>
-      <c r="B111" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
+        <v>416</v>
+      </c>
+      <c r="B112" t="s">
         <v>417</v>
-      </c>
-      <c r="B112" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="B114" t="s">
         <v>419</v>
-      </c>
-      <c r="B114" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="B115" t="s">
         <v>421</v>
-      </c>
-      <c r="B115" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B116" t="s">
         <v>423</v>
-      </c>
-      <c r="B116" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B117" t="s">
         <v>425</v>
-      </c>
-      <c r="B117" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B118" t="s">
         <v>427</v>
-      </c>
-      <c r="B118" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B119" t="s">
         <v>429</v>
-      </c>
-      <c r="B119" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B120" t="s">
         <v>431</v>
-      </c>
-      <c r="B120" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B121" t="s">
         <v>433</v>
-      </c>
-      <c r="B121" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B122" t="s">
         <v>435</v>
-      </c>
-      <c r="B122" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B123" t="s">
         <v>437</v>
-      </c>
-      <c r="B123" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B124" t="s">
         <v>439</v>
-      </c>
-      <c r="B124" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B125" t="s">
         <v>441</v>
-      </c>
-      <c r="B125" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B126" t="s">
         <v>443</v>
-      </c>
-      <c r="B126" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B127" t="s">
         <v>445</v>
-      </c>
-      <c r="B127" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B128" t="s">
         <v>447</v>
-      </c>
-      <c r="B128" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B129" t="s">
         <v>449</v>
-      </c>
-      <c r="B129" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B130" t="s">
         <v>451</v>
-      </c>
-      <c r="B130" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B131" t="s">
         <v>453</v>
-      </c>
-      <c r="B131" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="B132" t="s">
         <v>455</v>
-      </c>
-      <c r="B132" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="12" t="s">
+        <v>796</v>
+      </c>
+      <c r="B134" s="13" t="s">
         <v>797</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -4741,47 +4741,47 @@
         <v>6</v>
       </c>
       <c r="B135" s="13" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="B136" t="s">
         <v>800</v>
-      </c>
-      <c r="B136" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="15" t="s">
+        <v>801</v>
+      </c>
+      <c r="B137" t="s">
         <v>802</v>
-      </c>
-      <c r="B137" t="s">
-        <v>803</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="B138" t="s">
         <v>804</v>
-      </c>
-      <c r="B138" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="16" t="s">
+        <v>805</v>
+      </c>
+      <c r="B139" t="s">
         <v>806</v>
-      </c>
-      <c r="B139" t="s">
-        <v>807</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="17" t="s">
+        <v>807</v>
+      </c>
+      <c r="B140" t="s">
         <v>808</v>
-      </c>
-      <c r="B140" t="s">
-        <v>809</v>
       </c>
     </row>
   </sheetData>
@@ -4806,54 +4806,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" t="s">
         <v>463</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>464</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>465</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>466</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>467</v>
-      </c>
-      <c r="L1" t="s">
-        <v>468</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>470</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>471</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -4868,10 +4868,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -4884,41 +4884,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="C5" t="s">
         <v>476</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>476</v>
+      </c>
+      <c r="E5" t="s">
+        <v>476</v>
+      </c>
+      <c r="F5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G5" t="s">
+        <v>476</v>
+      </c>
+      <c r="M5" t="s">
         <v>477</v>
-      </c>
-      <c r="D5" t="s">
-        <v>477</v>
-      </c>
-      <c r="E5" t="s">
-        <v>477</v>
-      </c>
-      <c r="F5" t="s">
-        <v>477</v>
-      </c>
-      <c r="G5" t="s">
-        <v>477</v>
-      </c>
-      <c r="M5" t="s">
-        <v>478</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -4927,27 +4927,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>478</v>
+      </c>
+      <c r="H7" t="s">
         <v>479</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>480</v>
       </c>
-      <c r="I7" t="s">
-        <v>481</v>
-      </c>
       <c r="J7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L7" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -4956,24 +4956,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>484</v>
-      </c>
       <c r="J8" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -4982,24 +4982,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5008,24 +5008,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5034,24 +5034,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -5078,13 +5078,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>492</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>493</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5106,7 +5106,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -5152,530 +5152,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B2" t="s">
         <v>496</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="11" t="s">
         <v>500</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B3" t="s">
         <v>502</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="4" t="s">
         <v>503</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>505</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>506</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>507</v>
+      </c>
+      <c r="B4" t="s">
         <v>508</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" s="4" t="s">
         <v>509</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>513</v>
+      </c>
+      <c r="B5" t="s">
         <v>514</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="4" t="s">
         <v>515</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D5" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>518</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>519</v>
+      </c>
+      <c r="B6" t="s">
         <v>520</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>523</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>524</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>525</v>
+      </c>
+      <c r="B7" t="s">
         <v>526</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>528</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" t="s">
         <v>532</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" s="4" t="s">
         <v>533</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" t="s">
         <v>538</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>540</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>543</v>
+      </c>
+      <c r="B10" t="s">
         <v>544</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>546</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>548</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B11" t="s">
         <v>550</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" s="4" t="s">
         <v>551</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="E11" s="4" t="s">
         <v>553</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>554</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" t="s">
         <v>556</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" s="4" t="s">
         <v>557</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>558</v>
-      </c>
       <c r="D12" s="4" t="s">
+        <v>510</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>511</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>512</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13" t="s">
         <v>559</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" s="4" t="s">
         <v>560</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="E13" s="4" t="s">
         <v>562</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>563</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>564</v>
+      </c>
+      <c r="B14" t="s">
         <v>565</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" s="4" t="s">
         <v>566</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="4" t="s">
         <v>567</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="E14" s="4" t="s">
         <v>568</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>569</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B15" t="s">
         <v>571</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" s="4" t="s">
         <v>572</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>574</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>575</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>576</v>
+      </c>
+      <c r="B16" t="s">
         <v>577</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="D16" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="E16" s="4" t="s">
         <v>580</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="F16" s="4" t="s">
         <v>581</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>582</v>
+      </c>
+      <c r="B17" t="s">
         <v>583</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="4" t="s">
         <v>584</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="4" t="s">
         <v>585</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="E17" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="F17" s="4" t="s">
         <v>587</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>588</v>
+      </c>
+      <c r="B18" t="s">
         <v>589</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" s="4" t="s">
         <v>590</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>591</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="E18" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="F18" s="4" t="s">
         <v>593</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" t="s">
         <v>595</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="D19" s="4" t="s">
         <v>597</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="E19" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="F19" s="4" t="s">
         <v>599</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>600</v>
+      </c>
+      <c r="B20" t="s">
         <v>601</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="D20" s="4" t="s">
         <v>603</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="E20" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="F20" s="4" t="s">
         <v>605</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>606</v>
+      </c>
+      <c r="B21" t="s">
         <v>607</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" s="4" t="s">
         <v>608</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="4" t="s">
         <v>609</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>610</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>611</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>612</v>
+      </c>
+      <c r="B22" t="s">
         <v>613</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="4" t="s">
         <v>614</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>615</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="F22" s="4" t="s">
         <v>617</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>618</v>
+      </c>
+      <c r="B23" t="s">
         <v>619</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" s="4" t="s">
         <v>620</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>621</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>622</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="F23" s="4" t="s">
         <v>623</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>624</v>
+      </c>
+      <c r="B24" t="s">
         <v>625</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="4" t="s">
         <v>626</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="D24" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>628</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="F24" s="4" t="s">
         <v>629</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>630</v>
+      </c>
+      <c r="B25" t="s">
         <v>631</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" s="4" t="s">
         <v>632</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="D25" s="4" t="s">
         <v>633</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>634</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>635</v>
-      </c>
       <c r="F25" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>635</v>
+      </c>
+      <c r="B26" t="s">
         <v>636</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" s="4" t="s">
         <v>637</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>638</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>639</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>640</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>641</v>
+      </c>
+      <c r="B27" t="s">
         <v>642</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" s="4" t="s">
         <v>643</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="D27" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>645</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>646</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>647</v>
+      </c>
+      <c r="B28" t="s">
         <v>648</v>
-      </c>
-      <c r="B28" t="s">
-        <v>649</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -5684,10 +5684,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>649</v>
+      </c>
+      <c r="B29" t="s">
         <v>650</v>
-      </c>
-      <c r="B29" t="s">
-        <v>651</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -5696,42 +5696,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>651</v>
+      </c>
+      <c r="B30" t="s">
         <v>652</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" s="4" t="s">
         <v>653</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="D30" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>655</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>656</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>657</v>
+      </c>
+      <c r="B31" t="s">
         <v>658</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -5742,70 +5742,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>663</v>
+      </c>
+      <c r="B33" t="s">
         <v>664</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" s="4" t="s">
         <v>665</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="D33" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>667</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>668</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>669</v>
+      </c>
+      <c r="B34" t="s">
         <v>670</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" s="4" t="s">
         <v>671</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="D34" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>673</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>674</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>675</v>
+      </c>
+      <c r="B35" t="s">
         <v>676</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" s="4" t="s">
         <v>677</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="D35" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>679</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="11" t="s">
         <v>680</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>681</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>682</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>683</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -5814,367 +5814,367 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>683</v>
+      </c>
+      <c r="B37" t="s">
         <v>684</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" s="4" t="s">
         <v>685</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="D37" s="4" t="s">
         <v>686</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="E37" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="F37" s="11" t="s">
         <v>688</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>689</v>
+      </c>
+      <c r="B38" t="s">
         <v>690</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>692</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="E38" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="F38" s="4" t="s">
         <v>694</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>695</v>
+      </c>
+      <c r="B39" t="s">
         <v>696</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" s="4" t="s">
         <v>697</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="D39" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="E39" s="4" t="s">
         <v>699</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="F39" s="4" t="s">
         <v>700</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>701</v>
+      </c>
+      <c r="B40" t="s">
         <v>702</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" s="4" t="s">
         <v>703</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>704</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="E40" s="4" t="s">
         <v>705</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>706</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>707</v>
+      </c>
+      <c r="B41" t="s">
         <v>708</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" s="4" t="s">
         <v>709</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>710</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="E41" s="4" t="s">
         <v>711</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>712</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>713</v>
+      </c>
+      <c r="B42" t="s">
         <v>714</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" s="4" t="s">
         <v>715</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="D42" s="4" t="s">
         <v>716</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="E42" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="F42" s="4" t="s">
         <v>718</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>719</v>
+      </c>
+      <c r="B43" t="s">
         <v>720</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" s="4" t="s">
         <v>721</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="D43" s="4" t="s">
         <v>722</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="E43" s="4" t="s">
         <v>723</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>724</v>
-      </c>
       <c r="F43" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>724</v>
+      </c>
+      <c r="B44" t="s">
         <v>725</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" s="4" t="s">
         <v>726</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="D44" s="4" t="s">
         <v>727</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="E44" s="4" t="s">
         <v>728</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="F44" s="4" t="s">
         <v>729</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>730</v>
+      </c>
+      <c r="B45" t="s">
         <v>731</v>
       </c>
-      <c r="B45" t="s">
+      <c r="C45" s="4" t="s">
         <v>732</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>733</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>734</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>735</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>736</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>736</v>
+      </c>
+      <c r="B46" t="s">
         <v>737</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" s="4" t="s">
         <v>738</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D46" s="4" t="s">
         <v>739</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="E46" s="4" t="s">
         <v>740</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="F46" s="4" t="s">
         <v>741</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>742</v>
+      </c>
+      <c r="B47" t="s">
         <v>743</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" s="4" t="s">
         <v>744</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D47" s="4" t="s">
         <v>745</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="E47" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="F47" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>748</v>
+      </c>
+      <c r="B48" t="s">
         <v>749</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D48" s="4" t="s">
         <v>751</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="E48" s="4" t="s">
         <v>752</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="F48" s="4" t="s">
         <v>753</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>754</v>
+      </c>
+      <c r="B49" t="s">
         <v>755</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" s="4" t="s">
         <v>756</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>757</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="E49" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="F49" s="4" t="s">
         <v>759</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>760</v>
+      </c>
+      <c r="B50" t="s">
         <v>761</v>
       </c>
-      <c r="B50" t="s">
+      <c r="C50" s="4" t="s">
         <v>762</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="D50" s="4" t="s">
         <v>763</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="E50" s="4" t="s">
         <v>764</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="F50" s="4" t="s">
         <v>765</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>766</v>
+      </c>
+      <c r="B51" t="s">
         <v>767</v>
       </c>
-      <c r="B51" t="s">
+      <c r="C51" s="4" t="s">
         <v>768</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="D51" s="4" t="s">
         <v>769</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="E51" s="4" t="s">
+        <v>655</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>770</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>656</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>771</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B52" t="s">
+        <v>658</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>659</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="E52" s="4" t="s">
         <v>661</v>
       </c>
-      <c r="E52" s="4" t="s">
+      <c r="F52" s="4" t="s">
         <v>662</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>772</v>
+      </c>
+      <c r="B53" t="s">
         <v>773</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" s="4" t="s">
         <v>774</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="D53" s="4" t="s">
         <v>775</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="E53" s="4" t="s">
         <v>776</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="F53" s="4" t="s">
         <v>777</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>778</v>
+      </c>
+      <c r="B54" t="s">
+        <v>743</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="B54" t="s">
-        <v>744</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>780</v>
-      </c>
       <c r="D54" s="4" t="s">
+        <v>745</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>746</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="F54" s="4" t="s">
         <v>747</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>133</v>
@@ -6184,65 +6184,65 @@
       </c>
       <c r="D55" s="4"/>
       <c r="F55" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>784</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>785</v>
       </c>
       <c r="D56" s="4"/>
       <c r="F56" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>788</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>789</v>
       </c>
       <c r="D57" s="4"/>
       <c r="F57" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
+        <v>790</v>
+      </c>
+      <c r="B58" t="s">
         <v>791</v>
-      </c>
-      <c r="B58" t="s">
-        <v>792</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>792</v>
+      </c>
+      <c r="B59" t="s">
         <v>793</v>
-      </c>
-      <c r="B59" t="s">
-        <v>794</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>794</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>795</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>796</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="49180" windowHeight="27020" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="812">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="816">
   <si>
     <t>comments</t>
   </si>
@@ -2486,6 +2486,18 @@
   </si>
   <si>
     <t>No Authorizations</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>extra_field_entitlements</t>
+  </si>
+  <si>
+    <t>Extra Field Entitlements</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2635,6 +2647,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3095,10 +3108,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G140"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4782,6 +4795,22 @@
       </c>
       <c r="B140" t="s">
         <v>808</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" s="18" t="s">
+        <v>812</v>
+      </c>
+      <c r="B141" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" s="18" t="s">
+        <v>814</v>
+      </c>
+      <c r="B142" t="s">
+        <v>815</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="860">
   <si>
     <t>comments</t>
   </si>
@@ -2499,12 +2499,144 @@
   <si>
     <t>Extra Field Entitlements</t>
   </si>
+  <si>
+    <t>Beneficiary Entity custom form not defined</t>
+  </si>
+  <si>
+    <t>be_custom_form_undefined</t>
+  </si>
+  <si>
+    <t>fill_field_report</t>
+  </si>
+  <si>
+    <t>Fill Field Report</t>
+  </si>
+  <si>
+    <t>terminate_authorization</t>
+  </si>
+  <si>
+    <t>Terminate Authorization</t>
+  </si>
+  <si>
+    <t>terminate_authorization_success</t>
+  </si>
+  <si>
+    <t>Authorization Successfully Terminated</t>
+  </si>
+  <si>
+    <t>terminate_authorization_failed</t>
+  </si>
+  <si>
+    <t>Authorization Termination Failed</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>delivered</t>
+  </si>
+  <si>
+    <t>Delivered</t>
+  </si>
+  <si>
+    <t>delivered_since_sync</t>
+  </si>
+  <si>
+    <t>Delivered since sync</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>Deliver</t>
+  </si>
+  <si>
+    <t>new_since_sync</t>
+  </si>
+  <si>
+    <t>New since last sync</t>
+  </si>
+  <si>
+    <t>edited_since_sync</t>
+  </si>
+  <si>
+    <t>Edited since last sync</t>
+  </si>
+  <si>
+    <t>new_hh_mem_since_sync</t>
+  </si>
+  <si>
+    <t>edited_hh_mem_since_sync</t>
+  </si>
+  <si>
+    <t>New households [members] since last sync</t>
+  </si>
+  <si>
+    <t>Edited households [members] since last sync</t>
+  </si>
+  <si>
+    <t>There currently are no active authorizations</t>
+  </si>
+  <si>
+    <t>no_active_authorizations</t>
+  </si>
+  <si>
+    <t>internal_error</t>
+  </si>
+  <si>
+    <t>Internal Error: please contact administrator</t>
+  </si>
+  <si>
+    <t>beneficiary_already_received</t>
+  </si>
+  <si>
+    <t>This beneficiary entity id has already received the current authorization</t>
+  </si>
+  <si>
+    <t>delivery_confirmed</t>
+  </si>
+  <si>
+    <t>Delivery Confirmed!</t>
+  </si>
+  <si>
+    <t>distribution_options</t>
+  </si>
+  <si>
+    <t>Distribution Options</t>
+  </si>
+  <si>
+    <t>create_authorization</t>
+  </si>
+  <si>
+    <t>create_authorization_success</t>
+  </si>
+  <si>
+    <t>create_authorization_failed</t>
+  </si>
+  <si>
+    <t>Create Authorization</t>
+  </si>
+  <si>
+    <t>Authorization Successfully Created</t>
+  </si>
+  <si>
+    <t>Authorization Creation Failed</t>
+  </si>
+  <si>
+    <t>start_new_authorization</t>
+  </si>
+  <si>
+    <t>Start New Authorization</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2529,6 +2661,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2617,8 +2765,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2649,7 +2823,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="27">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3108,10 +3308,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="A151" sqref="A151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -4811,6 +5011,214 @@
       </c>
       <c r="B142" t="s">
         <v>815</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" s="18" t="s">
+        <v>817</v>
+      </c>
+      <c r="B143" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" s="18" t="s">
+        <v>818</v>
+      </c>
+      <c r="B144" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A145" s="18" t="s">
+        <v>820</v>
+      </c>
+      <c r="B145" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A146" s="18" t="s">
+        <v>822</v>
+      </c>
+      <c r="B146" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A147" s="18" t="s">
+        <v>824</v>
+      </c>
+      <c r="B147" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A148" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="B148" t="s">
+        <v>855</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="13"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A149" s="18" t="s">
+        <v>853</v>
+      </c>
+      <c r="B149" t="s">
+        <v>856</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="13"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A150" s="18" t="s">
+        <v>854</v>
+      </c>
+      <c r="B150" t="s">
+        <v>857</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="13"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A151" s="18" t="s">
+        <v>858</v>
+      </c>
+      <c r="B151" t="s">
+        <v>859</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="13"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A152" s="18" t="s">
+        <v>826</v>
+      </c>
+      <c r="B152" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A153" s="18" t="s">
+        <v>828</v>
+      </c>
+      <c r="B153" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="18" t="s">
+        <v>830</v>
+      </c>
+      <c r="B154" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="18" t="s">
+        <v>834</v>
+      </c>
+      <c r="B155" t="s">
+        <v>835</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="13"/>
+      <c r="F155" s="13"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="18" t="s">
+        <v>836</v>
+      </c>
+      <c r="B156" t="s">
+        <v>837</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="13"/>
+      <c r="F156" s="13"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="18" t="s">
+        <v>838</v>
+      </c>
+      <c r="B157" t="s">
+        <v>840</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="13"/>
+      <c r="F157" s="13"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="18" t="s">
+        <v>839</v>
+      </c>
+      <c r="B158" t="s">
+        <v>841</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="13"/>
+      <c r="F158" s="13"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="18" t="s">
+        <v>832</v>
+      </c>
+      <c r="B159" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A160" s="18" t="s">
+        <v>843</v>
+      </c>
+      <c r="B160" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="18" t="s">
+        <v>844</v>
+      </c>
+      <c r="B161" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="18" t="s">
+        <v>846</v>
+      </c>
+      <c r="B162" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="18" t="s">
+        <v>848</v>
+      </c>
+      <c r="B163" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" s="18" t="s">
+        <v>850</v>
+      </c>
+      <c r="B164" t="s">
+        <v>851</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="49180" windowHeight="27020" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="30240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$97</definedName>
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="725">
   <si>
     <t>comments</t>
   </si>
@@ -148,24 +148,6 @@
     <t>Distribution</t>
   </si>
   <si>
-    <t>select_user</t>
-  </si>
-  <si>
-    <t>Please Select User</t>
-  </si>
-  <si>
-    <t>Επιλέξτε Χρήστη</t>
-  </si>
-  <si>
-    <t>الرجاء اختيار المستخدم</t>
-  </si>
-  <si>
-    <t>لطفا انتخاب کنید کاربر</t>
-  </si>
-  <si>
-    <t>Por favor seleccione usuario</t>
-  </si>
-  <si>
     <t>main_title</t>
   </si>
   <si>
@@ -184,9 +166,6 @@
     <t>Distribución</t>
   </si>
   <si>
-    <t>registration_path</t>
-  </si>
-  <si>
     <t>Εγγραφή</t>
   </si>
   <si>
@@ -199,18 +178,6 @@
     <t>Registro</t>
   </si>
   <si>
-    <t>delivery_path</t>
-  </si>
-  <si>
-    <t>Delivery</t>
-  </si>
-  <si>
-    <t>Διανομή</t>
-  </si>
-  <si>
-    <t>التسليم</t>
-  </si>
-  <si>
     <t>تحویل</t>
   </si>
   <si>
@@ -235,24 +202,9 @@
     <t>Ver información</t>
   </si>
   <si>
-    <t>administrator_path</t>
-  </si>
-  <si>
     <t>Administrator Options</t>
   </si>
   <si>
-    <t>Διαχειριστής παρακάμπτει</t>
-  </si>
-  <si>
-    <t>مراقب التجاوزات</t>
-  </si>
-  <si>
-    <t>لغومدیر تنظیمات</t>
-  </si>
-  <si>
-    <t>Administrador Anulaciones</t>
-  </si>
-  <si>
     <t>registration_title</t>
   </si>
   <si>
@@ -310,72 +262,9 @@
     <t>missing_beneficiary_notification</t>
   </si>
   <si>
-    <t>Scanned code not found in system</t>
-  </si>
-  <si>
-    <t>Ο σαρωμένος κωδικός δεν βρέθηκε στο σύστημα</t>
-  </si>
-  <si>
-    <t>ليس الرمز المصور موجودا في قاعدة البيانات</t>
-  </si>
-  <si>
-    <t>کد اسکن در سیستم یافت نشد</t>
-  </si>
-  <si>
-    <t>Código escaneado no encontrado en el sistema</t>
-  </si>
-  <si>
-    <t>barcode_available</t>
-  </si>
-  <si>
-    <t>Barcode Available</t>
-  </si>
-  <si>
-    <t>Διαθέσιμος γραμμικός κώδικας</t>
-  </si>
-  <si>
-    <t>الباركود متاح</t>
-  </si>
-  <si>
-    <t>بارکد در دسترس</t>
-  </si>
-  <si>
-    <t>Código de barras disponible</t>
-  </si>
-  <si>
     <t>voucher_detected</t>
   </si>
   <si>
-    <t>Voucher Barcode Detected</t>
-  </si>
-  <si>
-    <t>Έγινε εντοπισμός του γραμμωτού κώδικα κουπονιών</t>
-  </si>
-  <si>
-    <t>تم قبول باركود الكرت</t>
-  </si>
-  <si>
-    <t>کوپن بارکد شناسایی</t>
-  </si>
-  <si>
-    <t>Detectado código de barras del cupón</t>
-  </si>
-  <si>
-    <t>barcode_unavailable</t>
-  </si>
-  <si>
-    <t>Barcode Unavailable</t>
-  </si>
-  <si>
-    <t>Barcode Μη διαθέσιμο</t>
-  </si>
-  <si>
-    <t>الباركود غير متاح</t>
-  </si>
-  <si>
-    <t>Código de barras no disponible</t>
-  </si>
-  <si>
     <t>already_qualifies_override</t>
   </si>
   <si>
@@ -394,42 +283,6 @@
     <t>Beneficiario escaneado ya calificado para esta distribución</t>
   </si>
   <si>
-    <t>eligible_override</t>
-  </si>
-  <si>
-    <t>Beneficiary eligible for override</t>
-  </si>
-  <si>
-    <t>Δικαιούχος για παράκαμψη</t>
-  </si>
-  <si>
-    <t>المستفيج مؤهل للتجاوز</t>
-  </si>
-  <si>
-    <t>لغو ذینفع واجد شرایط</t>
-  </si>
-  <si>
-    <t>Beneficiario apto para anulación</t>
-  </si>
-  <si>
-    <t>override_creation_success</t>
-  </si>
-  <si>
-    <t>Override Successfully Created</t>
-  </si>
-  <si>
-    <t>Η παράκαμψη δημιουργήθηκε με επιτυχία</t>
-  </si>
-  <si>
-    <t>تم التجاوز بنجاح</t>
-  </si>
-  <si>
-    <t>لغوموفق ثبت</t>
-  </si>
-  <si>
-    <t>Anulación creada satisfactoriamente</t>
-  </si>
-  <si>
     <t>view_authorization_details</t>
   </si>
   <si>
@@ -472,51 +325,12 @@
     <t>Indroducir</t>
   </si>
   <si>
-    <t>no_enabled_beneficiary</t>
-  </si>
-  <si>
-    <t>No Enabled Beneficiary Detected</t>
-  </si>
-  <si>
-    <t>Δεν εντοπίστηκε Ενεργός Δικαιούχος</t>
-  </si>
-  <si>
-    <t>لم يكشف مستفيد موجود</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> فعال بدون بهره  یافت شد</t>
-  </si>
-  <si>
-    <t>Detectado beneficiario no activo</t>
-  </si>
-  <si>
-    <t>no_disabled_beneficiary</t>
-  </si>
-  <si>
-    <t>No Disabled Beneficiary Detected</t>
-  </si>
-  <si>
-    <t>Δεν εντοπίστηκε δικαιούχος με αναπηρία</t>
-  </si>
-  <si>
-    <t>لم يكشف مستفيد معطل</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غیر فعال بدون بهره یافت شد</t>
-  </si>
-  <si>
-    <t>Detectado beneficiario no desactivado</t>
-  </si>
-  <si>
     <t>enter_beneficiary_entity_id</t>
   </si>
   <si>
     <t>Enter Beneficiary Entity ID</t>
   </si>
   <si>
-    <t>enabled_beneficiaries_title</t>
-  </si>
-  <si>
     <t>Enabled Beneficiaries</t>
   </si>
   <si>
@@ -532,9 +346,6 @@
     <t>Beneficiarios activos</t>
   </si>
   <si>
-    <t>disabled_beneficiaries_title</t>
-  </si>
-  <si>
     <t>Disabled Beneficiaries</t>
   </si>
   <si>
@@ -550,27 +361,6 @@
     <t>Beneficiarios desactivados</t>
   </si>
   <si>
-    <t>beneficiary_data_title</t>
-  </si>
-  <si>
-    <t>Beneficiary Data</t>
-  </si>
-  <si>
-    <t>Δεδομένα Δικαιούχου</t>
-  </si>
-  <si>
-    <t>معلومات المستفيد</t>
-  </si>
-  <si>
-    <t>اطلاعات ذینفع</t>
-  </si>
-  <si>
-    <t>Datos de beneficiarios</t>
-  </si>
-  <si>
-    <t>delivery_data_title</t>
-  </si>
-  <si>
     <t>Delivery Data</t>
   </si>
   <si>
@@ -586,24 +376,6 @@
     <t>Datos de entrega</t>
   </si>
   <si>
-    <t>beneficiary_lists</t>
-  </si>
-  <si>
-    <t>Beneficiary Lists</t>
-  </si>
-  <si>
-    <t>Κατάλογος δικαιούχων</t>
-  </si>
-  <si>
-    <t>قأئمة المستفيدين</t>
-  </si>
-  <si>
-    <t>لیست ذینفع</t>
-  </si>
-  <si>
-    <t>Lista de beneficiarios</t>
-  </si>
-  <si>
     <t>view_all_deliveries</t>
   </si>
   <si>
@@ -658,24 +430,6 @@
     <t>Categorías de datos</t>
   </si>
   <si>
-    <t>view_beneficiary_data</t>
-  </si>
-  <si>
-    <t>View Beneficiary Data</t>
-  </si>
-  <si>
-    <t>Προβολή δεδομένων δικαιούχου</t>
-  </si>
-  <si>
-    <t>انظر معلومات المستفيد</t>
-  </si>
-  <si>
-    <t>دیدن اطلاعات ذینفع</t>
-  </si>
-  <si>
-    <t>Ver datos del beneficiario</t>
-  </si>
-  <si>
     <t>view_delivery_data</t>
   </si>
   <si>
@@ -694,60 +448,6 @@
     <t>Ver datos de entregas</t>
   </si>
   <si>
-    <t>enable_beneficiary</t>
-  </si>
-  <si>
-    <t>Enable Beneficiary</t>
-  </si>
-  <si>
-    <t>Ενεργοποίηση του Δικαιούχου</t>
-  </si>
-  <si>
-    <t>تمكين المستفيد</t>
-  </si>
-  <si>
-    <t>فعال کردن  ذینفع</t>
-  </si>
-  <si>
-    <t>Habilitar beneficiario</t>
-  </si>
-  <si>
-    <t>disable_beneficiary</t>
-  </si>
-  <si>
-    <t>Disable Beneficiary</t>
-  </si>
-  <si>
-    <t>Απενεργοποιήστε τον Δικαιούχο</t>
-  </si>
-  <si>
-    <t>تعطيل المستفيدين</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> غیر فعال کردن  ذینفع</t>
-  </si>
-  <si>
-    <t>Deshabilitar beneficiario</t>
-  </si>
-  <si>
-    <t>choose_method</t>
-  </si>
-  <si>
-    <t>Choose Method</t>
-  </si>
-  <si>
-    <t>Επιλέξτε Μέθοδο</t>
-  </si>
-  <si>
-    <t>اختار المنهح</t>
-  </si>
-  <si>
-    <t>انتخاب روش</t>
-  </si>
-  <si>
-    <t>Elegir método</t>
-  </si>
-  <si>
     <t>administrator_options</t>
   </si>
   <si>
@@ -763,42 +463,6 @@
     <t>Anular opciones</t>
   </si>
   <si>
-    <t>override_registration</t>
-  </si>
-  <si>
-    <t>Override Registration</t>
-  </si>
-  <si>
-    <t>Αντικατάσταση εγγραφής</t>
-  </si>
-  <si>
-    <t>اختيارات التسجيل</t>
-  </si>
-  <si>
-    <t>لغوثبت نام</t>
-  </si>
-  <si>
-    <t>Anular registro</t>
-  </si>
-  <si>
-    <t>override_entitlement</t>
-  </si>
-  <si>
-    <t>Override Entitlement</t>
-  </si>
-  <si>
-    <t>Παράκαμψη του Δικαιώματος</t>
-  </si>
-  <si>
-    <t>اختيارات الاستحقاق</t>
-  </si>
-  <si>
-    <t>لغواستحقاق</t>
-  </si>
-  <si>
-    <t>Anular título</t>
-  </si>
-  <si>
     <t>search_beneficiaries</t>
   </si>
   <si>
@@ -928,12 +592,6 @@
     <t>Sin distribuciones</t>
   </si>
   <si>
-    <t>view_household_data</t>
-  </si>
-  <si>
-    <t>View Household Data</t>
-  </si>
-  <si>
     <t>enabled_households</t>
   </si>
   <si>
@@ -982,24 +640,6 @@
     <t>Search by Member</t>
   </si>
   <si>
-    <t>search_members_title</t>
-  </si>
-  <si>
-    <t>Member Advanced Search</t>
-  </si>
-  <si>
-    <t>search_households_title</t>
-  </si>
-  <si>
-    <t>Household Advanced Search</t>
-  </si>
-  <si>
-    <t>search_beneficiaries_title</t>
-  </si>
-  <si>
-    <t>Beneficiaries Advanced Search</t>
-  </si>
-  <si>
     <t>view_registration_data</t>
   </si>
   <si>
@@ -1030,30 +670,6 @@
     <t>Create New Entitlement</t>
   </si>
   <si>
-    <t>enable_success</t>
-  </si>
-  <si>
-    <t>Successfully Enabled!</t>
-  </si>
-  <si>
-    <t>disable_success</t>
-  </si>
-  <si>
-    <t>Successfully Disabled!</t>
-  </si>
-  <si>
-    <t>choose_entitlement</t>
-  </si>
-  <si>
-    <t>Choose an Entitlement</t>
-  </si>
-  <si>
-    <t>no_entitlements</t>
-  </si>
-  <si>
-    <t>No Entitlements to Deliver</t>
-  </si>
-  <si>
     <t>authorization_details</t>
   </si>
   <si>
@@ -1072,24 +688,6 @@
     <t>Choose Authorization Name</t>
   </si>
   <si>
-    <t>administrator_reset_succeeded</t>
-  </si>
-  <si>
-    <t>Administrator Reset Succeeded</t>
-  </si>
-  <si>
-    <t>administrator_reset_failed</t>
-  </si>
-  <si>
-    <t>Administrator Reset Failed</t>
-  </si>
-  <si>
-    <t>trigger_reset</t>
-  </si>
-  <si>
-    <t>Trigger Reset</t>
-  </si>
-  <si>
     <t>view_deliveries</t>
   </si>
   <si>
@@ -1138,12 +736,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
     <t>telephone</t>
   </si>
   <si>
@@ -1162,12 +754,6 @@
     <t>Delivery Site</t>
   </si>
   <si>
-    <t>disabled_reason</t>
-  </si>
-  <si>
-    <t>Disabled Reason</t>
-  </si>
-  <si>
     <t>location</t>
   </si>
   <si>
@@ -1312,12 +898,6 @@
     <t>Custom Member Row ID</t>
   </si>
   <si>
-    <t>date_screened</t>
-  </si>
-  <si>
-    <t>Date Screened</t>
-  </si>
-  <si>
     <t>first_name</t>
   </si>
   <si>
@@ -1364,18 +944,6 @@
   </si>
   <si>
     <t>ID Number</t>
-  </si>
-  <si>
-    <t>beneficiary_code</t>
-  </si>
-  <si>
-    <t>Beneficiary Code</t>
-  </si>
-  <si>
-    <t>verify_user</t>
-  </si>
-  <si>
-    <t>Verify User</t>
   </si>
   <si>
     <t>is_head_of_household</t>
@@ -2630,6 +2198,33 @@
   </si>
   <si>
     <t>Start New Authorization</t>
+  </si>
+  <si>
+    <t>entitlement_creation_success</t>
+  </si>
+  <si>
+    <t>Entitlement Successfully Created</t>
+  </si>
+  <si>
+    <t>delivery_data</t>
+  </si>
+  <si>
+    <t>id_available</t>
+  </si>
+  <si>
+    <t>ID Available</t>
+  </si>
+  <si>
+    <t>Voucher Detected</t>
+  </si>
+  <si>
+    <t>id_unavailable</t>
+  </si>
+  <si>
+    <t>ID Unavailable</t>
+  </si>
+  <si>
+    <t>Beneficiary Entity ID not found in system</t>
   </si>
 </sst>
 </file>
@@ -2807,7 +2402,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2822,6 +2416,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment readingOrder="2"/>
+    </xf>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -3308,10 +2905,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="A151" sqref="A151"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3345,1884 +2942,1819 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>47</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
+      <c r="A6" s="17" t="s">
+        <v>706</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>52</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>58</v>
-      </c>
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>64</v>
-      </c>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="7"/>
+        <v>153</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>158</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>82</v>
+        <v>162</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>88</v>
+        <v>25</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>94</v>
-      </c>
+      <c r="A13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>100</v>
-      </c>
+      <c r="A14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>106</v>
-      </c>
+      <c r="A15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B17" t="s">
-        <v>113</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>117</v>
+        <v>168</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>118</v>
+      <c r="A18" s="17" t="s">
+        <v>682</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>123</v>
-      </c>
+        <v>683</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>129</v>
-      </c>
+      <c r="A19" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B19" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>130</v>
-      </c>
-      <c r="B20" t="s">
-        <v>131</v>
-      </c>
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>132</v>
-      </c>
-      <c r="B21" t="s">
-        <v>133</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>137</v>
-      </c>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>143</v>
+        <v>49</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>149</v>
+        <v>125</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>150</v>
-      </c>
-      <c r="B24" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>155</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B25" t="s">
-        <v>157</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>718</v>
       </c>
       <c r="B26" t="s">
-        <v>159</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>163</v>
+        <v>107</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>169</v>
+        <v>131</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B28" t="s">
-        <v>171</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>175</v>
-      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B29" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>181</v>
-      </c>
+      <c r="A29" s="3"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>187</v>
+        <v>119</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>193</v>
+        <v>142</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E31" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>147</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
-      </c>
-      <c r="C32" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>200</v>
-      </c>
-      <c r="B33" t="s">
-        <v>201</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>206</v>
-      </c>
-      <c r="B34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>211</v>
-      </c>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B35" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="D35" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="4" t="s">
-        <v>217</v>
-      </c>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>218</v>
-      </c>
-      <c r="B36" t="s">
-        <v>219</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>223</v>
-      </c>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>229</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="8"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>230</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>235</v>
+        <v>62</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="G39" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="B40" t="s">
-        <v>242</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>246</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>252</v>
+        <v>84</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>253</v>
+        <v>89</v>
       </c>
       <c r="B42" t="s">
-        <v>254</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>258</v>
+        <v>90</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>259</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
-        <v>260</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>264</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>112</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>269</v>
+        <v>113</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>270</v>
+      <c r="A45" s="17" t="s">
+        <v>674</v>
       </c>
       <c r="B45" t="s">
-        <v>270</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>273</v>
-      </c>
+        <v>675</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>274</v>
+      <c r="A46" s="17" t="s">
+        <v>688</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>58</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>25</v>
-      </c>
-      <c r="B47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>279</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
+      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>280</v>
-      </c>
-      <c r="B48" t="s">
-        <v>280</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>284</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
+      <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>285</v>
-      </c>
-      <c r="B49" t="s">
-        <v>286</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>290</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>295</v>
-      </c>
+      <c r="A50" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="12"/>
+      <c r="F50" s="12"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>297</v>
-      </c>
-      <c r="F51" s="11"/>
+      <c r="A51" t="s">
+        <v>665</v>
+      </c>
+      <c r="B51" t="s">
+        <v>666</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>299</v>
-      </c>
+      <c r="A52" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="3" t="s">
-        <v>300</v>
+      <c r="A53" t="s">
+        <v>204</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>301</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>159</v>
-      </c>
+      <c r="B54" s="3"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>304</v>
-      </c>
+      <c r="A56" t="s">
+        <v>716</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="10"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>305</v>
-      </c>
+      <c r="A57" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B57" t="s">
+        <v>705</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>306</v>
-      </c>
+      <c r="A58" s="17"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>307</v>
-      </c>
+      <c r="A59" s="17"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>309</v>
-      </c>
+      <c r="A60" t="s">
+        <v>719</v>
+      </c>
+      <c r="B60" t="s">
+        <v>720</v>
+      </c>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>311</v>
-      </c>
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>721</v>
+      </c>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>313</v>
-      </c>
+      <c r="A62" t="s">
+        <v>722</v>
+      </c>
+      <c r="B62" t="s">
+        <v>723</v>
+      </c>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
+      <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>315</v>
-      </c>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
+      <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>173</v>
+      </c>
+      <c r="B65" t="s">
+        <v>174</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E65" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>320</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+        <v>73</v>
+      </c>
+      <c r="B66" t="s">
+        <v>724</v>
+      </c>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="12"/>
+    </row>
+    <row r="67" spans="1:6" ht="36" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>322</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>324</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>326</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>328</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>76</v>
+      </c>
+      <c r="C67" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B68" t="s">
+        <v>672</v>
+      </c>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="12"/>
+      <c r="F68" s="12"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B69" t="s">
+        <v>703</v>
+      </c>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="12"/>
+      <c r="F69" s="12"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B70" t="s">
+        <v>701</v>
+      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>330</v>
+        <v>67</v>
       </c>
       <c r="B71" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>332</v>
-      </c>
-      <c r="B72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>334</v>
-      </c>
-      <c r="B73" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>336</v>
-      </c>
-      <c r="B74" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>338</v>
-      </c>
-      <c r="B75" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>340</v>
+        <v>68</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="12"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="12"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="12"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B76" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>342</v>
+        <v>97</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B77" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>344</v>
-      </c>
-      <c r="B78" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>346</v>
-      </c>
-      <c r="B79" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>348</v>
+        <v>102</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="12"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="17" t="s">
+        <v>686</v>
       </c>
       <c r="B80" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>809</v>
+        <v>687</v>
+      </c>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="12"/>
+      <c r="F80" s="12"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="17" t="s">
+        <v>690</v>
       </c>
       <c r="B81" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>350</v>
+        <v>691</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="17" t="s">
+        <v>692</v>
       </c>
       <c r="B82" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>352</v>
+        <v>693</v>
+      </c>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="12"/>
+      <c r="F82" s="12"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="B83" t="s">
+        <v>696</v>
+      </c>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="12"/>
+      <c r="F83" s="12"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="17" t="s">
+        <v>695</v>
       </c>
       <c r="B84" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>354</v>
-      </c>
-      <c r="B85" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>356</v>
-      </c>
-      <c r="B86" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>358</v>
+        <v>697</v>
+      </c>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="12"/>
+      <c r="F84" s="12"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="12"/>
+      <c r="F85" s="12"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="17" t="s">
+        <v>714</v>
       </c>
       <c r="B87" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>360</v>
+        <v>715</v>
+      </c>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="17" t="s">
+        <v>708</v>
       </c>
       <c r="B88" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+        <v>711</v>
+      </c>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="12"/>
+      <c r="F88" s="12"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="B89" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>364</v>
+        <v>215</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="12"/>
+      <c r="F89" s="12"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>709</v>
+      </c>
+      <c r="B90" t="s">
+        <v>712</v>
+      </c>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="12"/>
+      <c r="F90" s="12"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="17" t="s">
+        <v>710</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>366</v>
+        <v>713</v>
+      </c>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="17" t="s">
+        <v>676</v>
       </c>
       <c r="B92" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>368</v>
+        <v>677</v>
+      </c>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="12"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="17" t="s">
+        <v>678</v>
       </c>
       <c r="B93" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>370</v>
+        <v>679</v>
+      </c>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="12"/>
+      <c r="F93" s="12"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="17" t="s">
+        <v>680</v>
       </c>
       <c r="B94" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>372</v>
+        <v>681</v>
+      </c>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="17" t="s">
+        <v>699</v>
       </c>
       <c r="B95" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>374</v>
-      </c>
-      <c r="B96" t="s">
-        <v>375</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="12"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="12"/>
+      <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>376</v>
-      </c>
-      <c r="B97" t="s">
-        <v>377</v>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="12"/>
+      <c r="F97" s="12"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>218</v>
+      </c>
+      <c r="B98" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>378</v>
+        <v>220</v>
       </c>
       <c r="B99" t="s">
-        <v>379</v>
+        <v>221</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="12" t="s">
-        <v>380</v>
+      <c r="A100" t="s">
+        <v>222</v>
       </c>
       <c r="B100" t="s">
-        <v>381</v>
+        <v>223</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="12" t="s">
-        <v>382</v>
+      <c r="A101" t="s">
+        <v>224</v>
       </c>
       <c r="B101" t="s">
-        <v>383</v>
+        <v>225</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="12" t="s">
-        <v>384</v>
+      <c r="A102" t="s">
+        <v>226</v>
       </c>
       <c r="B102" t="s">
-        <v>385</v>
+        <v>227</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
-        <v>386</v>
+      <c r="A103" t="s">
+        <v>228</v>
       </c>
       <c r="B103" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="B104" t="s">
-        <v>389</v>
-      </c>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="12"/>
+      <c r="F104" s="12"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="12" t="s">
-        <v>390</v>
+      <c r="A105" s="11" t="s">
+        <v>280</v>
       </c>
       <c r="B105" t="s">
-        <v>391</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="12"/>
+      <c r="F105" s="12"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="12" t="s">
-        <v>392</v>
+      <c r="A106" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="B106" t="s">
-        <v>393</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="12"/>
+      <c r="F106" s="12"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="B107" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>399</v>
-      </c>
+      <c r="A107" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="B107" t="s">
+        <v>285</v>
+      </c>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="12"/>
+      <c r="F107" s="12"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>401</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="D108" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="E108" s="4" t="s">
-        <v>404</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A109" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="B109" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="C109" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="D109" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="E109" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="F109" s="4" t="s">
-        <v>411</v>
-      </c>
+      <c r="A108" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B108" t="s">
+        <v>251</v>
+      </c>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="12" t="s">
-        <v>412</v>
+      <c r="A110" s="11" t="s">
+        <v>242</v>
       </c>
       <c r="B110" t="s">
-        <v>413</v>
+        <v>243</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="12" t="s">
-        <v>414</v>
+      <c r="A111" s="11" t="s">
+        <v>244</v>
       </c>
       <c r="B111" t="s">
-        <v>415</v>
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>416</v>
+      <c r="A112" s="11" t="s">
+        <v>246</v>
       </c>
       <c r="B112" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" s="12" t="s">
-        <v>418</v>
+        <v>247</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B113" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>252</v>
       </c>
       <c r="B114" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" s="12" t="s">
-        <v>420</v>
+        <v>253</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="11" t="s">
+        <v>254</v>
       </c>
       <c r="B115" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" s="12" t="s">
-        <v>422</v>
-      </c>
-      <c r="B116" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="B117" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
-        <v>426</v>
-      </c>
-      <c r="B118" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" s="12" t="s">
-        <v>428</v>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E118" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="B119" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" s="12" t="s">
-        <v>430</v>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="11" t="s">
+        <v>276</v>
       </c>
       <c r="B120" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" s="12" t="s">
-        <v>432</v>
+        <v>277</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>278</v>
       </c>
       <c r="B121" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" s="12" t="s">
-        <v>434</v>
-      </c>
-      <c r="B122" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" s="12" t="s">
-        <v>436</v>
-      </c>
-      <c r="B123" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" s="12" t="s">
-        <v>438</v>
-      </c>
-      <c r="B124" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" s="12" t="s">
-        <v>440</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="14" t="s">
+        <v>655</v>
       </c>
       <c r="B125" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" s="12" t="s">
-        <v>442</v>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="14" t="s">
+        <v>657</v>
       </c>
       <c r="B126" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" s="12" t="s">
-        <v>444</v>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" s="14" t="s">
+        <v>659</v>
       </c>
       <c r="B127" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" s="12" t="s">
-        <v>446</v>
+        <v>660</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="15" t="s">
+        <v>661</v>
       </c>
       <c r="B128" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" s="12" t="s">
-        <v>448</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="16" t="s">
+        <v>663</v>
       </c>
       <c r="B129" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" s="12" t="s">
-        <v>450</v>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="17" t="s">
+        <v>668</v>
       </c>
       <c r="B130" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" s="12" t="s">
-        <v>452</v>
+        <v>669</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="17" t="s">
+        <v>670</v>
       </c>
       <c r="B131" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B132" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" s="12" t="s">
-        <v>796</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" s="15" t="s">
-        <v>799</v>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="17"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="12"/>
+      <c r="F132" s="12"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="17"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="12"/>
+      <c r="F133" s="12"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>230</v>
+      </c>
+      <c r="B134" t="s">
+        <v>231</v>
+      </c>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="12"/>
+      <c r="F134" s="12"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>232</v>
+      </c>
+      <c r="B135" t="s">
+        <v>233</v>
+      </c>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="12"/>
+      <c r="F135" s="12"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" s="15" t="s">
-        <v>801</v>
+        <v>235</v>
+      </c>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="12"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>236</v>
       </c>
       <c r="B137" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" s="15" t="s">
-        <v>803</v>
+        <v>237</v>
+      </c>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="12"/>
+      <c r="F137" s="12"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>238</v>
       </c>
       <c r="B138" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" s="16" t="s">
-        <v>805</v>
+        <v>239</v>
+      </c>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="12"/>
+      <c r="F138" s="12"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>240</v>
       </c>
       <c r="B139" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" s="17" t="s">
-        <v>807</v>
+        <v>241</v>
+      </c>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A140" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="B140" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" s="18" t="s">
-        <v>812</v>
-      </c>
-      <c r="B141" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" s="18" t="s">
-        <v>814</v>
+        <v>311</v>
+      </c>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A141" s="13"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="12"/>
+      <c r="F141" s="12"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A142" s="11" t="s">
+        <v>286</v>
       </c>
       <c r="B142" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" s="18" t="s">
-        <v>817</v>
+        <v>287</v>
+      </c>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="12"/>
+      <c r="F142" s="12"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A143" s="11" t="s">
+        <v>288</v>
       </c>
       <c r="B143" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" s="18" t="s">
-        <v>818</v>
+        <v>289</v>
+      </c>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="12"/>
+      <c r="F143" s="12"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A144" s="11" t="s">
+        <v>290</v>
       </c>
       <c r="B144" t="s">
-        <v>819</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
+      <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="18" t="s">
-        <v>820</v>
+      <c r="A145" s="11" t="s">
+        <v>292</v>
       </c>
       <c r="B145" t="s">
-        <v>821</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="12"/>
+      <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="18" t="s">
-        <v>822</v>
+      <c r="A146" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="B146" t="s">
-        <v>823</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="12"/>
+      <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="18" t="s">
-        <v>824</v>
+      <c r="A147" s="11" t="s">
+        <v>296</v>
       </c>
       <c r="B147" t="s">
-        <v>825</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="12"/>
+      <c r="F147" s="12"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A148" s="18" t="s">
-        <v>852</v>
+      <c r="A148" s="11" t="s">
+        <v>298</v>
       </c>
       <c r="B148" t="s">
-        <v>855</v>
-      </c>
-      <c r="C148" s="13"/>
-      <c r="D148" s="13"/>
-      <c r="E148" s="13"/>
-      <c r="F148" s="13"/>
+        <v>299</v>
+      </c>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="12"/>
+      <c r="F148" s="12"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A149" s="18" t="s">
-        <v>853</v>
+      <c r="A149" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="B149" t="s">
-        <v>856</v>
-      </c>
-      <c r="C149" s="13"/>
-      <c r="D149" s="13"/>
-      <c r="E149" s="13"/>
-      <c r="F149" s="13"/>
+        <v>301</v>
+      </c>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="12"/>
+      <c r="F149" s="12"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A150" s="18" t="s">
-        <v>854</v>
+      <c r="A150" s="11" t="s">
+        <v>302</v>
       </c>
       <c r="B150" t="s">
-        <v>857</v>
-      </c>
-      <c r="C150" s="13"/>
-      <c r="D150" s="13"/>
-      <c r="E150" s="13"/>
-      <c r="F150" s="13"/>
+        <v>303</v>
+      </c>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="12"/>
+      <c r="F150" s="12"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A151" s="18" t="s">
-        <v>858</v>
+      <c r="A151" s="11" t="s">
+        <v>304</v>
       </c>
       <c r="B151" t="s">
-        <v>859</v>
-      </c>
-      <c r="C151" s="13"/>
-      <c r="D151" s="13"/>
-      <c r="E151" s="13"/>
-      <c r="F151" s="13"/>
+        <v>305</v>
+      </c>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="12"/>
+      <c r="F151" s="12"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A152" s="18" t="s">
-        <v>826</v>
+      <c r="A152" s="11" t="s">
+        <v>306</v>
       </c>
       <c r="B152" t="s">
-        <v>827</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="12"/>
+      <c r="F152" s="12"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A153" s="18" t="s">
-        <v>828</v>
+      <c r="A153" s="11" t="s">
+        <v>308</v>
       </c>
       <c r="B153" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A154" s="18" t="s">
-        <v>830</v>
-      </c>
-      <c r="B154" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A155" s="18" t="s">
-        <v>834</v>
-      </c>
-      <c r="B155" t="s">
-        <v>835</v>
-      </c>
-      <c r="C155" s="13"/>
-      <c r="D155" s="13"/>
-      <c r="E155" s="13"/>
-      <c r="F155" s="13"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A156" s="18" t="s">
-        <v>836</v>
-      </c>
-      <c r="B156" t="s">
-        <v>837</v>
-      </c>
-      <c r="C156" s="13"/>
-      <c r="D156" s="13"/>
-      <c r="E156" s="13"/>
-      <c r="F156" s="13"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A157" s="18" t="s">
-        <v>838</v>
-      </c>
-      <c r="B157" t="s">
-        <v>840</v>
-      </c>
-      <c r="C157" s="13"/>
-      <c r="D157" s="13"/>
-      <c r="E157" s="13"/>
-      <c r="F157" s="13"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A158" s="18" t="s">
-        <v>839</v>
-      </c>
-      <c r="B158" t="s">
-        <v>841</v>
-      </c>
-      <c r="C158" s="13"/>
-      <c r="D158" s="13"/>
-      <c r="E158" s="13"/>
-      <c r="F158" s="13"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A159" s="18" t="s">
-        <v>832</v>
-      </c>
-      <c r="B159" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A160" s="18" t="s">
-        <v>843</v>
-      </c>
-      <c r="B160" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="18" t="s">
-        <v>844</v>
-      </c>
-      <c r="B161" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="18" t="s">
-        <v>846</v>
-      </c>
-      <c r="B162" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="18" t="s">
-        <v>848</v>
-      </c>
-      <c r="B163" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" s="18" t="s">
-        <v>850</v>
-      </c>
-      <c r="B164" t="s">
-        <v>851</v>
-      </c>
+        <v>309</v>
+      </c>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="12"/>
+      <c r="F153" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F68"/>
+  <autoFilter ref="A1:F97"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -5243,54 +4775,54 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>456</v>
+        <v>312</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>457</v>
+        <v>313</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>458</v>
+        <v>314</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>459</v>
+        <v>315</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>460</v>
+        <v>316</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>461</v>
+        <v>317</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>462</v>
+        <v>318</v>
       </c>
       <c r="H1" t="s">
-        <v>463</v>
+        <v>319</v>
       </c>
       <c r="I1" t="s">
-        <v>464</v>
+        <v>320</v>
       </c>
       <c r="J1" t="s">
-        <v>465</v>
+        <v>321</v>
       </c>
       <c r="K1" t="s">
-        <v>466</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>468</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>469</v>
+        <v>325</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5305,10 +4837,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>471</v>
+        <v>327</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5321,41 +4853,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>472</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>473</v>
+        <v>329</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>474</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>475</v>
+        <v>331</v>
       </c>
       <c r="C5" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="D5" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="E5" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="F5" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="G5" t="s">
-        <v>476</v>
+        <v>332</v>
       </c>
       <c r="M5" t="s">
-        <v>477</v>
+        <v>333</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -5364,27 +4896,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>478</v>
+        <v>334</v>
       </c>
       <c r="H7" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="I7" t="s">
-        <v>480</v>
+        <v>336</v>
       </c>
       <c r="J7" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="K7" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
       <c r="L7" t="s">
-        <v>479</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>481</v>
+        <v>337</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5393,24 +4925,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>483</v>
+        <v>339</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>482</v>
+        <v>338</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>482</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>484</v>
+        <v>340</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5419,24 +4951,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>485</v>
+        <v>341</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>486</v>
+        <v>342</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5445,24 +4977,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>487</v>
+        <v>343</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>488</v>
+        <v>344</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5471,24 +5003,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>489</v>
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>490</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -5515,13 +5047,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>491</v>
+        <v>347</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>492</v>
+        <v>348</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>493</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -5543,7 +5075,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>494</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5589,530 +5121,530 @@
     </row>
     <row r="2" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>495</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s">
-        <v>496</v>
+        <v>352</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>497</v>
+        <v>353</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>498</v>
+        <v>354</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>500</v>
+        <v>355</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>501</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s">
-        <v>502</v>
+        <v>358</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>503</v>
+        <v>359</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>504</v>
+        <v>360</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>505</v>
+        <v>361</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>506</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s">
-        <v>508</v>
+        <v>364</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>509</v>
+        <v>365</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>511</v>
+        <v>367</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>513</v>
+        <v>369</v>
       </c>
       <c r="B5" t="s">
-        <v>514</v>
+        <v>370</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>516</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>517</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>518</v>
+        <v>371</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>519</v>
+        <v>375</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>376</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>521</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>522</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>523</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>524</v>
+        <v>377</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>525</v>
+        <v>381</v>
       </c>
       <c r="B7" t="s">
-        <v>526</v>
+        <v>382</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>527</v>
+        <v>383</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>528</v>
+        <v>384</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>529</v>
+        <v>385</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>530</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>531</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s">
-        <v>532</v>
+        <v>388</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>533</v>
+        <v>389</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>534</v>
+        <v>390</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>535</v>
+        <v>391</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>536</v>
+        <v>392</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>537</v>
+        <v>393</v>
       </c>
       <c r="B9" t="s">
-        <v>538</v>
+        <v>394</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>539</v>
+        <v>395</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>540</v>
+        <v>396</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>541</v>
+        <v>397</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>542</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>543</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
-        <v>544</v>
+        <v>400</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>545</v>
+        <v>401</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>546</v>
+        <v>402</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>547</v>
+        <v>403</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>548</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>549</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s">
-        <v>550</v>
+        <v>406</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>551</v>
+        <v>407</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>552</v>
+        <v>408</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>553</v>
+        <v>409</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>554</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s">
-        <v>556</v>
+        <v>412</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>557</v>
+        <v>413</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>510</v>
+        <v>366</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>511</v>
+        <v>367</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>512</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>414</v>
       </c>
       <c r="B13" t="s">
-        <v>559</v>
+        <v>415</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>560</v>
+        <v>416</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>561</v>
+        <v>417</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>562</v>
+        <v>418</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>563</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>564</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
-        <v>565</v>
+        <v>421</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>566</v>
+        <v>422</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>567</v>
+        <v>423</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>568</v>
+        <v>424</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>569</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>570</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s">
-        <v>571</v>
+        <v>427</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>572</v>
+        <v>428</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>573</v>
+        <v>429</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>574</v>
+        <v>430</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>575</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>576</v>
+        <v>432</v>
       </c>
       <c r="B16" t="s">
-        <v>577</v>
+        <v>433</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>578</v>
+        <v>434</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>579</v>
+        <v>435</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>580</v>
+        <v>436</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>581</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>582</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
-        <v>583</v>
+        <v>439</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>584</v>
+        <v>440</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>585</v>
+        <v>441</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>586</v>
+        <v>442</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>587</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="B18" t="s">
-        <v>589</v>
+        <v>445</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>590</v>
+        <v>446</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>592</v>
+        <v>448</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>593</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s">
-        <v>595</v>
+        <v>451</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>596</v>
+        <v>452</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>597</v>
+        <v>453</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>598</v>
+        <v>454</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>599</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>600</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s">
-        <v>601</v>
+        <v>457</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>602</v>
+        <v>458</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>603</v>
+        <v>459</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>604</v>
+        <v>460</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>605</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>606</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s">
-        <v>607</v>
+        <v>463</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>608</v>
+        <v>464</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>609</v>
+        <v>465</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>610</v>
+        <v>466</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>611</v>
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>612</v>
+        <v>468</v>
       </c>
       <c r="B22" t="s">
-        <v>613</v>
+        <v>469</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>614</v>
+        <v>470</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>615</v>
+        <v>471</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>616</v>
+        <v>472</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>617</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>618</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s">
-        <v>619</v>
+        <v>475</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>620</v>
+        <v>476</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>621</v>
+        <v>477</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>622</v>
+        <v>478</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>623</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>624</v>
+        <v>480</v>
       </c>
       <c r="B24" t="s">
-        <v>625</v>
+        <v>481</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>626</v>
+        <v>482</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>627</v>
+        <v>483</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>628</v>
+        <v>484</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>629</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>630</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s">
-        <v>631</v>
+        <v>487</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>632</v>
+        <v>488</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>633</v>
+        <v>489</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>634</v>
+        <v>490</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>631</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>491</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>492</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>637</v>
+        <v>493</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>638</v>
+        <v>494</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>640</v>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>641</v>
+        <v>497</v>
       </c>
       <c r="B27" t="s">
-        <v>642</v>
+        <v>498</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>643</v>
+        <v>499</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>644</v>
+        <v>500</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>645</v>
+        <v>501</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>646</v>
+        <v>502</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>647</v>
+        <v>503</v>
       </c>
       <c r="B28" t="s">
-        <v>648</v>
+        <v>504</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -6121,10 +5653,10 @@
     </row>
     <row r="29" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>649</v>
+        <v>505</v>
       </c>
       <c r="B29" t="s">
-        <v>650</v>
+        <v>506</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -6133,42 +5665,42 @@
     </row>
     <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>651</v>
+        <v>507</v>
       </c>
       <c r="B30" t="s">
-        <v>652</v>
+        <v>508</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>653</v>
+        <v>509</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>654</v>
+        <v>510</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>655</v>
+        <v>511</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>656</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>657</v>
+        <v>513</v>
       </c>
       <c r="B31" t="s">
-        <v>658</v>
+        <v>514</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>660</v>
+        <v>516</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>661</v>
+        <v>517</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>662</v>
+        <v>518</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -6179,70 +5711,70 @@
     </row>
     <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>663</v>
+        <v>519</v>
       </c>
       <c r="B33" t="s">
-        <v>664</v>
+        <v>520</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>665</v>
+        <v>521</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>666</v>
+        <v>522</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>667</v>
+        <v>523</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>668</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>669</v>
+        <v>525</v>
       </c>
       <c r="B34" t="s">
-        <v>670</v>
+        <v>526</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>671</v>
+        <v>527</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>672</v>
+        <v>528</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>673</v>
+        <v>529</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>674</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>675</v>
+        <v>531</v>
       </c>
       <c r="B35" t="s">
-        <v>676</v>
+        <v>532</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>677</v>
+        <v>533</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>678</v>
+        <v>534</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>680</v>
+        <v>535</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>536</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="170" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>681</v>
+        <v>537</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>682</v>
+        <v>538</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -6251,435 +5783,435 @@
     </row>
     <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>683</v>
+        <v>539</v>
       </c>
       <c r="B37" t="s">
-        <v>684</v>
+        <v>540</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>685</v>
+        <v>541</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>686</v>
+        <v>542</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>687</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>688</v>
+        <v>543</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>689</v>
+        <v>545</v>
       </c>
       <c r="B38" t="s">
-        <v>690</v>
+        <v>546</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>691</v>
+        <v>547</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>692</v>
+        <v>548</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>693</v>
+        <v>549</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>694</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>695</v>
+        <v>551</v>
       </c>
       <c r="B39" t="s">
-        <v>696</v>
+        <v>552</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>697</v>
+        <v>553</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>698</v>
+        <v>554</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>699</v>
+        <v>555</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>700</v>
+        <v>556</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>701</v>
+        <v>557</v>
       </c>
       <c r="B40" t="s">
-        <v>702</v>
+        <v>558</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>703</v>
+        <v>559</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>704</v>
+        <v>560</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>705</v>
+        <v>561</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>706</v>
+        <v>562</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>707</v>
+        <v>563</v>
       </c>
       <c r="B41" t="s">
-        <v>708</v>
+        <v>564</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>709</v>
+        <v>565</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>710</v>
+        <v>566</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>711</v>
+        <v>567</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>712</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>713</v>
+        <v>569</v>
       </c>
       <c r="B42" t="s">
-        <v>714</v>
+        <v>570</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>715</v>
+        <v>571</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>716</v>
+        <v>572</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>717</v>
+        <v>573</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>718</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>719</v>
+        <v>575</v>
       </c>
       <c r="B43" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>721</v>
+        <v>577</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>722</v>
+        <v>578</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>723</v>
+        <v>579</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>720</v>
+        <v>576</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>724</v>
+        <v>580</v>
       </c>
       <c r="B44" t="s">
-        <v>725</v>
+        <v>581</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>726</v>
+        <v>582</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>727</v>
+        <v>583</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>728</v>
+        <v>584</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>729</v>
+        <v>585</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>730</v>
+        <v>586</v>
       </c>
       <c r="B45" t="s">
-        <v>731</v>
+        <v>587</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>732</v>
+        <v>588</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>733</v>
+        <v>589</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>734</v>
+        <v>590</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>735</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>736</v>
+        <v>592</v>
       </c>
       <c r="B46" t="s">
-        <v>737</v>
+        <v>593</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>738</v>
+        <v>594</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>739</v>
+        <v>595</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>740</v>
+        <v>596</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>741</v>
+        <v>597</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>742</v>
+        <v>598</v>
       </c>
       <c r="B47" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>744</v>
+        <v>600</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>745</v>
+        <v>601</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>748</v>
+        <v>604</v>
       </c>
       <c r="B48" t="s">
-        <v>749</v>
+        <v>605</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>751</v>
+        <v>607</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>752</v>
+        <v>608</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>753</v>
+        <v>609</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>754</v>
+        <v>610</v>
       </c>
       <c r="B49" t="s">
-        <v>755</v>
+        <v>611</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>756</v>
+        <v>612</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>757</v>
+        <v>613</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>758</v>
+        <v>614</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>759</v>
+        <v>615</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>760</v>
+        <v>616</v>
       </c>
       <c r="B50" t="s">
-        <v>761</v>
+        <v>617</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>762</v>
+        <v>618</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>763</v>
+        <v>619</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>764</v>
+        <v>620</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>765</v>
+        <v>621</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>766</v>
+        <v>622</v>
       </c>
       <c r="B51" t="s">
-        <v>767</v>
+        <v>623</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>768</v>
+        <v>624</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>769</v>
+        <v>625</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>655</v>
+        <v>511</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>770</v>
+        <v>626</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>771</v>
+        <v>627</v>
       </c>
       <c r="B52" t="s">
-        <v>658</v>
+        <v>514</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>659</v>
+        <v>515</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>660</v>
+        <v>516</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>661</v>
+        <v>517</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>662</v>
+        <v>518</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>772</v>
+        <v>628</v>
       </c>
       <c r="B53" t="s">
-        <v>773</v>
+        <v>629</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>774</v>
+        <v>630</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>775</v>
+        <v>631</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>776</v>
+        <v>632</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>777</v>
+        <v>633</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>778</v>
+        <v>634</v>
       </c>
       <c r="B54" t="s">
-        <v>743</v>
+        <v>599</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>779</v>
+        <v>635</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>745</v>
+        <v>601</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>746</v>
+        <v>602</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>747</v>
+        <v>603</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>780</v>
+        <v>636</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="D55" s="4"/>
       <c r="F55" t="s">
-        <v>781</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>782</v>
+        <v>638</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>783</v>
+        <v>639</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>784</v>
+        <v>640</v>
       </c>
       <c r="D56" s="4"/>
       <c r="F56" t="s">
-        <v>785</v>
+        <v>641</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>786</v>
+        <v>642</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>787</v>
+        <v>643</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>788</v>
+        <v>644</v>
       </c>
       <c r="D57" s="4"/>
       <c r="F57" t="s">
-        <v>789</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>790</v>
+        <v>646</v>
       </c>
       <c r="B58" t="s">
-        <v>791</v>
+        <v>647</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
     </row>
     <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>792</v>
+        <v>648</v>
       </c>
       <c r="B59" t="s">
-        <v>793</v>
+        <v>649</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
     </row>
     <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>794</v>
+        <v>650</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>795</v>
+        <v>651</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -20,7 +20,7 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$102</definedName>
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="735">
   <si>
     <t>comments</t>
   </si>
@@ -2225,6 +2225,36 @@
   </si>
   <si>
     <t>Beneficiary Entity ID not found in system</t>
+  </si>
+  <si>
+    <t>delivery_upper_case</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Enter a value</t>
+  </si>
+  <si>
+    <t>enter_value</t>
+  </si>
+  <si>
+    <t>deliver_items</t>
+  </si>
+  <si>
+    <t>Deliver Items</t>
+  </si>
+  <si>
+    <t>confirm_delivery</t>
+  </si>
+  <si>
+    <t>Confirm Delivery</t>
   </si>
 </sst>
 </file>
@@ -2360,8 +2390,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2420,7 +2452,7 @@
       <alignment readingOrder="2"/>
     </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2434,6 +2466,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2447,6 +2480,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2905,10 +2939,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G153"/>
+  <dimension ref="A1:G158"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3026,12 +3060,16 @@
       <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="A7" s="17" t="s">
+        <v>725</v>
+      </c>
+      <c r="B7" t="s">
+        <v>726</v>
+      </c>
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
@@ -3042,103 +3080,99 @@
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>157</v>
-      </c>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>156</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>47</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>162</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="12" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="12" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -3147,10 +3181,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -3159,10 +3193,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -3170,43 +3204,43 @@
       <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>168</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E18" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F18" s="12" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>682</v>
-      </c>
-      <c r="B18" t="s">
-        <v>683</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B19" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -3214,12 +3248,16 @@
       <c r="F19" s="12"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="B20" t="s">
+        <v>685</v>
+      </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
@@ -3230,63 +3268,59 @@
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="12" t="s">
-        <v>53</v>
-      </c>
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>124</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D24" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E24" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="F24" s="10" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B25" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>200</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>201</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -3295,136 +3329,136 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>718</v>
-      </c>
-      <c r="B26" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D26" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="F26" s="12" t="s">
-        <v>111</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>718</v>
+      </c>
+      <c r="B27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>130</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>131</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="12" t="s">
+      <c r="E28" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F28" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="12"/>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
-      <c r="F29" s="10"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>118</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="F30" s="12" t="s">
-        <v>123</v>
-      </c>
+      <c r="A30" s="3"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>145</v>
+        <v>122</v>
       </c>
       <c r="F31" s="12" t="s">
-        <v>146</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>141</v>
+      </c>
+      <c r="B32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>147</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C33" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E33" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F33" s="12" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" s="12"/>
       <c r="D34" s="12"/>
@@ -3432,164 +3466,156 @@
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
+      <c r="A35" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>199</v>
+      </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
+      <c r="A36" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>728</v>
+      </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>56</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G37" s="8"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="D38" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F38" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
+        <v>56</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G39" s="8"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
-      </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
+        <v>62</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E40" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="E41" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>88</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>210</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>94</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
+        <v>84</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="E44" s="12" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="17" t="s">
-        <v>674</v>
+      <c r="A45" t="s">
+        <v>95</v>
       </c>
       <c r="B45" t="s">
-        <v>675</v>
+        <v>96</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -3597,23 +3623,31 @@
       <c r="F45" s="12"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="17" t="s">
-        <v>688</v>
+      <c r="A46" t="s">
+        <v>112</v>
       </c>
       <c r="B46" t="s">
-        <v>689</v>
-      </c>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>203</v>
+      <c r="A47" s="17" t="s">
+        <v>674</v>
+      </c>
+      <c r="B47" t="s">
+        <v>675</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -3621,11 +3655,11 @@
       <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>206</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>207</v>
+      <c r="A48" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="B48" t="s">
+        <v>689</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -3634,10 +3668,10 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -3646,10 +3680,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>212</v>
-      </c>
-      <c r="B50" t="s">
-        <v>213</v>
+        <v>206</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -3658,10 +3692,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>665</v>
-      </c>
-      <c r="B51" t="s">
-        <v>666</v>
+        <v>208</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -3670,10 +3704,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -3682,10 +3716,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>204</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>205</v>
+        <v>665</v>
+      </c>
+      <c r="B53" t="s">
+        <v>666</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -3693,15 +3727,24 @@
       <c r="F53" s="12"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B54" s="3"/>
+      <c r="A54" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
+      <c r="A55" t="s">
+        <v>204</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>205</v>
+      </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
@@ -3709,22 +3752,22 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>716</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C56" s="9"/>
+        <v>730</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C56" s="12"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
-      <c r="F56" s="10"/>
+      <c r="F56" s="12"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="B57" t="s">
-        <v>705</v>
+      <c r="A57" t="s">
+        <v>731</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>732</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -3732,26 +3775,27 @@
       <c r="F57" s="12"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
+      <c r="A58" t="s">
+        <v>733</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>734</v>
+      </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="B59" s="3"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>719</v>
-      </c>
-      <c r="B60" t="s">
-        <v>720</v>
-      </c>
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
@@ -3759,22 +3803,22 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>74</v>
-      </c>
-      <c r="B61" t="s">
-        <v>721</v>
-      </c>
-      <c r="C61" s="12"/>
+        <v>716</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C61" s="9"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="12"/>
+      <c r="F61" s="10"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>722</v>
+      <c r="A62" s="17" t="s">
+        <v>704</v>
       </c>
       <c r="B62" t="s">
-        <v>723</v>
+        <v>705</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -3782,14 +3826,14 @@
       <c r="F62" s="12"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
+      <c r="A64" s="17"/>
       <c r="C64" s="12"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
@@ -3797,144 +3841,124 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>719</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
-      </c>
-      <c r="C65" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D65" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E65" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>178</v>
-      </c>
+        <v>720</v>
+      </c>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="12"/>
+      <c r="F65" s="12"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
     </row>
-    <row r="67" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>722</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
-      </c>
-      <c r="C67" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>80</v>
-      </c>
+        <v>723</v>
+      </c>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="12"/>
+      <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="B68" t="s">
-        <v>672</v>
-      </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="17" t="s">
-        <v>702</v>
-      </c>
-      <c r="B69" t="s">
-        <v>703</v>
-      </c>
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="17" t="s">
-        <v>700</v>
+      <c r="A70" t="s">
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>701</v>
-      </c>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
+        <v>174</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C71" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>667</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>180</v>
+        <v>724</v>
+      </c>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>77</v>
       </c>
       <c r="D72" s="12" t="s">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="E72" s="12" t="s">
-        <v>182</v>
+        <v>79</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>183</v>
+        <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="B73" t="s">
+        <v>672</v>
+      </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>185</v>
+      <c r="A74" s="17" t="s">
+        <v>702</v>
+      </c>
+      <c r="B74" t="s">
+        <v>703</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -3942,11 +3966,11 @@
       <c r="F74" s="12"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>187</v>
+      <c r="A75" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B75" t="s">
+        <v>701</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -3954,43 +3978,43 @@
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="3" t="s">
-        <v>188</v>
+      <c r="A76" t="s">
+        <v>67</v>
       </c>
       <c r="B76" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C76" s="12" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="E76" s="12" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="B77" t="s">
-        <v>102</v>
+        <v>179</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>667</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>103</v>
+        <v>180</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>104</v>
+        <v>181</v>
       </c>
       <c r="E77" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>106</v>
+        <v>182</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4000,17 +4024,23 @@
       <c r="F78" s="12"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>185</v>
+      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="B80" t="s">
-        <v>687</v>
+      <c r="A80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>187</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -4018,60 +4048,76 @@
       <c r="F80" s="12"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="17" t="s">
-        <v>690</v>
+      <c r="A81" s="3" t="s">
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>691</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
+        <v>97</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="17" t="s">
-        <v>692</v>
+      <c r="A82" s="3" t="s">
+        <v>189</v>
       </c>
       <c r="B82" t="s">
-        <v>693</v>
-      </c>
-      <c r="C82" s="12"/>
-      <c r="D82" s="12"/>
-      <c r="E82" s="12"/>
-      <c r="F82" s="12"/>
+        <v>102</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="17" t="s">
-        <v>694</v>
-      </c>
-      <c r="B83" t="s">
-        <v>696</v>
-      </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="17" t="s">
-        <v>695</v>
-      </c>
-      <c r="B84" t="s">
-        <v>697</v>
-      </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="17" t="s">
+        <v>686</v>
+      </c>
+      <c r="B85" t="s">
+        <v>687</v>
+      </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="17" t="s">
+        <v>690</v>
+      </c>
+      <c r="B86" t="s">
+        <v>691</v>
+      </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
@@ -4079,10 +4125,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>714</v>
+        <v>692</v>
       </c>
       <c r="B87" t="s">
-        <v>715</v>
+        <v>693</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4091,10 +4137,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="B88" t="s">
-        <v>711</v>
+        <v>696</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4102,11 +4148,11 @@
       <c r="F88" s="12"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>214</v>
+      <c r="A89" s="17" t="s">
+        <v>695</v>
       </c>
       <c r="B89" t="s">
-        <v>215</v>
+        <v>697</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4114,24 +4160,12 @@
       <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="17" t="s">
-        <v>709</v>
-      </c>
-      <c r="B90" t="s">
-        <v>712</v>
-      </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="17" t="s">
-        <v>710</v>
-      </c>
-      <c r="B91" t="s">
-        <v>713</v>
-      </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
@@ -4139,10 +4173,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="17" t="s">
-        <v>676</v>
+        <v>714</v>
       </c>
       <c r="B92" t="s">
-        <v>677</v>
+        <v>715</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -4151,10 +4185,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>678</v>
+        <v>708</v>
       </c>
       <c r="B93" t="s">
-        <v>679</v>
+        <v>711</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -4162,11 +4196,11 @@
       <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="17" t="s">
-        <v>680</v>
+      <c r="A94" t="s">
+        <v>214</v>
       </c>
       <c r="B94" t="s">
-        <v>681</v>
+        <v>215</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -4175,10 +4209,10 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="17" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="B95" t="s">
-        <v>698</v>
+        <v>712</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -4186,393 +4220,393 @@
       <c r="F95" s="12"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="17"/>
+      <c r="A96" s="17" t="s">
+        <v>710</v>
+      </c>
+      <c r="B96" t="s">
+        <v>713</v>
+      </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="B97" t="s">
+        <v>677</v>
+      </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>218</v>
+      <c r="A98" s="17" t="s">
+        <v>678</v>
       </c>
       <c r="B98" t="s">
-        <v>219</v>
-      </c>
+        <v>679</v>
+      </c>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="12"/>
+      <c r="F98" s="12"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>220</v>
+      <c r="A99" s="17" t="s">
+        <v>680</v>
       </c>
       <c r="B99" t="s">
-        <v>221</v>
-      </c>
+        <v>681</v>
+      </c>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="12"/>
+      <c r="F99" s="12"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>222</v>
+      <c r="A100" s="17" t="s">
+        <v>699</v>
       </c>
       <c r="B100" t="s">
-        <v>223</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="12"/>
+      <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>224</v>
-      </c>
-      <c r="B101" t="s">
-        <v>225</v>
-      </c>
+      <c r="A101" s="17"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>226</v>
-      </c>
-      <c r="B102" t="s">
-        <v>227</v>
-      </c>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="12"/>
+      <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>218</v>
+      </c>
+      <c r="B103" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>220</v>
+      </c>
+      <c r="B104" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>222</v>
+      </c>
+      <c r="B105" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>224</v>
+      </c>
+      <c r="B106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>228</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B108" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C104" s="12"/>
-      <c r="D104" s="12"/>
-      <c r="E104" s="12"/>
-      <c r="F104" s="12"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B105" t="s">
-        <v>281</v>
-      </c>
-      <c r="C105" s="12"/>
-      <c r="D105" s="12"/>
-      <c r="E105" s="12"/>
-      <c r="F105" s="12"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="B106" t="s">
-        <v>283</v>
-      </c>
-      <c r="C106" s="12"/>
-      <c r="D106" s="12"/>
-      <c r="E106" s="12"/>
-      <c r="F106" s="12"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B107" t="s">
-        <v>285</v>
-      </c>
-      <c r="C107" s="12"/>
-      <c r="D107" s="12"/>
-      <c r="E107" s="12"/>
-      <c r="F107" s="12"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B108" t="s">
-        <v>251</v>
-      </c>
-      <c r="C108" s="12"/>
-      <c r="D108" s="12"/>
-      <c r="E108" s="12"/>
-      <c r="F108" s="12"/>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="12"/>
+      <c r="F109" s="12"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A110" s="11" t="s">
-        <v>242</v>
+        <v>280</v>
       </c>
       <c r="B110" t="s">
-        <v>243</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="12"/>
+      <c r="F110" s="12"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="B111" t="s">
-        <v>245</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="12"/>
+      <c r="F111" s="12"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>246</v>
+        <v>284</v>
       </c>
       <c r="B112" t="s">
-        <v>247</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="12"/>
+      <c r="F112" s="12"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B113" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="11" t="s">
-        <v>252</v>
-      </c>
-      <c r="B114" t="s">
-        <v>253</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="12"/>
+      <c r="F113" s="12"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B115" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D116" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F116" s="4" t="s">
-        <v>261</v>
+        <v>244</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+      <c r="B117" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="D118" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="E118" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="F118" s="4" t="s">
-        <v>273</v>
+        <v>248</v>
+      </c>
+      <c r="B118" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="B120" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B124" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A125" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B125" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>278</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B126" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A128" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B128" s="12" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="14" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B124" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A125" s="14" t="s">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A130" s="14" t="s">
         <v>655</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B130" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" s="14" t="s">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A131" s="14" t="s">
         <v>657</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B131" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="14" t="s">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B132" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="15" t="s">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B133" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="16" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B134" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A130" s="17" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="17" t="s">
         <v>668</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B135" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A131" s="17" t="s">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A136" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B136" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" s="17"/>
-      <c r="C132" s="12"/>
-      <c r="D132" s="12"/>
-      <c r="E132" s="12"/>
-      <c r="F132" s="12"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="17"/>
-      <c r="C133" s="12"/>
-      <c r="D133" s="12"/>
-      <c r="E133" s="12"/>
-      <c r="F133" s="12"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>230</v>
-      </c>
-      <c r="B134" t="s">
-        <v>231</v>
-      </c>
-      <c r="C134" s="12"/>
-      <c r="D134" s="12"/>
-      <c r="E134" s="12"/>
-      <c r="F134" s="12"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>232</v>
-      </c>
-      <c r="B135" t="s">
-        <v>233</v>
-      </c>
-      <c r="C135" s="12"/>
-      <c r="D135" s="12"/>
-      <c r="E135" s="12"/>
-      <c r="F135" s="12"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>234</v>
-      </c>
-      <c r="B136" t="s">
-        <v>235</v>
-      </c>
-      <c r="C136" s="12"/>
-      <c r="D136" s="12"/>
-      <c r="E136" s="12"/>
-      <c r="F136" s="12"/>
-    </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>236</v>
-      </c>
-      <c r="B137" t="s">
-        <v>237</v>
-      </c>
+      <c r="A137" s="17"/>
       <c r="C137" s="12"/>
       <c r="D137" s="12"/>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>238</v>
-      </c>
-      <c r="B138" t="s">
-        <v>239</v>
-      </c>
+      <c r="A138" s="17"/>
       <c r="C138" s="12"/>
       <c r="D138" s="12"/>
       <c r="E138" s="12"/>
@@ -4580,10 +4614,10 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B139" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
@@ -4591,11 +4625,11 @@
       <c r="F139" s="12"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
-        <v>310</v>
+      <c r="A140" t="s">
+        <v>232</v>
       </c>
       <c r="B140" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
@@ -4603,18 +4637,23 @@
       <c r="F140" s="12"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A141" s="13"/>
+      <c r="A141" t="s">
+        <v>234</v>
+      </c>
+      <c r="B141" t="s">
+        <v>235</v>
+      </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A142" s="11" t="s">
-        <v>286</v>
+      <c r="A142" t="s">
+        <v>236</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -4622,11 +4661,11 @@
       <c r="F142" s="12"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A143" s="11" t="s">
-        <v>288</v>
+      <c r="A143" t="s">
+        <v>238</v>
       </c>
       <c r="B143" t="s">
-        <v>289</v>
+        <v>239</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
@@ -4634,11 +4673,11 @@
       <c r="F143" s="12"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A144" s="11" t="s">
-        <v>290</v>
+      <c r="A144" t="s">
+        <v>240</v>
       </c>
       <c r="B144" t="s">
-        <v>291</v>
+        <v>241</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -4646,11 +4685,11 @@
       <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="11" t="s">
-        <v>292</v>
+      <c r="A145" s="13" t="s">
+        <v>310</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
@@ -4658,12 +4697,7 @@
       <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="B146" t="s">
-        <v>295</v>
-      </c>
+      <c r="A146" s="13"/>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
@@ -4671,10 +4705,10 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" s="11" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B147" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
@@ -4683,10 +4717,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B148" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -4695,10 +4729,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B149" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -4707,10 +4741,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B150" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -4719,10 +4753,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B151" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -4731,10 +4765,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B152" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -4743,18 +4777,78 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="B153" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
     </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A154" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="B154" t="s">
+        <v>301</v>
+      </c>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
+      <c r="F154" s="12"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A155" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="B155" t="s">
+        <v>303</v>
+      </c>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="12"/>
+      <c r="F155" s="12"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A156" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="B156" t="s">
+        <v>305</v>
+      </c>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="12"/>
+      <c r="F156" s="12"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A157" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157" t="s">
+        <v>307</v>
+      </c>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B158" t="s">
+        <v>309</v>
+      </c>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="12"/>
+      <c r="F158" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F97"/>
+  <autoFilter ref="A1:F102"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="30240" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="framework_translations" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$103</definedName>
   </definedNames>
   <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="735">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="736">
   <si>
     <t>comments</t>
   </si>
@@ -2255,6 +2255,9 @@
   </si>
   <si>
     <t>Confirm Delivery</t>
+  </si>
+  <si>
+    <t>ok</t>
   </si>
 </sst>
 </file>
@@ -2939,10 +2942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G158"/>
+  <dimension ref="A1:G159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
@@ -3624,42 +3627,42 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>735</v>
+      </c>
+      <c r="B46" t="s">
+        <v>576</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>112</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C47" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D47" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E47" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F47" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="B47" t="s">
-        <v>675</v>
-      </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="17" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B48" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -3667,11 +3670,11 @@
       <c r="F48" s="12"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>202</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>203</v>
+      <c r="A49" s="17" t="s">
+        <v>688</v>
+      </c>
+      <c r="B49" t="s">
+        <v>689</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -3680,10 +3683,10 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -3692,10 +3695,10 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -3704,10 +3707,10 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>212</v>
-      </c>
-      <c r="B52" t="s">
-        <v>213</v>
+        <v>208</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="C52" s="12"/>
       <c r="D52" s="12"/>
@@ -3716,10 +3719,10 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>665</v>
+        <v>212</v>
       </c>
       <c r="B53" t="s">
-        <v>666</v>
+        <v>213</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -3728,10 +3731,10 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>665</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>666</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -3740,10 +3743,10 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>204</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>205</v>
+        <v>216</v>
+      </c>
+      <c r="B55" t="s">
+        <v>217</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -3752,10 +3755,10 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>730</v>
+        <v>204</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>729</v>
+        <v>205</v>
       </c>
       <c r="C56" s="12"/>
       <c r="D56" s="12"/>
@@ -3764,10 +3767,10 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="C57" s="12"/>
       <c r="D57" s="12"/>
@@ -3776,10 +3779,10 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -3787,14 +3790,18 @@
       <c r="F58" s="12"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B59" s="3"/>
+      <c r="A59" t="s">
+        <v>733</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>734</v>
+      </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -3802,31 +3809,32 @@
       <c r="F60" s="12"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>716</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="C61" s="9"/>
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="12"/>
       <c r="E61" s="12"/>
-      <c r="F61" s="10"/>
+      <c r="F61" s="12"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" s="17" t="s">
-        <v>704</v>
-      </c>
-      <c r="B62" t="s">
-        <v>705</v>
-      </c>
-      <c r="C62" s="12"/>
+      <c r="A62" t="s">
+        <v>716</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C62" s="9"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
-      <c r="F62" s="12"/>
+      <c r="F62" s="10"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+      <c r="A63" s="17" t="s">
+        <v>704</v>
+      </c>
+      <c r="B63" t="s">
+        <v>705</v>
+      </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
@@ -3840,12 +3848,7 @@
       <c r="F64" s="12"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>719</v>
-      </c>
-      <c r="B65" t="s">
-        <v>720</v>
-      </c>
+      <c r="A65" s="17"/>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
       <c r="E65" s="12"/>
@@ -3853,10 +3856,10 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>719</v>
       </c>
       <c r="B66" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -3865,10 +3868,10 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>722</v>
+        <v>74</v>
       </c>
       <c r="B67" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -3876,89 +3879,89 @@
       <c r="F67" s="12"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>722</v>
+      </c>
+      <c r="B68" t="s">
+        <v>723</v>
+      </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B70" t="s">
-        <v>174</v>
-      </c>
-      <c r="C70" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>178</v>
-      </c>
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" t="s">
+        <v>174</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>73</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B72" t="s">
         <v>724</v>
       </c>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+    <row r="73" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>75</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B73" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C73" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="D72" s="12" t="s">
+      <c r="D73" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="12" t="s">
+      <c r="E73" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="F72" s="10" t="s">
+      <c r="F73" s="10" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="B73" t="s">
-        <v>672</v>
-      </c>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="12"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="17" t="s">
-        <v>702</v>
+        <v>673</v>
       </c>
       <c r="B74" t="s">
-        <v>703</v>
+        <v>672</v>
       </c>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -3967,10 +3970,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="17" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B75" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -3978,58 +3981,58 @@
       <c r="F75" s="12"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="A76" s="17" t="s">
+        <v>700</v>
+      </c>
+      <c r="B76" t="s">
+        <v>701</v>
+      </c>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="12"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>67</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B77" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C77" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D77" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="E76" s="12" t="s">
+      <c r="E77" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="F76" s="12" t="s">
+      <c r="F77" s="12" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="3" t="s">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="D77" s="12" t="s">
+      <c r="D78" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="E77" s="12" t="s">
+      <c r="E78" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="F77" s="10" t="s">
+      <c r="F78" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="12"/>
-    </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>185</v>
-      </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
       <c r="E79" s="12"/>
@@ -4037,10 +4040,10 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -4049,49 +4052,55 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="B81" t="s">
-        <v>97</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D81" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="E81" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="F81" s="12" t="s">
-        <v>101</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="12"/>
+      <c r="F81" s="12"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B82" t="s">
+        <v>97</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B83" t="s">
         <v>102</v>
       </c>
-      <c r="C82" s="12" t="s">
+      <c r="C83" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="D82" s="12" t="s">
+      <c r="D83" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="12" t="s">
+      <c r="E83" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F82" s="12" t="s">
+      <c r="F83" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C83" s="12"/>
-      <c r="D83" s="12"/>
-      <c r="E83" s="12"/>
-      <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C84" s="12"/>
@@ -4100,12 +4109,6 @@
       <c r="F84" s="12"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="17" t="s">
-        <v>686</v>
-      </c>
-      <c r="B85" t="s">
-        <v>687</v>
-      </c>
       <c r="C85" s="12"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
@@ -4113,10 +4116,10 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="17" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B86" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -4125,10 +4128,10 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="17" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B87" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4137,10 +4140,10 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="17" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="B88" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4149,10 +4152,10 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="17" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B89" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4160,6 +4163,12 @@
       <c r="F89" s="12"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="17" t="s">
+        <v>695</v>
+      </c>
+      <c r="B90" t="s">
+        <v>697</v>
+      </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
@@ -4172,12 +4181,6 @@
       <c r="F91" s="12"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="17" t="s">
-        <v>714</v>
-      </c>
-      <c r="B92" t="s">
-        <v>715</v>
-      </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
@@ -4185,10 +4188,10 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="17" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B93" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -4196,11 +4199,11 @@
       <c r="F93" s="12"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>214</v>
+      <c r="A94" s="17" t="s">
+        <v>708</v>
       </c>
       <c r="B94" t="s">
-        <v>215</v>
+        <v>711</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -4208,11 +4211,11 @@
       <c r="F94" s="12"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="17" t="s">
-        <v>709</v>
+      <c r="A95" t="s">
+        <v>214</v>
       </c>
       <c r="B95" t="s">
-        <v>712</v>
+        <v>215</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -4221,10 +4224,10 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B96" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -4233,10 +4236,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="17" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="B97" t="s">
-        <v>677</v>
+        <v>713</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -4245,10 +4248,10 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A98" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="B98" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -4257,10 +4260,10 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="17" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B99" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -4269,10 +4272,10 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="17" t="s">
-        <v>699</v>
+        <v>680</v>
       </c>
       <c r="B100" t="s">
-        <v>698</v>
+        <v>681</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -4280,79 +4283,79 @@
       <c r="F100" s="12"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="17"/>
+      <c r="A101" s="17" t="s">
+        <v>699</v>
+      </c>
+      <c r="B101" t="s">
+        <v>698</v>
+      </c>
       <c r="C101" s="12"/>
       <c r="D101" s="12"/>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
       <c r="C102" s="12"/>
       <c r="D102" s="12"/>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>218</v>
-      </c>
-      <c r="B103" t="s">
-        <v>219</v>
-      </c>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="12"/>
+      <c r="F103" s="12"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B104" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B105" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B106" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B107" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
+        <v>226</v>
+      </c>
+      <c r="B108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>228</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B109" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
-      <c r="F109" s="12"/>
-    </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="B110" t="s">
-        <v>281</v>
-      </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
@@ -4360,10 +4363,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B111" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C111" s="12"/>
       <c r="D111" s="12"/>
@@ -4372,10 +4375,10 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B112" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C112" s="12"/>
       <c r="D112" s="12"/>
@@ -4384,226 +4387,231 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113" s="11" t="s">
-        <v>250</v>
+        <v>284</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>285</v>
       </c>
       <c r="C113" s="12"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="B115" t="s">
-        <v>243</v>
-      </c>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B114" t="s">
+        <v>251</v>
+      </c>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="12"/>
+      <c r="F114" s="12"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B116" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="11" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B119" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A120" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B120" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D121" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E121" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
+      </c>
+      <c r="B121" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>263</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="D122" s="4" t="s">
+      <c r="D123" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E122" s="4" t="s">
+      <c r="E123" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F123" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="36" x14ac:dyDescent="0.2">
-      <c r="A123" s="11" t="s">
+    <row r="124" spans="1:6" ht="36" x14ac:dyDescent="0.2">
+      <c r="A124" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="D123" s="4" t="s">
+      <c r="D124" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="E124" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F124" s="4" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A124" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="B124" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A125" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="B125" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A126" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B126" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>278</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B127" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="11" t="s">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129" s="11" t="s">
         <v>652</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B129" s="12" t="s">
         <v>653</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A129" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B129" s="12" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="14" t="s">
-        <v>655</v>
-      </c>
-      <c r="B130" t="s">
-        <v>656</v>
+        <v>6</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>654</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131" s="14" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B131" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="14" t="s">
+        <v>657</v>
+      </c>
+      <c r="B132" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A133" s="14" t="s">
         <v>659</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B133" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A133" s="15" t="s">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A134" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B134" t="s">
         <v>662</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A134" s="16" t="s">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A135" s="16" t="s">
         <v>663</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B135" t="s">
         <v>664</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A135" s="17" t="s">
-        <v>668</v>
-      </c>
-      <c r="B135" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="17" t="s">
+        <v>668</v>
+      </c>
+      <c r="B136" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A137" s="17" t="s">
         <v>670</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B137" t="s">
         <v>671</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A137" s="17"/>
-      <c r="C137" s="12"/>
-      <c r="D137" s="12"/>
-      <c r="E137" s="12"/>
-      <c r="F137" s="12"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="17"/>
@@ -4613,12 +4621,7 @@
       <c r="F138" s="12"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>230</v>
-      </c>
-      <c r="B139" t="s">
-        <v>231</v>
-      </c>
+      <c r="A139" s="17"/>
       <c r="C139" s="12"/>
       <c r="D139" s="12"/>
       <c r="E139" s="12"/>
@@ -4626,10 +4629,10 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
@@ -4638,10 +4641,10 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B141" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="12"/>
@@ -4650,10 +4653,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="12"/>
@@ -4662,10 +4665,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B143" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="12"/>
@@ -4674,10 +4677,10 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B144" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
@@ -4685,11 +4688,11 @@
       <c r="F144" s="12"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
-        <v>310</v>
+      <c r="A145" t="s">
+        <v>240</v>
       </c>
       <c r="B145" t="s">
-        <v>311</v>
+        <v>241</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="12"/>
@@ -4697,19 +4700,19 @@
       <c r="F145" s="12"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" s="13"/>
+      <c r="A146" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="B146" t="s">
+        <v>311</v>
+      </c>
       <c r="C146" s="12"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="B147" t="s">
-        <v>287</v>
-      </c>
+      <c r="A147" s="13"/>
       <c r="C147" s="12"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
@@ -4717,10 +4720,10 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A148" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="12"/>
@@ -4729,10 +4732,10 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="12"/>
@@ -4741,10 +4744,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A150" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="12"/>
@@ -4753,10 +4756,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A151" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C151" s="12"/>
       <c r="D151" s="12"/>
@@ -4765,10 +4768,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A152" s="11" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C152" s="12"/>
       <c r="D152" s="12"/>
@@ -4777,10 +4780,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A153" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C153" s="12"/>
       <c r="D153" s="12"/>
@@ -4789,10 +4792,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A154" s="11" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
@@ -4801,10 +4804,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A155" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C155" s="12"/>
       <c r="D155" s="12"/>
@@ -4813,10 +4816,10 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A156" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C156" s="12"/>
       <c r="D156" s="12"/>
@@ -4825,10 +4828,10 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A157" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C157" s="12"/>
       <c r="D157" s="12"/>
@@ -4837,18 +4840,30 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C158" s="12"/>
       <c r="D158" s="12"/>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
     </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="B159" t="s">
+        <v>309</v>
+      </c>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="12"/>
+      <c r="F159" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F102"/>
+  <autoFilter ref="A1:F103"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\cold-chain\app-designer\app\config\assets\framework\forms\framework\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16300" yWindow="5020" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="16305" yWindow="5025" windowWidth="25605" windowHeight="16065" tabRatio="500" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -14,7 +19,7 @@
     <sheet name="framework_translations" sheetId="5" r:id="rId5"/>
     <sheet name="common_translations" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="972" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="631">
   <si>
     <t>comments</t>
   </si>
@@ -1953,12 +1958,49 @@
     <t xml:space="preserve">
 ¿Seguro que quieres borrar la fila</t>
   </si>
+  <si>
+    <t>confirm_exit_label</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>confirm_cancel_label</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>confirm_message</t>
+  </si>
+  <si>
+    <t>Are you sure you want to exit and lose all changes?</t>
+  </si>
+  <si>
+    <t>Editar</t>
+  </si>
+  <si>
+    <t>Suprimir</t>
+  </si>
+  <si>
+    <t>Cancelar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+¿Estás seguro de que quieres salir y perder todos los cambios?</t>
+  </si>
+  <si>
+    <t>¿Estás seguro de que quieres eliminar la fila?</t>
+  </si>
+  <si>
+    <t>Salida</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1991,6 +2033,18 @@
       <color theme="11"/>
       <name val="Arial"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -2039,7 +2093,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2054,6 +2108,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2086,6 +2157,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2417,14 +2496,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2432,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -2456,20 +2535,20 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" customWidth="1"/>
-    <col min="2" max="2" width="101.1640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1640625" customWidth="1"/>
-    <col min="4" max="4" width="46.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="101.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="46.140625" customWidth="1"/>
     <col min="5" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" customWidth="1"/>
-    <col min="8" max="8" width="31.5" customWidth="1"/>
-    <col min="9" max="9" width="22.1640625" customWidth="1"/>
-    <col min="10" max="1025" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="31.42578125" customWidth="1"/>
+    <col min="9" max="9" width="22.140625" customWidth="1"/>
+    <col min="10" max="1025" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.5" customHeight="1">
+    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2496,7 +2575,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>10</v>
       </c>
@@ -2505,85 +2584,85 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.5" customHeight="1"/>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1"/>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1"/>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1"/>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1"/>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1"/>
-    <row r="17" ht="17.5" customHeight="1"/>
-    <row r="18" ht="59.25" customHeight="1"/>
-    <row r="19" ht="17.25" customHeight="1"/>
-    <row r="20" ht="17.5" customHeight="1"/>
-    <row r="21" ht="66" customHeight="1"/>
-    <row r="22" ht="17.25" customHeight="1"/>
-    <row r="23" ht="17.5" customHeight="1"/>
-    <row r="24" ht="66" customHeight="1"/>
-    <row r="25" ht="17.25" customHeight="1"/>
-    <row r="26" ht="17.5" customHeight="1"/>
-    <row r="27" ht="66" customHeight="1"/>
-    <row r="28" ht="17.25" customHeight="1"/>
-    <row r="29" ht="17.5" customHeight="1"/>
-    <row r="30" ht="66" customHeight="1"/>
-    <row r="31" ht="17.25" customHeight="1"/>
-    <row r="32" ht="17.5" customHeight="1"/>
-    <row r="33" ht="66" customHeight="1"/>
-    <row r="34" ht="17.25" customHeight="1"/>
-    <row r="35" ht="17.5" customHeight="1"/>
-    <row r="36" ht="66" customHeight="1"/>
-    <row r="37" ht="17.25" customHeight="1"/>
-    <row r="38" ht="17.5" customHeight="1"/>
-    <row r="39" ht="66" customHeight="1"/>
-    <row r="40" ht="17.25" customHeight="1"/>
-    <row r="41" ht="17.5" customHeight="1"/>
-    <row r="42" ht="66" customHeight="1"/>
-    <row r="43" ht="17.25" customHeight="1"/>
-    <row r="44" ht="17.5" customHeight="1"/>
-    <row r="45" ht="66" customHeight="1"/>
-    <row r="46" ht="17.25" customHeight="1"/>
-    <row r="47" ht="17.5" customHeight="1"/>
-    <row r="48" ht="66" customHeight="1"/>
-    <row r="49" ht="17.25" customHeight="1"/>
-    <row r="50" ht="17.5" customHeight="1"/>
-    <row r="51" ht="66" customHeight="1"/>
-    <row r="52" ht="17.25" customHeight="1"/>
-    <row r="53" ht="17.5" customHeight="1"/>
-    <row r="54" ht="66" customHeight="1"/>
-    <row r="55" ht="17.25" customHeight="1"/>
-    <row r="56" ht="17.5" customHeight="1"/>
-    <row r="57" ht="66" customHeight="1"/>
-    <row r="58" ht="17.25" customHeight="1"/>
-    <row r="59" ht="17.5" customHeight="1"/>
-    <row r="60" ht="66" customHeight="1"/>
-    <row r="61" ht="17.25" customHeight="1"/>
-    <row r="62" ht="17.5" customHeight="1"/>
-    <row r="63" ht="66" customHeight="1"/>
-    <row r="64" ht="17.25" customHeight="1"/>
-    <row r="65" ht="17.5" customHeight="1"/>
-    <row r="66" ht="66" customHeight="1"/>
-    <row r="67" ht="17.25" customHeight="1"/>
-    <row r="68" ht="17.5" customHeight="1"/>
-    <row r="69" ht="66" customHeight="1"/>
-    <row r="70" ht="17.25" customHeight="1"/>
-    <row r="71" ht="17.5" customHeight="1"/>
-    <row r="72" ht="66" customHeight="1"/>
-    <row r="73" ht="17" customHeight="1"/>
-    <row r="75" ht="62" customHeight="1"/>
-    <row r="78" ht="62" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="58" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
-    <row r="84" ht="58" customHeight="1"/>
-    <row r="86" ht="12" customHeight="1"/>
-    <row r="87" ht="58" customHeight="1"/>
+    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" ht="59.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="19" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="21" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="25" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="26" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="28" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="29" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="31" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="61" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="63" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="65" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="66" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="67" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="68" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="69" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="70" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" ht="17.45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" ht="66" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" ht="62.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" ht="62.1" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="57.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="57.95" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="12" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="57.95" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2603,15 +2682,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="17.1640625" customWidth="1"/>
-    <col min="3" max="6" width="24.6640625" customWidth="1"/>
-    <col min="7" max="7" width="41.1640625" customWidth="1"/>
-    <col min="8" max="1025" width="17.1640625" customWidth="1"/>
+    <col min="1" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="6" width="24.7109375" customWidth="1"/>
+    <col min="7" max="7" width="41.140625" customWidth="1"/>
+    <col min="8" max="1025" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -2637,7 +2716,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="18.75" customHeight="1">
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -2649,7 +2728,7 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:8" ht="18.75" customHeight="1">
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -2664,7 +2743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18.75" customHeight="1">
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2754,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="28" customHeight="1">
+    <row r="5" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -2693,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2704,7 +2783,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2715,7 +2794,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="18.75" customHeight="1">
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
@@ -2725,9 +2804,9 @@
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="11" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="12" spans="1:8" ht="18.75" customHeight="1"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2747,15 +2826,15 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="22.1640625" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="1025" width="8.83203125" customWidth="1"/>
+    <col min="4" max="1025" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -2779,21 +2858,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58:XFD173"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="49.6640625" customWidth="1"/>
-    <col min="2" max="2" width="52.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.7109375" customWidth="1"/>
+    <col min="2" max="2" width="52.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13" customHeight="1">
+    <row r="1" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -2804,7 +2883,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="13" customHeight="1">
+    <row r="2" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>41</v>
       </c>
@@ -2815,7 +2894,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="13" customHeight="1">
+    <row r="3" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -2826,7 +2905,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="13" customHeight="1">
+    <row r="4" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -2837,7 +2916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="13" customHeight="1">
+    <row r="5" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>50</v>
       </c>
@@ -2848,7 +2927,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="13" customHeight="1">
+    <row r="6" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -2859,7 +2938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>56</v>
       </c>
@@ -2870,7 +2949,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>59</v>
       </c>
@@ -2881,7 +2960,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -2892,7 +2971,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -2903,7 +2982,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="13.75" customHeight="1">
+    <row r="11" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -2914,7 +2993,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="13.75" customHeight="1">
+    <row r="12" spans="1:3" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -2925,7 +3004,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>73</v>
       </c>
@@ -2936,7 +3015,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2947,7 +3026,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -2958,7 +3037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>82</v>
       </c>
@@ -2969,7 +3048,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -2980,7 +3059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>88</v>
       </c>
@@ -2991,7 +3070,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>91</v>
       </c>
@@ -3002,7 +3081,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -3013,7 +3092,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>97</v>
       </c>
@@ -3024,7 +3103,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>100</v>
       </c>
@@ -3035,7 +3114,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -3046,7 +3125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>106</v>
       </c>
@@ -3057,7 +3136,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>109</v>
       </c>
@@ -3068,7 +3147,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3079,7 +3158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -3090,7 +3169,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="28.25" customHeight="1">
+    <row r="28" spans="1:3" ht="28.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>117</v>
       </c>
@@ -3101,7 +3180,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>120</v>
       </c>
@@ -3112,7 +3191,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>123</v>
       </c>
@@ -3123,7 +3202,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>126</v>
       </c>
@@ -3134,7 +3213,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>129</v>
       </c>
@@ -3145,7 +3224,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>132</v>
       </c>
@@ -3156,7 +3235,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>135</v>
       </c>
@@ -3167,7 +3246,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="216">
+    <row r="36" spans="1:3" ht="280.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -3178,7 +3257,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>141</v>
       </c>
@@ -3189,7 +3268,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>144</v>
       </c>
@@ -3200,7 +3279,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -3211,7 +3290,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3222,7 +3301,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>153</v>
       </c>
@@ -3233,7 +3312,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -3244,7 +3323,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>159</v>
       </c>
@@ -3255,7 +3334,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>161</v>
       </c>
@@ -3266,7 +3345,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>164</v>
       </c>
@@ -3277,7 +3356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>167</v>
       </c>
@@ -3288,7 +3367,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>170</v>
       </c>
@@ -3299,7 +3378,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>173</v>
       </c>
@@ -3310,7 +3389,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>176</v>
       </c>
@@ -3321,7 +3400,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="13" customHeight="1">
+    <row r="50" spans="1:3" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>179</v>
       </c>
@@ -3332,7 +3411,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>182</v>
       </c>
@@ -3343,7 +3422,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>185</v>
       </c>
@@ -3354,7 +3433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>186</v>
       </c>
@@ -3365,7 +3444,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>189</v>
       </c>
@@ -3376,7 +3455,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>190</v>
       </c>
@@ -3387,7 +3466,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>193</v>
       </c>
@@ -3398,7 +3477,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>196</v>
       </c>
@@ -3409,1285 +3488,1351 @@
         <v>198</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="36">
-      <c r="A58" t="s">
+    <row r="58" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" s="6" customFormat="1" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8" t="s">
+        <v>556</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>199</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B64" t="s">
         <v>200</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C64" s="11" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="s">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>201</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B65" t="s">
         <v>202</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C65" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="s">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>204</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B66" t="s">
         <v>205</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C66" s="12" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="s">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>207</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B67" t="s">
         <v>208</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C67" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="s">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>212</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B68" t="s">
         <v>211</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C68" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>213</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B69" t="s">
         <v>214</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C69" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>216</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B70" t="s">
         <v>217</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C70" s="5" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="s">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>219</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B71" t="s">
         <v>220</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C71" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="36">
-      <c r="A66" t="s">
+    <row r="72" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>223</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B72" t="s">
         <v>221</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C72" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="s">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>224</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B73" t="s">
         <v>225</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C73" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="s">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>227</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B74" t="s">
         <v>228</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C74" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="36">
-      <c r="A69" t="s">
+    <row r="75" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>230</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B75" t="s">
         <v>231</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="s">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>233</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B76" t="s">
         <v>234</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C76" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>236</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B77" t="s">
         <v>237</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C77" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24">
-      <c r="A72" t="s">
+    <row r="78" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>239</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B78" t="s">
         <v>240</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C78" s="4" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="s">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>242</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B79" t="s">
         <v>244</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C79" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="s">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>245</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B80" t="s">
         <v>246</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C80" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="s">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>248</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B81" t="s">
         <v>249</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C81" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="s">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>251</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B82" t="s">
         <v>252</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C82" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="36">
-      <c r="A77" t="s">
+    <row r="83" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>254</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B83" t="s">
         <v>255</v>
       </c>
-      <c r="C77" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="s">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>257</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B84" t="s">
         <v>258</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C84" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="s">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>260</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B85" t="s">
         <v>261</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C85" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="s">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>263</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B86" t="s">
         <v>264</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C86" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="s">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>265</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B87" t="s">
         <v>266</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C87" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="36">
-      <c r="A82" t="s">
+    <row r="88" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>267</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B88" t="s">
         <v>268</v>
       </c>
-      <c r="C82" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="24">
-      <c r="A83" t="s">
+    <row r="89" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>271</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B89" t="s">
         <v>272</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C89" s="4" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="24">
-      <c r="A84" t="s">
+    <row r="90" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>274</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B90" t="s">
         <v>275</v>
       </c>
-      <c r="C84" s="4" t="s">
+      <c r="C90" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="48">
-      <c r="A85" t="s">
+    <row r="91" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>277</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B91" t="s">
         <v>278</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="36">
-      <c r="A86" t="s">
+    <row r="92" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>280</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B92" t="s">
         <v>281</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="36">
-      <c r="A87" t="s">
+    <row r="93" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>283</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B93" t="s">
         <v>284</v>
       </c>
-      <c r="C87" s="4" t="s">
+      <c r="C93" s="4" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="s">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>286</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B94" t="s">
         <v>287</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C94" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="s">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>289</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B95" t="s">
         <v>290</v>
       </c>
-      <c r="C89" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="s">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>291</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B96" t="s">
         <v>292</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C96" s="4" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="s">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>294</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B97" t="s">
         <v>295</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="s">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>296</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B98" t="s">
         <v>297</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="36">
-      <c r="A93" t="s">
+    <row r="99" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>299</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B99" t="s">
         <v>300</v>
       </c>
-      <c r="C93" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24">
-      <c r="A94" t="s">
+    <row r="100" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>304</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B100" t="s">
         <v>305</v>
       </c>
-      <c r="C94" s="4" t="s">
+      <c r="C100" s="4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="36">
-      <c r="A95" t="s">
+    <row r="101" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>307</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B101" t="s">
         <v>308</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="s">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>310</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B102" t="s">
         <v>311</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="24">
-      <c r="A97" t="s">
+    <row r="103" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>313</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B103" t="s">
         <v>314</v>
       </c>
-      <c r="C97" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="36">
-      <c r="A98" t="s">
+    <row r="104" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>316</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B104" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="48">
-      <c r="A99" t="s">
+    <row r="105" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>319</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B105" t="s">
         <v>320</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C105" s="4" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="24">
-      <c r="A100" t="s">
+    <row r="106" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>322</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B106" t="s">
         <v>324</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="36">
-      <c r="A101" t="s">
+    <row r="107" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>325</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B107" t="s">
         <v>326</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C107" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="24">
-      <c r="A102" t="s">
+    <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>328</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B108" t="s">
         <v>329</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="36">
-      <c r="A103" t="s">
+    <row r="109" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>331</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B109" t="s">
         <v>332</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C109" s="4" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="36">
-      <c r="A104" t="s">
+    <row r="110" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>334</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B110" t="s">
         <v>335</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C110" s="4" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="36">
-      <c r="A105" t="s">
+    <row r="111" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>337</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B111" t="s">
         <v>338</v>
       </c>
-      <c r="C105" s="4" t="s">
+      <c r="C111" s="4" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="36">
-      <c r="A106" t="s">
+    <row r="112" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>340</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B112" t="s">
         <v>341</v>
       </c>
-      <c r="C106" s="4" t="s">
+      <c r="C112" s="4" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>343</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B113" t="s">
         <v>344</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C113" s="4" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="s">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>346</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B114" t="s">
         <v>347</v>
       </c>
-      <c r="C108" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="s">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>349</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B115" t="s">
         <v>350</v>
       </c>
-      <c r="C109" s="4" t="s">
+      <c r="C115" s="4" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="s">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>352</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B116" t="s">
         <v>353</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24">
-      <c r="A111" t="s">
+    <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>355</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B117" t="s">
         <v>356</v>
       </c>
-      <c r="C111" s="4" t="s">
+      <c r="C117" s="4" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24">
-      <c r="A112" t="s">
+    <row r="118" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>358</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B118" t="s">
         <v>359</v>
       </c>
-      <c r="C112" s="4" t="s">
+      <c r="C118" s="4" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="36">
-      <c r="A113" t="s">
+    <row r="119" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>361</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B119" t="s">
         <v>362</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C119" s="4" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" t="s">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>364</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B120" t="s">
         <v>368</v>
       </c>
-      <c r="C114" s="4" t="s">
+      <c r="C120" s="4" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" t="s">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>366</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B121" t="s">
         <v>367</v>
       </c>
-      <c r="C115" s="4" t="s">
+      <c r="C121" s="4" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24">
-      <c r="A116" t="s">
+    <row r="122" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>370</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B122" t="s">
         <v>371</v>
       </c>
-      <c r="C116" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="36">
-      <c r="A117" t="s">
+    <row r="123" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>373</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B123" t="s">
         <v>374</v>
       </c>
-      <c r="C117" s="4" t="s">
+      <c r="C123" s="4" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="24">
-      <c r="A118" t="s">
+    <row r="124" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>375</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B124" t="s">
         <v>376</v>
       </c>
-      <c r="C118" s="4" t="s">
+      <c r="C124" s="4" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="24">
-      <c r="A119" t="s">
+    <row r="125" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>379</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B125" t="s">
         <v>380</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" t="s">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>382</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B126" t="s">
         <v>383</v>
       </c>
-      <c r="C120" s="4" t="s">
+      <c r="C126" s="4" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" t="s">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>385</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B127" t="s">
         <v>386</v>
       </c>
-      <c r="C121" s="4" t="s">
+      <c r="C127" s="4" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
-      <c r="A122" t="s">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>388</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B128" t="s">
         <v>389</v>
       </c>
-      <c r="C122" s="4" t="s">
+      <c r="C128" s="4" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="24">
-      <c r="A123" t="s">
+    <row r="129" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>391</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B129" t="s">
         <v>392</v>
       </c>
-      <c r="C123" s="4" t="s">
+      <c r="C129" s="4" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="36">
-      <c r="A124" t="s">
+    <row r="130" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>394</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B130" t="s">
         <v>395</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="48">
-      <c r="A125" t="s">
+    <row r="131" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>397</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B131" t="s">
         <v>398</v>
       </c>
-      <c r="C125" s="4" t="s">
+      <c r="C131" s="4" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="36">
-      <c r="A126" t="s">
+    <row r="132" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>400</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B132" t="s">
         <v>401</v>
       </c>
-      <c r="C126" s="4" t="s">
+      <c r="C132" s="4" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="24">
-      <c r="A127" t="s">
+    <row r="133" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>403</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
         <v>404</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="36">
-      <c r="A128" t="s">
+    <row r="134" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>406</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B134" t="s">
         <v>407</v>
       </c>
-      <c r="C128" s="4" t="s">
+      <c r="C134" s="4" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" t="s">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>409</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B135" t="s">
         <v>410</v>
       </c>
-      <c r="C129" s="4" t="s">
+      <c r="C135" s="4" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
-      <c r="A130" t="s">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>412</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B136" t="s">
         <v>413</v>
       </c>
-      <c r="C130" s="4" t="s">
+      <c r="C136" s="4" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
-      <c r="A131" t="s">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>415</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B137" t="s">
         <v>416</v>
       </c>
-      <c r="C131" s="4" t="s">
+      <c r="C137" s="4" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" t="s">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>418</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B138" t="s">
         <v>419</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C138" s="4" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" t="s">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>421</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B139" t="s">
         <v>422</v>
       </c>
-      <c r="C133" s="4" t="s">
+      <c r="C139" s="4" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" t="s">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>424</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B140" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="4" t="s">
+      <c r="C140" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" t="s">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>425</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B141" t="s">
         <v>426</v>
       </c>
-      <c r="C135" s="4" t="s">
+      <c r="C141" s="4" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" t="s">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>428</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B142" t="s">
         <v>429</v>
       </c>
-      <c r="C136" s="4" t="s">
+      <c r="C142" s="4" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
-      <c r="A137" t="s">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>431</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B143" t="s">
         <v>432</v>
       </c>
-      <c r="C137" s="4" t="s">
+      <c r="C143" s="4" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="48">
-      <c r="A138" t="s">
+    <row r="144" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>434</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B144" t="s">
         <v>435</v>
       </c>
-      <c r="C138" s="4" t="s">
+      <c r="C144" s="4" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
-      <c r="A139" t="s">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>437</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B145" t="s">
         <v>438</v>
       </c>
-      <c r="C139" s="4" t="s">
+      <c r="C145" s="4" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
-      <c r="A140" t="s">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>440</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B146" t="s">
         <v>441</v>
       </c>
-      <c r="C140" s="4" t="s">
+      <c r="C146" s="4" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="24">
-      <c r="A141" t="s">
+    <row r="147" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>443</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B147" t="s">
         <v>444</v>
       </c>
-      <c r="C141" s="4" t="s">
+      <c r="C147" s="4" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
-      <c r="A142" t="s">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>446</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B148" t="s">
         <v>447</v>
       </c>
-      <c r="C142" s="4" t="s">
+      <c r="C148" s="4" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="24">
-      <c r="A143" t="s">
+    <row r="149" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>449</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B149" t="s">
         <v>450</v>
       </c>
-      <c r="C143" s="4" t="s">
+      <c r="C149" s="4" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" t="s">
+    <row r="150" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>452</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B150" t="s">
         <v>453</v>
       </c>
-      <c r="C144" s="4" t="s">
+      <c r="C150" s="4" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="24">
-      <c r="A145" t="s">
+    <row r="151" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>455</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B151" t="s">
         <v>456</v>
       </c>
-      <c r="C145" s="4" t="s">
+      <c r="C151" s="4" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
-      <c r="A146" t="s">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>458</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B152" t="s">
         <v>459</v>
       </c>
-      <c r="C146" s="4" t="s">
+      <c r="C152" s="4" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
-      <c r="A147" t="s">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>461</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B153" t="s">
         <v>462</v>
       </c>
-      <c r="C147" s="4" t="s">
+      <c r="C153" s="4" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="24">
-      <c r="A148" t="s">
+    <row r="154" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>464</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B154" t="s">
         <v>465</v>
       </c>
-      <c r="C148" s="4" t="s">
+      <c r="C154" s="4" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="36">
-      <c r="A149" t="s">
+    <row r="155" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>467</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B155" t="s">
         <v>468</v>
       </c>
-      <c r="C149" s="4" t="s">
+      <c r="C155" s="4" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="24">
-      <c r="A150" t="s">
+    <row r="156" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>470</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B156" t="s">
         <v>471</v>
       </c>
-      <c r="C150" s="4" t="s">
+      <c r="C156" s="4" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
-      <c r="A151" t="s">
+    <row r="157" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>473</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B157" t="s">
         <v>474</v>
       </c>
-      <c r="C151" s="4" t="s">
+      <c r="C157" s="4" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="24">
-      <c r="A152" t="s">
+    <row r="158" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>476</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B158" t="s">
         <v>477</v>
       </c>
-      <c r="C152" s="4" t="s">
+      <c r="C158" s="4" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="24">
-      <c r="A153" t="s">
+    <row r="159" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>479</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B159" t="s">
         <v>480</v>
       </c>
-      <c r="C153" s="4" t="s">
+      <c r="C159" s="4" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
-      <c r="A154" t="s">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>482</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B160" t="s">
         <v>483</v>
       </c>
-      <c r="C154" s="4" t="s">
+      <c r="C160" s="4" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="24">
-      <c r="A155" t="s">
+    <row r="161" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>485</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B161" t="s">
         <v>486</v>
       </c>
-      <c r="C155" s="4" t="s">
+      <c r="C161" s="4" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="24">
-      <c r="A156" t="s">
+    <row r="162" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>488</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B162" t="s">
         <v>489</v>
       </c>
-      <c r="C156" s="4" t="s">
+      <c r="C162" s="4" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="24">
-      <c r="A157" t="s">
+    <row r="163" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>492</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B163" t="s">
         <v>491</v>
       </c>
-      <c r="C157" s="4" t="s">
+      <c r="C163" s="4" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
-      <c r="A158" t="s">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>494</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B164" t="s">
         <v>495</v>
       </c>
-      <c r="C158" s="4" t="s">
+      <c r="C164" s="4" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
-      <c r="A159" t="s">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>497</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B165" t="s">
         <v>498</v>
       </c>
-      <c r="C159" s="4" t="s">
+      <c r="C165" s="4" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="36">
-      <c r="A160" t="s">
+    <row r="166" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>500</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B166" t="s">
         <v>501</v>
       </c>
-      <c r="C160" s="4" t="s">
+      <c r="C166" s="4" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
-      <c r="A161" t="s">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>503</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B167" t="s">
         <v>504</v>
       </c>
-      <c r="C161" s="4" t="s">
+      <c r="C167" s="4" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="24">
-      <c r="A162" t="s">
+    <row r="168" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>506</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B168" t="s">
         <v>507</v>
       </c>
-      <c r="C162" s="4" t="s">
+      <c r="C168" s="4" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
-      <c r="A163" t="s">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>509</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B169" t="s">
         <v>510</v>
       </c>
-      <c r="C163" s="4" t="s">
+      <c r="C169" s="4" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="36">
-      <c r="A164" t="s">
+    <row r="170" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>512</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B170" t="s">
         <v>513</v>
       </c>
-      <c r="C164" s="4" t="s">
+      <c r="C170" s="4" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="24">
-      <c r="A165" t="s">
+    <row r="171" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>515</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B171" t="s">
         <v>516</v>
       </c>
-      <c r="C165" s="4" t="s">
+      <c r="C171" s="4" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="36">
-      <c r="A166" t="s">
+    <row r="172" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>518</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B172" t="s">
         <v>519</v>
       </c>
-      <c r="C166" s="4" t="s">
+      <c r="C172" s="4" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="36">
-      <c r="A167" t="s">
+    <row r="173" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>521</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B173" t="s">
         <v>522</v>
       </c>
-      <c r="C167" s="4" t="s">
+      <c r="C173" s="4" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="36">
-      <c r="A168" t="s">
+    <row r="174" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>524</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B174" t="s">
         <v>525</v>
       </c>
-      <c r="C168" s="4" t="s">
+      <c r="C174" s="4" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="36">
-      <c r="A169" t="s">
+    <row r="175" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>528</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B175" t="s">
         <v>527</v>
       </c>
-      <c r="C169" s="4" t="s">
+      <c r="C175" s="4" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="48">
-      <c r="A170" t="s">
+    <row r="176" spans="1:3" ht="51" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>531</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B176" t="s">
         <v>530</v>
       </c>
-      <c r="C170" s="4" t="s">
+      <c r="C176" s="4" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="36">
-      <c r="A171" t="s">
+    <row r="177" spans="1:3" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>534</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B177" t="s">
         <v>533</v>
       </c>
-      <c r="C171" s="4" t="s">
+      <c r="C177" s="4" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
-      <c r="A172" t="s">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>537</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B178" t="s">
         <v>536</v>
       </c>
-      <c r="C172" s="4" t="s">
+      <c r="C178" s="4" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
-      <c r="A173" t="s">
+    <row r="179" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>539</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B179" t="s">
         <v>540</v>
       </c>
-      <c r="C173" s="4" t="s">
+      <c r="C179" s="4" t="s">
         <v>541</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4700,18 +4845,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.83203125" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" customWidth="1"/>
-    <col min="3" max="3" width="61.6640625" customWidth="1"/>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" customWidth="1"/>
+    <col min="3" max="3" width="61.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>38</v>
       </c>
@@ -4722,7 +4867,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="24">
+    <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -4733,7 +4878,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>201</v>
       </c>
@@ -4744,7 +4889,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -4755,7 +4900,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>603</v>
       </c>
@@ -4766,7 +4911,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>207</v>
       </c>
@@ -4777,7 +4922,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>212</v>
       </c>
@@ -4788,7 +4933,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>606</v>
       </c>
@@ -4799,7 +4944,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>213</v>
       </c>
@@ -4810,7 +4955,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>216</v>
       </c>
@@ -4821,7 +4966,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>219</v>
       </c>
@@ -4832,7 +4977,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="24">
+    <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -4843,7 +4988,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -4854,7 +4999,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>227</v>
       </c>
@@ -4865,7 +5010,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24">
+    <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -4876,7 +5021,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>233</v>
       </c>
@@ -4887,7 +5032,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -4898,7 +5043,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="24">
+    <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -4909,7 +5054,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>242</v>
       </c>
@@ -4920,7 +5065,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>245</v>
       </c>
@@ -4931,7 +5076,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>248</v>
       </c>
@@ -4942,7 +5087,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>251</v>
       </c>
@@ -4953,7 +5098,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="24">
+    <row r="23" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>254</v>
       </c>
@@ -4964,7 +5109,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>257</v>
       </c>
@@ -4975,7 +5120,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>260</v>
       </c>
@@ -4986,7 +5131,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>263</v>
       </c>
@@ -4997,7 +5142,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>265</v>
       </c>
@@ -5008,7 +5153,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="24">
+    <row r="28" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>267</v>
       </c>
@@ -5019,7 +5164,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="24">
+    <row r="29" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>271</v>
       </c>
@@ -5030,7 +5175,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="24">
+    <row r="30" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>274</v>
       </c>
@@ -5041,7 +5186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="24">
+    <row r="31" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>277</v>
       </c>
@@ -5052,7 +5197,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="24">
+    <row r="32" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>280</v>
       </c>
@@ -5063,7 +5208,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="24">
+    <row r="33" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>283</v>
       </c>
@@ -5074,7 +5219,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>286</v>
       </c>
@@ -5085,7 +5230,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>289</v>
       </c>
@@ -5096,7 +5241,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>291</v>
       </c>
@@ -5107,7 +5252,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -5118,7 +5263,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -5129,7 +5274,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="24">
+    <row r="39" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>299</v>
       </c>
@@ -5140,7 +5285,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="24">
+    <row r="40" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>304</v>
       </c>
@@ -5151,7 +5296,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="24">
+    <row r="41" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>307</v>
       </c>
@@ -5162,7 +5307,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>310</v>
       </c>
@@ -5173,7 +5318,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>313</v>
       </c>
@@ -5184,7 +5329,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>316</v>
       </c>
@@ -5195,7 +5340,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="24">
+    <row r="45" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>319</v>
       </c>
@@ -5206,7 +5351,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>322</v>
       </c>
@@ -5217,7 +5362,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>325</v>
       </c>
@@ -5228,7 +5373,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>328</v>
       </c>
@@ -5239,7 +5384,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="24">
+    <row r="49" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>331</v>
       </c>
@@ -5250,7 +5395,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>334</v>
       </c>
@@ -5261,7 +5406,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="24">
+    <row r="51" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>337</v>
       </c>
@@ -5272,7 +5417,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="24">
+    <row r="52" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>340</v>
       </c>
@@ -5283,7 +5428,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>343</v>
       </c>
@@ -5294,7 +5439,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>346</v>
       </c>
@@ -5305,7 +5450,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>349</v>
       </c>
@@ -5316,7 +5461,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>352</v>
       </c>
@@ -5327,7 +5472,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="24">
+    <row r="57" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>355</v>
       </c>
@@ -5338,7 +5483,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>358</v>
       </c>
@@ -5349,7 +5494,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="24">
+    <row r="59" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>361</v>
       </c>
@@ -5360,7 +5505,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>364</v>
       </c>
@@ -5371,7 +5516,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>366</v>
       </c>
@@ -5382,7 +5527,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>370</v>
       </c>
@@ -5393,7 +5538,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="24">
+    <row r="63" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>373</v>
       </c>
@@ -5404,7 +5549,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>375</v>
       </c>
@@ -5415,7 +5560,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>379</v>
       </c>
@@ -5426,7 +5571,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>382</v>
       </c>
@@ -5437,7 +5582,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>555</v>
       </c>
@@ -5448,7 +5593,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>388</v>
       </c>
@@ -5459,7 +5604,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>391</v>
       </c>
@@ -5470,7 +5615,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="24">
+    <row r="70" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>394</v>
       </c>
@@ -5481,7 +5626,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="24">
+    <row r="71" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>397</v>
       </c>
@@ -5492,7 +5637,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="24">
+    <row r="72" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>400</v>
       </c>
@@ -5503,7 +5648,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>403</v>
       </c>
@@ -5514,7 +5659,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="24">
+    <row r="74" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>406</v>
       </c>
@@ -5525,7 +5670,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>409</v>
       </c>
@@ -5536,7 +5681,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>412</v>
       </c>
@@ -5547,7 +5692,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>415</v>
       </c>
@@ -5558,7 +5703,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>418</v>
       </c>
@@ -5569,7 +5714,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>421</v>
       </c>
@@ -5580,7 +5725,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="24">
+    <row r="80" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>424</v>
       </c>
@@ -5591,7 +5736,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>425</v>
       </c>
@@ -5602,7 +5747,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>428</v>
       </c>
@@ -5613,7 +5758,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>431</v>
       </c>
@@ -5624,7 +5769,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="24">
+    <row r="84" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>434</v>
       </c>
@@ -5635,7 +5780,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>437</v>
       </c>
@@ -5646,7 +5791,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>440</v>
       </c>
@@ -5657,7 +5802,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>443</v>
       </c>
@@ -5668,7 +5813,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>446</v>
       </c>
@@ -5679,7 +5824,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>449</v>
       </c>
@@ -5690,7 +5835,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>452</v>
       </c>
@@ -5701,7 +5846,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>455</v>
       </c>
@@ -5712,7 +5857,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>458</v>
       </c>
@@ -5723,7 +5868,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>461</v>
       </c>
@@ -5734,7 +5879,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="24">
+    <row r="94" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>464</v>
       </c>
@@ -5745,7 +5890,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="24">
+    <row r="95" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>467</v>
       </c>
@@ -5756,7 +5901,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="24">
+    <row r="96" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>470</v>
       </c>
@@ -5767,7 +5912,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>473</v>
       </c>
@@ -5778,7 +5923,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>476</v>
       </c>
@@ -5789,7 +5934,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>479</v>
       </c>
@@ -5800,7 +5945,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>482</v>
       </c>
@@ -5811,7 +5956,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="24">
+    <row r="101" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>485</v>
       </c>
@@ -5822,7 +5967,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>488</v>
       </c>
@@ -5833,7 +5978,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>492</v>
       </c>
@@ -5844,7 +5989,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>494</v>
       </c>
@@ -5855,7 +6000,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>497</v>
       </c>
@@ -5866,7 +6011,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="24">
+    <row r="106" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>500</v>
       </c>
@@ -5877,7 +6022,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>503</v>
       </c>
@@ -5888,7 +6033,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="24">
+    <row r="108" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>506</v>
       </c>
@@ -5899,7 +6044,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>509</v>
       </c>
@@ -5910,7 +6055,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="24">
+    <row r="110" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>512</v>
       </c>
@@ -5921,7 +6066,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="24">
+    <row r="111" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>515</v>
       </c>
@@ -5932,7 +6077,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="24">
+    <row r="112" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>518</v>
       </c>
@@ -5943,7 +6088,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="24">
+    <row r="113" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>521</v>
       </c>
@@ -5954,7 +6099,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>524</v>
       </c>
@@ -5965,7 +6110,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="24">
+    <row r="115" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>528</v>
       </c>
@@ -5976,7 +6121,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="24">
+    <row r="116" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>531</v>
       </c>
@@ -5987,7 +6132,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="24">
+    <row r="117" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>534</v>
       </c>
@@ -5998,7 +6143,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>537</v>
       </c>
@@ -6009,7 +6154,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>539</v>
       </c>
@@ -6020,7 +6165,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>550</v>
       </c>
@@ -6031,7 +6176,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>553</v>
       </c>
@@ -6042,7 +6187,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>556</v>
       </c>
@@ -6053,7 +6198,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>558</v>
       </c>
@@ -6064,7 +6209,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="24">
+    <row r="124" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>560</v>
       </c>
@@ -6075,7 +6220,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>563</v>
       </c>
@@ -6086,7 +6231,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>566</v>
       </c>
@@ -6097,7 +6242,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>569</v>
       </c>
@@ -6108,7 +6253,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>571</v>
       </c>
@@ -6119,7 +6264,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>574</v>
       </c>
@@ -6130,7 +6275,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>577</v>
       </c>
@@ -6141,7 +6286,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="24">
+    <row r="131" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>580</v>
       </c>
@@ -6152,7 +6297,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="24">
+    <row r="132" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>585</v>
       </c>
@@ -6163,7 +6308,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>586</v>
       </c>
@@ -6174,7 +6319,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>589</v>
       </c>
@@ -6185,7 +6330,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>600</v>
       </c>
@@ -6196,7 +6341,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>609</v>
       </c>
@@ -6207,7 +6352,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>612</v>
       </c>
@@ -6218,7 +6363,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="24">
+    <row r="138" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>616</v>
       </c>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="306">
   <si>
     <t>comments</t>
   </si>
@@ -964,6 +964,15 @@
         {{/if}}
         &lt;hr&gt;
 </t>
+  </si>
+  <si>
+    <t>checklist</t>
+  </si>
+  <si>
+    <t>'?' +  odkSurvey.getHashString('checklist','checklist')</t>
+  </si>
+  <si>
+    <t>Checklist</t>
   </si>
 </sst>
 </file>
@@ -1651,10 +1660,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2394,6 +2403,30 @@
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5"/>
+      <c r="B90" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2640,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2959,6 +2992,17 @@
       </c>
       <c r="C28" t="s">
         <v>228</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>303</v>
+      </c>
+      <c r="C29" t="s">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2976,7 +3020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="842">
   <si>
     <t>comments</t>
   </si>
@@ -121,18 +121,6 @@
     <t>text.default</t>
   </si>
   <si>
-    <t>text.greek</t>
-  </si>
-  <si>
-    <t>text.arabic</t>
-  </si>
-  <si>
-    <t>text.farsi</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
-  </si>
-  <si>
     <t>main_title</t>
   </si>
   <si>
@@ -1546,21 +1534,6 @@
     <t>display.title.text.farsi</t>
   </si>
   <si>
-    <t>display.locale.text.english</t>
-  </si>
-  <si>
-    <t>display.locale.text.spanish</t>
-  </si>
-  <si>
-    <t>display.locale.text.greek</t>
-  </si>
-  <si>
-    <t>display.locale.text.arabic</t>
-  </si>
-  <si>
-    <t>display.locale.text.farsi</t>
-  </si>
-  <si>
     <t>showContents</t>
   </si>
   <si>
@@ -1591,37 +1564,22 @@
     <t>The title of the 'survey' section (a.k.a. form title)</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
     <t>Ingles</t>
   </si>
   <si>
-    <t>spanish</t>
-  </si>
-  <si>
     <t>Spanish</t>
   </si>
   <si>
     <t>Espanol</t>
   </si>
   <si>
-    <t>arabic</t>
-  </si>
-  <si>
     <t>Arabic</t>
   </si>
   <si>
-    <t>farsi</t>
-  </si>
-  <si>
     <t>Farsi</t>
-  </si>
-  <si>
-    <t>greek</t>
   </si>
   <si>
     <t>Greek</t>
@@ -2586,6 +2544,45 @@
   </si>
   <si>
     <t>&lt;p&gt;Instancias creadas previamente:&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>ar</t>
+  </si>
+  <si>
+    <t>fa</t>
+  </si>
+  <si>
+    <t>el</t>
+  </si>
+  <si>
+    <t>display.locale.text.en</t>
+  </si>
+  <si>
+    <t>display.locale.text.es</t>
+  </si>
+  <si>
+    <t>display.locale.text.fa</t>
+  </si>
+  <si>
+    <t>display.locale.text.ar</t>
+  </si>
+  <si>
+    <t>display.locale.text.el</t>
+  </si>
+  <si>
+    <t>text.ar</t>
+  </si>
+  <si>
+    <t>text.el</t>
+  </si>
+  <si>
+    <t>text.fa</t>
   </si>
 </sst>
 </file>
@@ -3229,7 +3226,7 @@
   <dimension ref="A1:G159"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
@@ -3237,7 +3234,8 @@
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
     <col min="2" max="2" width="49.44140625" customWidth="1"/>
     <col min="3" max="3" width="62.109375" style="4" customWidth="1"/>
-    <col min="4" max="5" width="8.77734375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.109375" style="4" customWidth="1"/>
     <col min="6" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3249,36 +3247,36 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>840</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>839</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>31</v>
+        <v>841</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>32</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -3286,74 +3284,74 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>39</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="B5" t="s">
+      <c r="F5" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>52</v>
       </c>
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -3368,62 +3366,62 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -3434,102 +3432,102 @@
         <v>25</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B19" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -3544,104 +3542,104 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>90</v>
+      </c>
+      <c r="B23" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B23" t="s">
+      <c r="F23" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" s="13" t="s">
         <v>101</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>108</v>
+      </c>
+      <c r="B27" t="s">
+        <v>109</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" s="6" t="s">
         <v>113</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" s="6" t="s">
         <v>119</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
@@ -3654,95 +3652,95 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B32" t="s">
+      <c r="F32" s="6" t="s">
         <v>131</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>133</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -3757,279 +3755,279 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>148</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" s="10" t="s">
         <v>152</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="G39" s="14"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B40" t="s">
+        <v>154</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B40" t="s">
+      <c r="F40" s="6" t="s">
         <v>158</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D40" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>165</v>
+      </c>
+      <c r="B43" t="s">
+        <v>166</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B43" t="s">
+      <c r="F43" s="6" t="s">
         <v>170</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B44" t="s">
+        <v>172</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B44" t="s">
+      <c r="F44" s="6" t="s">
         <v>176</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" s="6" t="s">
         <v>187</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B53" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B54" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B55" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
@@ -4043,25 +4041,25 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C62" s="15"/>
       <c r="F62" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B63" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
@@ -4074,35 +4072,35 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B66" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B67" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B68" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -4115,126 +4113,126 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>239</v>
+      </c>
+      <c r="B71" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="E71" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B71" t="s">
+      <c r="F71" s="6" t="s">
         <v>244</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="F71" s="6" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>248</v>
+      </c>
+      <c r="B73" t="s">
+        <v>249</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E73" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B73" t="s">
+      <c r="F73" s="13" t="s">
         <v>253</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B74" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B75" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F75" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
+        <v>263</v>
+      </c>
+      <c r="B77" t="s">
+        <v>264</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="E77" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B77" t="s">
+      <c r="F77" s="6" t="s">
         <v>268</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="F77" s="6" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="E78" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="F78" s="13" t="s">
         <v>274</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
@@ -4242,64 +4240,64 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F81" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B82" t="s">
+        <v>282</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="B82" t="s">
+      <c r="F82" s="6" t="s">
         <v>286</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="6" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E83" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="B83" t="s">
+      <c r="F83" s="6" t="s">
         <v>292</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>294</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>295</v>
-      </c>
-      <c r="F83" s="6" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
@@ -4310,57 +4308,57 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B87" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B88" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B89" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B90" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
@@ -4371,101 +4369,101 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B93" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B95" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B97" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B99" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B100" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
@@ -4477,68 +4475,68 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B104" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="F104" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F105" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B106" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="F106" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B107" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F107" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B108" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F108" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B109" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F109" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
@@ -4546,46 +4544,46 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B111" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="F111" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F112" s="7" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B113" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="F113" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B114" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F114" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
@@ -4593,161 +4591,161 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B116" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="F116" s="7" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B117" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F117" s="7" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B118" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F118" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B119" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F119" s="7" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B120" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="F120" s="7" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B121" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F121" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E122" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="F122" s="6" t="s">
         <v>388</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D122" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="F122" s="6" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="F123" s="6" t="s">
         <v>394</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="D123" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="F123" s="6" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A124" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E124" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="F124" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>401</v>
-      </c>
-      <c r="D124" s="4" t="s">
-        <v>402</v>
-      </c>
-      <c r="E124" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="F124" s="6" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B125" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="F125" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B126" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F126" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B127" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F127" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
@@ -4755,13 +4753,13 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F129" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -4769,87 +4767,87 @@
         <v>6</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F130" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B132" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F132" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B133" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="F133" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="B134" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F134" s="7" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B135" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F135" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B136" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F136" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B137" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F137" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -4862,79 +4860,79 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B140" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F140" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B141" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F141" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B142" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F142" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B143" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F143" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="B144" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F144" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B145" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F145" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="20" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B146" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F146" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -4943,134 +4941,134 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B148" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="F148" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B149" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F149" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B150" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="F150" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B151" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F151" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B152" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B153" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F153" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B154" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F154" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B155" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F155" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B156" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F156" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="B157" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F157" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B158" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="F158" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="B159" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F159" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
     </row>
   </sheetData>
@@ -5085,64 +5083,69 @@
   <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="8.77734375" customWidth="1"/>
+    <col min="1" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.109375" customWidth="1"/>
+    <col min="10" max="11" width="21.77734375" customWidth="1"/>
+    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="13" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>497</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>499</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>503</v>
-      </c>
       <c r="H1" t="s">
-        <v>504</v>
+        <v>834</v>
       </c>
       <c r="I1" t="s">
-        <v>505</v>
+        <v>835</v>
       </c>
       <c r="J1" t="s">
-        <v>506</v>
+        <v>838</v>
       </c>
       <c r="K1" t="s">
-        <v>507</v>
+        <v>837</v>
       </c>
       <c r="L1" t="s">
-        <v>508</v>
+        <v>836</v>
       </c>
       <c r="M1" t="s">
         <v>0</v>
       </c>
       <c r="N1" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -5157,10 +5160,10 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -5173,41 +5176,41 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="B4">
         <v>20130828</v>
       </c>
       <c r="M4" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="C5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="D5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="E5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="G5" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M5" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="N5" t="b">
         <f>FALSE()</f>
@@ -5216,27 +5219,27 @@
     </row>
     <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>519</v>
+        <v>830</v>
       </c>
       <c r="H7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="I7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="J7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="K7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="L7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>522</v>
+        <v>829</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -5245,24 +5248,24 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>525</v>
+        <v>831</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -5271,24 +5274,24 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>526</v>
+        <v>514</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>527</v>
+        <v>832</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -5297,24 +5300,24 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>529</v>
+        <v>833</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -5323,24 +5326,24 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>
@@ -5367,13 +5370,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -5384,7 +5387,7 @@
         <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -5395,7 +5398,7 @@
         <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -5408,15 +5411,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38.44140625" customWidth="1"/>
     <col min="2" max="2" width="41.77734375" customWidth="1"/>
-    <col min="3" max="5" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
     <col min="6" max="6" width="56.109375" style="21" customWidth="1"/>
     <col min="7" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
@@ -5429,604 +5434,604 @@
         <v>28</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>840</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>839</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>841</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="B3" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="F6" s="21" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>569</v>
+        <v>555</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="F7" s="21" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>572</v>
+        <v>558</v>
       </c>
       <c r="B8" t="s">
-        <v>573</v>
+        <v>559</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>574</v>
+        <v>560</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>575</v>
+        <v>561</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>576</v>
+        <v>562</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>577</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>578</v>
+        <v>564</v>
       </c>
       <c r="B9" t="s">
-        <v>579</v>
+        <v>565</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>581</v>
+        <v>567</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>582</v>
+        <v>568</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>583</v>
+        <v>569</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>584</v>
+        <v>570</v>
       </c>
       <c r="B10" t="s">
-        <v>585</v>
+        <v>571</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>586</v>
+        <v>572</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B11" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="F11" s="21" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="B12" t="s">
-        <v>597</v>
+        <v>583</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>598</v>
+        <v>584</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F12" s="21" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>599</v>
+        <v>585</v>
       </c>
       <c r="B13" t="s">
-        <v>600</v>
+        <v>586</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>601</v>
+        <v>587</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>602</v>
+        <v>588</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>603</v>
+        <v>589</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B15" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="B16" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="F16" s="21" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="B17" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="F17" s="21" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="B18" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="B20" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="B21" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="F21" s="21" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="B22" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="F22" s="21" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="B23" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="B24" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="B25" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="B26" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="F26" s="21" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="B27" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="F27" s="21" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="B28" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="22" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="B29" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="22" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="B30" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="B31" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F31" s="21" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -6036,520 +6041,520 @@
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="B33" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>711</v>
+        <v>697</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="B34" t="s">
-        <v>713</v>
+        <v>699</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>714</v>
+        <v>700</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>715</v>
+        <v>701</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>717</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>718</v>
+        <v>704</v>
       </c>
       <c r="B35" t="s">
-        <v>719</v>
+        <v>705</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>720</v>
+        <v>706</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>721</v>
+        <v>707</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>722</v>
+        <v>708</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>723</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>724</v>
+        <v>710</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>725</v>
+        <v>711</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="22" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>726</v>
+        <v>712</v>
       </c>
       <c r="B37" t="s">
-        <v>727</v>
+        <v>713</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>728</v>
+        <v>714</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>729</v>
+        <v>715</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>730</v>
+        <v>716</v>
       </c>
       <c r="F37" s="21" t="s">
-        <v>731</v>
+        <v>717</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>732</v>
+        <v>718</v>
       </c>
       <c r="B38" t="s">
-        <v>733</v>
+        <v>719</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>736</v>
+        <v>722</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>737</v>
+        <v>723</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="B39" t="s">
-        <v>739</v>
+        <v>725</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="B40" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="B41" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="F41" s="21" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="B42" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="F42" s="21" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="B43" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="F43" s="21" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="B44" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="B45" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="B46" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="F46" s="21" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="B47" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F47" s="21" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="B48" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="B49" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="B50" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>842</v>
+        <v>828</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="B51" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="F51" s="21" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="B52" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>702</v>
+        <v>688</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>704</v>
+        <v>690</v>
       </c>
       <c r="F52" s="21" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="B53" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="F53" s="21" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="B54" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" s="4"/>
       <c r="F55" s="21" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="D56" s="4"/>
       <c r="F56" s="21" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="D57" s="4"/>
       <c r="F57" s="21" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="B58" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="F58" s="21" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="B59" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="F59" s="21" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="F60" s="21" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\odk-reference\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ODKWorkspace\app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="16068" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -742,9 +742,6 @@
     <t>English (as hindi name)</t>
   </si>
   <si>
-    <t>text.hindi</t>
-  </si>
-  <si>
     <t>स्वीकार करना</t>
   </si>
   <si>
@@ -758,9 +755,6 @@
   </si>
   <si>
     <t>अचयनित</t>
-  </si>
-  <si>
-    <t>text.english</t>
   </si>
   <si>
     <t>text.es</t>
@@ -964,6 +958,12 @@
         {{/if}}
         &lt;hr&gt;
 </t>
+  </si>
+  <si>
+    <t>text.en</t>
+  </si>
+  <si>
+    <t>text.hi</t>
   </si>
 </sst>
 </file>
@@ -1620,13 +1620,13 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
       </c>
@@ -1657,20 +1657,20 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="4"/>
-    <col min="2" max="2" width="101.140625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" style="4"/>
+    <col min="2" max="2" width="101.109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="22.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="4" customWidth="1"/>
     <col min="5" max="6" width="20" style="4" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="22.140625" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="17.140625" style="4"/>
+    <col min="7" max="7" width="21.88671875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.109375" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="17.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>25</v>
       </c>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="I1" s="7"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
@@ -1706,7 +1706,7 @@
       </c>
       <c r="I2" s="7"/>
     </row>
-    <row r="3" spans="1:9" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" s="4" t="s">
         <v>21</v>
       </c>
@@ -1717,13 +1717,13 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I4" s="7"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1734,23 +1734,23 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>160</v>
       </c>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>161</v>
@@ -1762,20 +1762,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>162</v>
       </c>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
         <v>163</v>
@@ -1787,20 +1787,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>164</v>
       </c>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
         <v>165</v>
@@ -1812,20 +1812,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>166</v>
       </c>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
         <v>167</v>
@@ -1837,20 +1837,20 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>168</v>
       </c>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
         <v>169</v>
@@ -1862,19 +1862,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
         <v>170</v>
@@ -1886,19 +1886,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
         <v>172</v>
@@ -1910,19 +1910,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
         <v>174</v>
@@ -1934,19 +1934,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
         <v>176</v>
@@ -1958,19 +1958,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
         <v>178</v>
@@ -1982,19 +1982,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
         <v>180</v>
@@ -2006,19 +2006,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
         <v>182</v>
@@ -2030,19 +2030,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
         <v>184</v>
@@ -2054,19 +2054,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
         <v>185</v>
@@ -2078,19 +2078,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
         <v>187</v>
@@ -2102,19 +2102,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
         <v>189</v>
@@ -2126,19 +2126,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="5"/>
       <c r="C55" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
         <v>191</v>
@@ -2150,19 +2150,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="5"/>
       <c r="C58" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
         <v>193</v>
@@ -2174,19 +2174,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
         <v>195</v>
@@ -2198,19 +2198,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6" t="s">
         <v>197</v>
@@ -2222,19 +2222,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="5"/>
       <c r="C67" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
         <v>199</v>
@@ -2246,19 +2246,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6" t="s">
         <v>201</v>
@@ -2270,19 +2270,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="5"/>
       <c r="C73" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
         <v>203</v>
@@ -2294,19 +2294,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="5"/>
       <c r="C76" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6" t="s">
         <v>205</v>
@@ -2318,19 +2318,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="5"/>
       <c r="C79" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
         <v>207</v>
@@ -2342,19 +2342,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="5"/>
       <c r="C82" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
         <v>209</v>
@@ -2366,19 +2366,19 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="57.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6" t="s">
         <v>211</v>
@@ -2390,7 +2390,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4" t="s">
@@ -2416,13 +2416,13 @@
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="8" width="24.7109375" customWidth="1"/>
-    <col min="9" max="9" width="41.140625" customWidth="1"/>
+    <col min="3" max="8" width="24.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -2436,7 +2436,7 @@
         <v>229</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F1" t="s">
         <v>155</v>
@@ -2445,7 +2445,7 @@
         <v>230</v>
       </c>
       <c r="H1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2454,7 +2454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>34</v>
       </c>
@@ -2468,7 +2468,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2485,7 +2485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -2496,7 +2496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="27.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>231</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -2516,8 +2516,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>157</v>
       </c>
@@ -2528,10 +2528,10 @@
         <v>232</v>
       </c>
       <c r="H7" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>212</v>
       </c>
@@ -2545,21 +2545,21 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" t="s">
         <v>243</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>244</v>
       </c>
-      <c r="G9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2569,13 +2569,13 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2585,7 +2585,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2595,13 +2595,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2611,7 +2611,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2621,10 +2621,10 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
     </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
   </sheetData>
@@ -2646,14 +2646,14 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="22.109375" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>24</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
@@ -2697,7 +2697,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -2730,7 +2730,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2763,7 +2763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
@@ -2774,7 +2774,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>24</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>24</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>24</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>24</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>24</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -2862,7 +2862,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2884,7 +2884,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -2906,7 +2906,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>24</v>
       </c>
@@ -2976,20 +2976,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="56.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="26.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="57.88671875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="56.109375" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
@@ -2997,13 +2997,13 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>44</v>
       </c>
@@ -3011,10 +3011,10 @@
         <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>45</v>
       </c>
@@ -3022,10 +3022,10 @@
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>46</v>
       </c>
@@ -3033,10 +3033,10 @@
         <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>51</v>
       </c>
@@ -3044,10 +3044,10 @@
         <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -3055,10 +3055,10 @@
         <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>36</v>
       </c>
@@ -3066,13 +3066,13 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>85</v>
       </c>
@@ -3080,13 +3080,13 @@
         <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>86</v>
       </c>
@@ -3094,13 +3094,13 @@
         <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>87</v>
       </c>
@@ -3108,13 +3108,13 @@
         <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>124</v>
       </c>
@@ -3122,10 +3122,10 @@
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>42</v>
       </c>
@@ -3133,10 +3133,10 @@
         <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>58</v>
       </c>
@@ -3144,10 +3144,10 @@
         <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
@@ -3155,10 +3155,10 @@
         <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>64</v>
       </c>
@@ -3166,10 +3166,10 @@
         <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>65</v>
       </c>
@@ -3177,10 +3177,10 @@
         <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>66</v>
       </c>
@@ -3188,10 +3188,10 @@
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>67</v>
       </c>
@@ -3199,10 +3199,10 @@
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>69</v>
       </c>
@@ -3210,10 +3210,10 @@
         <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>71</v>
       </c>
@@ -3221,10 +3221,10 @@
         <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>73</v>
       </c>
@@ -3232,10 +3232,10 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>75</v>
       </c>
@@ -3243,10 +3243,10 @@
         <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>77</v>
       </c>
@@ -3254,10 +3254,10 @@
         <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>79</v>
       </c>
@@ -3265,10 +3265,10 @@
         <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
@@ -3287,10 +3287,10 @@
         <v>84</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>90</v>
       </c>
@@ -3298,10 +3298,10 @@
         <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>104</v>
       </c>
@@ -3309,10 +3309,10 @@
         <v>92</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>93</v>
       </c>
@@ -3320,10 +3320,10 @@
         <v>91</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
         <v>94</v>
       </c>
@@ -3331,10 +3331,10 @@
         <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>96</v>
       </c>
@@ -3342,10 +3342,10 @@
         <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>98</v>
       </c>
@@ -3353,10 +3353,10 @@
         <v>101</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>99</v>
       </c>
@@ -3364,10 +3364,10 @@
         <v>100</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>102</v>
       </c>
@@ -3375,10 +3375,10 @@
         <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="178.5" x14ac:dyDescent="0.2">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>105</v>
       </c>
@@ -3386,10 +3386,10 @@
         <v>106</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>107</v>
       </c>
@@ -3397,10 +3397,10 @@
         <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
         <v>111</v>
       </c>
@@ -3408,10 +3408,10 @@
         <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>110</v>
       </c>
@@ -3419,10 +3419,10 @@
         <v>112</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>113</v>
       </c>
@@ -3430,10 +3430,10 @@
         <v>114</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>115</v>
       </c>
@@ -3441,10 +3441,10 @@
         <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>117</v>
       </c>
@@ -3452,10 +3452,10 @@
         <v>118</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>119</v>
       </c>
@@ -3463,10 +3463,10 @@
         <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>121</v>
       </c>
@@ -3474,10 +3474,10 @@
         <v>122</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>123</v>
       </c>
@@ -3485,13 +3485,13 @@
         <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
@@ -3499,10 +3499,10 @@
         <v>141</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
@@ -3510,10 +3510,10 @@
         <v>127</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>128</v>
       </c>
@@ -3521,10 +3521,10 @@
         <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>130</v>
       </c>
@@ -3532,10 +3532,10 @@
         <v>131</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>132</v>
       </c>
@@ -3543,10 +3543,10 @@
         <v>133</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>136</v>
       </c>
@@ -3554,10 +3554,10 @@
         <v>134</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>137</v>
       </c>
@@ -3565,10 +3565,10 @@
         <v>97</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>138</v>
       </c>
@@ -3576,10 +3576,10 @@
         <v>135</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>139</v>
       </c>
@@ -3587,10 +3587,10 @@
         <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>140</v>
       </c>
@@ -3598,10 +3598,10 @@
         <v>142</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>143</v>
       </c>
@@ -3609,10 +3609,10 @@
         <v>144</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>146</v>
       </c>
@@ -3620,10 +3620,10 @@
         <v>145</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>150</v>
       </c>
@@ -3631,10 +3631,10 @@
         <v>148</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>151</v>
       </c>
@@ -3642,10 +3642,10 @@
         <v>149</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>152</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>153</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -3672,30 +3672,30 @@
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="18.140625" customWidth="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="D1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ODKWorkspace\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randy\Desktop\app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0E4BD-EB3A-489C-B168-0B2EEAB61E03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25608" windowHeight="16068" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="5" r:id="rId1"/>
@@ -505,18 +506,9 @@
     <t>Are you sure you want to exit and lose all changes?</t>
   </si>
   <si>
-    <t>display.title.text.english</t>
-  </si>
-  <si>
-    <t>display.locale.text.english</t>
-  </si>
-  <si>
     <t>English</t>
   </si>
   <si>
-    <t>english</t>
-  </si>
-  <si>
     <t>exampleForm</t>
   </si>
   <si>
@@ -679,15 +671,9 @@
     <t>'?' +  odkSurvey.getHashString('maleClients','partner6Month')</t>
   </si>
   <si>
-    <t>hindi</t>
-  </si>
-  <si>
     <t>Hindi</t>
   </si>
   <si>
-    <t>Hindi (as hindi name)</t>
-  </si>
-  <si>
     <t>Geotagger</t>
   </si>
   <si>
@@ -730,18 +716,9 @@
     <t>Partner 6 Month</t>
   </si>
   <si>
-    <t>display.title.text.hindi</t>
-  </si>
-  <si>
-    <t>display.locale.text.hindi</t>
-  </si>
-  <si>
     <t>सामान्य जावास्क्रिप्ट फ़्रेमवर्क</t>
   </si>
   <si>
-    <t>English (as hindi name)</t>
-  </si>
-  <si>
     <t>स्वीकार करना</t>
   </si>
   <si>
@@ -770,9 +747,6 @@
   </si>
   <si>
     <t>Spanish</t>
-  </si>
-  <si>
-    <t>Spanish (as hindi name)</t>
   </si>
   <si>
     <t>Español</t>
@@ -965,11 +939,38 @@
   <si>
     <t>text.hi</t>
   </si>
+  <si>
+    <t>display.title.text.en</t>
+  </si>
+  <si>
+    <t>display.locale.text.en</t>
+  </si>
+  <si>
+    <t>en</t>
+  </si>
+  <si>
+    <t>hi</t>
+  </si>
+  <si>
+    <t>display.title.text.hi</t>
+  </si>
+  <si>
+    <t>display.locale.text.hi</t>
+  </si>
+  <si>
+    <t>हिंदी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">स्पेनिश </t>
+  </si>
+  <si>
+    <t>अंग्रेज़ी</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1403,6 +1404,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1438,6 +1456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1613,11 +1648,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1650,10 +1685,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I88"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1746,14 +1781,14 @@
     </row>
     <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>28</v>
@@ -1771,14 +1806,14 @@
     </row>
     <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>28</v>
@@ -1796,14 +1831,14 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B14" s="5"/>
     </row>
     <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>28</v>
@@ -1821,14 +1856,14 @@
     </row>
     <row r="17" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>28</v>
@@ -1846,14 +1881,14 @@
     </row>
     <row r="20" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>28</v>
@@ -1871,13 +1906,13 @@
     </row>
     <row r="23" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>28</v>
@@ -1895,13 +1930,13 @@
     </row>
     <row r="26" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>28</v>
@@ -1919,13 +1954,13 @@
     </row>
     <row r="29" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>28</v>
@@ -1943,13 +1978,13 @@
     </row>
     <row r="32" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>28</v>
@@ -1967,13 +2002,13 @@
     </row>
     <row r="35" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>28</v>
@@ -1991,13 +2026,13 @@
     </row>
     <row r="38" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>28</v>
@@ -2015,13 +2050,13 @@
     </row>
     <row r="41" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>28</v>
@@ -2039,13 +2074,13 @@
     </row>
     <row r="44" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E45" s="4" t="s">
         <v>28</v>
@@ -2063,13 +2098,13 @@
     </row>
     <row r="47" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E48" s="4" t="s">
         <v>28</v>
@@ -2087,13 +2122,13 @@
     </row>
     <row r="50" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E51" s="4" t="s">
         <v>28</v>
@@ -2111,13 +2146,13 @@
     </row>
     <row r="53" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>28</v>
@@ -2135,13 +2170,13 @@
     </row>
     <row r="56" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E57" s="4" t="s">
         <v>28</v>
@@ -2159,13 +2194,13 @@
     </row>
     <row r="59" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="6" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>28</v>
@@ -2183,13 +2218,13 @@
     </row>
     <row r="62" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="6" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>28</v>
@@ -2207,13 +2242,13 @@
     </row>
     <row r="65" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="6" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>28</v>
@@ -2231,13 +2266,13 @@
     </row>
     <row r="68" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="6" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E69" s="4" t="s">
         <v>28</v>
@@ -2255,13 +2290,13 @@
     </row>
     <row r="71" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>28</v>
@@ -2279,13 +2314,13 @@
     </row>
     <row r="74" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>28</v>
@@ -2303,13 +2338,13 @@
     </row>
     <row r="77" spans="1:7" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="62.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>28</v>
@@ -2327,13 +2362,13 @@
     </row>
     <row r="80" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E81" s="4" t="s">
         <v>28</v>
@@ -2351,13 +2386,13 @@
     </row>
     <row r="83" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>28</v>
@@ -2375,13 +2410,13 @@
     </row>
     <row r="86" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="57.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E87" s="4" t="s">
         <v>28</v>
@@ -2409,11 +2444,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2430,22 +2465,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>154</v>
+        <v>294</v>
       </c>
       <c r="D1" t="s">
-        <v>229</v>
+        <v>298</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F1" t="s">
-        <v>155</v>
+        <v>295</v>
       </c>
       <c r="G1" t="s">
-        <v>230</v>
+        <v>299</v>
       </c>
       <c r="H1" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="I1" t="s">
         <v>0</v>
@@ -2504,10 +2539,10 @@
         <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I5" t="s">
         <v>13</v>
@@ -2519,44 +2554,44 @@
     <row r="6" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H7" t="s">
         <v>232</v>
-      </c>
-      <c r="H7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F9" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G9" t="s">
-        <v>243</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2639,7 +2674,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2669,10 +2704,10 @@
         <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2680,10 +2715,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,10 +2726,10 @@
         <v>24</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -2702,10 +2737,10 @@
         <v>24</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -2713,10 +2748,10 @@
         <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -2724,10 +2759,10 @@
         <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -2735,10 +2770,10 @@
         <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -2746,10 +2781,10 @@
         <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -2757,10 +2792,10 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C10" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -2768,10 +2803,10 @@
         <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C11" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -2779,10 +2814,10 @@
         <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -2790,10 +2825,10 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -2801,10 +2836,10 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C14" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2812,10 +2847,10 @@
         <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2823,10 +2858,10 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2834,10 +2869,10 @@
         <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2845,10 +2880,10 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2856,10 +2891,10 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C19" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2867,10 +2902,10 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2878,10 +2913,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C21" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2889,10 +2924,10 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C22" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,10 +2935,10 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2911,10 +2946,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2922,10 +2957,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2933,10 +2968,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C26" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2944,10 +2979,10 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2955,10 +2990,10 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C28" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2973,10 +3008,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2997,10 +3032,10 @@
         <v>54</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3011,7 +3046,7 @@
         <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3022,7 +3057,7 @@
         <v>48</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3033,7 +3068,7 @@
         <v>49</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3044,7 +3079,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3055,7 +3090,7 @@
         <v>52</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3066,10 +3101,10 @@
         <v>37</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -3080,10 +3115,10 @@
         <v>39</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -3094,10 +3129,10 @@
         <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3108,10 +3143,10 @@
         <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,7 +3157,7 @@
         <v>41</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
@@ -3133,7 +3168,7 @@
         <v>43</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -3144,7 +3179,7 @@
         <v>57</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3155,7 +3190,7 @@
         <v>59</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3166,7 +3201,7 @@
         <v>60</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3177,7 +3212,7 @@
         <v>61</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3188,7 +3223,7 @@
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -3199,7 +3234,7 @@
         <v>68</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -3210,7 +3245,7 @@
         <v>70</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,7 +3256,7 @@
         <v>72</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -3232,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -3243,7 +3278,7 @@
         <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -3254,7 +3289,7 @@
         <v>78</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,7 +3300,7 @@
         <v>80</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -3287,7 +3322,7 @@
         <v>84</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -3298,7 +3333,7 @@
         <v>89</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3309,7 +3344,7 @@
         <v>92</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3320,7 +3355,7 @@
         <v>91</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -3331,7 +3366,7 @@
         <v>95</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3342,7 +3377,7 @@
         <v>97</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3353,7 +3388,7 @@
         <v>101</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3364,7 +3399,7 @@
         <v>100</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3375,7 +3410,7 @@
         <v>103</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="184.8" x14ac:dyDescent="0.25">
@@ -3386,7 +3421,7 @@
         <v>106</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3397,7 +3432,7 @@
         <v>108</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3408,7 +3443,7 @@
         <v>109</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3419,7 +3454,7 @@
         <v>112</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3430,7 +3465,7 @@
         <v>114</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3441,7 +3476,7 @@
         <v>116</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3452,7 +3487,7 @@
         <v>118</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3463,7 +3498,7 @@
         <v>120</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3474,7 +3509,7 @@
         <v>122</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3485,10 +3520,10 @@
         <v>38</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3499,7 +3534,7 @@
         <v>141</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3510,7 +3545,7 @@
         <v>127</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3521,7 +3556,7 @@
         <v>129</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3532,7 +3567,7 @@
         <v>131</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3543,7 +3578,7 @@
         <v>133</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3554,7 +3589,7 @@
         <v>134</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3565,7 +3600,7 @@
         <v>97</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3576,7 +3611,7 @@
         <v>135</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="26.4" x14ac:dyDescent="0.25">
@@ -3587,7 +3622,7 @@
         <v>127</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3598,7 +3633,7 @@
         <v>142</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3609,7 +3644,7 @@
         <v>144</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3620,7 +3655,7 @@
         <v>145</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3631,7 +3666,7 @@
         <v>148</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3642,7 +3677,7 @@
         <v>149</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3653,7 +3688,7 @@
         <v>153</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3668,7 +3703,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3689,13 +3724,13 @@
         <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D1" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="E1" t="s">
         <v>54</v>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RC2\modules\app-designer\app\config\assets\framework\forms\framework\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\assets\framework\forms\framework\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="847">
   <si>
     <t>comments</t>
   </si>
@@ -2586,6 +2586,18 @@
   </si>
   <si>
     <t>'?' + odkSurvey.getHashString('ex_beneficiary_units_form')</t>
+  </si>
+  <si>
+    <t>no_distributions</t>
+  </si>
+  <si>
+    <t>No Distributions</t>
+  </si>
+  <si>
+    <t>choose_distribution</t>
+  </si>
+  <si>
+    <t>Choose Distribution</t>
   </si>
 </sst>
 </file>
@@ -3082,7 +3094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -3230,10 +3242,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G159"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -5076,6 +5088,22 @@
       </c>
       <c r="F159" s="7" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="20" t="s">
+        <v>843</v>
+      </c>
+      <c r="B160" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="20" t="s">
+        <v>845</v>
+      </c>
+      <c r="B161" t="s">
+        <v>846</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="847">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="850">
   <si>
     <t>comments</t>
   </si>
@@ -2598,6 +2598,15 @@
   </si>
   <si>
     <t>Choose Distribution</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('colombia_delivery')</t>
+  </si>
+  <si>
+    <t>colombia</t>
+  </si>
+  <si>
+    <t>Colombia Delivery</t>
   </si>
 </sst>
 </file>
@@ -2623,13 +2632,13 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2642,7 +2651,7 @@
       <sz val="14"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3064,14 +3073,14 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="3" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3079,7 +3088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -3092,25 +3101,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="7" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="38.26953125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="30.7265625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.7265625" customWidth="1"/>
+    <col min="7" max="8" width="30.7265625" customWidth="1"/>
+    <col min="9" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3137,7 +3146,7 @@
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>10</v>
       </c>
@@ -3146,7 +3155,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -3157,13 +3166,13 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>16</v>
       </c>
@@ -3174,23 +3183,23 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>841</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="23" t="s">
         <v>842</v>
@@ -3202,20 +3211,20 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="23" t="s">
         <v>25</v>
@@ -3227,10 +3236,35 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="23" t="s">
+        <v>847</v>
+      </c>
+      <c r="E15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3244,21 +3278,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B161" sqref="B161"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.28515625" customWidth="1"/>
-    <col min="2" max="2" width="49.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.140625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.140625" style="4" customWidth="1"/>
-    <col min="6" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.26953125" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="3" max="3" width="62.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="4" customWidth="1"/>
+    <col min="6" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -3278,7 +3312,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3298,7 +3332,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3318,7 +3352,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3330,7 +3364,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3351,7 +3385,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3362,7 +3396,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -3373,17 +3407,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3403,7 +3437,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3423,7 +3457,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3443,7 +3477,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3463,7 +3497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3474,7 +3508,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3485,7 +3519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3496,7 +3530,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -3507,7 +3541,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3527,7 +3561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
@@ -3538,7 +3572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>86</v>
       </c>
@@ -3549,17 +3583,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3579,7 +3613,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3599,7 +3633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -3610,7 +3644,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3621,7 +3655,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3641,7 +3675,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3661,15 +3695,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -3689,7 +3723,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3709,7 +3743,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -3729,7 +3763,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -3740,7 +3774,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3751,7 +3785,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>143</v>
       </c>
@@ -3762,17 +3796,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3793,7 +3827,7 @@
       </c>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3813,7 +3847,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -3824,7 +3858,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3835,7 +3869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -3855,7 +3889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3875,7 +3909,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -3886,7 +3920,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -3897,7 +3931,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -3917,7 +3951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>187</v>
       </c>
@@ -3928,7 +3962,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>190</v>
       </c>
@@ -3939,7 +3973,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -3950,7 +3984,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -3961,7 +3995,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -3972,7 +4006,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -3983,7 +4017,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -3994,7 +4028,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -4005,7 +4039,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -4016,7 +4050,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -4027,7 +4061,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4038,7 +4072,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -4049,16 +4083,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -4070,7 +4104,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>226</v>
       </c>
@@ -4081,15 +4115,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4100,7 +4134,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -4111,7 +4145,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -4122,15 +4156,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -4150,7 +4184,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -4161,7 +4195,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -4181,7 +4215,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>253</v>
       </c>
@@ -4192,7 +4226,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>256</v>
       </c>
@@ -4203,7 +4237,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>259</v>
       </c>
@@ -4214,7 +4248,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -4234,7 +4268,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>268</v>
       </c>
@@ -4254,10 +4288,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>274</v>
       </c>
@@ -4268,7 +4302,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>277</v>
       </c>
@@ -4279,7 +4313,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>280</v>
       </c>
@@ -4299,7 +4333,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>286</v>
       </c>
@@ -4319,13 +4353,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>292</v>
       </c>
@@ -4336,7 +4370,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>295</v>
       </c>
@@ -4347,7 +4381,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>298</v>
       </c>
@@ -4358,7 +4392,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>301</v>
       </c>
@@ -4369,7 +4403,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>304</v>
       </c>
@@ -4380,13 +4414,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>307</v>
       </c>
@@ -4397,7 +4431,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>310</v>
       </c>
@@ -4408,7 +4442,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>313</v>
       </c>
@@ -4419,7 +4453,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>316</v>
       </c>
@@ -4430,7 +4464,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>319</v>
       </c>
@@ -4441,7 +4475,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>322</v>
       </c>
@@ -4452,7 +4486,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>325</v>
       </c>
@@ -4463,7 +4497,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>328</v>
       </c>
@@ -4474,7 +4508,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>331</v>
       </c>
@@ -4485,14 +4519,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="12"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>334</v>
       </c>
@@ -4503,7 +4537,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>337</v>
       </c>
@@ -4514,7 +4548,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>340</v>
       </c>
@@ -4525,7 +4559,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>343</v>
       </c>
@@ -4536,7 +4570,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>346</v>
       </c>
@@ -4547,7 +4581,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>349</v>
       </c>
@@ -4558,10 +4592,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="16" t="s">
         <v>352</v>
       </c>
@@ -4572,7 +4606,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>355</v>
       </c>
@@ -4583,7 +4617,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="16" t="s">
         <v>358</v>
       </c>
@@ -4594,7 +4628,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
         <v>361</v>
       </c>
@@ -4605,10 +4639,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="16" t="s">
         <v>364</v>
       </c>
@@ -4619,7 +4653,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="16" t="s">
         <v>367</v>
       </c>
@@ -4630,7 +4664,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="16" t="s">
         <v>370</v>
       </c>
@@ -4641,7 +4675,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="16" t="s">
         <v>373</v>
       </c>
@@ -4652,7 +4686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="16" t="s">
         <v>376</v>
       </c>
@@ -4663,7 +4697,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="16" t="s">
         <v>379</v>
       </c>
@@ -4674,7 +4708,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="16" t="s">
         <v>382</v>
       </c>
@@ -4694,7 +4728,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="16" t="s">
         <v>388</v>
       </c>
@@ -4714,7 +4748,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="16" t="s">
         <v>394</v>
       </c>
@@ -4734,7 +4768,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="16" t="s">
         <v>400</v>
       </c>
@@ -4745,7 +4779,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="16" t="s">
         <v>403</v>
       </c>
@@ -4756,7 +4790,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>406</v>
       </c>
@@ -4767,10 +4801,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="16" t="s">
         <v>409</v>
       </c>
@@ -4781,7 +4815,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="17" t="s">
         <v>6</v>
       </c>
@@ -4792,7 +4826,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="17" t="s">
         <v>414</v>
       </c>
@@ -4803,7 +4837,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="17" t="s">
         <v>417</v>
       </c>
@@ -4814,7 +4848,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" s="17" t="s">
         <v>420</v>
       </c>
@@ -4825,7 +4859,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="18" t="s">
         <v>423</v>
       </c>
@@ -4836,7 +4870,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="19" t="s">
         <v>426</v>
       </c>
@@ -4847,7 +4881,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="12" t="s">
         <v>429</v>
       </c>
@@ -4858,7 +4892,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="12" t="s">
         <v>432</v>
       </c>
@@ -4869,15 +4903,15 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="12"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="12"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>435</v>
       </c>
@@ -4888,7 +4922,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>438</v>
       </c>
@@ -4899,7 +4933,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -4910,7 +4944,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -4921,7 +4955,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>447</v>
       </c>
@@ -4932,7 +4966,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>450</v>
       </c>
@@ -4943,7 +4977,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="20" t="s">
         <v>453</v>
       </c>
@@ -4954,11 +4988,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="20"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="16" t="s">
         <v>456</v>
       </c>
@@ -4969,7 +5003,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="16" t="s">
         <v>459</v>
       </c>
@@ -4980,7 +5014,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="16" t="s">
         <v>462</v>
       </c>
@@ -4991,7 +5025,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="16" t="s">
         <v>465</v>
       </c>
@@ -5002,7 +5036,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="16" t="s">
         <v>468</v>
       </c>
@@ -5013,7 +5047,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="16" t="s">
         <v>471</v>
       </c>
@@ -5024,7 +5058,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="16" t="s">
         <v>474</v>
       </c>
@@ -5035,7 +5069,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="16" t="s">
         <v>477</v>
       </c>
@@ -5046,7 +5080,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="16" t="s">
         <v>480</v>
       </c>
@@ -5057,7 +5091,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="16" t="s">
         <v>483</v>
       </c>
@@ -5068,7 +5102,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="16" t="s">
         <v>486</v>
       </c>
@@ -5079,7 +5113,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="16" t="s">
         <v>489</v>
       </c>
@@ -5090,7 +5124,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" s="20" t="s">
         <v>843</v>
       </c>
@@ -5098,7 +5132,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" s="20" t="s">
         <v>845</v>
       </c>
@@ -5121,18 +5155,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.42578125" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" customWidth="1"/>
-    <col min="6" max="6" width="56.140625" style="21" customWidth="1"/>
-    <col min="7" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="38.453125" customWidth="1"/>
+    <col min="2" max="2" width="41.7265625" customWidth="1"/>
+    <col min="3" max="3" width="18.26953125" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="56.1796875" style="21" customWidth="1"/>
+    <col min="7" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5152,7 +5186,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>521</v>
       </c>
@@ -5172,7 +5206,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>527</v>
       </c>
@@ -5192,7 +5226,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -5212,7 +5246,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -5232,7 +5266,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>545</v>
       </c>
@@ -5252,7 +5286,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>551</v>
       </c>
@@ -5272,7 +5306,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>557</v>
       </c>
@@ -5292,7 +5326,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>563</v>
       </c>
@@ -5312,7 +5346,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>569</v>
       </c>
@@ -5332,7 +5366,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>575</v>
       </c>
@@ -5352,7 +5386,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>581</v>
       </c>
@@ -5372,7 +5406,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>584</v>
       </c>
@@ -5392,7 +5426,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>590</v>
       </c>
@@ -5412,7 +5446,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>596</v>
       </c>
@@ -5432,7 +5466,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>602</v>
       </c>
@@ -5452,7 +5486,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>608</v>
       </c>
@@ -5472,7 +5506,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>614</v>
       </c>
@@ -5492,7 +5526,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>620</v>
       </c>
@@ -5512,7 +5546,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>626</v>
       </c>
@@ -5532,7 +5566,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>632</v>
       </c>
@@ -5552,7 +5586,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -5572,7 +5606,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>644</v>
       </c>
@@ -5592,7 +5626,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>650</v>
       </c>
@@ -5612,7 +5646,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>656</v>
       </c>
@@ -5632,7 +5666,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>661</v>
       </c>
@@ -5652,7 +5686,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>667</v>
       </c>
@@ -5672,7 +5706,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -5686,7 +5720,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>676</v>
       </c>
@@ -5700,7 +5734,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>679</v>
       </c>
@@ -5720,7 +5754,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>685</v>
       </c>
@@ -5740,12 +5774,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>691</v>
       </c>
@@ -5765,7 +5799,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>697</v>
       </c>
@@ -5785,7 +5819,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>703</v>
       </c>
@@ -5805,7 +5839,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="179.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="176" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>709</v>
       </c>
@@ -5819,7 +5853,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>711</v>
       </c>
@@ -5839,7 +5873,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>717</v>
       </c>
@@ -5859,7 +5893,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>723</v>
       </c>
@@ -5879,7 +5913,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>729</v>
       </c>
@@ -5899,7 +5933,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>735</v>
       </c>
@@ -5919,7 +5953,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>741</v>
       </c>
@@ -5939,7 +5973,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>747</v>
       </c>
@@ -5959,7 +5993,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>751</v>
       </c>
@@ -5979,7 +6013,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>756</v>
       </c>
@@ -5999,7 +6033,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>762</v>
       </c>
@@ -6019,7 +6053,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>768</v>
       </c>
@@ -6039,7 +6073,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>774</v>
       </c>
@@ -6059,7 +6093,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>780</v>
       </c>
@@ -6079,7 +6113,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>785</v>
       </c>
@@ -6099,7 +6133,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>790</v>
       </c>
@@ -6119,7 +6153,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>795</v>
       </c>
@@ -6139,7 +6173,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>796</v>
       </c>
@@ -6159,7 +6193,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>802</v>
       </c>
@@ -6179,7 +6213,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>804</v>
       </c>
@@ -6194,7 +6228,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>806</v>
       </c>
@@ -6209,7 +6243,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>810</v>
       </c>
@@ -6224,7 +6258,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>814</v>
       </c>
@@ -6237,7 +6271,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>817</v>
       </c>
@@ -6250,7 +6284,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>820</v>
       </c>
@@ -6277,19 +6311,19 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="7" width="8.7109375" customWidth="1"/>
-    <col min="8" max="8" width="26.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="11" width="21.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.85546875" customWidth="1"/>
-    <col min="13" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.54296875" customWidth="1"/>
+    <col min="2" max="2" width="20.81640625" customWidth="1"/>
+    <col min="3" max="7" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="26.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
+    <col min="10" max="11" width="21.7265625" customWidth="1"/>
+    <col min="12" max="12" width="21.81640625" customWidth="1"/>
+    <col min="13" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>492</v>
       </c>
@@ -6333,7 +6367,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>500</v>
       </c>
@@ -6351,7 +6385,7 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>502</v>
       </c>
@@ -6372,7 +6406,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>504</v>
       </c>
@@ -6383,7 +6417,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -6410,7 +6444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>829</v>
       </c>
@@ -6430,7 +6464,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>828</v>
       </c>
@@ -6456,7 +6490,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>830</v>
       </c>
@@ -6482,7 +6516,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>831</v>
       </c>
@@ -6508,7 +6542,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>832</v>
       </c>
@@ -6534,7 +6568,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>516</v>
       </c>
@@ -6547,21 +6581,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.7265625" customWidth="1"/>
+    <col min="4" max="1025" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>517</v>
       </c>
@@ -6572,7 +6606,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -6583,7 +6617,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -6592,6 +6626,17 @@
       </c>
       <c r="C3" t="s">
         <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>848</v>
+      </c>
+      <c r="C4" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="853">
   <si>
     <t>comments</t>
   </si>
@@ -2607,6 +2607,15 @@
   </si>
   <si>
     <t>Colombia Delivery</t>
+  </si>
+  <si>
+    <t>register</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Registrar</t>
   </si>
 </sst>
 </file>
@@ -3073,11 +3082,11 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
-    <col min="3" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
+    <col min="3" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,19 +3116,19 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.54296875" customWidth="1"/>
-    <col min="2" max="2" width="38.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.7265625" customWidth="1"/>
-    <col min="4" max="4" width="30.7265625" customWidth="1"/>
-    <col min="5" max="5" width="13.453125" customWidth="1"/>
-    <col min="6" max="6" width="14.7265625" customWidth="1"/>
-    <col min="7" max="8" width="30.7265625" customWidth="1"/>
-    <col min="9" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="38.21875" customWidth="1"/>
+    <col min="3" max="3" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="7" max="8" width="30.77734375" customWidth="1"/>
+    <col min="9" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3155,7 +3164,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -3276,23 +3285,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView topLeftCell="A146" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="30.26953125" customWidth="1"/>
-    <col min="2" max="2" width="49.453125" customWidth="1"/>
-    <col min="3" max="3" width="62.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.26953125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" style="4" customWidth="1"/>
-    <col min="6" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.21875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" style="4" customWidth="1"/>
+    <col min="6" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -3312,7 +3321,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3332,7 +3341,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3352,7 +3361,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3364,7 +3373,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3385,7 +3394,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3396,7 +3405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -3407,17 +3416,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3437,7 +3446,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3457,7 +3466,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3477,7 +3486,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3497,7 +3506,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3508,7 +3517,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3519,7 +3528,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3530,7 +3539,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -3541,7 +3550,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3561,7 +3570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
@@ -3572,7 +3581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>86</v>
       </c>
@@ -3583,17 +3592,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3613,7 +3622,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3655,7 +3664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3675,7 +3684,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3695,15 +3704,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -3723,7 +3732,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3743,7 +3752,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -3763,7 +3772,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -3774,7 +3783,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3785,7 +3794,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>143</v>
       </c>
@@ -3796,17 +3805,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3827,7 +3836,7 @@
       </c>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -3858,7 +3867,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3869,7 +3878,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -3889,7 +3898,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3909,7 +3918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -3920,7 +3929,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -3931,7 +3940,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -3951,7 +3960,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>187</v>
       </c>
@@ -3962,7 +3971,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>190</v>
       </c>
@@ -3973,7 +3982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -4006,7 +4015,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -4017,7 +4026,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -4039,7 +4048,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -4050,7 +4059,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -4061,7 +4070,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4072,7 +4081,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -4083,16 +4092,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B60" s="3"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -4104,7 +4113,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="12" t="s">
         <v>226</v>
       </c>
@@ -4115,15 +4124,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="12"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="12"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4134,7 +4143,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -4145,7 +4154,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -4156,15 +4165,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -4184,7 +4193,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -4195,7 +4204,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -4215,7 +4224,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="12" t="s">
         <v>253</v>
       </c>
@@ -4226,7 +4235,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="12" t="s">
         <v>256</v>
       </c>
@@ -4237,7 +4246,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="12" t="s">
         <v>259</v>
       </c>
@@ -4248,7 +4257,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -4268,7 +4277,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>268</v>
       </c>
@@ -4288,10 +4297,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>274</v>
       </c>
@@ -4302,7 +4311,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>277</v>
       </c>
@@ -4313,7 +4322,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>280</v>
       </c>
@@ -4333,7 +4342,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>286</v>
       </c>
@@ -4353,13 +4362,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>292</v>
       </c>
@@ -4370,7 +4379,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="12" t="s">
         <v>295</v>
       </c>
@@ -4381,7 +4390,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="12" t="s">
         <v>298</v>
       </c>
@@ -4392,7 +4401,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="12" t="s">
         <v>301</v>
       </c>
@@ -4403,7 +4412,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="12" t="s">
         <v>304</v>
       </c>
@@ -4414,13 +4423,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="12" t="s">
         <v>307</v>
       </c>
@@ -4431,7 +4440,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="12" t="s">
         <v>310</v>
       </c>
@@ -4442,7 +4451,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>313</v>
       </c>
@@ -4453,7 +4462,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
         <v>316</v>
       </c>
@@ -4464,7 +4473,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
         <v>319</v>
       </c>
@@ -4475,7 +4484,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
         <v>322</v>
       </c>
@@ -4486,7 +4495,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="12" t="s">
         <v>325</v>
       </c>
@@ -4497,7 +4506,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
         <v>328</v>
       </c>
@@ -4508,7 +4517,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
         <v>331</v>
       </c>
@@ -4519,14 +4528,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="12"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>334</v>
       </c>
@@ -4537,7 +4546,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>337</v>
       </c>
@@ -4548,7 +4557,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>340</v>
       </c>
@@ -4559,7 +4568,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>343</v>
       </c>
@@ -4570,7 +4579,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>346</v>
       </c>
@@ -4581,7 +4590,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>349</v>
       </c>
@@ -4592,10 +4601,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="16" t="s">
         <v>352</v>
       </c>
@@ -4606,7 +4615,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="16" t="s">
         <v>355</v>
       </c>
@@ -4617,7 +4626,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="16" t="s">
         <v>358</v>
       </c>
@@ -4628,7 +4637,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="16" t="s">
         <v>361</v>
       </c>
@@ -4639,10 +4648,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="16" t="s">
         <v>364</v>
       </c>
@@ -4653,7 +4662,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
         <v>367</v>
       </c>
@@ -4664,7 +4673,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="16" t="s">
         <v>370</v>
       </c>
@@ -4675,7 +4684,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="16" t="s">
         <v>373</v>
       </c>
@@ -4686,7 +4695,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="16" t="s">
         <v>376</v>
       </c>
@@ -4697,7 +4706,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="16" t="s">
         <v>379</v>
       </c>
@@ -4708,7 +4717,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="16" t="s">
         <v>382</v>
       </c>
@@ -4728,7 +4737,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="16" t="s">
         <v>388</v>
       </c>
@@ -4748,7 +4757,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="16" t="s">
         <v>394</v>
       </c>
@@ -4768,7 +4777,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="16" t="s">
         <v>400</v>
       </c>
@@ -4779,7 +4788,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="16" t="s">
         <v>403</v>
       </c>
@@ -4790,7 +4799,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>406</v>
       </c>
@@ -4801,10 +4810,10 @@
         <v>408</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F128" s="7"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="16" t="s">
         <v>409</v>
       </c>
@@ -4815,7 +4824,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="17" t="s">
         <v>6</v>
       </c>
@@ -4826,7 +4835,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="17" t="s">
         <v>414</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="17" t="s">
         <v>417</v>
       </c>
@@ -4848,7 +4857,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="17" t="s">
         <v>420</v>
       </c>
@@ -4859,7 +4868,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="18" t="s">
         <v>423</v>
       </c>
@@ -4870,7 +4879,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="19" t="s">
         <v>426</v>
       </c>
@@ -4881,7 +4890,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="12" t="s">
         <v>429</v>
       </c>
@@ -4892,7 +4901,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="12" t="s">
         <v>432</v>
       </c>
@@ -4903,15 +4912,15 @@
         <v>434</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="12"/>
       <c r="F138" s="7"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="12"/>
       <c r="F139" s="7"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>435</v>
       </c>
@@ -4922,7 +4931,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>438</v>
       </c>
@@ -4933,7 +4942,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -4944,7 +4953,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>444</v>
       </c>
@@ -4955,7 +4964,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>447</v>
       </c>
@@ -4966,7 +4975,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>450</v>
       </c>
@@ -4977,7 +4986,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="20" t="s">
         <v>453</v>
       </c>
@@ -4988,11 +4997,11 @@
         <v>455</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="20"/>
       <c r="F147" s="7"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="16" t="s">
         <v>456</v>
       </c>
@@ -5003,7 +5012,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="16" t="s">
         <v>459</v>
       </c>
@@ -5014,7 +5023,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="16" t="s">
         <v>462</v>
       </c>
@@ -5025,7 +5034,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="16" t="s">
         <v>465</v>
       </c>
@@ -5036,7 +5045,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="16" t="s">
         <v>468</v>
       </c>
@@ -5047,7 +5056,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="16" t="s">
         <v>471</v>
       </c>
@@ -5058,7 +5067,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="16" t="s">
         <v>474</v>
       </c>
@@ -5069,7 +5078,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="16" t="s">
         <v>477</v>
       </c>
@@ -5080,7 +5089,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="16" t="s">
         <v>480</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="16" t="s">
         <v>483</v>
       </c>
@@ -5102,7 +5111,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="16" t="s">
         <v>486</v>
       </c>
@@ -5113,7 +5122,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="16" t="s">
         <v>489</v>
       </c>
@@ -5124,7 +5133,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="20" t="s">
         <v>843</v>
       </c>
@@ -5132,12 +5141,23 @@
         <v>844</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="20" t="s">
         <v>845</v>
       </c>
       <c r="B161" t="s">
         <v>846</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="20" t="s">
+        <v>850</v>
+      </c>
+      <c r="B162" t="s">
+        <v>851</v>
+      </c>
+      <c r="F162" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -5155,18 +5175,18 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.453125" customWidth="1"/>
-    <col min="2" max="2" width="41.7265625" customWidth="1"/>
-    <col min="3" max="3" width="18.26953125" customWidth="1"/>
-    <col min="4" max="4" width="19.54296875" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" customWidth="1"/>
-    <col min="6" max="6" width="56.1796875" style="21" customWidth="1"/>
-    <col min="7" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.77734375" customWidth="1"/>
+    <col min="3" max="3" width="18.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="56.21875" style="21" customWidth="1"/>
+    <col min="7" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -5186,7 +5206,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>521</v>
       </c>
@@ -5206,7 +5226,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>527</v>
       </c>
@@ -5226,7 +5246,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>533</v>
       </c>
@@ -5246,7 +5266,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>539</v>
       </c>
@@ -5266,7 +5286,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>545</v>
       </c>
@@ -5286,7 +5306,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>551</v>
       </c>
@@ -5306,7 +5326,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>557</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>563</v>
       </c>
@@ -5346,7 +5366,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>569</v>
       </c>
@@ -5366,7 +5386,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>575</v>
       </c>
@@ -5386,7 +5406,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>581</v>
       </c>
@@ -5406,7 +5426,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>584</v>
       </c>
@@ -5426,7 +5446,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>590</v>
       </c>
@@ -5446,7 +5466,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>596</v>
       </c>
@@ -5466,7 +5486,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>602</v>
       </c>
@@ -5486,7 +5506,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>608</v>
       </c>
@@ -5506,7 +5526,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>614</v>
       </c>
@@ -5526,7 +5546,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>620</v>
       </c>
@@ -5546,7 +5566,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>626</v>
       </c>
@@ -5566,7 +5586,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>632</v>
       </c>
@@ -5586,7 +5606,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>638</v>
       </c>
@@ -5606,7 +5626,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>644</v>
       </c>
@@ -5626,7 +5646,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>650</v>
       </c>
@@ -5646,7 +5666,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>656</v>
       </c>
@@ -5666,7 +5686,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>661</v>
       </c>
@@ -5686,7 +5706,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>667</v>
       </c>
@@ -5706,7 +5726,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="28.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>673</v>
       </c>
@@ -5720,7 +5740,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="26" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>676</v>
       </c>
@@ -5734,7 +5754,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>679</v>
       </c>
@@ -5754,7 +5774,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>685</v>
       </c>
@@ -5774,12 +5794,12 @@
         <v>690</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>691</v>
       </c>
@@ -5799,7 +5819,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>697</v>
       </c>
@@ -5819,7 +5839,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>703</v>
       </c>
@@ -5839,7 +5859,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="176" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" ht="185.4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>709</v>
       </c>
@@ -5853,7 +5873,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>711</v>
       </c>
@@ -5873,7 +5893,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>717</v>
       </c>
@@ -5893,7 +5913,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>723</v>
       </c>
@@ -5913,7 +5933,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>729</v>
       </c>
@@ -5933,7 +5953,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>735</v>
       </c>
@@ -5953,7 +5973,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>741</v>
       </c>
@@ -5973,7 +5993,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>747</v>
       </c>
@@ -5993,7 +6013,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>751</v>
       </c>
@@ -6013,7 +6033,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>756</v>
       </c>
@@ -6033,7 +6053,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>762</v>
       </c>
@@ -6053,7 +6073,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>768</v>
       </c>
@@ -6073,7 +6093,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>774</v>
       </c>
@@ -6093,7 +6113,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>780</v>
       </c>
@@ -6113,7 +6133,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>785</v>
       </c>
@@ -6133,7 +6153,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>790</v>
       </c>
@@ -6153,7 +6173,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>795</v>
       </c>
@@ -6173,7 +6193,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>796</v>
       </c>
@@ -6193,7 +6213,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>802</v>
       </c>
@@ -6213,7 +6233,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>804</v>
       </c>
@@ -6228,7 +6248,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>806</v>
       </c>
@@ -6243,7 +6263,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>810</v>
       </c>
@@ -6258,7 +6278,7 @@
         <v>813</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>814</v>
       </c>
@@ -6271,7 +6291,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>817</v>
       </c>
@@ -6284,7 +6304,7 @@
         <v>819</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="17.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>820</v>
       </c>
@@ -6311,16 +6331,15 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.54296875" customWidth="1"/>
-    <col min="2" max="2" width="20.81640625" customWidth="1"/>
-    <col min="3" max="7" width="8.7265625" customWidth="1"/>
-    <col min="8" max="8" width="26.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" customWidth="1"/>
-    <col min="10" max="11" width="21.7265625" customWidth="1"/>
-    <col min="12" max="12" width="21.81640625" customWidth="1"/>
-    <col min="13" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="30.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="7" width="8.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="9" max="9" width="26.21875" customWidth="1"/>
+    <col min="10" max="12" width="21.77734375" customWidth="1"/>
+    <col min="13" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6417,7 +6436,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>506</v>
       </c>
@@ -6583,16 +6602,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
-    <col min="2" max="2" width="27.7265625" customWidth="1"/>
-    <col min="3" max="3" width="26.7265625" customWidth="1"/>
-    <col min="4" max="1025" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="1025" width="8.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">

--- a/app/config/assets/framework/forms/framework/framework.xlsx
+++ b/app/config/assets/framework/forms/framework/framework.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8200" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">common_translations!$A$1:$F$103</definedName>
   </definedNames>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="853">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="947" uniqueCount="859">
   <si>
     <t>comments</t>
   </si>
@@ -2603,9 +2603,6 @@
     <t>'?' + odkSurvey.getHashString('colombia_delivery')</t>
   </si>
   <si>
-    <t>colombia</t>
-  </si>
-  <si>
     <t>Colombia Delivery</t>
   </si>
   <si>
@@ -2616,6 +2613,27 @@
   </si>
   <si>
     <t>Registrar</t>
+  </si>
+  <si>
+    <t>colombia_delivery</t>
+  </si>
+  <si>
+    <t>colombia_registration</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('colombia_registration')</t>
+  </si>
+  <si>
+    <t>Colombia Registration</t>
+  </si>
+  <si>
+    <t>colombia_delivery_demo</t>
+  </si>
+  <si>
+    <t>'?' + odkSurvey.getHashString('colombia_delivery_demo')</t>
+  </si>
+  <si>
+    <t>Simple Colombia Delivery</t>
   </si>
 </sst>
 </file>
@@ -3082,11 +3100,11 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
-    <col min="2" max="2" width="12.77734375" customWidth="1"/>
-    <col min="3" max="1025" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" customWidth="1"/>
+    <col min="3" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -3110,25 +3128,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="38.21875" customWidth="1"/>
-    <col min="3" max="3" width="8.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="5" max="5" width="13.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
-    <col min="7" max="8" width="30.77734375" customWidth="1"/>
-    <col min="9" max="1025" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="23.54296875" customWidth="1"/>
+    <col min="2" max="2" width="38.1796875" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" customWidth="1"/>
+    <col min="4" max="4" width="30.81640625" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="7" max="8" width="30.81640625" customWidth="1"/>
+    <col min="9" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -3164,7 +3182,7 @@
       </c>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="1:9" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3272,7 @@
     </row>
     <row r="14" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B14" s="3"/>
     </row>
@@ -3274,6 +3292,56 @@
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="23" t="s">
+        <v>854</v>
+      </c>
+      <c r="E18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="23" t="s">
+        <v>857</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3287,21 +3355,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="G160" sqref="G160"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.21875" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" customWidth="1"/>
-    <col min="3" max="3" width="62.21875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" style="4" customWidth="1"/>
-    <col min="6" max="1025" width="8.77734375" customWidth="1"/>
+    <col min="1" max="1" width="30.1796875" customWidth="1"/>
+    <col min="2" max="2" width="49.453125" customWidth="1"/>
+    <col min="3" max="3" width="62.1796875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.1796875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" style="4" customWidth="1"/>
+    <col min="6" max="1025" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>26</v>
       </c>
@@ -3321,7 +3389,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -3341,7 +3409,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>21</v>
       </c>
@@ -3361,7 +3429,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -3373,7 +3441,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -3394,7 +3462,7 @@
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3405,7 +3473,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>51</v>
       </c>
@@ -3416,17 +3484,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -3446,7 +3514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>59</v>
       </c>
@@ -3466,7 +3534,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>63</v>
       </c>
@@ -3486,7 +3554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3506,7 +3574,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>70</v>
       </c>
@@ -3517,7 +3585,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>72</v>
       </c>
@@ -3528,7 +3596,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>74</v>
       </c>
@@ -3539,7 +3607,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>76</v>
       </c>
@@ -3550,7 +3618,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>78</v>
       </c>
@@ -3570,7 +3638,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>83</v>
       </c>
@@ -3581,7 +3649,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>86</v>
       </c>
@@ -3592,17 +3660,17 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="F21" s="13"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -3622,7 +3690,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>95</v>
       </c>
@@ -3642,7 +3710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>101</v>
       </c>
@@ -3653,7 +3721,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>104</v>
       </c>
@@ -3664,7 +3732,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -3684,7 +3752,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>113</v>
       </c>
@@ -3704,15 +3772,15 @@
         <v>118</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F29" s="7"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
       <c r="F30" s="13"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -3732,7 +3800,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -3752,7 +3820,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>131</v>
       </c>
@@ -3772,7 +3840,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>137</v>
       </c>
@@ -3783,7 +3851,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3794,7 +3862,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>143</v>
       </c>
@@ -3805,17 +3873,17 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="F37" s="7"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="F38" s="7"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>146</v>
       </c>
@@ -3836,7 +3904,7 @@
       </c>
       <c r="G39" s="14"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>152</v>
       </c>
@@ -3856,7 +3924,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>158</v>
       </c>
@@ -3867,7 +3935,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>161</v>
       </c>
@@ -3878,7 +3946,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>164</v>
       </c>
@@ -3898,7 +3966,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -3918,7 +3986,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>176</v>
       </c>
@@ -3929,7 +3997,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>178</v>
       </c>
@@ -3940,7 +4008,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>181</v>
       </c>
@@ -3960,7 +4028,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="12" t="s">
         <v>187</v>
       </c>
@@ -3971,7 +4039,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="12" t="s">
         <v>190</v>
       </c>
@@ -3982,7 +4050,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>193</v>
       </c>
@@ -3993,7 +4061,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>196</v>
       </c>
@@ -4004,7 +4072,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>199</v>
       </c>
@@ -4015,7 +4083,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>202</v>
       </c>
@@ -4026,7 +4094,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>205</v>
       </c>
@@ -4037,7 +4105,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>208</v>
       </c>
@@ -4048,7 +4116,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>211</v>
       </c>
@@ -4059,7 +4127,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>214</v>
       </c>
@@ -4070,7 +4138,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -4081,7 +4149,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>220</v>
       </c>
@@ -4092,16 +4160,16 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B60" s="3"/>
       <c r="F60" s="7"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="F61" s="7"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>223</v>
       </c>
@@ -4113,7 +4181,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="12" t="s">
         <v>226</v>
       </c>
@@ -4124,15 +4192,15 @@
         <v>228</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="12"/>
       <c r="F64" s="7"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="12"/>
       <c r="F65" s="7"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>229</v>
       </c>
@@ -4143,7 +4211,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>232</v>
       </c>
@@ -4154,7 +4222,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>235</v>
       </c>
@@ -4165,15 +4233,15 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F69" s="7"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="F70" s="7"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>238</v>
       </c>
@@ -4193,7 +4261,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>244</v>
       </c>
@@ -4204,7 +4272,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="35" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>247</v>
       </c>
@@ -4224,7 +4292,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="12" t="s">
         <v>253</v>
       </c>
@@ -4235,7 +4303,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="12" t="s">
         <v>256</v>
       </c>
@@ -4246,7 +4314,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="12" t="s">
         <v>259</v>
       </c>
@@ -4257,7 +4325,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>262</v>
       </c>
@@ -4277,7 +4345,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>268</v>
       </c>
@@ -4297,10 +4365,10 @@
         <v>273</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F79" s="7"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>274</v>
       </c>
@@ -4311,7 +4379,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>277</v>
       </c>
@@ -4322,7 +4390,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>280</v>
       </c>
@@ -4342,7 +4410,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>286</v>
       </c>
@@ -4362,13 +4430,13 @@
         <v>291</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F84" s="7"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F85" s="7"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="12" t="s">
         <v>292</v>
       </c>
@@ -4379,7 +4447,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="12" t="s">
         <v>295</v>
       </c>
@@ -4390,7 +4458,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="12" t="s">
         <v>298</v>
       </c>
@@ -4401,7 +4469,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="12" t="s">
         <v>301</v>
       </c>
@@ -4412,7 +4480,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="12" t="s">
         <v>304</v>
       </c>
@@ -4423,13 +4491,13 @@
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F91" s="7"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F92" s="7"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="12" t="s">
         <v>307</v>
       </c>
@@ -4440,7 +4508,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="12" t="s">
         <v>310</v>
       </c>
@@ -4451,7 +4519,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>313</v>
       </c>
@@ -4462,7 +4530,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="12" t="s">
         <v>316</v>
       </c>
@@ -4473,7 +4541,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="12" t="s">
         <v>319</v>
       </c>
@@ -4484,7 +4552,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" s="12" t="s">
         <v>322</v>
       </c>
@@ -4495,7 +4563,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="12" t="s">
         <v>325</v>
       </c>
@@ -4506,7 +4574,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="12" t="s">
         <v>328</v>
       </c>
@@ -4517,7 +4585,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="12" t="s">
         <v>331</v>
       </c>
@@ -4528,14 +4596,14 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="12"/>
       <c r="F102" s="7"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F103" s="7"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>334</v>
       </c>
@@ -4546,7 +4614,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>337</v>
       </c>
@@ -4557,7 +4625,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>340</v>
       </c>
@@ -4568,7 +4636,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>343</v>
       </c>
@@ -4579,7 +4647,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>346</v>
       </c>
@@ -4590,7 +4658,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>349</v>
       </c>
@@ -4601,10 +4669,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F110" s="7"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="16" t="s">
         <v>352</v>
       </c>
@@ -4615,7 +4683,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="16" t="s">
         <v>355</v>
       </c>
@@ -4626,7 +4694,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="16" t="s">
         <v>358</v>
       </c>
@@ -4637,7 +4705,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="16" t="s">
         <v>361</v>
       </c>
@@ -4648,10 +4716,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="F115" s="7"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="16" t="s">
         <v>364</v>
       </c>
@@ -4662,7 +4730,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="16" t="s">
         <v>367</v>
       </c>
@@ -4673,7 +4741,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="16" t="s">
         <v>370</v>
       </c>
